--- a/Stock/US_Stock.xlsx
+++ b/Stock/US_Stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA84AD7-5C84-4774-AAD1-3F4AEFE91DE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8544F9-ACF5-4EAD-AE83-E3BCDCE24169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="14" r:id="rId1"/>
@@ -43,14 +43,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -2227,7 +2227,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2382,6 +2382,12 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2700,33 +2706,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B4BCA-42DA-4C85-9005-E70B6BE65D74}">
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q4" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.23046875" customWidth="1"/>
+    <col min="1" max="1" width="15.234375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="12.84375" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="20.765625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.53515625" customWidth="1"/>
-    <col min="8" max="8" width="16.23046875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.3046875" customWidth="1"/>
-    <col min="11" max="11" width="13.765625" customWidth="1"/>
-    <col min="12" max="12" width="23.53515625" customWidth="1"/>
-    <col min="13" max="13" width="22.3046875" customWidth="1"/>
-    <col min="14" max="14" width="20.23046875" customWidth="1"/>
-    <col min="15" max="15" width="30.07421875" customWidth="1"/>
-    <col min="16" max="16" width="39.23046875" customWidth="1"/>
-    <col min="17" max="18" width="23.765625" customWidth="1"/>
-    <col min="19" max="19" width="27.765625" customWidth="1"/>
-    <col min="20" max="21" width="23.765625" customWidth="1"/>
-    <col min="22" max="22" width="76.07421875" customWidth="1"/>
+    <col min="3" max="3" width="12.8203125" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="20.76171875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.52734375" customWidth="1"/>
+    <col min="8" max="8" width="16.234375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.76171875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.29296875" customWidth="1"/>
+    <col min="11" max="11" width="13.76171875" customWidth="1"/>
+    <col min="12" max="12" width="23.52734375" customWidth="1"/>
+    <col min="13" max="13" width="22.29296875" customWidth="1"/>
+    <col min="14" max="14" width="20.234375" customWidth="1"/>
+    <col min="15" max="15" width="30.05859375" customWidth="1"/>
+    <col min="16" max="16" width="39.234375" customWidth="1"/>
+    <col min="17" max="18" width="23.76171875" customWidth="1"/>
+    <col min="19" max="19" width="27.76171875" customWidth="1"/>
+    <col min="20" max="21" width="23.76171875" customWidth="1"/>
+    <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" ht="15.75">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -2798,117 +2804,117 @@
       <c r="A2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="54" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="55">
+      <c r="H2" s="111">
         <v>1360</v>
       </c>
-      <c r="I2" s="55">
+      <c r="I2" s="111">
         <v>40.58</v>
       </c>
-      <c r="J2" s="56">
+      <c r="J2" s="109">
         <v>31.11</v>
       </c>
-      <c r="K2" s="56">
+      <c r="K2" s="109">
         <v>14.47</v>
       </c>
-      <c r="L2" s="56">
+      <c r="L2" s="109">
         <v>24.21</v>
       </c>
-      <c r="M2" s="56">
+      <c r="M2" s="109">
         <v>21.96</v>
       </c>
-      <c r="N2" s="56">
+      <c r="N2" s="109">
         <v>10.16</v>
       </c>
-      <c r="O2" s="57">
+      <c r="O2" s="112">
         <v>7.8E-2</v>
       </c>
-      <c r="P2" s="57">
+      <c r="P2" s="112">
         <v>0.14069999999999999</v>
       </c>
-      <c r="Q2" s="57">
+      <c r="Q2" s="112">
         <v>0.45700000000000002</v>
       </c>
-      <c r="R2" s="57">
+      <c r="R2" s="112">
         <v>0.4289</v>
       </c>
-      <c r="S2" s="57">
+      <c r="S2" s="112">
         <v>0.79149999999999998</v>
       </c>
-      <c r="T2" s="56">
+      <c r="T2" s="109">
         <v>2.77</v>
       </c>
-      <c r="U2" s="55">
+      <c r="U2" s="111">
         <v>963190</v>
       </c>
-      <c r="V2" s="68" t="s">
+      <c r="V2" s="113" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="18"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="111">
         <v>1180</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="111">
         <v>21.65</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="109">
         <v>103.22</v>
       </c>
-      <c r="K3" s="56">
+      <c r="K3" s="109">
         <v>21.36</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="109">
         <v>35.200000000000003</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="109">
         <v>31.65</v>
       </c>
-      <c r="N3" s="56">
+      <c r="N3" s="109">
         <v>4.1900000000000004</v>
       </c>
-      <c r="O3" s="57">
+      <c r="O3" s="112">
         <v>0.2581</v>
       </c>
-      <c r="P3" s="57">
+      <c r="P3" s="112">
         <v>0.50409999999999999</v>
       </c>
-      <c r="Q3" s="57">
+      <c r="Q3" s="112">
         <v>0.13020000000000001</v>
       </c>
-      <c r="R3" s="57">
+      <c r="R3" s="112">
         <v>0.2107</v>
       </c>
-      <c r="S3" s="57">
+      <c r="S3" s="112">
         <v>1.2494000000000001</v>
       </c>
-      <c r="T3" s="56">
+      <c r="T3" s="109">
         <v>2.12</v>
       </c>
-      <c r="U3" s="55">
+      <c r="U3" s="111">
         <v>371270</v>
       </c>
-      <c r="V3" s="68" t="s">
+      <c r="V3" s="113" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3048,10 +3054,10 @@
       <c r="G6" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="88">
+      <c r="H6" s="103">
         <v>511.19</v>
       </c>
-      <c r="I6" s="88">
+      <c r="I6" s="103">
         <v>21.21</v>
       </c>
       <c r="J6" s="88">
@@ -3069,25 +3075,25 @@
       <c r="N6" s="88">
         <v>7.24</v>
       </c>
-      <c r="O6" s="88">
+      <c r="O6" s="101">
         <v>0.41489999999999999</v>
       </c>
-      <c r="P6" s="88">
+      <c r="P6" s="101">
         <v>0.42099999999999999</v>
       </c>
-      <c r="Q6" s="88">
+      <c r="Q6" s="101">
         <v>0.49120000000000003</v>
       </c>
-      <c r="R6" s="88">
+      <c r="R6" s="101">
         <v>0.19969999999999999</v>
       </c>
-      <c r="S6" s="88">
+      <c r="S6" s="101">
         <v>0.10489999999999999</v>
       </c>
       <c r="T6" s="88">
         <v>4.67</v>
       </c>
-      <c r="U6" s="88">
+      <c r="U6" s="108">
         <v>1632260</v>
       </c>
       <c r="V6" s="84" t="s">
@@ -3244,7 +3250,7 @@
       <c r="G10" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="93">
+      <c r="H10" s="97">
         <v>68.739999999999995</v>
       </c>
       <c r="I10" s="93"/>
@@ -3259,25 +3265,25 @@
       <c r="N10" s="93">
         <v>42.63</v>
       </c>
-      <c r="O10" s="93">
+      <c r="O10" s="96">
         <v>0.71940000000000004</v>
       </c>
-      <c r="P10" s="93">
+      <c r="P10" s="96">
         <v>0.38279999999999997</v>
       </c>
-      <c r="Q10" s="93">
+      <c r="Q10" s="96">
         <v>-6.6799999999999998E-2</v>
       </c>
-      <c r="R10" s="93">
+      <c r="R10" s="96">
         <v>-4.9299999999999997E-2</v>
       </c>
-      <c r="S10" s="93">
+      <c r="S10" s="96">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="T10" s="93">
         <v>10.65</v>
       </c>
-      <c r="U10" s="93">
+      <c r="U10" s="95">
         <v>315630</v>
       </c>
       <c r="V10" s="89" t="s">
@@ -3296,10 +3302,10 @@
       <c r="G11" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="91">
         <v>11.1</v>
       </c>
-      <c r="I11" s="82">
+      <c r="I11" s="81">
         <v>2.4E-2</v>
       </c>
       <c r="J11" s="82">
@@ -3317,25 +3323,25 @@
       <c r="N11" s="82">
         <v>16.62</v>
       </c>
-      <c r="O11" s="82">
+      <c r="O11" s="83">
         <v>0.71509999999999996</v>
       </c>
-      <c r="P11" s="82">
+      <c r="P11" s="83">
         <v>1.8495999999999999</v>
       </c>
-      <c r="Q11" s="82">
+      <c r="Q11" s="83">
         <v>0.20250000000000001</v>
       </c>
-      <c r="R11" s="82">
+      <c r="R11" s="83">
         <v>0.2094</v>
       </c>
-      <c r="S11" s="82">
+      <c r="S11" s="83">
         <v>0.30930000000000002</v>
       </c>
       <c r="T11" s="82">
         <v>1.61</v>
       </c>
-      <c r="U11" s="82">
+      <c r="U11" s="81">
         <v>504620</v>
       </c>
       <c r="V11" s="84" t="s">
@@ -3387,7 +3393,7 @@
       <c r="T12" s="45">
         <v>2.62</v>
       </c>
-      <c r="U12" s="74">
+      <c r="U12" s="98">
         <v>684190</v>
       </c>
       <c r="V12" s="13" t="s">
@@ -3402,10 +3408,10 @@
       <c r="G13" t="s">
         <v>71</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="69">
         <v>7.92</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="69">
         <v>2.274E-2</v>
       </c>
       <c r="J13">
@@ -3423,25 +3429,25 @@
       <c r="N13">
         <v>18.55</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="46">
         <v>0.50670000000000004</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="46">
         <v>0.11360000000000001</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="46">
         <v>0.111</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="46">
         <v>7.3899999999999993E-2</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="46">
         <v>1.7283999999999999</v>
       </c>
       <c r="T13">
         <v>2.8</v>
       </c>
-      <c r="U13" s="76">
+      <c r="U13" s="69">
         <v>348260</v>
       </c>
       <c r="V13" s="13" t="s">
@@ -3493,7 +3499,7 @@
       <c r="T14" s="45">
         <v>1.1200000000000001</v>
       </c>
-      <c r="U14" s="74">
+      <c r="U14" s="98">
         <v>419880</v>
       </c>
       <c r="V14" s="13" t="s">
@@ -3545,7 +3551,7 @@
       <c r="T15" s="45">
         <v>8.56</v>
       </c>
-      <c r="U15" s="74">
+      <c r="U15" s="98">
         <v>390520</v>
       </c>
       <c r="V15" s="13" t="s">
@@ -3601,7 +3607,7 @@
       <c r="T16" s="12">
         <v>3.63</v>
       </c>
-      <c r="U16" s="44">
+      <c r="U16" s="24">
         <v>245920</v>
       </c>
       <c r="V16" s="13" t="s">
@@ -6214,13 +6220,13 @@
       <selection activeCell="U191" sqref="U191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="9.23046875" style="62"/>
-    <col min="5" max="5" width="12.61328125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="9.23046875" style="62"/>
-    <col min="7" max="7" width="14.765625" style="62" customWidth="1"/>
-    <col min="8" max="16384" width="9.23046875" style="62"/>
+    <col min="1" max="4" width="9.234375" style="62"/>
+    <col min="5" max="5" width="12.5859375" style="62" customWidth="1"/>
+    <col min="6" max="6" width="9.234375" style="62"/>
+    <col min="7" max="7" width="14.76171875" style="62" customWidth="1"/>
+    <col min="8" max="16384" width="9.234375" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -30448,7 +30454,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
@@ -34138,28 +34144,28 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.23046875" customWidth="1"/>
+    <col min="1" max="1" width="15.234375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="12.84375" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="20.765625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.53515625" customWidth="1"/>
-    <col min="8" max="8" width="16.23046875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.3046875" customWidth="1"/>
-    <col min="11" max="11" width="13.765625" customWidth="1"/>
-    <col min="12" max="13" width="23.53515625" customWidth="1"/>
-    <col min="14" max="14" width="20.23046875" customWidth="1"/>
-    <col min="15" max="15" width="30.07421875" customWidth="1"/>
-    <col min="16" max="16" width="39.23046875" customWidth="1"/>
-    <col min="17" max="18" width="23.765625" customWidth="1"/>
-    <col min="19" max="19" width="27.765625" customWidth="1"/>
-    <col min="20" max="21" width="23.765625" customWidth="1"/>
-    <col min="22" max="22" width="76.07421875" customWidth="1"/>
+    <col min="3" max="3" width="12.8203125" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="20.76171875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.52734375" customWidth="1"/>
+    <col min="8" max="8" width="16.234375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.76171875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.29296875" customWidth="1"/>
+    <col min="11" max="11" width="13.76171875" customWidth="1"/>
+    <col min="12" max="13" width="23.52734375" customWidth="1"/>
+    <col min="14" max="14" width="20.234375" customWidth="1"/>
+    <col min="15" max="15" width="30.05859375" customWidth="1"/>
+    <col min="16" max="16" width="39.234375" customWidth="1"/>
+    <col min="17" max="18" width="23.76171875" customWidth="1"/>
+    <col min="19" max="19" width="27.76171875" customWidth="1"/>
+    <col min="20" max="21" width="23.76171875" customWidth="1"/>
+    <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" ht="15.75">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -35171,28 +35177,28 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.23046875" customWidth="1"/>
+    <col min="1" max="1" width="15.234375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="12.84375" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="20.765625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.53515625" customWidth="1"/>
-    <col min="8" max="8" width="16.23046875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.3046875" customWidth="1"/>
-    <col min="11" max="11" width="13.765625" customWidth="1"/>
-    <col min="12" max="13" width="21.15234375" customWidth="1"/>
-    <col min="14" max="14" width="20.23046875" customWidth="1"/>
-    <col min="15" max="15" width="30.07421875" customWidth="1"/>
-    <col min="16" max="16" width="39.23046875" customWidth="1"/>
-    <col min="17" max="18" width="23.765625" customWidth="1"/>
-    <col min="19" max="19" width="27.765625" customWidth="1"/>
-    <col min="20" max="21" width="23.765625" customWidth="1"/>
-    <col min="22" max="22" width="76.07421875" customWidth="1"/>
+    <col min="3" max="3" width="12.8203125" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="20.76171875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.52734375" customWidth="1"/>
+    <col min="8" max="8" width="16.234375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.76171875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.29296875" customWidth="1"/>
+    <col min="11" max="11" width="13.76171875" customWidth="1"/>
+    <col min="12" max="13" width="21.17578125" customWidth="1"/>
+    <col min="14" max="14" width="20.234375" customWidth="1"/>
+    <col min="15" max="15" width="30.05859375" customWidth="1"/>
+    <col min="16" max="16" width="39.234375" customWidth="1"/>
+    <col min="17" max="18" width="23.76171875" customWidth="1"/>
+    <col min="19" max="19" width="27.76171875" customWidth="1"/>
+    <col min="20" max="21" width="23.76171875" customWidth="1"/>
+    <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" ht="15.75">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -38653,29 +38659,29 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.765625" customWidth="1"/>
+    <col min="1" max="1" width="20.76171875" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="12.84375" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="20.765625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.53515625" customWidth="1"/>
-    <col min="8" max="8" width="16.23046875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.3046875" customWidth="1"/>
-    <col min="11" max="11" width="13.765625" customWidth="1"/>
-    <col min="12" max="13" width="23.53515625" customWidth="1"/>
-    <col min="14" max="14" width="20.23046875" customWidth="1"/>
-    <col min="15" max="15" width="30.07421875" customWidth="1"/>
-    <col min="16" max="16" width="39.23046875" customWidth="1"/>
-    <col min="17" max="18" width="23.765625" customWidth="1"/>
-    <col min="19" max="19" width="27.765625" customWidth="1"/>
-    <col min="20" max="20" width="23.765625" customWidth="1"/>
-    <col min="21" max="21" width="23.765625" style="76" customWidth="1"/>
-    <col min="22" max="22" width="76.07421875" customWidth="1"/>
+    <col min="3" max="3" width="12.8203125" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="20.76171875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.52734375" customWidth="1"/>
+    <col min="8" max="8" width="16.234375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.76171875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.29296875" customWidth="1"/>
+    <col min="11" max="11" width="13.76171875" customWidth="1"/>
+    <col min="12" max="13" width="23.52734375" customWidth="1"/>
+    <col min="14" max="14" width="20.234375" customWidth="1"/>
+    <col min="15" max="15" width="30.05859375" customWidth="1"/>
+    <col min="16" max="16" width="39.234375" customWidth="1"/>
+    <col min="17" max="18" width="23.76171875" customWidth="1"/>
+    <col min="19" max="19" width="27.76171875" customWidth="1"/>
+    <col min="20" max="20" width="23.76171875" customWidth="1"/>
+    <col min="21" max="21" width="23.76171875" style="76" customWidth="1"/>
+    <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" ht="15.75">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -39605,28 +39611,28 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.23046875" customWidth="1"/>
+    <col min="1" max="1" width="15.234375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="12.84375" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="20.765625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.53515625" customWidth="1"/>
-    <col min="8" max="8" width="16.23046875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.3046875" customWidth="1"/>
-    <col min="11" max="11" width="13.765625" customWidth="1"/>
-    <col min="12" max="13" width="23.53515625" customWidth="1"/>
-    <col min="14" max="14" width="20.23046875" customWidth="1"/>
-    <col min="15" max="15" width="30.07421875" customWidth="1"/>
-    <col min="16" max="16" width="39.23046875" customWidth="1"/>
-    <col min="17" max="18" width="23.765625" customWidth="1"/>
-    <col min="19" max="19" width="27.765625" customWidth="1"/>
-    <col min="20" max="21" width="23.765625" customWidth="1"/>
-    <col min="22" max="22" width="76.07421875" customWidth="1"/>
+    <col min="3" max="3" width="12.8203125" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="20.76171875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.52734375" customWidth="1"/>
+    <col min="8" max="8" width="16.234375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.76171875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.29296875" customWidth="1"/>
+    <col min="11" max="11" width="13.76171875" customWidth="1"/>
+    <col min="12" max="13" width="23.52734375" customWidth="1"/>
+    <col min="14" max="14" width="20.234375" customWidth="1"/>
+    <col min="15" max="15" width="30.05859375" customWidth="1"/>
+    <col min="16" max="16" width="39.234375" customWidth="1"/>
+    <col min="17" max="18" width="23.76171875" customWidth="1"/>
+    <col min="19" max="19" width="27.76171875" customWidth="1"/>
+    <col min="20" max="21" width="23.76171875" customWidth="1"/>
+    <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" ht="15.75">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -40366,28 +40372,28 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.23046875" customWidth="1"/>
+    <col min="1" max="1" width="15.234375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="12.84375" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="20.765625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.53515625" customWidth="1"/>
-    <col min="8" max="8" width="16.23046875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.3046875" customWidth="1"/>
-    <col min="11" max="11" width="13.765625" customWidth="1"/>
-    <col min="12" max="13" width="23.53515625" customWidth="1"/>
-    <col min="14" max="14" width="20.23046875" customWidth="1"/>
-    <col min="15" max="15" width="30.07421875" customWidth="1"/>
-    <col min="16" max="16" width="39.23046875" customWidth="1"/>
-    <col min="17" max="18" width="23.765625" customWidth="1"/>
-    <col min="19" max="19" width="27.765625" customWidth="1"/>
-    <col min="20" max="21" width="23.765625" customWidth="1"/>
-    <col min="22" max="22" width="76.07421875" customWidth="1"/>
+    <col min="3" max="3" width="12.8203125" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="20.76171875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.52734375" customWidth="1"/>
+    <col min="8" max="8" width="16.234375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.76171875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.29296875" customWidth="1"/>
+    <col min="11" max="11" width="13.76171875" customWidth="1"/>
+    <col min="12" max="13" width="23.52734375" customWidth="1"/>
+    <col min="14" max="14" width="20.234375" customWidth="1"/>
+    <col min="15" max="15" width="30.05859375" customWidth="1"/>
+    <col min="16" max="16" width="39.234375" customWidth="1"/>
+    <col min="17" max="18" width="23.76171875" customWidth="1"/>
+    <col min="19" max="19" width="27.76171875" customWidth="1"/>
+    <col min="20" max="21" width="23.76171875" customWidth="1"/>
+    <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" ht="15.75">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -41608,32 +41614,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7612E97-4D94-4070-BE89-A5C4CC24AB2D}">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.23046875" customWidth="1"/>
+    <col min="1" max="1" width="15.234375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="12.84375" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="20.765625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.53515625" customWidth="1"/>
-    <col min="8" max="8" width="16.23046875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.3046875" customWidth="1"/>
-    <col min="11" max="11" width="13.765625" customWidth="1"/>
-    <col min="12" max="13" width="23.53515625" customWidth="1"/>
-    <col min="14" max="14" width="20.23046875" customWidth="1"/>
-    <col min="15" max="15" width="30.07421875" customWidth="1"/>
-    <col min="16" max="16" width="39.23046875" customWidth="1"/>
-    <col min="17" max="18" width="23.765625" customWidth="1"/>
-    <col min="19" max="19" width="27.765625" customWidth="1"/>
-    <col min="20" max="21" width="23.765625" customWidth="1"/>
-    <col min="22" max="22" width="76.07421875" customWidth="1"/>
+    <col min="3" max="3" width="12.8203125" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="20.76171875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.52734375" customWidth="1"/>
+    <col min="8" max="8" width="16.234375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.76171875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.29296875" customWidth="1"/>
+    <col min="11" max="11" width="13.76171875" customWidth="1"/>
+    <col min="12" max="13" width="23.52734375" customWidth="1"/>
+    <col min="14" max="14" width="20.234375" customWidth="1"/>
+    <col min="15" max="15" width="30.05859375" customWidth="1"/>
+    <col min="16" max="16" width="39.234375" customWidth="1"/>
+    <col min="17" max="18" width="23.76171875" customWidth="1"/>
+    <col min="19" max="19" width="27.76171875" customWidth="1"/>
+    <col min="20" max="21" width="23.76171875" customWidth="1"/>
+    <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" ht="15.75">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -42817,28 +42823,28 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.23046875" customWidth="1"/>
+    <col min="1" max="1" width="15.234375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="12.84375" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="20.765625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.53515625" customWidth="1"/>
-    <col min="8" max="8" width="16.23046875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.3046875" customWidth="1"/>
-    <col min="11" max="11" width="13.765625" customWidth="1"/>
-    <col min="12" max="13" width="23.53515625" customWidth="1"/>
-    <col min="14" max="14" width="20.23046875" customWidth="1"/>
-    <col min="15" max="15" width="30.07421875" customWidth="1"/>
-    <col min="16" max="16" width="39.23046875" customWidth="1"/>
-    <col min="17" max="18" width="23.765625" customWidth="1"/>
-    <col min="19" max="19" width="27.765625" customWidth="1"/>
-    <col min="20" max="21" width="23.765625" customWidth="1"/>
-    <col min="22" max="22" width="76.07421875" customWidth="1"/>
+    <col min="3" max="3" width="12.8203125" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="20.76171875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.52734375" customWidth="1"/>
+    <col min="8" max="8" width="16.234375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.76171875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.29296875" customWidth="1"/>
+    <col min="11" max="11" width="13.76171875" customWidth="1"/>
+    <col min="12" max="13" width="23.52734375" customWidth="1"/>
+    <col min="14" max="14" width="20.234375" customWidth="1"/>
+    <col min="15" max="15" width="30.05859375" customWidth="1"/>
+    <col min="16" max="16" width="39.234375" customWidth="1"/>
+    <col min="17" max="18" width="23.76171875" customWidth="1"/>
+    <col min="19" max="19" width="27.76171875" customWidth="1"/>
+    <col min="20" max="21" width="23.76171875" customWidth="1"/>
+    <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" ht="15.75">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -43882,28 +43888,28 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.23046875" customWidth="1"/>
+    <col min="1" max="1" width="15.234375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="12.84375" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="20.765625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.53515625" customWidth="1"/>
-    <col min="8" max="8" width="16.23046875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.3046875" customWidth="1"/>
-    <col min="11" max="11" width="13.765625" customWidth="1"/>
-    <col min="12" max="13" width="23.53515625" customWidth="1"/>
-    <col min="14" max="14" width="20.23046875" customWidth="1"/>
-    <col min="15" max="15" width="30.07421875" customWidth="1"/>
-    <col min="16" max="16" width="39.23046875" customWidth="1"/>
-    <col min="17" max="18" width="23.765625" customWidth="1"/>
-    <col min="19" max="19" width="27.765625" customWidth="1"/>
-    <col min="20" max="21" width="23.765625" customWidth="1"/>
-    <col min="22" max="22" width="76.07421875" customWidth="1"/>
+    <col min="3" max="3" width="12.8203125" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="20.76171875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.52734375" customWidth="1"/>
+    <col min="8" max="8" width="16.234375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.76171875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.29296875" customWidth="1"/>
+    <col min="11" max="11" width="13.76171875" customWidth="1"/>
+    <col min="12" max="13" width="23.52734375" customWidth="1"/>
+    <col min="14" max="14" width="20.234375" customWidth="1"/>
+    <col min="15" max="15" width="30.05859375" customWidth="1"/>
+    <col min="16" max="16" width="39.234375" customWidth="1"/>
+    <col min="17" max="18" width="23.76171875" customWidth="1"/>
+    <col min="19" max="19" width="27.76171875" customWidth="1"/>
+    <col min="20" max="21" width="23.76171875" customWidth="1"/>
+    <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" ht="15.75">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>

--- a/Stock/US_Stock.xlsx
+++ b/Stock/US_Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8544F9-ACF5-4EAD-AE83-E3BCDCE24169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3C2FC6-9D6E-4666-ABE6-D5595D0DC86D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,14 +43,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="635">
   <si>
     <t>代码</t>
   </si>
@@ -1965,6 +1965,12 @@
   </si>
   <si>
     <t>CALL OF DUTY</t>
+  </si>
+  <si>
+    <t>LAM RESEARCH CORP</t>
+  </si>
+  <si>
+    <t>LRCX</t>
   </si>
 </sst>
 </file>
@@ -2706,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B4BCA-42DA-4C85-9005-E70B6BE65D74}">
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="Q41" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="W67" sqref="W67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42817,10 +42823,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B19A25B-F1A6-4E6B-99E7-465E22F90C14}">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43725,7 +43731,7 @@
       </c>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="19"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="11" t="s">
         <v>500</v>
       </c>
@@ -43779,52 +43785,86 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="17"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="10"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="H20" s="24">
+        <v>36.56</v>
+      </c>
+      <c r="I20" s="24">
+        <v>1.98</v>
+      </c>
+      <c r="J20" s="42">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K20" s="42">
+        <v>7.84</v>
+      </c>
+      <c r="L20" s="35">
+        <v>15.39</v>
+      </c>
+      <c r="M20" s="35">
+        <v>14.23</v>
+      </c>
+      <c r="N20" s="42">
+        <v>3.78</v>
+      </c>
+      <c r="O20" s="21">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="P20" s="21">
+        <v>0.22020000000000001</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>0.2913</v>
+      </c>
+      <c r="R20" s="21">
+        <v>0.45269999999999999</v>
+      </c>
+      <c r="S20" s="21">
+        <v>1.1568000000000001</v>
+      </c>
+      <c r="T20" s="45">
+        <v>3.71</v>
+      </c>
+      <c r="U20" s="74">
+        <v>898510</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="18"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="13"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="10"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="18"/>
@@ -43836,11 +43876,11 @@
       <c r="G22" s="34"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="35"/>
       <c r="M22" s="35"/>
-      <c r="N22" s="12"/>
+      <c r="N22" s="42"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
@@ -43851,28 +43891,52 @@
       <c r="V22" s="13"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="19"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="16"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="13"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="19"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stock/US_Stock.xlsx
+++ b/Stock/US_Stock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3C2FC6-9D6E-4666-ABE6-D5595D0DC86D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF74D9F7-F7B5-44D7-AD47-184274BE309F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="649">
   <si>
     <t>代码</t>
   </si>
@@ -1971,6 +1971,48 @@
   </si>
   <si>
     <t>LRCX</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>IQIYI INC</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>58.COM INC</t>
+  </si>
+  <si>
+    <t>WUBA</t>
+  </si>
+  <si>
+    <t>Commnunity</t>
+  </si>
+  <si>
+    <t>HUYA INC</t>
+  </si>
+  <si>
+    <t>HUYA</t>
+  </si>
+  <si>
+    <t>Live Show</t>
+  </si>
+  <si>
+    <t>DOUYU INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>DOYU</t>
+  </si>
+  <si>
+    <t>BILIBILI INC</t>
+  </si>
+  <si>
+    <t>BILI</t>
+  </si>
+  <si>
+    <t>Streaming Video</t>
   </si>
 </sst>
 </file>
@@ -2710,10 +2752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B4BCA-42DA-4C85-9005-E70B6BE65D74}">
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q41" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="W67" sqref="W67"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection sqref="A1:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3246,7 +3288,7 @@
       <c r="A10" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="92" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="93"/>
@@ -3298,7 +3340,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="31"/>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="86" t="s">
         <v>173</v>
       </c>
       <c r="C11" s="82"/>
@@ -6211,6 +6253,400 @@
       <c r="T71" s="15"/>
       <c r="U71" s="53"/>
       <c r="V71" s="16"/>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="28" t="s">
+        <v>637</v>
+      </c>
+      <c r="H72" s="38">
+        <v>13.17</v>
+      </c>
+      <c r="I72" s="38">
+        <v>0.45469999999999999</v>
+      </c>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9">
+        <v>6.79</v>
+      </c>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9">
+        <v>-8.5</v>
+      </c>
+      <c r="N72" s="9">
+        <v>3.14</v>
+      </c>
+      <c r="O72" s="20">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="P72" s="20">
+        <v>0.1802</v>
+      </c>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20">
+        <v>-0.77149999999999996</v>
+      </c>
+      <c r="S72" s="20">
+        <v>1.7843</v>
+      </c>
+      <c r="T72" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="U72" s="43">
+        <v>468440</v>
+      </c>
+      <c r="V72" s="10" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" s="31"/>
+      <c r="B73" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="H73" s="24">
+        <v>7.76</v>
+      </c>
+      <c r="I73" s="24">
+        <v>0.60858999999999996</v>
+      </c>
+      <c r="J73" s="42">
+        <v>6.58</v>
+      </c>
+      <c r="K73" s="42">
+        <v>1.97</v>
+      </c>
+      <c r="L73" s="42">
+        <v>6.51</v>
+      </c>
+      <c r="M73" s="42">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N73" s="42">
+        <v>3.46</v>
+      </c>
+      <c r="O73" s="21">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="P73" s="21">
+        <v>1.1326000000000001</v>
+      </c>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="S73" s="21">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="T73" s="45">
+        <v>1.65</v>
+      </c>
+      <c r="U73" s="74">
+        <v>102890</v>
+      </c>
+      <c r="V73" s="13" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" s="31"/>
+      <c r="B74" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="34" t="s">
+        <v>642</v>
+      </c>
+      <c r="H74" s="24">
+        <v>3.76</v>
+      </c>
+      <c r="I74" s="24">
+        <v>0.27065</v>
+      </c>
+      <c r="J74" s="42">
+        <v>57.1</v>
+      </c>
+      <c r="K74" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="L74" s="42">
+        <v>54.83</v>
+      </c>
+      <c r="M74" s="42">
+        <v>39.01</v>
+      </c>
+      <c r="N74" s="42">
+        <v>3.07</v>
+      </c>
+      <c r="O74" s="21">
+        <v>0.5998</v>
+      </c>
+      <c r="P74" s="21">
+        <v>-3.15E-2</v>
+      </c>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="S74" s="21">
+        <v>1.17E-2</v>
+      </c>
+      <c r="T74" s="45">
+        <v>4.51</v>
+      </c>
+      <c r="U74" s="74">
+        <v>645340</v>
+      </c>
+      <c r="V74" s="13" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" s="31"/>
+      <c r="B75" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="34" t="s">
+        <v>645</v>
+      </c>
+      <c r="H75" s="24">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I75" s="24">
+        <v>0.11448</v>
+      </c>
+      <c r="J75" s="42">
+        <v>380</v>
+      </c>
+      <c r="K75" s="42">
+        <v>6.75</v>
+      </c>
+      <c r="L75" s="42">
+        <v>351.92</v>
+      </c>
+      <c r="M75" s="42">
+        <v>27.35</v>
+      </c>
+      <c r="N75" s="42">
+        <v>1.92</v>
+      </c>
+      <c r="O75" s="21">
+        <v>0.29260000000000003</v>
+      </c>
+      <c r="P75" s="21">
+        <v>-0.27039999999999997</v>
+      </c>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="S75" s="21">
+        <v>0</v>
+      </c>
+      <c r="T75" s="45">
+        <v>3.77</v>
+      </c>
+      <c r="U75" s="74">
+        <v>536960</v>
+      </c>
+      <c r="V75" s="13" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" s="31"/>
+      <c r="B76" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="34" t="s">
+        <v>647</v>
+      </c>
+      <c r="H76" s="24">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="I76" s="24">
+        <v>-1.4579999999999999E-2</v>
+      </c>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42">
+        <v>9.15</v>
+      </c>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42">
+        <v>-43.42</v>
+      </c>
+      <c r="N76" s="42">
+        <v>10.02</v>
+      </c>
+      <c r="O76" s="21">
+        <v>0.66810000000000003</v>
+      </c>
+      <c r="P76" s="21">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21">
+        <v>-0.1736</v>
+      </c>
+      <c r="S76" s="21">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="T76" s="45">
+        <v>2.42</v>
+      </c>
+      <c r="U76" s="74">
+        <v>203180</v>
+      </c>
+      <c r="V76" s="13" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" s="31"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="45"/>
+      <c r="U77" s="74"/>
+      <c r="V77" s="13"/>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" s="31"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="45"/>
+      <c r="U78" s="74"/>
+      <c r="V78" s="13"/>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" s="31"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
+      <c r="T79" s="45"/>
+      <c r="U79" s="74"/>
+      <c r="V79" s="13"/>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" s="31"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="45"/>
+      <c r="U80" s="74"/>
+      <c r="V80" s="13"/>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" s="19"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="15"/>
+      <c r="U81" s="53"/>
+      <c r="V81" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34147,7 +34583,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34292,7 +34728,7 @@
       <c r="T2" s="9">
         <v>1.17</v>
       </c>
-      <c r="U2" s="43">
+      <c r="U2" s="38">
         <v>573730</v>
       </c>
       <c r="V2" s="10" t="s">
@@ -34346,7 +34782,7 @@
       <c r="T3">
         <v>1.27</v>
       </c>
-      <c r="U3" s="76">
+      <c r="U3" s="69">
         <v>677200</v>
       </c>
       <c r="V3" s="13" t="s">
@@ -34400,7 +34836,7 @@
       <c r="T4" s="70">
         <v>3.35</v>
       </c>
-      <c r="U4" s="76">
+      <c r="U4" s="69">
         <v>1902460</v>
       </c>
       <c r="V4" s="13" t="s">
@@ -34419,10 +34855,10 @@
       <c r="G5" s="88" t="s">
         <v>386</v>
       </c>
-      <c r="H5" s="88">
+      <c r="H5" s="108">
         <v>8.09</v>
       </c>
-      <c r="I5" s="103">
+      <c r="I5" s="108">
         <v>0.51412000000000002</v>
       </c>
       <c r="J5" s="88">
@@ -34440,25 +34876,25 @@
       <c r="N5" s="88">
         <v>8.31</v>
       </c>
-      <c r="O5" s="88">
+      <c r="O5" s="101">
         <v>1.0758000000000001</v>
       </c>
-      <c r="P5" s="88">
+      <c r="P5" s="101">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="Q5" s="88">
+      <c r="Q5" s="101">
         <v>0.39040000000000002</v>
       </c>
-      <c r="R5" s="88">
+      <c r="R5" s="101">
         <v>0.20830000000000001</v>
       </c>
-      <c r="S5" s="88">
+      <c r="S5" s="101">
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="T5" s="88">
         <v>7.48</v>
       </c>
-      <c r="U5" s="103">
+      <c r="U5" s="108">
         <v>1568520</v>
       </c>
       <c r="V5" s="84" t="s">
@@ -34512,7 +34948,7 @@
       <c r="T6" s="70">
         <v>2.46</v>
       </c>
-      <c r="U6" s="76">
+      <c r="U6" s="69">
         <v>998380</v>
       </c>
       <c r="V6" s="13" t="s">
@@ -34563,7 +34999,7 @@
       <c r="T7" s="70">
         <v>0.76</v>
       </c>
-      <c r="U7" s="76">
+      <c r="U7" s="69">
         <v>454240</v>
       </c>
       <c r="V7" s="13" t="s">
@@ -34611,7 +35047,7 @@
       <c r="T8" s="70">
         <v>1.06</v>
       </c>
-      <c r="U8" s="76">
+      <c r="U8" s="69">
         <v>3023370</v>
       </c>
       <c r="V8" s="13" t="s">
@@ -34669,7 +35105,7 @@
       <c r="T9" s="70">
         <v>1.55</v>
       </c>
-      <c r="U9" s="76">
+      <c r="U9" s="69">
         <v>1108870</v>
       </c>
       <c r="V9" s="13" t="s">
@@ -34697,7 +35133,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="21"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="13"/>
     </row>
     <row r="11" spans="1:22">
@@ -34723,7 +35159,7 @@
       <c r="T11" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="53"/>
+      <c r="U11" s="39"/>
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22">
@@ -34768,7 +35204,7 @@
       <c r="T12">
         <v>1.54</v>
       </c>
-      <c r="U12" s="76">
+      <c r="U12" s="69">
         <v>299950</v>
       </c>
       <c r="V12" s="13" t="s">
@@ -34787,10 +35223,10 @@
       <c r="G13" s="82" t="s">
         <v>412</v>
       </c>
-      <c r="H13" s="82">
+      <c r="H13" s="91">
         <v>30.45</v>
       </c>
-      <c r="I13" s="82">
+      <c r="I13" s="91">
         <v>0.13450000000000001</v>
       </c>
       <c r="J13" s="82">
@@ -34808,25 +35244,25 @@
       <c r="N13" s="82">
         <v>20.57</v>
       </c>
-      <c r="O13" s="82">
+      <c r="O13" s="83">
         <v>0.43080000000000002</v>
       </c>
-      <c r="P13" s="82">
+      <c r="P13" s="83">
         <v>0.60260000000000002</v>
       </c>
-      <c r="Q13" s="82">
+      <c r="Q13" s="83">
         <v>0.13450000000000001</v>
       </c>
-      <c r="R13" s="82">
+      <c r="R13" s="83">
         <v>0.1346</v>
       </c>
-      <c r="S13" s="82">
+      <c r="S13" s="83">
         <v>1.3150999999999999</v>
       </c>
       <c r="T13" s="82">
         <v>5.99</v>
       </c>
-      <c r="U13" s="100">
+      <c r="U13" s="81">
         <v>410410</v>
       </c>
       <c r="V13" s="84" t="s">
@@ -34872,7 +35308,7 @@
       <c r="T14">
         <v>1.28</v>
       </c>
-      <c r="U14" s="76">
+      <c r="U14" s="69">
         <v>625790</v>
       </c>
       <c r="V14" s="13" t="s">
@@ -34930,7 +35366,7 @@
       <c r="T15" s="35">
         <v>1.76</v>
       </c>
-      <c r="U15" s="44">
+      <c r="U15" s="24">
         <v>165780</v>
       </c>
       <c r="V15" s="13" t="s">
@@ -34958,7 +35394,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="21"/>
       <c r="T16" s="35"/>
-      <c r="U16" s="44"/>
+      <c r="U16" s="24"/>
       <c r="V16" s="13"/>
     </row>
     <row r="17" spans="1:22">
@@ -34984,7 +35420,7 @@
       <c r="T17" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="U17" s="53"/>
+      <c r="U17" s="39"/>
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:22">
@@ -35040,7 +35476,7 @@
       <c r="T18" s="45">
         <v>5.03</v>
       </c>
-      <c r="U18" s="74">
+      <c r="U18" s="98">
         <v>181510</v>
       </c>
       <c r="V18" s="13" t="s">

--- a/Stock/US_Stock.xlsx
+++ b/Stock/US_Stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF74D9F7-F7B5-44D7-AD47-184274BE309F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56E6529-F1D7-4C4C-821A-CF6F6DA3D1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="14" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="655">
   <si>
     <t>代码</t>
   </si>
@@ -2013,6 +2013,24 @@
   </si>
   <si>
     <t>Streaming Video</t>
+  </si>
+  <si>
+    <t>FOOT LOCKER INC</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Shoes store</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>ALTRIA GROUP INC</t>
+  </si>
+  <si>
+    <t>Ciga</t>
   </si>
 </sst>
 </file>
@@ -2275,7 +2293,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2436,6 +2454,7 @@
     <xf numFmtId="8" fontId="0" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2754,7 +2773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B4BCA-42DA-4C85-9005-E70B6BE65D74}">
   <dimension ref="A1:V81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection sqref="A1:XFD80"/>
     </sheetView>
   </sheetViews>
@@ -35613,10 +35632,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554D201E-890B-41A2-9456-C006731550ED}">
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36970,1397 +36989,1403 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="18"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="16"/>
+      <c r="B24" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="H24" s="24">
+        <v>2.81</v>
+      </c>
+      <c r="I24" s="24">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="J24" s="12">
+        <v>6</v>
+      </c>
+      <c r="K24" s="42">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L24" s="42">
+        <v>4.34</v>
+      </c>
+      <c r="M24" s="42">
+        <v>3.93</v>
+      </c>
+      <c r="N24" s="45">
+        <v>0.36</v>
+      </c>
+      <c r="O24" s="85">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="P24" s="85">
+        <v>3.3E-3</v>
+      </c>
+      <c r="Q24" s="85">
+        <v>0.1116</v>
+      </c>
+      <c r="R24" s="85">
+        <v>0.1961</v>
+      </c>
+      <c r="S24" s="85">
+        <v>1.3416999999999999</v>
+      </c>
+      <c r="T24" s="45">
+        <v>1.97</v>
+      </c>
+      <c r="U24" s="98">
+        <v>156960</v>
+      </c>
+      <c r="V24" s="23" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="16"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="H25" s="24">
-        <v>193.53</v>
-      </c>
-      <c r="I25" s="24">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="J25" s="42">
-        <v>19.43</v>
-      </c>
-      <c r="K25" s="42">
-        <v>10.43</v>
-      </c>
-      <c r="L25" s="42">
-        <v>16.82</v>
-      </c>
-      <c r="M25" s="42">
-        <v>15.4</v>
-      </c>
-      <c r="N25" s="42">
-        <v>5.19</v>
-      </c>
-      <c r="O25" s="21">
-        <v>-4.1200000000000001E-2</v>
-      </c>
-      <c r="P25" s="21">
-        <v>2.6599999999999999E-2</v>
-      </c>
-      <c r="Q25" s="21">
-        <v>0.32340000000000002</v>
-      </c>
-      <c r="R25" s="21">
-        <v>0.54120000000000001</v>
-      </c>
-      <c r="S25" s="21">
-        <v>2.7753000000000001</v>
-      </c>
-      <c r="T25" s="12">
-        <v>0.84</v>
-      </c>
-      <c r="U25" s="24">
-        <v>431240</v>
-      </c>
-      <c r="V25" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="18"/>
-      <c r="B26" s="86" t="s">
-        <v>427</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="80" t="s">
-        <v>428</v>
-      </c>
-      <c r="H26" s="81">
-        <v>32.090000000000003</v>
-      </c>
-      <c r="I26" s="81">
-        <v>1.01</v>
-      </c>
-      <c r="J26" s="82">
-        <v>29.46</v>
-      </c>
-      <c r="K26" s="82">
-        <v>8.08</v>
-      </c>
-      <c r="L26" s="82">
-        <v>27.71</v>
-      </c>
-      <c r="M26" s="82">
-        <v>29.64</v>
-      </c>
-      <c r="N26" s="82">
-        <v>7.71</v>
-      </c>
-      <c r="O26" s="83">
-        <v>0.1125</v>
-      </c>
-      <c r="P26" s="83">
-        <v>0.18090000000000001</v>
-      </c>
-      <c r="Q26" s="83">
-        <v>0.35210000000000002</v>
-      </c>
-      <c r="R26" s="83">
-        <v>0.27629999999999999</v>
-      </c>
-      <c r="S26" s="83">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="T26" s="82">
-        <v>3.29</v>
-      </c>
-      <c r="U26" s="81">
-        <v>1190370</v>
-      </c>
-      <c r="V26" s="84" t="s">
-        <v>429</v>
+      <c r="G26" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="24">
+        <v>193.53</v>
+      </c>
+      <c r="I26" s="24">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="J26" s="42">
+        <v>19.43</v>
+      </c>
+      <c r="K26" s="42">
+        <v>10.43</v>
+      </c>
+      <c r="L26" s="42">
+        <v>16.82</v>
+      </c>
+      <c r="M26" s="42">
+        <v>15.4</v>
+      </c>
+      <c r="N26" s="42">
+        <v>5.19</v>
+      </c>
+      <c r="O26" s="21">
+        <v>-4.1200000000000001E-2</v>
+      </c>
+      <c r="P26" s="21">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>0.32340000000000002</v>
+      </c>
+      <c r="R26" s="21">
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="S26" s="21">
+        <v>2.7753000000000001</v>
+      </c>
+      <c r="T26" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="U26" s="24">
+        <v>431240</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="18"/>
-      <c r="B27" s="11" t="s">
-        <v>503</v>
+      <c r="B27" s="86" t="s">
+        <v>427</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="34" t="s">
-        <v>504</v>
-      </c>
-      <c r="H27" s="24">
-        <v>27.59</v>
-      </c>
-      <c r="I27" s="24">
-        <v>1.34</v>
-      </c>
-      <c r="J27" s="42">
-        <v>25.05</v>
-      </c>
-      <c r="K27" s="42">
-        <v>16.2</v>
-      </c>
-      <c r="L27" s="42">
-        <v>19.690000000000001</v>
-      </c>
-      <c r="M27" s="42">
-        <v>20.18</v>
-      </c>
-      <c r="N27" s="42">
-        <v>3.46</v>
-      </c>
-      <c r="O27" s="21">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="P27" s="21">
-        <v>6.4600000000000005E-2</v>
-      </c>
-      <c r="Q27" s="21">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="R27" s="21">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="S27" s="21">
-        <v>3.1659000000000002</v>
-      </c>
-      <c r="T27" s="35">
-        <v>0.92</v>
-      </c>
-      <c r="U27" s="24">
-        <v>496100</v>
-      </c>
-      <c r="V27" s="13" t="s">
-        <v>505</v>
+      <c r="G27" s="80" t="s">
+        <v>428</v>
+      </c>
+      <c r="H27" s="81">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="I27" s="81">
+        <v>1.01</v>
+      </c>
+      <c r="J27" s="82">
+        <v>29.46</v>
+      </c>
+      <c r="K27" s="82">
+        <v>8.08</v>
+      </c>
+      <c r="L27" s="82">
+        <v>27.71</v>
+      </c>
+      <c r="M27" s="82">
+        <v>29.64</v>
+      </c>
+      <c r="N27" s="82">
+        <v>7.71</v>
+      </c>
+      <c r="O27" s="83">
+        <v>0.1125</v>
+      </c>
+      <c r="P27" s="83">
+        <v>0.18090000000000001</v>
+      </c>
+      <c r="Q27" s="83">
+        <v>0.35210000000000002</v>
+      </c>
+      <c r="R27" s="83">
+        <v>0.27629999999999999</v>
+      </c>
+      <c r="S27" s="83">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="T27" s="82">
+        <v>3.29</v>
+      </c>
+      <c r="U27" s="81">
+        <v>1190370</v>
+      </c>
+      <c r="V27" s="84" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="18"/>
       <c r="B28" s="11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="34" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H28" s="24">
-        <v>87.76</v>
+        <v>27.59</v>
       </c>
       <c r="I28" s="24">
-        <v>8.2200000000000006</v>
+        <v>1.34</v>
       </c>
       <c r="J28" s="42">
-        <v>10.16</v>
+        <v>25.05</v>
       </c>
       <c r="K28" s="42">
-        <v>1.2</v>
+        <v>16.2</v>
       </c>
       <c r="L28" s="42">
-        <v>6.63</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="M28" s="42">
-        <v>4.9000000000000004</v>
+        <v>20.18</v>
       </c>
       <c r="N28" s="42">
-        <v>1.68</v>
+        <v>3.46</v>
       </c>
       <c r="O28" s="21">
-        <v>2.1399999999999999E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="P28" s="21">
-        <v>1.29E-2</v>
-      </c>
-      <c r="Q28" s="21"/>
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="Q28" s="21">
+        <v>0.24399999999999999</v>
+      </c>
       <c r="R28" s="21">
-        <v>0.11990000000000001</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="S28" s="21">
-        <v>1.3608</v>
+        <v>3.1659000000000002</v>
       </c>
       <c r="T28" s="35">
-        <v>0.68</v>
+        <v>0.92</v>
       </c>
       <c r="U28" s="24">
-        <v>304390</v>
+        <v>496100</v>
       </c>
       <c r="V28" s="13" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="18"/>
       <c r="B29" s="11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H29" s="24">
-        <v>58.7</v>
+        <v>87.76</v>
       </c>
       <c r="I29" s="24">
-        <v>2.95</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="J29" s="42">
-        <v>23.39</v>
-      </c>
-      <c r="K29" s="42"/>
+        <v>10.16</v>
+      </c>
+      <c r="K29" s="42">
+        <v>1.2</v>
+      </c>
       <c r="L29" s="42">
-        <v>19.27</v>
+        <v>6.63</v>
       </c>
       <c r="M29" s="42">
-        <v>17.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N29" s="42">
-        <v>3.69</v>
+        <v>1.68</v>
       </c>
       <c r="O29" s="21">
-        <v>-1.9E-2</v>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="P29" s="21">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="Q29" s="21">
-        <v>0.27689999999999998</v>
-      </c>
+        <v>1.29E-2</v>
+      </c>
+      <c r="Q29" s="21"/>
       <c r="R29" s="21">
-        <v>-15.1244</v>
+        <v>0.11990000000000001</v>
       </c>
       <c r="S29" s="21">
-        <v>72.504300000000001</v>
+        <v>1.3608</v>
       </c>
       <c r="T29" s="35">
-        <v>1.06</v>
+        <v>0.68</v>
       </c>
       <c r="U29" s="24">
-        <v>457520</v>
+        <v>304390</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="18"/>
       <c r="B30" s="11" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="34" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="H30" s="24">
-        <v>36.090000000000003</v>
+        <v>58.7</v>
       </c>
       <c r="I30" s="24">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="J30" s="42">
-        <v>17.12</v>
-      </c>
-      <c r="K30" s="42">
-        <v>4.84</v>
-      </c>
+        <v>23.39</v>
+      </c>
+      <c r="K30" s="42"/>
       <c r="L30" s="42">
-        <v>13.15</v>
+        <v>19.27</v>
       </c>
       <c r="M30" s="42">
-        <v>14.97</v>
+        <v>17.3</v>
       </c>
       <c r="N30" s="42">
-        <v>2.15</v>
+        <v>3.69</v>
       </c>
       <c r="O30" s="21">
-        <v>-1.1900000000000001E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="P30" s="21">
-        <v>-3.0999999999999999E-3</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="Q30" s="21">
-        <v>0.20899999999999999</v>
+        <v>0.27689999999999998</v>
       </c>
       <c r="R30" s="21">
-        <v>0.28610000000000002</v>
+        <v>-15.1244</v>
       </c>
       <c r="S30" s="21">
-        <v>1.8532</v>
+        <v>72.504300000000001</v>
       </c>
       <c r="T30" s="35">
-        <v>0.61</v>
+        <v>1.06</v>
       </c>
       <c r="U30" s="24">
-        <v>419130</v>
+        <v>457520</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="18"/>
       <c r="B31" s="11" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="34" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="H31" s="24">
-        <v>22.15</v>
+        <v>36.090000000000003</v>
       </c>
       <c r="I31" s="24">
-        <v>0.94699999999999995</v>
+        <v>2.5</v>
       </c>
       <c r="J31" s="42">
-        <v>21.69</v>
+        <v>17.12</v>
       </c>
       <c r="K31" s="42">
-        <v>8.1999999999999993</v>
+        <v>4.84</v>
       </c>
       <c r="L31" s="42">
-        <v>14.74</v>
+        <v>13.15</v>
       </c>
       <c r="M31" s="42">
-        <v>11.94</v>
+        <v>14.97</v>
       </c>
       <c r="N31" s="42">
-        <v>1.64</v>
+        <v>2.15</v>
       </c>
       <c r="O31" s="21">
-        <v>-1.4200000000000001E-2</v>
+        <v>-1.1900000000000001E-2</v>
       </c>
       <c r="P31" s="21">
-        <v>4.9299999999999997E-2</v>
+        <v>-3.0999999999999999E-3</v>
       </c>
       <c r="Q31" s="21">
-        <v>0.16900000000000001</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="R31" s="21">
-        <v>0.37969999999999998</v>
+        <v>0.28610000000000002</v>
       </c>
       <c r="S31" s="21">
-        <v>3.3776999999999999</v>
+        <v>1.8532</v>
       </c>
       <c r="T31" s="35">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="U31" s="24">
-        <v>434450</v>
+        <v>419130</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="18"/>
       <c r="B32" s="11" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="34" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="H32" s="24">
-        <v>15.22</v>
+        <v>22.15</v>
       </c>
       <c r="I32" s="24">
-        <v>0.86199999999999999</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="J32" s="42">
-        <v>33.380000000000003</v>
+        <v>21.69</v>
       </c>
       <c r="K32" s="42">
-        <v>10.029999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L32" s="42">
-        <v>24.59</v>
+        <v>14.74</v>
       </c>
       <c r="M32" s="42">
-        <v>15.22</v>
+        <v>11.94</v>
       </c>
       <c r="N32" s="42">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
       <c r="O32" s="21">
-        <v>-3.8999999999999998E-3</v>
+        <v>-1.4200000000000001E-2</v>
       </c>
       <c r="P32" s="21">
-        <v>-4.2900000000000001E-2</v>
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="Q32" s="21">
+        <v>0.16900000000000001</v>
       </c>
       <c r="R32" s="21">
-        <v>0.30209999999999998</v>
+        <v>0.37969999999999998</v>
       </c>
       <c r="S32" s="21">
-        <v>2.4394999999999998</v>
+        <v>3.3776999999999999</v>
       </c>
       <c r="T32" s="35">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="U32" s="24">
-        <v>425160</v>
+        <v>434450</v>
       </c>
       <c r="V32" s="13" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="18"/>
       <c r="B33" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="34" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H33" s="24">
-        <v>25.04</v>
+        <v>15.22</v>
       </c>
       <c r="I33" s="24">
-        <v>0.61129999999999995</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="J33" s="42">
-        <v>25.75</v>
+        <v>33.380000000000003</v>
       </c>
       <c r="K33" s="42">
-        <v>4.1900000000000004</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="L33" s="42">
-        <v>21.61</v>
+        <v>24.59</v>
       </c>
       <c r="M33" s="42">
-        <v>21.43</v>
+        <v>15.22</v>
       </c>
       <c r="N33" s="42">
-        <v>2.62</v>
+        <v>1.88</v>
       </c>
       <c r="O33" s="21">
-        <v>3.8999999999999998E-3</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="P33" s="21">
-        <v>9.3200000000000005E-2</v>
-      </c>
-      <c r="Q33" s="46">
-        <v>0.1358</v>
+        <v>-4.2900000000000001E-2</v>
       </c>
       <c r="R33" s="21">
-        <v>0.1648</v>
+        <v>0.30209999999999998</v>
       </c>
       <c r="S33" s="21">
-        <v>6.2300000000000001E-2</v>
+        <v>2.4394999999999998</v>
       </c>
       <c r="T33" s="35">
-        <v>2.1800000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="U33" s="24">
-        <v>506460</v>
+        <v>425160</v>
       </c>
       <c r="V33" s="13" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="18"/>
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="H34" s="24">
+        <v>25.04</v>
+      </c>
+      <c r="I34" s="24">
+        <v>0.61129999999999995</v>
+      </c>
+      <c r="J34" s="42">
+        <v>25.75</v>
+      </c>
+      <c r="K34" s="42">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="L34" s="42">
+        <v>21.61</v>
+      </c>
+      <c r="M34" s="42">
+        <v>21.43</v>
+      </c>
+      <c r="N34" s="42">
+        <v>2.62</v>
+      </c>
+      <c r="O34" s="21">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="P34" s="21">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="Q34" s="46">
+        <v>0.1358</v>
+      </c>
+      <c r="R34" s="21">
+        <v>0.1648</v>
+      </c>
+      <c r="S34" s="21">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="T34" s="35">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="U34" s="24">
+        <v>506460</v>
+      </c>
+      <c r="V34" s="13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="18"/>
+      <c r="B35" s="60" t="s">
         <v>530</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="80" t="s">
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="71" t="s">
         <v>531</v>
       </c>
-      <c r="H34" s="81">
+      <c r="H35" s="98">
         <v>35.869999999999997</v>
       </c>
-      <c r="I34" s="81">
+      <c r="I35" s="98">
         <v>2.81</v>
       </c>
-      <c r="J34" s="82">
+      <c r="J35" s="42">
         <v>18.71</v>
       </c>
-      <c r="K34" s="82">
+      <c r="K35" s="42">
         <v>0.7</v>
       </c>
-      <c r="L34" s="82">
+      <c r="L35" s="42">
         <v>12.34</v>
       </c>
-      <c r="M34" s="82">
+      <c r="M35" s="42">
         <v>14.44</v>
       </c>
-      <c r="N34" s="82">
+      <c r="N35" s="42">
         <v>1.42</v>
       </c>
-      <c r="O34" s="83">
+      <c r="O35" s="85">
         <v>0.1799</v>
       </c>
-      <c r="P34" s="83">
+      <c r="P35" s="85">
         <v>0.19939999999999999</v>
       </c>
-      <c r="Q34" s="83">
+      <c r="Q35" s="85">
         <v>0.23300000000000001</v>
       </c>
-      <c r="R34" s="83">
+      <c r="R35" s="85">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="S34" s="83">
+      <c r="S35" s="85">
         <v>0.64259999999999995</v>
       </c>
-      <c r="T34" s="87">
+      <c r="T35" s="45">
         <v>1.1599999999999999</v>
       </c>
-      <c r="U34" s="81">
+      <c r="U35" s="98">
         <v>680410</v>
       </c>
-      <c r="V34" s="84" t="s">
+      <c r="V35" s="23" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="19"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="16"/>
-    </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="16"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="28" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H37" s="38">
         <v>88.26</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I37" s="38">
         <v>2.73</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J37" s="9">
         <v>24.56</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9">
+      <c r="K37" s="9"/>
+      <c r="L37" s="9">
         <v>17.53</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M37" s="9">
         <v>17.84</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N37" s="9">
         <v>3.33</v>
       </c>
-      <c r="O36" s="20">
+      <c r="O37" s="20">
         <v>0.1002</v>
       </c>
-      <c r="P36" s="20">
+      <c r="P37" s="20">
         <v>0.1237</v>
       </c>
-      <c r="Q36" s="20">
+      <c r="Q37" s="20">
         <v>0.20330000000000001</v>
       </c>
-      <c r="R36" s="20">
+      <c r="R37" s="20">
         <v>-0.66659999999999997</v>
       </c>
-      <c r="S36" s="20">
+      <c r="S37" s="20">
         <v>-3.0518999999999998</v>
       </c>
-      <c r="T36" s="9">
+      <c r="T37" s="9">
         <v>0.93</v>
       </c>
-      <c r="U36" s="38">
+      <c r="U37" s="38">
         <v>77060</v>
       </c>
-      <c r="V36" s="10" t="s">
+      <c r="V37" s="10" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="18"/>
-      <c r="B37" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="H37" s="24">
-        <v>135.86000000000001</v>
-      </c>
-      <c r="I37" s="24">
-        <v>5.73</v>
-      </c>
-      <c r="J37" s="12">
-        <v>23.1</v>
-      </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12">
-        <v>18</v>
-      </c>
-      <c r="M37" s="42">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="N37" s="12">
-        <v>6.53</v>
-      </c>
-      <c r="O37" s="21">
-        <v>-5.1400000000000001E-2</v>
-      </c>
-      <c r="P37" s="21">
-        <v>3.3300000000000003E-2</v>
-      </c>
-      <c r="Q37" s="21">
-        <v>0.49840000000000001</v>
-      </c>
-      <c r="R37" s="21">
-        <v>-0.79890000000000005</v>
-      </c>
-      <c r="S37" s="21">
-        <v>-5.7922000000000002</v>
-      </c>
-      <c r="T37" s="12">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="U37" s="44">
-        <v>102810</v>
-      </c>
-      <c r="V37" s="13" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="18"/>
       <c r="B38" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>9</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="34" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H38" s="24">
-        <v>13.77</v>
+        <v>135.86000000000001</v>
       </c>
       <c r="I38" s="24">
-        <v>1.41</v>
+        <v>5.73</v>
       </c>
       <c r="J38" s="12">
-        <v>19.489999999999998</v>
-      </c>
-      <c r="K38" s="12">
-        <v>6.05</v>
-      </c>
+        <v>23.1</v>
+      </c>
+      <c r="K38" s="12"/>
       <c r="L38" s="12">
-        <v>15.42</v>
+        <v>18</v>
       </c>
       <c r="M38" s="42">
-        <v>16.32</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="N38" s="12">
-        <v>2.2799999999999998</v>
+        <v>6.53</v>
       </c>
       <c r="O38" s="21">
-        <v>0.36159999999999998</v>
+        <v>-5.1400000000000001E-2</v>
       </c>
       <c r="P38" s="21">
-        <v>0.27200000000000002</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="Q38" s="21">
-        <v>0.39410000000000001</v>
+        <v>0.49840000000000001</v>
       </c>
       <c r="R38" s="21">
-        <v>0.30499999999999999</v>
+        <v>-0.79890000000000005</v>
       </c>
       <c r="S38" s="21">
-        <v>5.3666999999999998</v>
+        <v>-5.7922000000000002</v>
       </c>
       <c r="T38" s="12">
-        <v>1.17</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="U38" s="44">
-        <v>889370</v>
+        <v>102810</v>
       </c>
       <c r="V38" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="18"/>
       <c r="B39" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+        <v>273</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="G39" s="34" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H39" s="24">
-        <v>14.39</v>
+        <v>13.77</v>
       </c>
       <c r="I39" s="24">
-        <v>0.41138999999999998</v>
+        <v>1.41</v>
       </c>
       <c r="J39" s="12">
-        <v>38.67</v>
-      </c>
-      <c r="K39" s="12"/>
+        <v>19.489999999999998</v>
+      </c>
+      <c r="K39" s="12">
+        <v>6.05</v>
+      </c>
       <c r="L39" s="12">
-        <v>32.53</v>
+        <v>15.42</v>
       </c>
       <c r="M39" s="42">
-        <v>24.26</v>
+        <v>16.32</v>
       </c>
       <c r="N39" s="12">
-        <v>4.1399999999999997</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="O39" s="21">
-        <v>0.12659999999999999</v>
+        <v>0.36159999999999998</v>
       </c>
       <c r="P39" s="21">
-        <v>0.1835</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="Q39" s="21">
-        <v>0.19059999999999999</v>
+        <v>0.39410000000000001</v>
       </c>
       <c r="R39" s="21">
-        <v>-0.13100000000000001</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="S39" s="21">
-        <v>-1.2737000000000001</v>
+        <v>5.3666999999999998</v>
       </c>
       <c r="T39" s="12">
-        <v>1.55</v>
+        <v>1.17</v>
       </c>
       <c r="U39" s="44">
-        <v>279080</v>
+        <v>889370</v>
       </c>
       <c r="V39" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="18"/>
       <c r="B40" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="34" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H40" s="24">
-        <v>24.12</v>
+        <v>14.39</v>
       </c>
       <c r="I40" s="24">
-        <v>0.37378</v>
-      </c>
-      <c r="J40" s="42">
-        <v>72.61</v>
-      </c>
-      <c r="K40" s="12">
-        <v>14.78</v>
-      </c>
-      <c r="L40" s="42">
-        <v>43.33</v>
+        <v>0.41138999999999998</v>
+      </c>
+      <c r="J40" s="12">
+        <v>38.67</v>
+      </c>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12">
+        <v>32.53</v>
       </c>
       <c r="M40" s="42">
-        <v>44.74</v>
-      </c>
-      <c r="N40" s="42">
-        <v>4.2300000000000004</v>
+        <v>24.26</v>
+      </c>
+      <c r="N40" s="12">
+        <v>4.1399999999999997</v>
       </c>
       <c r="O40" s="21">
-        <v>6.3399999999999998E-2</v>
+        <v>0.12659999999999999</v>
       </c>
       <c r="P40" s="21">
-        <v>2.5000000000000001E-3</v>
+        <v>0.1835</v>
       </c>
       <c r="Q40" s="21">
-        <v>0.1207</v>
+        <v>0.19059999999999999</v>
       </c>
       <c r="R40" s="21">
-        <v>0.20780000000000001</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="S40" s="21">
-        <v>1.7602</v>
+        <v>-1.2737000000000001</v>
       </c>
       <c r="T40" s="12">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U40" s="44">
-        <v>68540</v>
+        <v>279080</v>
       </c>
       <c r="V40" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="18"/>
       <c r="B41" s="11" t="s">
-        <v>547</v>
+        <v>279</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="34" t="s">
-        <v>546</v>
+        <v>280</v>
       </c>
       <c r="H41" s="24">
-        <v>5.14</v>
+        <v>24.12</v>
       </c>
       <c r="I41" s="24">
-        <v>0.26096999999999998</v>
+        <v>0.37378</v>
       </c>
       <c r="J41" s="42">
-        <v>21.46</v>
-      </c>
-      <c r="K41" s="42"/>
+        <v>72.61</v>
+      </c>
+      <c r="K41" s="12">
+        <v>14.78</v>
+      </c>
       <c r="L41" s="42">
-        <v>18.399999999999999</v>
+        <v>43.33</v>
       </c>
       <c r="M41" s="42">
-        <v>19.22</v>
+        <v>44.74</v>
       </c>
       <c r="N41" s="42">
-        <v>3.75</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="O41" s="21">
-        <v>0.1285</v>
+        <v>6.3399999999999998E-2</v>
       </c>
       <c r="P41" s="21">
-        <v>4.6800000000000001E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q41" s="21">
-        <v>0.34279999999999999</v>
+        <v>0.1207</v>
       </c>
       <c r="R41" s="21">
-        <v>-0.37859999999999999</v>
+        <v>0.20780000000000001</v>
       </c>
       <c r="S41" s="21">
-        <v>-5.4268999999999998</v>
-      </c>
-      <c r="T41" s="35">
-        <v>1.58</v>
+        <v>1.7602</v>
+      </c>
+      <c r="T41" s="12">
+        <v>1.56</v>
       </c>
       <c r="U41" s="44">
-        <v>1230010</v>
+        <v>68540</v>
       </c>
       <c r="V41" s="13" t="s">
-        <v>548</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="18"/>
       <c r="B42" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="34" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H42" s="24">
-        <v>4.38</v>
+        <v>5.14</v>
       </c>
       <c r="I42" s="24">
-        <v>0.21448</v>
+        <v>0.26096999999999998</v>
       </c>
       <c r="J42" s="42">
-        <v>32.979999999999997</v>
-      </c>
-      <c r="K42" s="42">
-        <v>7.27</v>
-      </c>
+        <v>21.46</v>
+      </c>
+      <c r="K42" s="42"/>
       <c r="L42" s="42">
-        <v>16.61</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="M42" s="42">
-        <v>18.16</v>
+        <v>19.22</v>
       </c>
       <c r="N42" s="42">
-        <v>2.61</v>
+        <v>3.75</v>
       </c>
       <c r="O42" s="21">
-        <v>-3.6799999999999999E-2</v>
+        <v>0.1285</v>
       </c>
       <c r="P42" s="21">
-        <v>-8.8000000000000005E-3</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="Q42" s="21">
-        <v>0.23230000000000001</v>
+        <v>0.34279999999999999</v>
       </c>
       <c r="R42" s="21">
-        <v>0.22309999999999999</v>
+        <v>-0.37859999999999999</v>
       </c>
       <c r="S42" s="21">
-        <v>7.1920000000000002</v>
+        <v>-5.4268999999999998</v>
       </c>
       <c r="T42" s="35">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="U42" s="44">
-        <v>128500</v>
+        <v>1230010</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="18"/>
       <c r="B43" s="11" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="H43" s="24">
+        <v>4.38</v>
+      </c>
+      <c r="I43" s="24">
+        <v>0.21448</v>
+      </c>
+      <c r="J43" s="42">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="K43" s="42">
+        <v>7.27</v>
+      </c>
+      <c r="L43" s="42">
+        <v>16.61</v>
+      </c>
+      <c r="M43" s="42">
+        <v>18.16</v>
+      </c>
+      <c r="N43" s="42">
+        <v>2.61</v>
+      </c>
+      <c r="O43" s="21">
+        <v>-3.6799999999999999E-2</v>
+      </c>
+      <c r="P43" s="21">
+        <v>-8.8000000000000005E-3</v>
+      </c>
+      <c r="Q43" s="21">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="R43" s="21">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="S43" s="21">
+        <v>7.1920000000000002</v>
+      </c>
+      <c r="T43" s="35">
+        <v>1.9</v>
+      </c>
+      <c r="U43" s="44">
+        <v>128500</v>
+      </c>
+      <c r="V43" s="13" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="18"/>
+      <c r="B44" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="34" t="s">
         <v>557</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H44" s="24">
         <v>25.23</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I44" s="24">
         <v>1.07</v>
       </c>
-      <c r="J43" s="42">
+      <c r="J44" s="42">
         <v>23.41</v>
       </c>
-      <c r="K43" s="12"/>
-      <c r="L43" s="42">
+      <c r="K44" s="12"/>
+      <c r="L44" s="42">
         <v>20.61</v>
       </c>
-      <c r="M43" s="42">
+      <c r="M44" s="42">
         <v>57.33</v>
       </c>
-      <c r="N43" s="42">
+      <c r="N44" s="42">
         <v>4.51</v>
       </c>
-      <c r="O43" s="21">
+      <c r="O44" s="21">
         <v>-0.15870000000000001</v>
       </c>
-      <c r="P43" s="21">
+      <c r="P44" s="21">
         <v>-3.8899999999999997E-2</v>
       </c>
-      <c r="Q43" s="21">
+      <c r="Q44" s="21">
         <v>0.3619</v>
       </c>
-      <c r="R43" s="21">
+      <c r="R44" s="21">
         <v>-0.13789999999999999</v>
       </c>
-      <c r="S43" s="21">
+      <c r="S44" s="21">
         <v>-1.3982000000000001</v>
       </c>
-      <c r="T43" s="35">
+      <c r="T44" s="35">
         <v>1.19</v>
       </c>
-      <c r="U43" s="44">
+      <c r="U44" s="44">
         <v>164880</v>
       </c>
-      <c r="V43" s="13" t="s">
+      <c r="V44" s="13" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="19"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="16"/>
-    </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="16"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="B45" s="88" t="s">
+      <c r="B46" s="88" t="s">
         <v>293</v>
       </c>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88" t="s">
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88" t="s">
         <v>290</v>
       </c>
-      <c r="H45" s="88">
+      <c r="H46" s="88">
         <v>4.55</v>
       </c>
-      <c r="I45" s="88">
+      <c r="I46" s="88">
         <v>0.16194</v>
       </c>
-      <c r="J45" s="88">
+      <c r="J46" s="88">
         <v>13.93</v>
       </c>
-      <c r="K45" s="88">
+      <c r="K46" s="88">
         <v>2.62</v>
       </c>
-      <c r="L45" s="88">
+      <c r="L46" s="88">
         <v>13.8</v>
       </c>
-      <c r="M45" s="88">
+      <c r="M46" s="88">
         <v>9.9700000000000006</v>
       </c>
-      <c r="N45" s="88">
+      <c r="N46" s="88">
         <v>1.49</v>
       </c>
-      <c r="O45" s="88">
+      <c r="O46" s="88">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="P45" s="88">
+      <c r="P46" s="88">
         <v>0.15340000000000001</v>
       </c>
-      <c r="Q45" s="88">
+      <c r="Q46" s="88">
         <v>0.20330000000000001</v>
       </c>
-      <c r="R45" s="88">
+      <c r="R46" s="88">
         <v>0.18959999999999999</v>
       </c>
-      <c r="S45" s="88">
+      <c r="S46" s="88">
         <v>0.23549999999999999</v>
       </c>
-      <c r="T45" s="88">
+      <c r="T46" s="88">
         <v>3.06</v>
       </c>
-      <c r="U45" s="88">
+      <c r="U46" s="88">
         <v>343590</v>
       </c>
-      <c r="V45" s="89" t="s">
+      <c r="V46" s="89" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="18"/>
-      <c r="B46" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="H46" s="24">
-        <v>135.83000000000001</v>
-      </c>
-      <c r="I46" s="24">
-        <v>3.43</v>
-      </c>
-      <c r="J46" s="12">
-        <v>32.229999999999997</v>
-      </c>
-      <c r="K46" s="12">
-        <v>14.88</v>
-      </c>
-      <c r="L46" s="12">
-        <v>27.21</v>
-      </c>
-      <c r="M46" s="42">
-        <v>33.39</v>
-      </c>
-      <c r="N46" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="O46" s="21">
-        <v>7.0699999999999999E-2</v>
-      </c>
-      <c r="P46" s="21">
-        <v>8.0699999999999994E-2</v>
-      </c>
-      <c r="Q46" s="21">
-        <v>0.14219999999999999</v>
-      </c>
-      <c r="R46" s="21">
-        <v>0.47139999999999999</v>
-      </c>
-      <c r="S46" s="21">
-        <v>0.7359</v>
-      </c>
-      <c r="T46" s="35">
-        <v>2</v>
-      </c>
-      <c r="U46" s="44"/>
-      <c r="V46" s="13" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="18"/>
       <c r="B47" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>9</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H47" s="24">
-        <v>27.59</v>
+        <v>135.83000000000001</v>
       </c>
       <c r="I47" s="24">
-        <v>0.38627</v>
+        <v>3.43</v>
       </c>
       <c r="J47" s="12">
-        <v>42.84</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="K47" s="12">
-        <v>17.04</v>
+        <v>14.88</v>
       </c>
       <c r="L47" s="12">
-        <v>34.15</v>
+        <v>27.21</v>
       </c>
       <c r="M47" s="42">
-        <v>19.96</v>
+        <v>33.39</v>
       </c>
       <c r="N47" s="12">
-        <v>6.93</v>
+        <v>3.3</v>
       </c>
       <c r="O47" s="21">
-        <v>0.17230000000000001</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="P47" s="21">
-        <v>0.22109999999999999</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="Q47" s="21">
-        <v>0.2641</v>
+        <v>0.14219999999999999</v>
       </c>
       <c r="R47" s="21">
-        <v>0.39879999999999999</v>
+        <v>0.47139999999999999</v>
       </c>
       <c r="S47" s="21">
-        <v>0.379</v>
+        <v>0.7359</v>
       </c>
       <c r="T47" s="35">
-        <v>2.56</v>
+        <v>2</v>
       </c>
       <c r="U47" s="44"/>
       <c r="V47" s="13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="18"/>
       <c r="B48" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+        <v>297</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="G48" s="34" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="H48" s="24">
-        <v>0.47805999999999998</v>
+        <v>27.59</v>
       </c>
       <c r="I48" s="24">
-        <v>0.13603999999999999</v>
-      </c>
-      <c r="J48" s="42">
-        <v>5.04</v>
-      </c>
-      <c r="K48" s="42">
-        <v>0.86</v>
-      </c>
-      <c r="L48" s="42">
-        <v>2.96</v>
+        <v>0.38627</v>
+      </c>
+      <c r="J48" s="12">
+        <v>42.84</v>
+      </c>
+      <c r="K48" s="12">
+        <v>17.04</v>
+      </c>
+      <c r="L48" s="12">
+        <v>34.15</v>
       </c>
       <c r="M48" s="42">
-        <v>1.22</v>
-      </c>
-      <c r="N48" s="42">
-        <v>0.19</v>
+        <v>19.96</v>
+      </c>
+      <c r="N48" s="12">
+        <v>6.93</v>
       </c>
       <c r="O48" s="21">
-        <v>2.3599999999999999E-2</v>
+        <v>0.17230000000000001</v>
       </c>
       <c r="P48" s="21">
-        <v>-1.3100000000000001E-2</v>
+        <v>0.22109999999999999</v>
       </c>
       <c r="Q48" s="21">
-        <v>5.2699999999999997E-2</v>
+        <v>0.2641</v>
       </c>
       <c r="R48" s="21">
-        <v>0.16619999999999999</v>
+        <v>0.39879999999999999</v>
       </c>
       <c r="S48" s="21">
-        <v>1.8692</v>
-      </c>
-      <c r="T48" s="45">
-        <v>1.51</v>
-      </c>
-      <c r="U48" s="74"/>
+        <v>0.379</v>
+      </c>
+      <c r="T48" s="35">
+        <v>2.56</v>
+      </c>
+      <c r="U48" s="44"/>
       <c r="V48" s="13" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="18"/>
       <c r="B49" s="11" t="s">
-        <v>425</v>
+        <v>334</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="34" t="s">
-        <v>426</v>
+        <v>333</v>
       </c>
       <c r="H49" s="24">
-        <v>2.86</v>
+        <v>0.47805999999999998</v>
       </c>
       <c r="I49" s="24">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
+        <v>0.13603999999999999</v>
+      </c>
+      <c r="J49" s="42">
+        <v>5.04</v>
+      </c>
+      <c r="K49" s="42">
+        <v>0.86</v>
+      </c>
       <c r="L49" s="42">
-        <v>12.83</v>
+        <v>2.96</v>
       </c>
       <c r="M49" s="42">
-        <v>-15.19</v>
+        <v>1.22</v>
       </c>
       <c r="N49" s="42">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="O49" s="21">
-        <v>2.4299999999999999E-2</v>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="P49" s="21">
-        <v>-0.31569999999999998</v>
+        <v>-1.3100000000000001E-2</v>
       </c>
       <c r="Q49" s="21">
-        <v>0.12130000000000001</v>
-      </c>
-      <c r="R49" s="46">
-        <v>0.31990000000000002</v>
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="R49" s="21">
+        <v>0.16619999999999999</v>
       </c>
       <c r="S49" s="21">
-        <v>-6.07</v>
+        <v>1.8692</v>
       </c>
       <c r="T49" s="45">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="U49" s="74"/>
       <c r="V49" s="13" t="s">
@@ -38370,722 +38395,852 @@
     <row r="50" spans="1:22">
       <c r="A50" s="18"/>
       <c r="B50" s="11" t="s">
-        <v>554</v>
+        <v>425</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="34" t="s">
-        <v>553</v>
+        <v>426</v>
       </c>
       <c r="H50" s="24">
-        <v>4.3099999999999996</v>
+        <v>2.86</v>
       </c>
       <c r="I50" s="24">
-        <v>-0.16614999999999999</v>
-      </c>
-      <c r="K50" s="42">
-        <v>3.39</v>
-      </c>
-      <c r="L50" s="42"/>
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42">
+        <v>12.83</v>
+      </c>
       <c r="M50" s="42">
-        <v>-16.11</v>
+        <v>-15.19</v>
       </c>
       <c r="N50" s="42">
-        <v>3.85</v>
+        <v>0.22</v>
       </c>
       <c r="O50" s="21">
-        <v>0.33350000000000002</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="P50" s="21">
-        <v>0.29530000000000001</v>
+        <v>-0.31569999999999998</v>
       </c>
       <c r="Q50" s="21">
-        <v>-0.27400000000000002</v>
+        <v>0.12130000000000001</v>
       </c>
       <c r="R50" s="46">
-        <v>-0.3322</v>
+        <v>0.31990000000000002</v>
       </c>
       <c r="S50" s="21">
-        <v>0.1022</v>
+        <v>-6.07</v>
       </c>
       <c r="T50" s="45">
-        <v>2.35</v>
-      </c>
-      <c r="U50" s="74">
-        <v>225300</v>
-      </c>
+        <v>1.26</v>
+      </c>
+      <c r="U50" s="74"/>
       <c r="V50" s="13" t="s">
-        <v>555</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="18"/>
-      <c r="B51" s="11"/>
+      <c r="B51" s="11" t="s">
+        <v>554</v>
+      </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
+      <c r="G51" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="H51" s="24">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="I51" s="24">
+        <v>-0.16614999999999999</v>
+      </c>
+      <c r="K51" s="42">
+        <v>3.39</v>
+      </c>
       <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="74"/>
-      <c r="V51" s="13"/>
+      <c r="M51" s="42">
+        <v>-16.11</v>
+      </c>
+      <c r="N51" s="42">
+        <v>3.85</v>
+      </c>
+      <c r="O51" s="21">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="P51" s="21">
+        <v>0.29530000000000001</v>
+      </c>
+      <c r="Q51" s="21">
+        <v>-0.27400000000000002</v>
+      </c>
+      <c r="R51" s="46">
+        <v>-0.3322</v>
+      </c>
+      <c r="S51" s="21">
+        <v>0.1022</v>
+      </c>
+      <c r="T51" s="45">
+        <v>2.35</v>
+      </c>
+      <c r="U51" s="74">
+        <v>225300</v>
+      </c>
+      <c r="V51" s="13" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="19"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="53"/>
-      <c r="V52" s="16"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="74"/>
+      <c r="V52" s="13"/>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="19"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="53"/>
+      <c r="V53" s="16"/>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="28" t="s">
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="H53" s="38">
+      <c r="H54" s="38">
         <v>83.02</v>
       </c>
-      <c r="I53" s="38">
+      <c r="I54" s="38">
         <v>5.37</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J54" s="9">
         <v>18.48</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K54" s="9">
         <v>8.19</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L54" s="9">
         <v>13.48</v>
       </c>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9">
+      <c r="M54" s="9"/>
+      <c r="N54" s="9">
         <v>2.58</v>
       </c>
-      <c r="O53" s="20">
+      <c r="O54" s="20">
         <v>2E-3</v>
       </c>
-      <c r="P53" s="20">
+      <c r="P54" s="20">
         <v>-6.4000000000000003E-3</v>
       </c>
-      <c r="Q53" s="20">
+      <c r="Q54" s="20">
         <v>0.26950000000000002</v>
       </c>
-      <c r="R53" s="20">
+      <c r="R54" s="20">
         <v>0.45079999999999998</v>
       </c>
-      <c r="S53" s="20">
+      <c r="S54" s="20">
         <v>2.1166</v>
       </c>
-      <c r="T53" s="29">
+      <c r="T54" s="29">
         <v>1.89</v>
       </c>
-      <c r="U53" s="43">
+      <c r="U54" s="43">
         <v>336390</v>
       </c>
-      <c r="V53" s="10" t="s">
+      <c r="V54" s="10" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
-      <c r="A54" s="18"/>
-      <c r="B54" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="H54" s="24">
-        <v>295.58999999999997</v>
-      </c>
-      <c r="I54" s="24">
-        <v>13.52</v>
-      </c>
-      <c r="J54" s="12">
-        <v>67.459999999999994</v>
-      </c>
-      <c r="K54" s="12">
-        <v>6.4</v>
-      </c>
-      <c r="L54" s="12">
-        <v>37.08</v>
-      </c>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12">
-        <v>4.22</v>
-      </c>
-      <c r="O54" s="21">
-        <v>-4.0099999999999997E-2</v>
-      </c>
-      <c r="P54" s="21">
-        <v>-0.14499999999999999</v>
-      </c>
-      <c r="Q54" s="21">
-        <v>0.27189999999999998</v>
-      </c>
-      <c r="R54" s="21">
-        <v>0.1018</v>
-      </c>
-      <c r="S54" s="21">
-        <v>0.80710000000000004</v>
-      </c>
-      <c r="T54" s="35">
-        <v>0.73</v>
-      </c>
-      <c r="U54" s="44">
-        <v>725220</v>
-      </c>
-      <c r="V54" s="13" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="18"/>
       <c r="B55" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>9</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
       <c r="G55" s="34" t="s">
-        <v>522</v>
+        <v>305</v>
       </c>
       <c r="H55" s="24">
-        <v>46.61</v>
+        <v>295.58999999999997</v>
       </c>
       <c r="I55" s="24">
-        <v>1.88</v>
+        <v>13.52</v>
       </c>
       <c r="J55" s="12">
-        <v>19.97</v>
-      </c>
-      <c r="K55" s="12"/>
+        <v>67.459999999999994</v>
+      </c>
+      <c r="K55" s="12">
+        <v>6.4</v>
+      </c>
       <c r="L55" s="12">
-        <v>14.37</v>
-      </c>
-      <c r="M55" s="42">
-        <v>13.35</v>
-      </c>
-      <c r="N55" s="42">
-        <v>2.4900000000000002</v>
+        <v>37.08</v>
+      </c>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12">
+        <v>4.22</v>
       </c>
       <c r="O55" s="21">
-        <v>-1.3299999999999999E-2</v>
+        <v>-4.0099999999999997E-2</v>
       </c>
       <c r="P55" s="21">
-        <v>6.2600000000000003E-2</v>
+        <v>-0.14499999999999999</v>
       </c>
       <c r="Q55" s="21">
-        <v>0.23319999999999999</v>
+        <v>0.27189999999999998</v>
       </c>
       <c r="R55" s="21">
-        <v>-18.2119</v>
+        <v>0.1018</v>
       </c>
       <c r="S55" s="21">
-        <v>-50.586799999999997</v>
+        <v>0.80710000000000004</v>
       </c>
       <c r="T55" s="35">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="U55" s="44">
-        <v>470650</v>
+        <v>725220</v>
       </c>
       <c r="V55" s="13" t="s">
-        <v>523</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="18"/>
       <c r="B56" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+        <v>521</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="G56" s="34" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H56" s="24">
-        <v>2.63</v>
+        <v>46.61</v>
       </c>
       <c r="I56" s="24">
-        <v>9.2100000000000001E-2</v>
-      </c>
-      <c r="J56" s="42">
-        <v>118.56</v>
-      </c>
-      <c r="K56" s="12">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="L56" s="42">
-        <v>17.690000000000001</v>
+        <v>1.88</v>
+      </c>
+      <c r="J56" s="12">
+        <v>19.97</v>
+      </c>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12">
+        <v>14.37</v>
       </c>
       <c r="M56" s="42">
-        <v>8.9499999999999993</v>
+        <v>13.35</v>
       </c>
       <c r="N56" s="42">
-        <v>0.99</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="O56" s="21">
-        <v>6.2700000000000006E-2</v>
+        <v>-1.3299999999999999E-2</v>
       </c>
       <c r="P56" s="21">
-        <v>-4.2599999999999999E-2</v>
+        <v>6.2600000000000003E-2</v>
       </c>
       <c r="Q56" s="21">
-        <v>0.19689999999999999</v>
+        <v>0.23319999999999999</v>
       </c>
       <c r="R56" s="21">
-        <v>4.0399999999999998E-2</v>
+        <v>-18.2119</v>
       </c>
       <c r="S56" s="21">
-        <v>6.0693999999999999</v>
+        <v>-50.586799999999997</v>
       </c>
       <c r="T56" s="35">
-        <v>1.93</v>
+        <v>0.79</v>
       </c>
       <c r="U56" s="44">
-        <v>354590</v>
+        <v>470650</v>
       </c>
       <c r="V56" s="13" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="18"/>
       <c r="B57" s="11" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="34" t="s">
+        <v>525</v>
+      </c>
+      <c r="H57" s="24">
+        <v>2.63</v>
+      </c>
+      <c r="I57" s="24">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="J57" s="42">
+        <v>118.56</v>
+      </c>
+      <c r="K57" s="12">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="L57" s="42">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="M57" s="42">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="N57" s="42">
+        <v>0.99</v>
+      </c>
+      <c r="O57" s="21">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="P57" s="21">
+        <v>-4.2599999999999999E-2</v>
+      </c>
+      <c r="Q57" s="21">
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="R57" s="21">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="S57" s="21">
+        <v>6.0693999999999999</v>
+      </c>
+      <c r="T57" s="35">
+        <v>1.93</v>
+      </c>
+      <c r="U57" s="44">
+        <v>354590</v>
+      </c>
+      <c r="V57" s="13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="18"/>
+      <c r="B58" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="34" t="s">
         <v>533</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H58" s="24">
         <v>128.51</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I58" s="24">
         <v>7.62</v>
       </c>
-      <c r="J57" s="12"/>
-      <c r="K57" s="42">
+      <c r="J58" s="12"/>
+      <c r="K58" s="42">
         <v>8.7799999999999994</v>
       </c>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12">
+      <c r="L58" s="12"/>
+      <c r="M58" s="12">
         <v>15.99</v>
       </c>
-      <c r="N57" s="42">
+      <c r="N58" s="42">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O57" s="21">
+      <c r="O58" s="21">
         <v>-1E-3</v>
       </c>
-      <c r="P57" s="21">
+      <c r="P58" s="21">
         <v>2.29E-2</v>
       </c>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21">
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21">
         <v>2.1076000000000001</v>
       </c>
-      <c r="T57" s="35">
+      <c r="T58" s="35">
         <v>0.8</v>
       </c>
-      <c r="U57" s="44">
+      <c r="U58" s="44">
         <v>389220</v>
       </c>
-      <c r="V57" s="13" t="s">
+      <c r="V58" s="13" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
-      <c r="A58" s="19"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="16"/>
-    </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="B59" t="s">
-        <v>316</v>
-      </c>
-      <c r="G59" t="s">
-        <v>315</v>
-      </c>
-      <c r="H59">
-        <v>5.35</v>
-      </c>
-      <c r="I59">
-        <v>2.7E-2</v>
-      </c>
-      <c r="J59">
-        <v>7.24</v>
-      </c>
-      <c r="K59">
-        <v>1.46</v>
-      </c>
-      <c r="L59">
-        <v>4.99</v>
-      </c>
-      <c r="M59">
-        <v>3.32</v>
-      </c>
-      <c r="N59">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="O59">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="P59">
-        <v>9.4200000000000006E-2</v>
-      </c>
-      <c r="Q59">
-        <v>0.10920000000000001</v>
-      </c>
-      <c r="R59">
-        <v>0.20449999999999999</v>
-      </c>
-      <c r="S59">
-        <v>0.51690000000000003</v>
-      </c>
-      <c r="T59">
-        <v>1.33</v>
-      </c>
-      <c r="V59" s="79" t="s">
-        <v>314</v>
+      <c r="A59" s="18"/>
+      <c r="B59" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="34" t="s">
+        <v>652</v>
+      </c>
+      <c r="H59" s="24">
+        <v>69.87</v>
+      </c>
+      <c r="I59" s="24">
+        <v>8.42</v>
+      </c>
+      <c r="J59" s="12"/>
+      <c r="K59" s="42">
+        <v>7.42</v>
+      </c>
+      <c r="L59" s="12"/>
+      <c r="M59" s="42">
+        <v>10.8</v>
+      </c>
+      <c r="N59" s="42">
+        <v>3.43</v>
+      </c>
+      <c r="O59" s="21">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="P59" s="21">
+        <v>-0.2737</v>
+      </c>
+      <c r="Q59" s="21">
+        <v>0.54820000000000002</v>
+      </c>
+      <c r="R59" s="21">
+        <v>-9.1200000000000003E-2</v>
+      </c>
+      <c r="S59" s="21">
+        <v>4.5805999999999996</v>
+      </c>
+      <c r="T59" s="35">
+        <v>0.62</v>
+      </c>
+      <c r="U59" s="44">
+        <v>2801780</v>
+      </c>
+      <c r="V59" s="13" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="18"/>
-      <c r="B60" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="54" t="s">
-        <v>317</v>
-      </c>
-      <c r="H60" s="55">
-        <v>7.01</v>
-      </c>
-      <c r="I60" s="55">
-        <v>1.07</v>
-      </c>
-      <c r="J60" s="56">
-        <v>3.52</v>
-      </c>
-      <c r="K60" s="56">
-        <v>1.07</v>
-      </c>
-      <c r="L60" s="56">
-        <v>2.16</v>
-      </c>
-      <c r="M60" s="56">
-        <v>0.75</v>
-      </c>
-      <c r="N60" s="56">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="O60" s="57">
-        <v>5.0500000000000003E-2</v>
-      </c>
-      <c r="P60" s="57">
-        <v>0.38150000000000001</v>
-      </c>
-      <c r="Q60" s="57">
-        <v>0.20930000000000001</v>
-      </c>
-      <c r="R60" s="57">
-        <v>0.30209999999999998</v>
-      </c>
-      <c r="S60" s="57">
-        <v>2.0200999999999998</v>
-      </c>
-      <c r="T60" s="56">
-        <v>0.92</v>
-      </c>
-      <c r="U60" s="73">
-        <v>147850</v>
-      </c>
-      <c r="V60" s="68" t="s">
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="13"/>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="19"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="22"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="16"/>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="17" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
-      <c r="A61" s="18"/>
-      <c r="B61" s="60" t="s">
-        <v>320</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="H61" s="24">
-        <v>8.23</v>
-      </c>
-      <c r="I61" s="24">
-        <v>-0.16222</v>
-      </c>
-      <c r="J61" s="42">
-        <v>66.62</v>
-      </c>
-      <c r="K61" s="42">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="L61" s="42">
-        <v>11.01</v>
-      </c>
-      <c r="M61" s="42">
-        <v>20.14</v>
-      </c>
-      <c r="N61" s="42">
-        <v>1.25</v>
-      </c>
-      <c r="O61" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="P61" s="21">
-        <v>-6.4799999999999996E-2</v>
-      </c>
-      <c r="Q61" s="21">
-        <v>0.23269999999999999</v>
-      </c>
-      <c r="R61" s="21">
-        <v>6.3100000000000003E-2</v>
-      </c>
-      <c r="S61" s="21">
-        <v>6.0811999999999999</v>
-      </c>
-      <c r="T61" s="12">
-        <v>1.18</v>
-      </c>
-      <c r="U61" s="12"/>
-      <c r="V61" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
-      <c r="A62" s="18"/>
-      <c r="B62" s="60" t="s">
-        <v>321</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="H62" s="24">
-        <v>19.91</v>
-      </c>
-      <c r="I62" s="24">
-        <v>1.3</v>
-      </c>
-      <c r="J62" s="42">
-        <v>23.48</v>
-      </c>
-      <c r="K62" s="12"/>
-      <c r="L62" s="42">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="M62" s="42">
-        <v>18.78</v>
-      </c>
-      <c r="N62" s="42">
-        <v>2.16</v>
-      </c>
-      <c r="O62" s="21">
-        <v>-2.0799999999999999E-2</v>
-      </c>
-      <c r="P62" s="21">
-        <v>-1.1599999999999999E-2</v>
-      </c>
-      <c r="Q62" s="21">
-        <v>0.20369999999999999</v>
-      </c>
-      <c r="R62" s="21">
-        <v>-5.6839000000000004</v>
-      </c>
-      <c r="S62" s="21">
-        <v>-19.010400000000001</v>
-      </c>
-      <c r="T62" s="35">
-        <v>0.74</v>
-      </c>
-      <c r="U62" s="35"/>
-      <c r="V62" s="13" t="s">
+      <c r="B62" t="s">
+        <v>316</v>
+      </c>
+      <c r="G62" t="s">
+        <v>315</v>
+      </c>
+      <c r="H62">
+        <v>5.35</v>
+      </c>
+      <c r="I62">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J62">
+        <v>7.24</v>
+      </c>
+      <c r="K62">
+        <v>1.46</v>
+      </c>
+      <c r="L62">
+        <v>4.99</v>
+      </c>
+      <c r="M62">
+        <v>3.32</v>
+      </c>
+      <c r="N62">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="O62">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P62">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="Q62">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="R62">
+        <v>0.20449999999999999</v>
+      </c>
+      <c r="S62">
+        <v>0.51690000000000003</v>
+      </c>
+      <c r="T62">
+        <v>1.33</v>
+      </c>
+      <c r="V62" s="79" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="18"/>
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="109" t="s">
+        <v>318</v>
+      </c>
+      <c r="C63" s="109"/>
+      <c r="D63" s="109"/>
+      <c r="E63" s="109"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="110" t="s">
+        <v>317</v>
+      </c>
+      <c r="H63" s="111">
+        <v>7.01</v>
+      </c>
+      <c r="I63" s="111">
+        <v>1.07</v>
+      </c>
+      <c r="J63" s="109">
+        <v>3.52</v>
+      </c>
+      <c r="K63" s="109">
+        <v>1.07</v>
+      </c>
+      <c r="L63" s="109">
+        <v>2.16</v>
+      </c>
+      <c r="M63" s="109">
+        <v>0.75</v>
+      </c>
+      <c r="N63" s="109">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O63" s="112">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="P63" s="112">
+        <v>0.38150000000000001</v>
+      </c>
+      <c r="Q63" s="112">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="R63" s="112">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="S63" s="112">
+        <v>2.0200999999999998</v>
+      </c>
+      <c r="T63" s="109">
+        <v>0.92</v>
+      </c>
+      <c r="U63" s="114">
+        <v>147850</v>
+      </c>
+      <c r="V63" s="113" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="18"/>
+      <c r="B64" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="H64" s="24">
+        <v>8.23</v>
+      </c>
+      <c r="I64" s="24">
+        <v>-0.16222</v>
+      </c>
+      <c r="J64" s="42">
+        <v>66.62</v>
+      </c>
+      <c r="K64" s="42">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="L64" s="42">
+        <v>11.01</v>
+      </c>
+      <c r="M64" s="42">
+        <v>20.14</v>
+      </c>
+      <c r="N64" s="42">
+        <v>1.25</v>
+      </c>
+      <c r="O64" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="P64" s="21">
+        <v>-6.4799999999999996E-2</v>
+      </c>
+      <c r="Q64" s="21">
+        <v>0.23269999999999999</v>
+      </c>
+      <c r="R64" s="21">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="S64" s="21">
+        <v>6.0811999999999999</v>
+      </c>
+      <c r="T64" s="12">
+        <v>1.18</v>
+      </c>
+      <c r="U64" s="12"/>
+      <c r="V64" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" s="18"/>
+      <c r="B65" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="H65" s="24">
+        <v>19.91</v>
+      </c>
+      <c r="I65" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="J65" s="42">
+        <v>23.48</v>
+      </c>
+      <c r="K65" s="12"/>
+      <c r="L65" s="42">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="M65" s="42">
+        <v>18.78</v>
+      </c>
+      <c r="N65" s="42">
+        <v>2.16</v>
+      </c>
+      <c r="O65" s="21">
+        <v>-2.0799999999999999E-2</v>
+      </c>
+      <c r="P65" s="21">
+        <v>-1.1599999999999999E-2</v>
+      </c>
+      <c r="Q65" s="21">
+        <v>0.20369999999999999</v>
+      </c>
+      <c r="R65" s="21">
+        <v>-5.6839000000000004</v>
+      </c>
+      <c r="S65" s="21">
+        <v>-19.010400000000001</v>
+      </c>
+      <c r="T65" s="35">
+        <v>0.74</v>
+      </c>
+      <c r="U65" s="35"/>
+      <c r="V65" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="18"/>
+      <c r="B66" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="34" t="s">
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="H63" s="24">
+      <c r="H66" s="24">
         <v>26.15</v>
       </c>
-      <c r="I63" s="24">
+      <c r="I66" s="24">
         <v>1.03</v>
       </c>
-      <c r="J63" s="42">
+      <c r="J66" s="42">
         <v>21.3</v>
       </c>
-      <c r="K63" s="42">
+      <c r="K66" s="42">
         <v>24.22</v>
       </c>
-      <c r="L63" s="42">
+      <c r="L66" s="42">
         <v>16.38</v>
       </c>
-      <c r="M63" s="42">
+      <c r="M66" s="42">
         <v>17.53</v>
       </c>
-      <c r="N63" s="42">
+      <c r="N66" s="42">
         <v>1.27</v>
       </c>
-      <c r="O63" s="21">
+      <c r="O66" s="21">
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="P63" s="21">
+      <c r="P66" s="21">
         <v>0.1183</v>
       </c>
-      <c r="Q63" s="21">
+      <c r="Q66" s="21">
         <v>0.1144</v>
       </c>
-      <c r="R63" s="21">
+      <c r="R66" s="21">
         <v>1.1615</v>
       </c>
-      <c r="S63" s="21">
+      <c r="S66" s="21">
         <v>17.0014</v>
       </c>
-      <c r="T63" s="35">
+      <c r="T66" s="35">
         <v>0.49</v>
       </c>
-      <c r="U63" s="35"/>
-      <c r="V63" s="13" t="s">
+      <c r="U66" s="35"/>
+      <c r="V66" s="13" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
-      <c r="A64" s="19"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="16"/>
+    <row r="67" spans="1:22">
+      <c r="A67" s="19"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="22"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stock/US_Stock.xlsx
+++ b/Stock/US_Stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56E6529-F1D7-4C4C-821A-CF6F6DA3D1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6759747B-18E4-4356-ACAC-3A92E0CDD6CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="14" r:id="rId1"/>
@@ -2771,10 +2771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B4BCA-42DA-4C85-9005-E70B6BE65D74}">
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection sqref="A1:XFD80"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3736,21 +3736,21 @@
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="40"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="47"/>
       <c r="V19" s="13"/>
     </row>
     <row r="20" spans="1:22">
@@ -3775,213 +3775,103 @@
       <c r="S20" s="21"/>
       <c r="T20" s="45"/>
       <c r="U20" s="47"/>
-      <c r="V20" s="16"/>
+      <c r="V20" s="13"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="H21" s="38">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="I21" s="38">
-        <v>4.0160000000000001E-2</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="49">
-        <v>55.63</v>
-      </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9">
-        <v>30.7</v>
-      </c>
-      <c r="O21" s="20">
-        <v>0.46820000000000001</v>
-      </c>
-      <c r="P21" s="20">
-        <v>0.2059</v>
-      </c>
-      <c r="Q21" s="20">
-        <v>-0.28079999999999999</v>
-      </c>
-      <c r="R21" s="20">
-        <v>-0.64580000000000004</v>
-      </c>
-      <c r="S21" s="20">
-        <v>2.7242999999999999</v>
-      </c>
-      <c r="T21" s="9">
-        <v>2</v>
-      </c>
-      <c r="U21" s="9"/>
-      <c r="V21" s="10" t="s">
-        <v>171</v>
-      </c>
+      <c r="A21" s="31"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="13"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="31"/>
-      <c r="B22" s="11" t="s">
-        <v>309</v>
-      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="H22" s="24">
-        <v>15.33</v>
-      </c>
-      <c r="I22" s="24">
-        <v>1.2460000000000001E-2</v>
-      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="42">
-        <v>35.58</v>
-      </c>
+      <c r="K22" s="42"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="42">
-        <v>-179.93</v>
-      </c>
-      <c r="N22" s="42">
-        <v>31.45</v>
-      </c>
-      <c r="O22" s="21">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="P22" s="21">
-        <v>-1.5299999999999999E-2</v>
-      </c>
-      <c r="Q22" s="21">
-        <v>-0.25459999999999999</v>
-      </c>
-      <c r="R22" s="21">
-        <v>-0.3332</v>
-      </c>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="45">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="U22" s="45"/>
-      <c r="V22" s="13" t="s">
-        <v>310</v>
-      </c>
+      <c r="T22" s="45"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="13"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="31"/>
-      <c r="B23" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="G23" t="s">
-        <v>441</v>
-      </c>
-      <c r="H23" s="69">
-        <v>1.89</v>
-      </c>
-      <c r="I23" s="69">
-        <v>-2.8999999999999998E-3</v>
-      </c>
-      <c r="K23">
-        <v>2.94</v>
-      </c>
-      <c r="L23">
-        <v>59.19</v>
-      </c>
-      <c r="M23">
-        <v>43.53</v>
-      </c>
-      <c r="N23">
-        <v>7.67</v>
-      </c>
-      <c r="O23" s="21">
-        <v>7.0800000000000002E-2</v>
-      </c>
-      <c r="P23" s="21">
-        <v>-8.14E-2</v>
-      </c>
-      <c r="Q23" s="21">
-        <v>0.1797</v>
-      </c>
-      <c r="R23" s="21">
-        <v>-2.3999999999999998E-3</v>
-      </c>
-      <c r="S23" s="21">
-        <v>7.17E-2</v>
-      </c>
-      <c r="T23">
-        <v>3.36</v>
-      </c>
-      <c r="V23" s="13" t="s">
-        <v>442</v>
-      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="13"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="31"/>
-      <c r="B24" s="11" t="s">
-        <v>453</v>
-      </c>
+      <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="H24" s="24">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I24" s="24">
-        <v>0.13303000000000001</v>
-      </c>
-      <c r="J24" s="40">
-        <v>62.38</v>
-      </c>
-      <c r="K24" s="42">
-        <v>10.88</v>
-      </c>
-      <c r="L24" s="42">
-        <v>12.11</v>
-      </c>
-      <c r="M24" s="42">
-        <v>40.72</v>
-      </c>
-      <c r="N24" s="42">
-        <v>12.73</v>
-      </c>
-      <c r="O24" s="21">
-        <v>0.19209999999999999</v>
-      </c>
-      <c r="P24" s="21">
-        <v>0.18990000000000001</v>
-      </c>
-      <c r="Q24" s="21">
-        <v>0.32929999999999998</v>
-      </c>
-      <c r="R24" s="21">
-        <v>0.18429999999999999</v>
-      </c>
-      <c r="S24" s="21">
-        <v>0.1341</v>
-      </c>
-      <c r="T24" s="45">
-        <v>1.8</v>
-      </c>
-      <c r="U24" s="45"/>
-      <c r="V24" s="13" t="s">
-        <v>451</v>
-      </c>
+      <c r="G24" s="71"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="13"/>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="31"/>
@@ -3990,2682 +3880,3056 @@
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="40"/>
       <c r="V25" s="13"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="H26" s="38">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="I26" s="38">
-        <v>1.76</v>
-      </c>
-      <c r="J26" s="9">
-        <v>12.01</v>
-      </c>
-      <c r="K26" s="49">
-        <v>5.13</v>
-      </c>
-      <c r="L26" s="9">
-        <v>11.29</v>
-      </c>
-      <c r="M26" s="9">
-        <v>21.56</v>
-      </c>
-      <c r="N26" s="9">
-        <v>6.24</v>
-      </c>
-      <c r="O26" s="20">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="P26" s="20">
-        <v>0.40920000000000001</v>
-      </c>
-      <c r="Q26" s="20">
-        <v>0.2611</v>
-      </c>
-      <c r="R26" s="20">
-        <v>0.43190000000000001</v>
-      </c>
-      <c r="S26" s="20">
-        <v>0.1711</v>
-      </c>
-      <c r="T26" s="9">
-        <v>3.08</v>
-      </c>
-      <c r="U26" s="38">
-        <v>555460</v>
-      </c>
-      <c r="V26" s="10" t="s">
-        <v>483</v>
-      </c>
+      <c r="A26" s="31"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="13"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="31"/>
-      <c r="B27" s="11" t="s">
-        <v>484</v>
-      </c>
+      <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="34" t="s">
-        <v>485</v>
-      </c>
-      <c r="H27" s="24">
-        <v>48.99</v>
-      </c>
-      <c r="I27" s="24">
-        <v>1.72</v>
-      </c>
-      <c r="J27" s="40">
-        <v>32.68</v>
-      </c>
-      <c r="K27" s="42">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="L27" s="42">
-        <v>23.6</v>
-      </c>
-      <c r="M27" s="42">
-        <v>18.2</v>
-      </c>
-      <c r="N27" s="42">
-        <v>7.54</v>
-      </c>
-      <c r="O27" s="21">
-        <v>8.0399999999999999E-2</v>
-      </c>
-      <c r="P27" s="21">
-        <v>0.1162</v>
-      </c>
-      <c r="Q27" s="21">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="R27" s="21">
-        <v>0.1237</v>
-      </c>
-      <c r="S27" s="21">
-        <v>0.23019999999999999</v>
-      </c>
-      <c r="T27" s="45">
-        <v>2.91</v>
-      </c>
-      <c r="U27" s="24">
-        <v>705330</v>
-      </c>
-      <c r="V27" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="G27" s="71"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="13"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="31"/>
-      <c r="B28" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="G28" t="s">
-        <v>487</v>
-      </c>
-      <c r="H28" s="69">
-        <v>7.16</v>
-      </c>
-      <c r="I28" s="69">
-        <v>0.23919000000000001</v>
-      </c>
-      <c r="J28" s="47">
-        <v>188.5</v>
-      </c>
-      <c r="K28">
-        <v>3.85</v>
-      </c>
-      <c r="L28">
-        <v>58.53</v>
-      </c>
-      <c r="M28">
-        <v>111.05</v>
-      </c>
-      <c r="N28">
-        <v>5.37</v>
-      </c>
-      <c r="O28" s="21">
-        <v>0.13869999999999999</v>
-      </c>
-      <c r="P28" s="21">
-        <v>-3.2300000000000002E-2</v>
-      </c>
-      <c r="Q28" s="21">
-        <v>4.3E-3</v>
-      </c>
-      <c r="R28" s="21">
-        <v>2.2700000000000001E-2</v>
-      </c>
-      <c r="S28" s="21">
-        <v>0.36270000000000002</v>
-      </c>
-      <c r="T28">
-        <v>1.73</v>
-      </c>
-      <c r="U28" s="69">
-        <v>701890</v>
-      </c>
-      <c r="V28" s="13" t="s">
-        <v>488</v>
-      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="13"/>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="31"/>
-      <c r="B29" s="11" t="s">
-        <v>491</v>
-      </c>
+      <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H29" s="24">
-        <v>13.72</v>
-      </c>
-      <c r="I29" s="24">
-        <v>0.83518000000000003</v>
-      </c>
-      <c r="J29" s="40">
-        <v>40.76</v>
-      </c>
-      <c r="K29" s="42">
-        <v>6.28</v>
-      </c>
-      <c r="L29" s="42">
-        <v>33.6</v>
-      </c>
-      <c r="M29" s="42">
-        <v>18.93</v>
-      </c>
-      <c r="N29" s="42">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="O29" s="21">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="P29" s="21">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="Q29" s="21">
-        <v>0.15060000000000001</v>
-      </c>
-      <c r="R29" s="21">
-        <v>0.1555</v>
-      </c>
-      <c r="S29" s="21">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="T29" s="45">
-        <v>1.51</v>
-      </c>
-      <c r="U29" s="69">
-        <v>585910</v>
-      </c>
-      <c r="V29" s="13" t="s">
-        <v>492</v>
-      </c>
+      <c r="G29" s="71"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="13"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="31"/>
       <c r="B30" s="11"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="U30" s="76"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="40"/>
       <c r="V30" s="13"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="38">
-        <v>17.07</v>
-      </c>
-      <c r="I31" s="38">
-        <v>0.49623</v>
-      </c>
-      <c r="J31" s="9">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="K31" s="49">
-        <v>4.95</v>
-      </c>
-      <c r="L31" s="9">
-        <v>19.38</v>
-      </c>
-      <c r="M31" s="9">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="N31" s="9">
-        <v>5.92</v>
-      </c>
-      <c r="O31" s="20">
-        <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="P31" s="20">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="Q31" s="20">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="R31" s="20">
-        <v>0.13819999999999999</v>
-      </c>
-      <c r="S31" s="20">
-        <v>0.73029999999999995</v>
-      </c>
-      <c r="T31" s="9">
-        <v>3.28</v>
-      </c>
-      <c r="U31" s="43">
-        <v>382110</v>
-      </c>
-      <c r="V31" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="A31" s="31"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="16"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="31"/>
-      <c r="B32" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="24">
-        <v>8.85</v>
-      </c>
-      <c r="I32" s="24">
-        <v>-3.3099999999999997E-2</v>
-      </c>
-      <c r="J32" s="40"/>
-      <c r="K32" s="42">
-        <v>44.09</v>
-      </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42">
-        <v>20.62</v>
-      </c>
-      <c r="O32" s="21">
-        <v>0.45229999999999998</v>
-      </c>
-      <c r="P32" s="21">
-        <v>0.1799</v>
-      </c>
-      <c r="Q32" s="21">
-        <v>-0.30940000000000001</v>
-      </c>
-      <c r="R32" s="21">
-        <v>-0.89</v>
-      </c>
-      <c r="S32" s="21">
-        <v>11.9099</v>
-      </c>
-      <c r="T32" s="45">
-        <v>3.37</v>
-      </c>
-      <c r="U32" s="74">
-        <v>232610</v>
-      </c>
-      <c r="V32" s="13" t="s">
-        <v>53</v>
+      <c r="A32" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="38">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I32" s="38">
+        <v>4.0160000000000001E-2</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="49">
+        <v>55.63</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9">
+        <v>30.7</v>
+      </c>
+      <c r="O32" s="20">
+        <v>0.46820000000000001</v>
+      </c>
+      <c r="P32" s="20">
+        <v>0.2059</v>
+      </c>
+      <c r="Q32" s="20">
+        <v>-0.28079999999999999</v>
+      </c>
+      <c r="R32" s="20">
+        <v>-0.64580000000000004</v>
+      </c>
+      <c r="S32" s="20">
+        <v>2.7242999999999999</v>
+      </c>
+      <c r="T32" s="9">
+        <v>2</v>
+      </c>
+      <c r="U32" s="9"/>
+      <c r="V32" s="10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="31"/>
       <c r="B33" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="69">
+        <v>309</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="H33" s="24">
+        <v>15.33</v>
+      </c>
+      <c r="I33" s="24">
+        <v>1.2460000000000001E-2</v>
+      </c>
+      <c r="J33" s="40"/>
+      <c r="K33" s="42">
+        <v>35.58</v>
+      </c>
+      <c r="L33" s="12"/>
+      <c r="M33" s="42">
+        <v>-179.93</v>
+      </c>
+      <c r="N33" s="42">
+        <v>31.45</v>
+      </c>
+      <c r="O33" s="21">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="P33" s="21">
+        <v>-1.5299999999999999E-2</v>
+      </c>
+      <c r="Q33" s="21">
+        <v>-0.25459999999999999</v>
+      </c>
+      <c r="R33" s="21">
+        <v>-0.3332</v>
+      </c>
+      <c r="S33" s="21"/>
+      <c r="T33" s="45">
         <v>2.2799999999999998</v>
       </c>
-      <c r="I33" s="69">
-        <v>-4.403E-2</v>
-      </c>
-      <c r="K33">
-        <v>1.49</v>
-      </c>
-      <c r="N33">
-        <v>2.76</v>
-      </c>
-      <c r="O33" s="21">
-        <v>0.36749999999999999</v>
-      </c>
-      <c r="P33" s="21">
-        <v>4.6699999999999998E-2</v>
-      </c>
-      <c r="Q33" s="21">
-        <v>-0.31180000000000002</v>
-      </c>
-      <c r="R33" s="21">
-        <v>-0.22950000000000001</v>
-      </c>
-      <c r="S33" s="21">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="T33">
-        <v>1.31</v>
-      </c>
-      <c r="U33" s="76"/>
+      <c r="U33" s="45"/>
       <c r="V33" s="13" t="s">
-        <v>53</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="31"/>
       <c r="B34" s="11" t="s">
-        <v>117</v>
+        <v>440</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34">
-        <v>56.76</v>
+        <v>441</v>
+      </c>
+      <c r="H34" s="69">
+        <v>1.89</v>
       </c>
       <c r="I34" s="69">
-        <v>0.97108000000000005</v>
-      </c>
-      <c r="J34" s="12">
-        <v>94.51</v>
-      </c>
-      <c r="K34" s="12">
-        <v>37.380000000000003</v>
-      </c>
-      <c r="L34" s="12">
-        <v>63.94</v>
-      </c>
-      <c r="M34" s="42">
-        <v>19.91</v>
-      </c>
-      <c r="N34" s="42">
-        <v>16.239999999999998</v>
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="K34">
+        <v>2.94</v>
+      </c>
+      <c r="L34">
+        <v>59.19</v>
+      </c>
+      <c r="M34">
+        <v>43.53</v>
+      </c>
+      <c r="N34">
+        <v>7.67</v>
       </c>
       <c r="O34" s="21">
-        <v>0.3836</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="P34" s="21">
-        <v>0.44950000000000001</v>
+        <v>-8.14E-2</v>
       </c>
       <c r="Q34" s="21">
-        <v>8.5199999999999998E-2</v>
+        <v>0.1797</v>
       </c>
       <c r="R34" s="21">
-        <v>0.41689999999999999</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
       <c r="S34" s="21">
-        <v>0.53139999999999998</v>
-      </c>
-      <c r="T34" s="35">
-        <v>1.07</v>
-      </c>
-      <c r="U34" s="44">
-        <v>358490</v>
-      </c>
-      <c r="V34" s="23" t="s">
-        <v>443</v>
+        <v>7.17E-2</v>
+      </c>
+      <c r="T34">
+        <v>3.36</v>
+      </c>
+      <c r="V34" s="13" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="31"/>
       <c r="B35" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>110</v>
+        <v>453</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="H35" s="24">
-        <v>34.590000000000003</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I35" s="24">
-        <v>0.52159999999999995</v>
-      </c>
-      <c r="J35" s="40"/>
+        <v>0.13303000000000001</v>
+      </c>
+      <c r="J35" s="40">
+        <v>62.38</v>
+      </c>
       <c r="K35" s="42">
-        <v>15.07</v>
-      </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
+        <v>10.88</v>
+      </c>
+      <c r="L35" s="42">
+        <v>12.11</v>
+      </c>
+      <c r="M35" s="42">
+        <v>40.72</v>
+      </c>
       <c r="N35" s="42">
-        <v>9.41</v>
+        <v>12.73</v>
       </c>
       <c r="O35" s="21">
-        <v>0.35709999999999997</v>
+        <v>0.19209999999999999</v>
       </c>
       <c r="P35" s="21">
-        <v>5.5999999999999999E-3</v>
+        <v>0.18990000000000001</v>
       </c>
       <c r="Q35" s="21">
-        <v>-6.3200000000000006E-2</v>
+        <v>0.32929999999999998</v>
       </c>
       <c r="R35" s="21">
-        <v>-0.2122</v>
+        <v>0.18429999999999999</v>
       </c>
       <c r="S35" s="21">
-        <v>0.63129999999999997</v>
+        <v>0.1341</v>
       </c>
       <c r="T35" s="45">
-        <v>1.01</v>
-      </c>
-      <c r="U35" s="74">
-        <v>297310</v>
-      </c>
+        <v>1.8</v>
+      </c>
+      <c r="U35" s="45"/>
       <c r="V35" s="13" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="31"/>
-      <c r="B36" s="11" t="s">
-        <v>454</v>
-      </c>
+      <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="H36" s="24">
-        <v>2.14</v>
-      </c>
-      <c r="I36" s="24">
-        <v>-5.0770000000000003E-2</v>
-      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="42">
-        <v>12.92</v>
-      </c>
+      <c r="K36" s="42"/>
       <c r="L36" s="42"/>
-      <c r="M36" s="42">
-        <v>-58.17</v>
-      </c>
-      <c r="N36" s="42">
-        <v>10.49</v>
-      </c>
-      <c r="O36" s="21">
-        <v>0.13830000000000001</v>
-      </c>
-      <c r="P36" s="21">
-        <v>8.9399999999999993E-2</v>
-      </c>
-      <c r="Q36" s="21">
-        <v>-0.14960000000000001</v>
-      </c>
-      <c r="R36" s="21">
-        <v>-0.31680000000000003</v>
-      </c>
-      <c r="S36" s="21">
-        <v>0.115</v>
-      </c>
-      <c r="T36" s="45">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="U36" s="74"/>
-      <c r="V36" s="13" t="s">
-        <v>456</v>
-      </c>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="13"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="31"/>
-      <c r="B37" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H37" s="24">
-        <v>1.19</v>
-      </c>
-      <c r="I37" s="24">
-        <v>-2.5010000000000001E-2</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42">
-        <v>-14.33</v>
-      </c>
-      <c r="N37" s="42">
-        <v>4.28</v>
-      </c>
-      <c r="O37" s="21">
-        <v>0.19439999999999999</v>
-      </c>
-      <c r="P37" s="21">
-        <v>0.15820000000000001</v>
-      </c>
-      <c r="Q37" s="21">
-        <v>-0.2737</v>
-      </c>
-      <c r="R37" s="21">
-        <v>-0.4914</v>
-      </c>
-      <c r="S37" s="21">
-        <v>0.4773</v>
-      </c>
-      <c r="T37" s="45">
-        <v>1.79</v>
-      </c>
-      <c r="U37" s="74"/>
-      <c r="V37" s="13" t="s">
-        <v>459</v>
+      <c r="A37" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="H37" s="38">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I37" s="38">
+        <v>1.76</v>
+      </c>
+      <c r="J37" s="9">
+        <v>12.01</v>
+      </c>
+      <c r="K37" s="49">
+        <v>5.13</v>
+      </c>
+      <c r="L37" s="9">
+        <v>11.29</v>
+      </c>
+      <c r="M37" s="9">
+        <v>21.56</v>
+      </c>
+      <c r="N37" s="9">
+        <v>6.24</v>
+      </c>
+      <c r="O37" s="20">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="P37" s="20">
+        <v>0.40920000000000001</v>
+      </c>
+      <c r="Q37" s="20">
+        <v>0.2611</v>
+      </c>
+      <c r="R37" s="20">
+        <v>0.43190000000000001</v>
+      </c>
+      <c r="S37" s="20">
+        <v>0.1711</v>
+      </c>
+      <c r="T37" s="9">
+        <v>3.08</v>
+      </c>
+      <c r="U37" s="38">
+        <v>555460</v>
+      </c>
+      <c r="V37" s="10" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="31"/>
       <c r="B38" s="11" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="34" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="H38" s="24">
-        <v>18.84</v>
+        <v>48.99</v>
       </c>
       <c r="I38" s="24">
-        <v>4.3650000000000001E-2</v>
-      </c>
-      <c r="J38" s="40"/>
+        <v>1.72</v>
+      </c>
+      <c r="J38" s="40">
+        <v>32.68</v>
+      </c>
       <c r="K38" s="42">
-        <v>32.369999999999997</v>
-      </c>
-      <c r="L38" s="12"/>
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="L38" s="42">
+        <v>23.6</v>
+      </c>
       <c r="M38" s="42">
-        <v>-137.94999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="N38" s="42">
-        <v>18.940000000000001</v>
+        <v>7.54</v>
       </c>
       <c r="O38" s="21">
-        <v>0.20619999999999999</v>
+        <v>8.0399999999999999E-2</v>
       </c>
       <c r="P38" s="21">
-        <v>0.12709999999999999</v>
+        <v>0.1162</v>
       </c>
       <c r="Q38" s="21">
-        <v>-0.1472</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="R38" s="21">
-        <v>-0.36549999999999999</v>
+        <v>0.1237</v>
       </c>
       <c r="S38" s="21">
-        <v>1.1870000000000001</v>
+        <v>0.23019999999999999</v>
       </c>
       <c r="T38" s="45">
-        <v>1.55</v>
-      </c>
-      <c r="U38" s="74"/>
+        <v>2.91</v>
+      </c>
+      <c r="U38" s="24">
+        <v>705330</v>
+      </c>
       <c r="V38" s="13" t="s">
-        <v>462</v>
+        <v>632</v>
       </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="31"/>
       <c r="B39" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="34" t="s">
-        <v>466</v>
-      </c>
-      <c r="H39" s="24">
-        <v>5.27</v>
-      </c>
-      <c r="I39" s="24">
-        <v>-2.9420000000000002E-2</v>
-      </c>
-      <c r="J39" s="40"/>
-      <c r="K39" s="42">
-        <v>17.3</v>
-      </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="42">
-        <v>-42.96</v>
-      </c>
-      <c r="N39" s="42">
-        <v>14.76</v>
+        <v>486</v>
+      </c>
+      <c r="G39" t="s">
+        <v>487</v>
+      </c>
+      <c r="H39" s="69">
+        <v>7.16</v>
+      </c>
+      <c r="I39" s="69">
+        <v>0.23919000000000001</v>
+      </c>
+      <c r="J39" s="47">
+        <v>188.5</v>
+      </c>
+      <c r="K39">
+        <v>3.85</v>
+      </c>
+      <c r="L39">
+        <v>58.53</v>
+      </c>
+      <c r="M39">
+        <v>111.05</v>
+      </c>
+      <c r="N39">
+        <v>5.37</v>
       </c>
       <c r="O39" s="21">
-        <v>0.23630000000000001</v>
+        <v>0.13869999999999999</v>
       </c>
       <c r="P39" s="21">
-        <v>0.29149999999999998</v>
+        <v>-3.2300000000000002E-2</v>
       </c>
       <c r="Q39" s="21">
-        <v>-0.36430000000000001</v>
+        <v>4.3E-3</v>
       </c>
       <c r="R39" s="21">
-        <v>-0.50239999999999996</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="S39" s="21">
-        <v>0.1903</v>
-      </c>
-      <c r="T39" s="45">
-        <v>1.71</v>
-      </c>
-      <c r="U39" s="74"/>
+        <v>0.36270000000000002</v>
+      </c>
+      <c r="T39">
+        <v>1.73</v>
+      </c>
+      <c r="U39" s="69">
+        <v>701890</v>
+      </c>
       <c r="V39" s="13" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="31"/>
       <c r="B40" s="11" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="34" t="s">
-        <v>470</v>
+      <c r="G40" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="H40" s="24">
-        <v>20.53</v>
+        <v>13.72</v>
       </c>
       <c r="I40" s="24">
-        <v>-0.39134000000000002</v>
-      </c>
-      <c r="J40" s="40"/>
+        <v>0.83518000000000003</v>
+      </c>
+      <c r="J40" s="40">
+        <v>40.76</v>
+      </c>
       <c r="K40" s="42">
-        <v>11.97</v>
-      </c>
-      <c r="L40" s="12"/>
-      <c r="M40" s="47">
-        <v>-4477.8900000000003</v>
+        <v>6.28</v>
+      </c>
+      <c r="L40" s="42">
+        <v>33.6</v>
+      </c>
+      <c r="M40" s="42">
+        <v>18.93</v>
       </c>
       <c r="N40" s="42">
-        <v>8.48</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="O40" s="21">
-        <v>0.39229999999999998</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="P40" s="21">
-        <v>5.62E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="Q40" s="21">
-        <v>-8.3000000000000004E-2</v>
+        <v>0.15060000000000001</v>
       </c>
       <c r="R40" s="21">
-        <v>-0.2014</v>
+        <v>0.1555</v>
       </c>
       <c r="S40" s="21">
-        <v>1.1615</v>
+        <v>7.3099999999999998E-2</v>
       </c>
       <c r="T40" s="45">
-        <v>2.64</v>
-      </c>
-      <c r="U40" s="74"/>
+        <v>1.51</v>
+      </c>
+      <c r="U40" s="69">
+        <v>585910</v>
+      </c>
       <c r="V40" s="13" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="31"/>
-      <c r="B41" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H41" s="24">
+      <c r="B41" s="11"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="U41" s="76"/>
+      <c r="V41" s="13"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="38">
+        <v>17.07</v>
+      </c>
+      <c r="I42" s="38">
+        <v>0.49623</v>
+      </c>
+      <c r="J42" s="9">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="K42" s="49">
+        <v>4.95</v>
+      </c>
+      <c r="L42" s="9">
+        <v>19.38</v>
+      </c>
+      <c r="M42" s="9">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="N42" s="9">
+        <v>5.92</v>
+      </c>
+      <c r="O42" s="20">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="P42" s="20">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="Q42" s="20">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="R42" s="20">
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="S42" s="20">
+        <v>0.73029999999999995</v>
+      </c>
+      <c r="T42" s="9">
+        <v>3.28</v>
+      </c>
+      <c r="U42" s="43">
+        <v>382110</v>
+      </c>
+      <c r="V42" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="31"/>
+      <c r="B43" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="24">
+        <v>8.85</v>
+      </c>
+      <c r="I43" s="24">
+        <v>-3.3099999999999997E-2</v>
+      </c>
+      <c r="J43" s="40"/>
+      <c r="K43" s="42">
+        <v>44.09</v>
+      </c>
+      <c r="L43" s="12"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42">
+        <v>20.62</v>
+      </c>
+      <c r="O43" s="21">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="P43" s="21">
+        <v>0.1799</v>
+      </c>
+      <c r="Q43" s="21">
+        <v>-0.30940000000000001</v>
+      </c>
+      <c r="R43" s="21">
+        <v>-0.89</v>
+      </c>
+      <c r="S43" s="21">
+        <v>11.9099</v>
+      </c>
+      <c r="T43" s="45">
+        <v>3.37</v>
+      </c>
+      <c r="U43" s="74">
+        <v>232610</v>
+      </c>
+      <c r="V43" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="31"/>
+      <c r="B44" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="69">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I44" s="69">
+        <v>-4.403E-2</v>
+      </c>
+      <c r="K44">
+        <v>1.49</v>
+      </c>
+      <c r="N44">
+        <v>2.76</v>
+      </c>
+      <c r="O44" s="21">
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="P44" s="21">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="Q44" s="21">
+        <v>-0.31180000000000002</v>
+      </c>
+      <c r="R44" s="21">
+        <v>-0.22950000000000001</v>
+      </c>
+      <c r="S44" s="21">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="T44">
+        <v>1.31</v>
+      </c>
+      <c r="U44" s="76"/>
+      <c r="V44" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="31"/>
+      <c r="B45" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45">
+        <v>56.76</v>
+      </c>
+      <c r="I45" s="69">
+        <v>0.97108000000000005</v>
+      </c>
+      <c r="J45" s="12">
+        <v>94.51</v>
+      </c>
+      <c r="K45" s="12">
+        <v>37.380000000000003</v>
+      </c>
+      <c r="L45" s="12">
+        <v>63.94</v>
+      </c>
+      <c r="M45" s="42">
+        <v>19.91</v>
+      </c>
+      <c r="N45" s="42">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="O45" s="21">
+        <v>0.3836</v>
+      </c>
+      <c r="P45" s="21">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="Q45" s="21">
+        <v>8.5199999999999998E-2</v>
+      </c>
+      <c r="R45" s="21">
+        <v>0.41689999999999999</v>
+      </c>
+      <c r="S45" s="21">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="T45" s="35">
+        <v>1.07</v>
+      </c>
+      <c r="U45" s="44">
+        <v>358490</v>
+      </c>
+      <c r="V45" s="23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="31"/>
+      <c r="B46" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" s="24">
+        <v>34.590000000000003</v>
+      </c>
+      <c r="I46" s="24">
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="J46" s="40"/>
+      <c r="K46" s="42">
+        <v>15.07</v>
+      </c>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="42">
+        <v>9.41</v>
+      </c>
+      <c r="O46" s="21">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="P46" s="21">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="Q46" s="21">
+        <v>-6.3200000000000006E-2</v>
+      </c>
+      <c r="R46" s="21">
+        <v>-0.2122</v>
+      </c>
+      <c r="S46" s="21">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="T46" s="45">
+        <v>1.01</v>
+      </c>
+      <c r="U46" s="74">
+        <v>297310</v>
+      </c>
+      <c r="V46" s="13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="31"/>
+      <c r="B47" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H47" s="24">
+        <v>2.14</v>
+      </c>
+      <c r="I47" s="24">
+        <v>-5.0770000000000003E-2</v>
+      </c>
+      <c r="J47" s="40"/>
+      <c r="K47" s="42">
         <v>12.92</v>
       </c>
-      <c r="I41" s="24">
-        <v>7.9100000000000004E-4</v>
-      </c>
-      <c r="J41" s="40"/>
-      <c r="K41" s="42">
-        <v>26.08</v>
-      </c>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42">
-        <v>720.32</v>
-      </c>
-      <c r="N41" s="42">
-        <v>35.33</v>
-      </c>
-      <c r="O41" s="21">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="P41" s="21">
-        <v>1.0047999999999999</v>
-      </c>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="S41" s="21">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="T41" s="45">
-        <v>3.6</v>
-      </c>
-      <c r="U41" s="74"/>
-      <c r="V41" s="13" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="A42" s="31"/>
-      <c r="B42" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="H42" s="24">
-        <v>11.05</v>
-      </c>
-      <c r="I42" s="24">
-        <v>5.6189999999999997E-2</v>
-      </c>
-      <c r="J42" s="40"/>
-      <c r="K42" s="42">
-        <v>25.77</v>
-      </c>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42">
-        <v>-188.37</v>
-      </c>
-      <c r="N42" s="42">
-        <v>27.74</v>
-      </c>
-      <c r="O42" s="21">
-        <v>0.50280000000000002</v>
-      </c>
-      <c r="P42" s="21">
-        <v>0.1888</v>
-      </c>
-      <c r="Q42" s="21">
-        <v>-0.10589999999999999</v>
-      </c>
-      <c r="R42" s="21">
-        <v>-0.2165</v>
-      </c>
-      <c r="S42" s="21">
-        <v>1.7579</v>
-      </c>
-      <c r="T42" s="45">
-        <v>1.8</v>
-      </c>
-      <c r="U42" s="74">
-        <v>230190</v>
-      </c>
-      <c r="V42" s="13" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="19"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="U43" s="76"/>
-      <c r="V43" s="16"/>
-    </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="38">
-        <v>172.65</v>
-      </c>
-      <c r="I44" s="43">
-        <v>12.4</v>
-      </c>
-      <c r="J44" s="9">
-        <v>17.18</v>
-      </c>
-      <c r="K44" s="9">
-        <v>10.16</v>
-      </c>
-      <c r="L44" s="9">
-        <v>12.93</v>
-      </c>
-      <c r="M44" s="9">
-        <v>12.37</v>
-      </c>
-      <c r="N44" s="9">
-        <v>4.47</v>
-      </c>
-      <c r="O44" s="20">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="P44" s="20">
-        <v>2E-3</v>
-      </c>
-      <c r="Q44" s="20">
-        <v>0.43230000000000002</v>
-      </c>
-      <c r="R44" s="20">
-        <v>0.61470000000000002</v>
-      </c>
-      <c r="S44" s="20">
-        <v>3.7614999999999998</v>
-      </c>
-      <c r="T44" s="29">
-        <v>2.31</v>
-      </c>
-      <c r="U44" s="43">
-        <v>292400</v>
-      </c>
-      <c r="V44" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="18"/>
-      <c r="B45" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" s="24">
-        <v>147.31</v>
-      </c>
-      <c r="I45" s="24">
-        <v>3.01</v>
-      </c>
-      <c r="J45" s="12">
-        <v>39.43</v>
-      </c>
-      <c r="K45" s="12">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="L45" s="12">
-        <v>25.28</v>
-      </c>
-      <c r="M45" s="42">
-        <v>24.47</v>
-      </c>
-      <c r="N45" s="12">
-        <v>4.76</v>
-      </c>
-      <c r="O45" s="21">
-        <v>7.7899999999999997E-2</v>
-      </c>
-      <c r="P45" s="21">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="Q45" s="21">
-        <v>0.29559999999999997</v>
-      </c>
-      <c r="R45" s="21">
-        <v>0.1133</v>
-      </c>
-      <c r="S45" s="21">
-        <v>0.51449999999999996</v>
-      </c>
-      <c r="T45" s="35">
-        <v>1.03</v>
-      </c>
-      <c r="U45" s="44">
-        <v>311460</v>
-      </c>
-      <c r="V45" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="18"/>
-      <c r="B46" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="H46" s="24">
-        <v>68.78</v>
-      </c>
-      <c r="I46" s="24">
-        <v>2.17</v>
-      </c>
-      <c r="J46" s="42">
-        <v>42.72</v>
-      </c>
-      <c r="K46" s="42">
-        <v>18.09</v>
-      </c>
-      <c r="L46" s="42">
-        <v>36.96</v>
-      </c>
-      <c r="M46" s="42">
-        <v>56.59</v>
-      </c>
-      <c r="N46" s="42">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="O46" s="21">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="P46" s="21">
-        <v>0.1099</v>
-      </c>
-      <c r="Q46" s="21">
-        <v>0.30009999999999998</v>
-      </c>
-      <c r="R46" s="21">
-        <v>0.42980000000000002</v>
-      </c>
-      <c r="S46" s="21">
-        <v>0.20230000000000001</v>
-      </c>
-      <c r="T46" s="35">
-        <v>1.79</v>
-      </c>
-      <c r="U46" s="44">
-        <v>758190</v>
-      </c>
-      <c r="V46" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
-      <c r="A47" s="18"/>
-      <c r="B47" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="H47" s="24">
-        <v>39.020000000000003</v>
-      </c>
-      <c r="I47" s="24">
-        <v>1.36</v>
-      </c>
-      <c r="J47" s="12">
-        <v>185.28</v>
-      </c>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12">
-        <v>114.29</v>
-      </c>
+      <c r="L47" s="42"/>
       <c r="M47" s="42">
-        <v>59.18</v>
+        <v>-58.17</v>
       </c>
       <c r="N47" s="42">
-        <v>10.85</v>
+        <v>10.49</v>
       </c>
       <c r="O47" s="21">
-        <v>5.4399999999999997E-2</v>
+        <v>0.13830000000000001</v>
       </c>
       <c r="P47" s="21">
-        <v>8.3799999999999999E-2</v>
+        <v>8.9399999999999993E-2</v>
       </c>
       <c r="Q47" s="21">
-        <v>0.15090000000000001</v>
+        <v>-0.14960000000000001</v>
       </c>
       <c r="R47" s="21">
-        <v>-1.1436999999999999</v>
+        <v>-0.31680000000000003</v>
       </c>
       <c r="S47" s="21">
-        <v>-18.293299999999999</v>
-      </c>
-      <c r="T47" s="35">
-        <v>0.66</v>
-      </c>
-      <c r="U47" s="44"/>
-      <c r="V47" s="23" t="s">
-        <v>121</v>
+        <v>0.115</v>
+      </c>
+      <c r="T47" s="45">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="U47" s="74"/>
+      <c r="V47" s="13" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="18"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="11" t="s">
-        <v>311</v>
+        <v>457</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="34" t="s">
-        <v>312</v>
+      <c r="G48" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="H48" s="24">
-        <v>4.99</v>
+        <v>1.19</v>
       </c>
       <c r="I48" s="24">
-        <v>-4.9750000000000003E-2</v>
+        <v>-2.5010000000000001E-2</v>
       </c>
       <c r="J48" s="40"/>
-      <c r="K48" s="42">
-        <v>13.93</v>
-      </c>
-      <c r="L48" s="12"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
       <c r="M48" s="42">
-        <v>-31.94</v>
+        <v>-14.33</v>
       </c>
       <c r="N48" s="42">
-        <v>12.4</v>
+        <v>4.28</v>
       </c>
       <c r="O48" s="21">
-        <v>0.25240000000000001</v>
+        <v>0.19439999999999999</v>
       </c>
       <c r="P48" s="21">
-        <v>0.14630000000000001</v>
+        <v>0.15820000000000001</v>
       </c>
       <c r="Q48" s="21">
-        <v>-0.36609999999999998</v>
+        <v>-0.2737</v>
       </c>
       <c r="R48" s="21">
-        <v>-0.499</v>
+        <v>-0.4914</v>
       </c>
       <c r="S48" s="21">
-        <v>8.6800000000000002E-2</v>
+        <v>0.4773</v>
       </c>
       <c r="T48" s="45">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="U48" s="74"/>
       <c r="V48" s="13" t="s">
-        <v>313</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="18"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="11" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="34" t="s">
-        <v>107</v>
+        <v>461</v>
       </c>
       <c r="H49" s="24">
-        <v>14.93</v>
+        <v>18.84</v>
       </c>
       <c r="I49" s="24">
-        <v>-6.2019999999999999E-2</v>
+        <v>4.3650000000000001E-2</v>
       </c>
       <c r="J49" s="40"/>
       <c r="K49" s="42">
-        <v>36.75</v>
+        <v>32.369999999999997</v>
       </c>
       <c r="L49" s="12"/>
-      <c r="M49" s="42"/>
+      <c r="M49" s="42">
+        <v>-137.94999999999999</v>
+      </c>
       <c r="N49" s="42">
-        <v>23.21</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="O49" s="21">
-        <v>0.23380000000000001</v>
+        <v>0.20619999999999999</v>
       </c>
       <c r="P49" s="21">
-        <v>0.34029999999999999</v>
+        <v>0.12709999999999999</v>
       </c>
       <c r="Q49" s="21">
-        <v>-0.84189999999999998</v>
+        <v>-0.1472</v>
       </c>
       <c r="R49" s="21">
-        <v>-1.4341999999999999</v>
+        <v>-0.36549999999999999</v>
       </c>
       <c r="S49" s="21">
-        <v>0.32</v>
+        <v>1.1870000000000001</v>
       </c>
       <c r="T49" s="45">
-        <v>2.2599999999999998</v>
+        <v>1.55</v>
       </c>
       <c r="U49" s="74"/>
       <c r="V49" s="13" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="18"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="11" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="71" t="s">
-        <v>449</v>
+      <c r="G50" s="34" t="s">
+        <v>466</v>
       </c>
       <c r="H50" s="24">
-        <v>27.25</v>
+        <v>5.27</v>
       </c>
       <c r="I50" s="24">
-        <v>0.43425999999999998</v>
-      </c>
-      <c r="J50" s="40">
-        <v>95.68</v>
-      </c>
+        <v>-2.9420000000000002E-2</v>
+      </c>
+      <c r="J50" s="40"/>
       <c r="K50" s="42">
-        <v>18.03</v>
-      </c>
-      <c r="L50" s="42">
-        <v>84.31</v>
-      </c>
+        <v>17.3</v>
+      </c>
+      <c r="L50" s="12"/>
       <c r="M50" s="42">
-        <v>98.15</v>
+        <v>-42.96</v>
       </c>
       <c r="N50" s="42">
-        <v>24.51</v>
+        <v>14.76</v>
       </c>
       <c r="O50" s="21">
-        <v>0.28660000000000002</v>
+        <v>0.23630000000000001</v>
       </c>
       <c r="P50" s="21">
-        <v>0.4859</v>
+        <v>0.29149999999999998</v>
       </c>
       <c r="Q50" s="21">
-        <v>0.27839999999999998</v>
+        <v>-0.36430000000000001</v>
       </c>
       <c r="R50" s="21">
-        <v>0.2006</v>
+        <v>-0.50239999999999996</v>
       </c>
       <c r="S50" s="21">
-        <v>3.2899999999999999E-2</v>
+        <v>0.1903</v>
       </c>
       <c r="T50" s="45">
-        <v>3.84</v>
+        <v>1.71</v>
       </c>
       <c r="U50" s="74"/>
       <c r="V50" s="13" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="18"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="11" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="2" t="s">
-        <v>465</v>
+      <c r="G51" s="34" t="s">
+        <v>470</v>
       </c>
       <c r="H51" s="24">
-        <v>6.75</v>
+        <v>20.53</v>
       </c>
       <c r="I51" s="24">
-        <v>1.221E-2</v>
+        <v>-0.39134000000000002</v>
       </c>
       <c r="J51" s="40"/>
       <c r="K51" s="42">
-        <v>16.87</v>
-      </c>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42">
-        <v>-205.95</v>
+        <v>11.97</v>
+      </c>
+      <c r="L51" s="12"/>
+      <c r="M51" s="47">
+        <v>-4477.8900000000003</v>
       </c>
       <c r="N51" s="42">
-        <v>17.079999999999998</v>
+        <v>8.48</v>
       </c>
       <c r="O51" s="21">
-        <v>0.17960000000000001</v>
+        <v>0.39229999999999998</v>
       </c>
       <c r="P51" s="21">
-        <v>-6.2300000000000001E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="Q51" s="21">
-        <v>-0.1048</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="R51" s="21">
-        <v>-0.12970000000000001</v>
+        <v>-0.2014</v>
       </c>
       <c r="S51" s="21">
-        <v>0.14460000000000001</v>
+        <v>1.1615</v>
       </c>
       <c r="T51" s="45">
-        <v>2.0099999999999998</v>
+        <v>2.64</v>
       </c>
       <c r="U51" s="74"/>
       <c r="V51" s="13" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="18"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="11" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="2" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="H52" s="24">
-        <v>161.06</v>
+        <v>12.92</v>
       </c>
       <c r="I52" s="24">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="J52" s="40">
-        <v>50.52</v>
-      </c>
+        <v>7.9100000000000004E-4</v>
+      </c>
+      <c r="J52" s="40"/>
       <c r="K52" s="42">
-        <v>15.68</v>
-      </c>
-      <c r="L52" s="42">
-        <v>40.24</v>
-      </c>
+        <v>26.08</v>
+      </c>
+      <c r="L52" s="42"/>
       <c r="M52" s="42">
-        <v>35.229999999999997</v>
+        <v>720.32</v>
       </c>
       <c r="N52" s="42">
-        <v>13.84</v>
+        <v>35.33</v>
       </c>
       <c r="O52" s="21">
-        <v>9.2200000000000004E-2</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="P52" s="21">
-        <v>0.44219999999999998</v>
-      </c>
-      <c r="Q52" s="21">
-        <v>0.3679</v>
-      </c>
+        <v>1.0047999999999999</v>
+      </c>
+      <c r="Q52" s="21"/>
       <c r="R52" s="21">
-        <v>0.314</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="S52" s="21">
-        <v>0.45019999999999999</v>
+        <v>7.7200000000000005E-2</v>
       </c>
       <c r="T52" s="45">
-        <v>0.83</v>
-      </c>
-      <c r="U52" s="74">
-        <v>515210</v>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="U52" s="74"/>
       <c r="V52" s="13" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="18"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="11" t="s">
-        <v>476</v>
+        <v>518</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="2" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="H53" s="24">
-        <v>3.44</v>
+        <v>11.05</v>
       </c>
       <c r="I53" s="24">
-        <v>3.0800000000000001E-2</v>
-      </c>
-      <c r="J53" s="40">
-        <v>98.84</v>
-      </c>
+        <v>5.6189999999999997E-2</v>
+      </c>
+      <c r="J53" s="40"/>
       <c r="K53" s="42">
-        <v>29.18</v>
-      </c>
-      <c r="L53" s="42">
-        <v>58.51</v>
-      </c>
+        <v>25.77</v>
+      </c>
+      <c r="L53" s="42"/>
       <c r="M53" s="42">
-        <v>80.78</v>
+        <v>-188.37</v>
       </c>
       <c r="N53" s="42">
-        <v>13.41</v>
+        <v>27.74</v>
       </c>
       <c r="O53" s="21">
-        <v>0.39960000000000001</v>
+        <v>0.50280000000000002</v>
       </c>
       <c r="P53" s="21">
-        <v>0.64880000000000004</v>
+        <v>0.1888</v>
       </c>
       <c r="Q53" s="21">
-        <v>0.1139</v>
+        <v>-0.10589999999999999</v>
       </c>
       <c r="R53" s="21">
-        <v>0.30840000000000001</v>
+        <v>-0.2165</v>
       </c>
       <c r="S53" s="21">
-        <v>0.6421</v>
+        <v>1.7579</v>
       </c>
       <c r="T53" s="45">
-        <v>1.46</v>
-      </c>
-      <c r="U53" s="74"/>
+        <v>1.8</v>
+      </c>
+      <c r="U53" s="74">
+        <v>230190</v>
+      </c>
       <c r="V53" s="13" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="18"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="74"/>
-      <c r="V54" s="13"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="U54" s="76"/>
+      <c r="V54" s="16"/>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="19"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="74"/>
-      <c r="V55" s="13"/>
+      <c r="A55" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="38">
+        <v>172.65</v>
+      </c>
+      <c r="I55" s="43">
+        <v>12.4</v>
+      </c>
+      <c r="J55" s="9">
+        <v>17.18</v>
+      </c>
+      <c r="K55" s="9">
+        <v>10.16</v>
+      </c>
+      <c r="L55" s="9">
+        <v>12.93</v>
+      </c>
+      <c r="M55" s="9">
+        <v>12.37</v>
+      </c>
+      <c r="N55" s="9">
+        <v>4.47</v>
+      </c>
+      <c r="O55" s="20">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="P55" s="20">
+        <v>2E-3</v>
+      </c>
+      <c r="Q55" s="20">
+        <v>0.43230000000000002</v>
+      </c>
+      <c r="R55" s="20">
+        <v>0.61470000000000002</v>
+      </c>
+      <c r="S55" s="20">
+        <v>3.7614999999999998</v>
+      </c>
+      <c r="T55" s="29">
+        <v>2.31</v>
+      </c>
+      <c r="U55" s="43">
+        <v>292400</v>
+      </c>
+      <c r="V55" s="30" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="H56" s="38">
-        <v>1210</v>
-      </c>
-      <c r="I56" s="38">
-        <v>63.9</v>
-      </c>
-      <c r="J56" s="9">
-        <v>21.87</v>
-      </c>
-      <c r="K56" s="9">
-        <v>13.01</v>
-      </c>
-      <c r="L56" s="9">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="M56" s="9">
-        <v>12.03</v>
-      </c>
-      <c r="N56" s="9">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="O56" s="20">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="P56" s="20">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="Q56" s="20">
-        <v>0.2918</v>
-      </c>
-      <c r="R56" s="20">
-        <v>0.6018</v>
-      </c>
-      <c r="S56" s="20">
-        <v>1.304</v>
-      </c>
-      <c r="T56" s="9">
-        <v>1.49</v>
-      </c>
-      <c r="U56" s="43">
-        <v>1956070</v>
-      </c>
-      <c r="V56" s="10" t="s">
-        <v>145</v>
+      <c r="A56" s="18"/>
+      <c r="B56" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="24">
+        <v>147.31</v>
+      </c>
+      <c r="I56" s="24">
+        <v>3.01</v>
+      </c>
+      <c r="J56" s="12">
+        <v>39.43</v>
+      </c>
+      <c r="K56" s="12">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="L56" s="12">
+        <v>25.28</v>
+      </c>
+      <c r="M56" s="42">
+        <v>24.47</v>
+      </c>
+      <c r="N56" s="12">
+        <v>4.76</v>
+      </c>
+      <c r="O56" s="21">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="P56" s="21">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="Q56" s="21">
+        <v>0.29559999999999997</v>
+      </c>
+      <c r="R56" s="21">
+        <v>0.1133</v>
+      </c>
+      <c r="S56" s="21">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="T56" s="35">
+        <v>1.03</v>
+      </c>
+      <c r="U56" s="44">
+        <v>311460</v>
+      </c>
+      <c r="V56" s="23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="31"/>
-      <c r="B57" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
       <c r="G57" s="34" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="H57" s="24">
-        <v>106.82</v>
+        <v>68.78</v>
       </c>
       <c r="I57" s="24">
-        <v>12</v>
-      </c>
-      <c r="J57" s="12">
-        <v>11.92</v>
+        <v>2.17</v>
+      </c>
+      <c r="J57" s="42">
+        <v>42.72</v>
       </c>
       <c r="K57" s="42">
-        <v>5.59</v>
-      </c>
-      <c r="L57" s="12">
-        <v>7.83</v>
+        <v>18.09</v>
+      </c>
+      <c r="L57" s="42">
+        <v>36.96</v>
       </c>
       <c r="M57" s="42">
-        <v>22.88</v>
+        <v>56.59</v>
       </c>
       <c r="N57" s="42">
-        <v>1.39</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="O57" s="21">
-        <v>-3.6299999999999999E-2</v>
+        <v>8.5300000000000001E-2</v>
       </c>
       <c r="P57" s="21">
-        <v>-5.21E-2</v>
-      </c>
-      <c r="Q57" s="21"/>
+        <v>0.1099</v>
+      </c>
+      <c r="Q57" s="21">
+        <v>0.30009999999999998</v>
+      </c>
       <c r="R57" s="21">
-        <v>0.47189999999999999</v>
+        <v>0.42980000000000002</v>
       </c>
       <c r="S57" s="21">
-        <v>3.4729000000000001</v>
-      </c>
-      <c r="T57" s="45">
-        <v>1.24</v>
-      </c>
-      <c r="U57" s="74">
-        <v>217060</v>
-      </c>
-      <c r="V57" s="13" t="s">
-        <v>146</v>
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="T57" s="35">
+        <v>1.79</v>
+      </c>
+      <c r="U57" s="44">
+        <v>758190</v>
+      </c>
+      <c r="V57" s="23" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="31"/>
-      <c r="B58" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
       <c r="G58" s="34" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H58" s="24">
-        <v>22.02</v>
+        <v>39.020000000000003</v>
       </c>
       <c r="I58" s="24">
-        <v>4.4000000000000004</v>
+        <v>1.36</v>
       </c>
       <c r="J58" s="12">
-        <v>7.64</v>
+        <v>185.28</v>
       </c>
       <c r="K58" s="12"/>
       <c r="L58" s="12">
-        <v>5.94</v>
+        <v>114.29</v>
       </c>
       <c r="M58" s="42">
-        <v>5.98</v>
+        <v>59.18</v>
       </c>
       <c r="N58" s="42">
-        <v>0.38</v>
+        <v>10.85</v>
       </c>
       <c r="O58" s="21">
-        <v>-0.1202</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="P58" s="21">
-        <v>-0.16059999999999999</v>
+        <v>8.3799999999999999E-2</v>
       </c>
       <c r="Q58" s="21">
-        <v>8.7400000000000005E-2</v>
+        <v>0.15090000000000001</v>
       </c>
       <c r="R58" s="21">
-        <v>-2.2237</v>
+        <v>-1.1436999999999999</v>
       </c>
       <c r="S58" s="21">
-        <v>-3.6903000000000001</v>
-      </c>
-      <c r="T58" s="45">
-        <v>0.78</v>
-      </c>
-      <c r="U58" s="74">
-        <v>1047570</v>
-      </c>
-      <c r="V58" s="13" t="s">
-        <v>148</v>
+        <v>-18.293299999999999</v>
+      </c>
+      <c r="T58" s="35">
+        <v>0.66</v>
+      </c>
+      <c r="U58" s="44"/>
+      <c r="V58" s="23" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="19"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="11" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="34" t="s">
-        <v>144</v>
+        <v>312</v>
       </c>
       <c r="H59" s="24">
-        <v>30.43</v>
+        <v>4.99</v>
       </c>
       <c r="I59" s="24">
-        <v>7.05</v>
-      </c>
-      <c r="J59" s="42">
-        <v>6.77</v>
-      </c>
-      <c r="K59" s="12"/>
-      <c r="L59" s="42">
-        <v>2.77</v>
-      </c>
+        <v>-4.9750000000000003E-2</v>
+      </c>
+      <c r="J59" s="40"/>
+      <c r="K59" s="42">
+        <v>13.93</v>
+      </c>
+      <c r="L59" s="12"/>
       <c r="M59" s="42">
-        <v>3.72</v>
+        <v>-31.94</v>
       </c>
       <c r="N59" s="42">
+        <v>12.4</v>
+      </c>
+      <c r="O59" s="21">
+        <v>0.25240000000000001</v>
+      </c>
+      <c r="P59" s="21">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="Q59" s="21">
+        <v>-0.36609999999999998</v>
+      </c>
+      <c r="R59" s="21">
+        <v>-0.499</v>
+      </c>
+      <c r="S59" s="21">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="T59" s="45">
+        <v>1.82</v>
+      </c>
+      <c r="U59" s="74"/>
+      <c r="V59" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="18"/>
+      <c r="B60" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" s="24">
+        <v>14.93</v>
+      </c>
+      <c r="I60" s="24">
+        <v>-6.2019999999999999E-2</v>
+      </c>
+      <c r="J60" s="40"/>
+      <c r="K60" s="42">
+        <v>36.75</v>
+      </c>
+      <c r="L60" s="12"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42">
+        <v>23.21</v>
+      </c>
+      <c r="O60" s="21">
+        <v>0.23380000000000001</v>
+      </c>
+      <c r="P60" s="21">
+        <v>0.34029999999999999</v>
+      </c>
+      <c r="Q60" s="21">
+        <v>-0.84189999999999998</v>
+      </c>
+      <c r="R60" s="21">
+        <v>-1.4341999999999999</v>
+      </c>
+      <c r="S60" s="21">
         <v>0.32</v>
       </c>
-      <c r="O59" s="21">
-        <v>8.3699999999999997E-2</v>
-      </c>
-      <c r="P59" s="21">
-        <v>0.5645</v>
-      </c>
-      <c r="Q59" s="21">
-        <v>0.10489999999999999</v>
-      </c>
-      <c r="R59" s="21">
-        <v>-1.5022</v>
-      </c>
-      <c r="S59" s="21">
-        <v>-34.210900000000002</v>
-      </c>
-      <c r="T59" s="45">
-        <v>0.73</v>
-      </c>
-      <c r="U59" s="74">
-        <v>558510</v>
-      </c>
-      <c r="V59" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
-      <c r="A60" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="H60" s="38">
-        <v>27.27</v>
-      </c>
-      <c r="I60" s="38">
-        <v>0.4032</v>
-      </c>
-      <c r="J60" s="9">
-        <v>82.89</v>
-      </c>
-      <c r="K60" s="9">
-        <v>20.440000000000001</v>
-      </c>
-      <c r="L60" s="9">
-        <v>59.7</v>
-      </c>
-      <c r="M60" s="9">
-        <v>16.64</v>
-      </c>
-      <c r="N60" s="9">
-        <v>5.71</v>
-      </c>
-      <c r="O60" s="20">
-        <v>0.40849999999999997</v>
-      </c>
-      <c r="P60" s="20">
-        <v>0.27189999999999998</v>
-      </c>
-      <c r="Q60" s="20">
-        <v>2.3699999999999999E-2</v>
-      </c>
-      <c r="R60" s="20">
-        <v>0.28489999999999999</v>
-      </c>
-      <c r="S60" s="20">
-        <v>0.62819999999999998</v>
-      </c>
-      <c r="T60" s="9">
-        <v>1.62</v>
-      </c>
-      <c r="U60" s="43">
-        <v>1229070</v>
-      </c>
-      <c r="V60" s="10" t="s">
-        <v>514</v>
+      <c r="T60" s="45">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="U60" s="74"/>
+      <c r="V60" s="13" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="31"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="11" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="34" t="s">
-        <v>515</v>
+      <c r="G61" s="71" t="s">
+        <v>449</v>
       </c>
       <c r="H61" s="24">
-        <v>141.47999999999999</v>
+        <v>27.25</v>
       </c>
       <c r="I61" s="24">
-        <v>3.86</v>
-      </c>
-      <c r="J61" s="42">
-        <v>58.27</v>
+        <v>0.43425999999999998</v>
+      </c>
+      <c r="J61" s="40">
+        <v>95.68</v>
       </c>
       <c r="K61" s="42">
-        <v>8.76</v>
+        <v>18.03</v>
       </c>
       <c r="L61" s="42">
-        <v>42</v>
+        <v>84.31</v>
       </c>
       <c r="M61" s="42">
-        <v>48.19</v>
+        <v>98.15</v>
       </c>
       <c r="N61" s="42">
-        <v>7.97</v>
+        <v>24.51</v>
       </c>
       <c r="O61" s="21">
-        <v>0.1724</v>
+        <v>0.28660000000000002</v>
       </c>
       <c r="P61" s="21">
-        <v>0.29239999999999999</v>
+        <v>0.4859</v>
       </c>
       <c r="Q61" s="21">
-        <v>0.20849999999999999</v>
+        <v>0.27839999999999998</v>
       </c>
       <c r="R61" s="21">
-        <v>0.15210000000000001</v>
+        <v>0.2006</v>
       </c>
       <c r="S61" s="21">
-        <v>0.3241</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="T61" s="45">
-        <v>1.32</v>
-      </c>
-      <c r="U61" s="74">
-        <v>766030</v>
-      </c>
+        <v>3.84</v>
+      </c>
+      <c r="U61" s="74"/>
       <c r="V61" s="13" t="s">
-        <v>517</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="31"/>
-      <c r="B62" s="11"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="11" t="s">
+        <v>464</v>
+      </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="45"/>
+      <c r="G62" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H62" s="24">
+        <v>6.75</v>
+      </c>
+      <c r="I62" s="24">
+        <v>1.221E-2</v>
+      </c>
+      <c r="J62" s="40"/>
+      <c r="K62" s="42">
+        <v>16.87</v>
+      </c>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42">
+        <v>-205.95</v>
+      </c>
+      <c r="N62" s="42">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="O62" s="21">
+        <v>0.17960000000000001</v>
+      </c>
+      <c r="P62" s="21">
+        <v>-6.2300000000000001E-2</v>
+      </c>
+      <c r="Q62" s="21">
+        <v>-0.1048</v>
+      </c>
+      <c r="R62" s="21">
+        <v>-0.12970000000000001</v>
+      </c>
+      <c r="S62" s="21">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="T62" s="45">
+        <v>2.0099999999999998</v>
+      </c>
       <c r="U62" s="74"/>
-      <c r="V62" s="13"/>
+      <c r="V62" s="13" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="31"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="11" t="s">
+        <v>472</v>
+      </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="21"/>
-      <c r="T63" s="45"/>
-      <c r="U63" s="74"/>
-      <c r="V63" s="13"/>
+      <c r="G63" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H63" s="24">
+        <v>161.06</v>
+      </c>
+      <c r="I63" s="24">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J63" s="40">
+        <v>50.52</v>
+      </c>
+      <c r="K63" s="42">
+        <v>15.68</v>
+      </c>
+      <c r="L63" s="42">
+        <v>40.24</v>
+      </c>
+      <c r="M63" s="42">
+        <v>35.229999999999997</v>
+      </c>
+      <c r="N63" s="42">
+        <v>13.84</v>
+      </c>
+      <c r="O63" s="21">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="P63" s="21">
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="Q63" s="21">
+        <v>0.3679</v>
+      </c>
+      <c r="R63" s="21">
+        <v>0.314</v>
+      </c>
+      <c r="S63" s="21">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="T63" s="45">
+        <v>0.83</v>
+      </c>
+      <c r="U63" s="74">
+        <v>515210</v>
+      </c>
+      <c r="V63" s="13" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="19"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="53"/>
-      <c r="V64" s="16"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H64" s="24">
+        <v>3.44</v>
+      </c>
+      <c r="I64" s="24">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="J64" s="40">
+        <v>98.84</v>
+      </c>
+      <c r="K64" s="42">
+        <v>29.18</v>
+      </c>
+      <c r="L64" s="42">
+        <v>58.51</v>
+      </c>
+      <c r="M64" s="42">
+        <v>80.78</v>
+      </c>
+      <c r="N64" s="42">
+        <v>13.41</v>
+      </c>
+      <c r="O64" s="21">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="P64" s="21">
+        <v>0.64880000000000004</v>
+      </c>
+      <c r="Q64" s="21">
+        <v>0.1139</v>
+      </c>
+      <c r="R64" s="21">
+        <v>0.30840000000000001</v>
+      </c>
+      <c r="S64" s="21">
+        <v>0.6421</v>
+      </c>
+      <c r="T64" s="45">
+        <v>1.46</v>
+      </c>
+      <c r="U64" s="74"/>
+      <c r="V64" s="13" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H65" s="38">
-        <v>180.16</v>
-      </c>
-      <c r="I65" s="38">
-        <v>14.83</v>
-      </c>
-      <c r="J65" s="9">
-        <v>16.59</v>
-      </c>
-      <c r="K65" s="9">
-        <v>5.16</v>
-      </c>
-      <c r="L65" s="9">
-        <v>14.01</v>
-      </c>
-      <c r="M65" s="9">
-        <v>13.23</v>
-      </c>
-      <c r="N65" s="9">
-        <v>3.51</v>
-      </c>
-      <c r="O65" s="20">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="P65" s="20">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="Q65" s="20">
-        <v>0.31929999999999997</v>
-      </c>
-      <c r="R65" s="20">
-        <v>0.31509999999999999</v>
-      </c>
-      <c r="S65" s="20">
-        <v>0.48039999999999999</v>
-      </c>
-      <c r="T65" s="9">
-        <v>1.66</v>
-      </c>
-      <c r="U65" s="43">
-        <v>679180</v>
-      </c>
-      <c r="V65" s="10" t="s">
-        <v>97</v>
-      </c>
+      <c r="A65" s="18"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="74"/>
+      <c r="V65" s="13"/>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="31"/>
-      <c r="B66" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="A66" s="19"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
-      <c r="G66" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H66" s="24">
-        <v>7.58</v>
-      </c>
-      <c r="I66" s="24">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="J66" s="12">
-        <v>22.57</v>
-      </c>
-      <c r="K66" s="42">
-        <v>1.66</v>
-      </c>
-      <c r="L66" s="12">
-        <v>13.96</v>
-      </c>
-      <c r="M66" s="42">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="N66" s="42">
-        <v>1.74</v>
-      </c>
-      <c r="O66" s="21">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="P66" s="21">
-        <v>0.2928</v>
-      </c>
-      <c r="Q66" s="21">
-        <v>0.15890000000000001</v>
-      </c>
-      <c r="R66" s="21">
-        <v>7.3800000000000004E-2</v>
-      </c>
-      <c r="S66" s="21">
-        <v>0.40870000000000001</v>
-      </c>
-      <c r="T66" s="45">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="U66" s="74">
-        <v>471570</v>
-      </c>
-      <c r="V66" s="13" t="s">
-        <v>97</v>
-      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="74"/>
+      <c r="V66" s="13"/>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="31"/>
-      <c r="B67" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="H67" s="24">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="I67" s="24">
-        <v>0.71579999999999999</v>
-      </c>
-      <c r="J67" s="12">
-        <v>60.09</v>
-      </c>
-      <c r="K67" s="12">
-        <v>16.45</v>
-      </c>
-      <c r="L67" s="12">
-        <v>49.82</v>
-      </c>
-      <c r="M67" s="42">
-        <v>32.99</v>
-      </c>
-      <c r="N67" s="42">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="O67" s="21">
-        <v>0.2286</v>
-      </c>
-      <c r="P67" s="21">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="Q67" s="21">
-        <v>0.18820000000000001</v>
-      </c>
-      <c r="R67" s="21">
-        <v>0.2777</v>
-      </c>
-      <c r="S67" s="21">
-        <v>3.49E-2</v>
-      </c>
-      <c r="T67" s="45">
-        <v>1.85</v>
-      </c>
-      <c r="U67" s="74">
-        <v>304460</v>
-      </c>
-      <c r="V67" s="13" t="s">
-        <v>102</v>
+      <c r="A67" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="H67" s="38">
+        <v>1210</v>
+      </c>
+      <c r="I67" s="38">
+        <v>63.9</v>
+      </c>
+      <c r="J67" s="9">
+        <v>21.87</v>
+      </c>
+      <c r="K67" s="9">
+        <v>13.01</v>
+      </c>
+      <c r="L67" s="9">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="M67" s="9">
+        <v>12.03</v>
+      </c>
+      <c r="N67" s="9">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="O67" s="20">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="P67" s="20">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="Q67" s="20">
+        <v>0.2918</v>
+      </c>
+      <c r="R67" s="20">
+        <v>0.6018</v>
+      </c>
+      <c r="S67" s="20">
+        <v>1.304</v>
+      </c>
+      <c r="T67" s="9">
+        <v>1.49</v>
+      </c>
+      <c r="U67" s="43">
+        <v>1956070</v>
+      </c>
+      <c r="V67" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="31"/>
       <c r="B68" s="11" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="34" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="H68" s="24">
-        <v>19.28</v>
+        <v>106.82</v>
       </c>
       <c r="I68" s="24">
-        <v>0.89029999999999998</v>
-      </c>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12">
-        <v>12.24</v>
+        <v>12</v>
+      </c>
+      <c r="J68" s="12">
+        <v>11.92</v>
+      </c>
+      <c r="K68" s="42">
+        <v>5.59</v>
       </c>
       <c r="L68" s="12">
-        <v>31436.7</v>
+        <v>7.83</v>
       </c>
       <c r="M68" s="42">
-        <v>-189.24</v>
+        <v>22.88</v>
       </c>
       <c r="N68" s="42">
-        <v>6.04</v>
+        <v>1.39</v>
       </c>
       <c r="O68" s="21">
-        <v>0.37119999999999997</v>
+        <v>-3.6299999999999999E-2</v>
       </c>
       <c r="P68" s="21">
-        <v>-0.1951</v>
-      </c>
-      <c r="Q68" s="21">
-        <v>2.1999999999999999E-2</v>
-      </c>
+        <v>-5.21E-2</v>
+      </c>
+      <c r="Q68" s="21"/>
       <c r="R68" s="21">
-        <v>-0.11310000000000001</v>
+        <v>0.47189999999999999</v>
       </c>
       <c r="S68" s="21">
-        <v>1.1623000000000001</v>
+        <v>3.4729000000000001</v>
       </c>
       <c r="T68" s="45">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="U68" s="74">
-        <v>444970</v>
+        <v>217060</v>
       </c>
       <c r="V68" s="13" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="31"/>
       <c r="B69" s="11" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="34" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="H69" s="24">
-        <v>15.44</v>
+        <v>22.02</v>
       </c>
       <c r="I69" s="24">
-        <v>1.08</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J69" s="12">
-        <v>19.47</v>
-      </c>
-      <c r="K69" s="12">
-        <v>4.54</v>
-      </c>
+        <v>7.64</v>
+      </c>
+      <c r="K69" s="12"/>
       <c r="L69" s="12">
-        <v>19.440000000000001</v>
+        <v>5.94</v>
       </c>
       <c r="M69" s="42">
-        <v>13.52</v>
+        <v>5.98</v>
       </c>
       <c r="N69" s="42">
-        <v>8.2799999999999994</v>
+        <v>0.38</v>
       </c>
       <c r="O69" s="21">
-        <v>5.9299999999999999E-2</v>
+        <v>-0.1202</v>
       </c>
       <c r="P69" s="21">
-        <v>4.8399999999999999E-2</v>
+        <v>-0.16059999999999999</v>
       </c>
       <c r="Q69" s="21">
-        <v>0.45760000000000001</v>
+        <v>8.7400000000000005E-2</v>
       </c>
       <c r="R69" s="21">
-        <v>0.22689999999999999</v>
+        <v>-2.2237</v>
       </c>
       <c r="S69" s="21">
-        <v>0</v>
+        <v>-3.6903000000000001</v>
       </c>
       <c r="T69" s="45">
-        <v>1.59</v>
+        <v>0.78</v>
       </c>
       <c r="U69" s="74">
-        <v>390040</v>
+        <v>1047570</v>
       </c>
       <c r="V69" s="13" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="31"/>
+      <c r="A70" s="19"/>
       <c r="B70" s="11" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="34" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="H70" s="24">
-        <v>7.55</v>
+        <v>30.43</v>
       </c>
       <c r="I70" s="24">
-        <v>0.58899999999999997</v>
+        <v>7.05</v>
       </c>
       <c r="J70" s="42">
-        <v>18.95</v>
-      </c>
-      <c r="K70" s="12">
-        <v>4.41</v>
-      </c>
+        <v>6.77</v>
+      </c>
+      <c r="K70" s="12"/>
       <c r="L70" s="42">
-        <v>15.95</v>
+        <v>2.77</v>
       </c>
       <c r="M70" s="42">
-        <v>16.04</v>
+        <v>3.72</v>
       </c>
       <c r="N70" s="42">
-        <v>3.3</v>
+        <v>0.32</v>
       </c>
       <c r="O70" s="21">
-        <v>5.2999999999999999E-2</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="P70" s="21">
-        <v>7.1400000000000005E-2</v>
+        <v>0.5645</v>
       </c>
       <c r="Q70" s="21">
-        <v>0.2858</v>
+        <v>0.10489999999999999</v>
       </c>
       <c r="R70" s="21">
-        <v>0.23319999999999999</v>
+        <v>-1.5022</v>
       </c>
       <c r="S70" s="21">
-        <v>0.19939999999999999</v>
+        <v>-34.210900000000002</v>
       </c>
       <c r="T70" s="45">
-        <v>1.49</v>
+        <v>0.73</v>
       </c>
       <c r="U70" s="74">
-        <v>433150</v>
+        <v>558510</v>
       </c>
       <c r="V70" s="13" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="19"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
-      <c r="U71" s="53"/>
-      <c r="V71" s="16"/>
+      <c r="A71" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H71" s="38">
+        <v>27.27</v>
+      </c>
+      <c r="I71" s="38">
+        <v>0.4032</v>
+      </c>
+      <c r="J71" s="9">
+        <v>82.89</v>
+      </c>
+      <c r="K71" s="9">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="L71" s="9">
+        <v>59.7</v>
+      </c>
+      <c r="M71" s="9">
+        <v>16.64</v>
+      </c>
+      <c r="N71" s="9">
+        <v>5.71</v>
+      </c>
+      <c r="O71" s="20">
+        <v>0.40849999999999997</v>
+      </c>
+      <c r="P71" s="20">
+        <v>0.27189999999999998</v>
+      </c>
+      <c r="Q71" s="20">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="R71" s="20">
+        <v>0.28489999999999999</v>
+      </c>
+      <c r="S71" s="20">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="T71" s="9">
+        <v>1.62</v>
+      </c>
+      <c r="U71" s="43">
+        <v>1229070</v>
+      </c>
+      <c r="V71" s="10" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="28" t="s">
-        <v>637</v>
-      </c>
-      <c r="H72" s="38">
-        <v>13.17</v>
-      </c>
-      <c r="I72" s="38">
-        <v>0.45469999999999999</v>
-      </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9">
-        <v>6.79</v>
-      </c>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9">
-        <v>-8.5</v>
-      </c>
-      <c r="N72" s="9">
-        <v>3.14</v>
-      </c>
-      <c r="O72" s="20">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="P72" s="20">
-        <v>0.1802</v>
-      </c>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="20">
-        <v>-0.77149999999999996</v>
-      </c>
-      <c r="S72" s="20">
-        <v>1.7843</v>
-      </c>
-      <c r="T72" s="9">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="U72" s="43">
-        <v>468440</v>
-      </c>
-      <c r="V72" s="10" t="s">
-        <v>648</v>
+      <c r="A72" s="31"/>
+      <c r="B72" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="H72" s="24">
+        <v>141.47999999999999</v>
+      </c>
+      <c r="I72" s="24">
+        <v>3.86</v>
+      </c>
+      <c r="J72" s="42">
+        <v>58.27</v>
+      </c>
+      <c r="K72" s="42">
+        <v>8.76</v>
+      </c>
+      <c r="L72" s="42">
+        <v>42</v>
+      </c>
+      <c r="M72" s="42">
+        <v>48.19</v>
+      </c>
+      <c r="N72" s="42">
+        <v>7.97</v>
+      </c>
+      <c r="O72" s="21">
+        <v>0.1724</v>
+      </c>
+      <c r="P72" s="21">
+        <v>0.29239999999999999</v>
+      </c>
+      <c r="Q72" s="21">
+        <v>0.20849999999999999</v>
+      </c>
+      <c r="R72" s="21">
+        <v>0.15210000000000001</v>
+      </c>
+      <c r="S72" s="21">
+        <v>0.3241</v>
+      </c>
+      <c r="T72" s="45">
+        <v>1.32</v>
+      </c>
+      <c r="U72" s="74">
+        <v>766030</v>
+      </c>
+      <c r="V72" s="13" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="31"/>
-      <c r="B73" s="11" t="s">
-        <v>638</v>
-      </c>
+      <c r="B73" s="11"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
-      <c r="G73" s="34" t="s">
-        <v>639</v>
-      </c>
-      <c r="H73" s="24">
-        <v>7.76</v>
-      </c>
-      <c r="I73" s="24">
-        <v>0.60858999999999996</v>
-      </c>
-      <c r="J73" s="42">
-        <v>6.58</v>
-      </c>
-      <c r="K73" s="42">
-        <v>1.97</v>
-      </c>
-      <c r="L73" s="42">
-        <v>6.51</v>
-      </c>
-      <c r="M73" s="42">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N73" s="42">
-        <v>3.46</v>
-      </c>
-      <c r="O73" s="21">
-        <v>0.53210000000000002</v>
-      </c>
-      <c r="P73" s="21">
-        <v>1.1326000000000001</v>
-      </c>
+      <c r="G73" s="34"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
       <c r="Q73" s="21"/>
-      <c r="R73" s="21">
-        <v>0.30220000000000002</v>
-      </c>
-      <c r="S73" s="21">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="T73" s="45">
-        <v>1.65</v>
-      </c>
-      <c r="U73" s="74">
-        <v>102890</v>
-      </c>
-      <c r="V73" s="13" t="s">
-        <v>640</v>
-      </c>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="45"/>
+      <c r="U73" s="74"/>
+      <c r="V73" s="13"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="31"/>
-      <c r="B74" s="11" t="s">
-        <v>641</v>
-      </c>
+      <c r="B74" s="11"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
-      <c r="G74" s="34" t="s">
-        <v>642</v>
-      </c>
-      <c r="H74" s="24">
-        <v>3.76</v>
-      </c>
-      <c r="I74" s="24">
-        <v>0.27065</v>
-      </c>
-      <c r="J74" s="42">
-        <v>57.1</v>
-      </c>
-      <c r="K74" s="42">
-        <v>3.3</v>
-      </c>
-      <c r="L74" s="42">
-        <v>54.83</v>
-      </c>
-      <c r="M74" s="42">
-        <v>39.01</v>
-      </c>
-      <c r="N74" s="42">
-        <v>3.07</v>
-      </c>
-      <c r="O74" s="21">
-        <v>0.5998</v>
-      </c>
-      <c r="P74" s="21">
-        <v>-3.15E-2</v>
-      </c>
+      <c r="G74" s="34"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
       <c r="Q74" s="21"/>
-      <c r="R74" s="21">
-        <v>6.0199999999999997E-2</v>
-      </c>
-      <c r="S74" s="21">
-        <v>1.17E-2</v>
-      </c>
-      <c r="T74" s="45">
-        <v>4.51</v>
-      </c>
-      <c r="U74" s="74">
-        <v>645340</v>
-      </c>
-      <c r="V74" s="13" t="s">
-        <v>643</v>
-      </c>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="45"/>
+      <c r="U74" s="74"/>
+      <c r="V74" s="13"/>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="31"/>
-      <c r="B75" s="11" t="s">
-        <v>644</v>
-      </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="34" t="s">
-        <v>645</v>
-      </c>
-      <c r="H75" s="24">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="I75" s="24">
-        <v>0.11448</v>
-      </c>
-      <c r="J75" s="42">
-        <v>380</v>
-      </c>
-      <c r="K75" s="42">
-        <v>6.75</v>
-      </c>
-      <c r="L75" s="42">
-        <v>351.92</v>
-      </c>
-      <c r="M75" s="42">
-        <v>27.35</v>
-      </c>
-      <c r="N75" s="42">
-        <v>1.92</v>
-      </c>
-      <c r="O75" s="21">
-        <v>0.29260000000000003</v>
-      </c>
-      <c r="P75" s="21">
-        <v>-0.27039999999999997</v>
-      </c>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="S75" s="21">
-        <v>0</v>
-      </c>
-      <c r="T75" s="45">
-        <v>3.77</v>
-      </c>
-      <c r="U75" s="74">
-        <v>536960</v>
-      </c>
-      <c r="V75" s="13" t="s">
-        <v>643</v>
-      </c>
+      <c r="A75" s="19"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="15"/>
+      <c r="U75" s="53"/>
+      <c r="V75" s="16"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="31"/>
-      <c r="B76" s="11" t="s">
-        <v>646</v>
-      </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="34" t="s">
-        <v>647</v>
-      </c>
-      <c r="H76" s="24">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="I76" s="24">
-        <v>-1.4579999999999999E-2</v>
-      </c>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42">
-        <v>9.15</v>
-      </c>
-      <c r="L76" s="42"/>
-      <c r="M76" s="42">
-        <v>-43.42</v>
-      </c>
-      <c r="N76" s="42">
-        <v>10.02</v>
-      </c>
-      <c r="O76" s="21">
-        <v>0.66810000000000003</v>
-      </c>
-      <c r="P76" s="21">
-        <v>-0.23899999999999999</v>
-      </c>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21">
-        <v>-0.1736</v>
-      </c>
-      <c r="S76" s="21">
-        <v>0.52510000000000001</v>
-      </c>
-      <c r="T76" s="45">
-        <v>2.42</v>
-      </c>
-      <c r="U76" s="74">
-        <v>203180</v>
-      </c>
-      <c r="V76" s="13" t="s">
-        <v>648</v>
+      <c r="A76" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H76" s="38">
+        <v>180.16</v>
+      </c>
+      <c r="I76" s="38">
+        <v>14.83</v>
+      </c>
+      <c r="J76" s="9">
+        <v>16.59</v>
+      </c>
+      <c r="K76" s="9">
+        <v>5.16</v>
+      </c>
+      <c r="L76" s="9">
+        <v>14.01</v>
+      </c>
+      <c r="M76" s="9">
+        <v>13.23</v>
+      </c>
+      <c r="N76" s="9">
+        <v>3.51</v>
+      </c>
+      <c r="O76" s="20">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="P76" s="20">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="Q76" s="20">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="R76" s="20">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="S76" s="20">
+        <v>0.48039999999999999</v>
+      </c>
+      <c r="T76" s="9">
+        <v>1.66</v>
+      </c>
+      <c r="U76" s="43">
+        <v>679180</v>
+      </c>
+      <c r="V76" s="10" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="31"/>
-      <c r="B77" s="11"/>
+      <c r="B77" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="42"/>
-      <c r="N77" s="42"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="45"/>
-      <c r="U77" s="74"/>
-      <c r="V77" s="13"/>
+      <c r="G77" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="H77" s="24">
+        <v>7.58</v>
+      </c>
+      <c r="I77" s="24">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="J77" s="12">
+        <v>22.57</v>
+      </c>
+      <c r="K77" s="42">
+        <v>1.66</v>
+      </c>
+      <c r="L77" s="12">
+        <v>13.96</v>
+      </c>
+      <c r="M77" s="42">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N77" s="42">
+        <v>1.74</v>
+      </c>
+      <c r="O77" s="21">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="P77" s="21">
+        <v>0.2928</v>
+      </c>
+      <c r="Q77" s="21">
+        <v>0.15890000000000001</v>
+      </c>
+      <c r="R77" s="21">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="S77" s="21">
+        <v>0.40870000000000001</v>
+      </c>
+      <c r="T77" s="45">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="U77" s="74">
+        <v>471570</v>
+      </c>
+      <c r="V77" s="13" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="31"/>
-      <c r="B78" s="11"/>
+      <c r="B78" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="42"/>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="21"/>
-      <c r="S78" s="21"/>
-      <c r="T78" s="45"/>
-      <c r="U78" s="74"/>
-      <c r="V78" s="13"/>
+      <c r="G78" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H78" s="24">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I78" s="24">
+        <v>0.71579999999999999</v>
+      </c>
+      <c r="J78" s="12">
+        <v>60.09</v>
+      </c>
+      <c r="K78" s="12">
+        <v>16.45</v>
+      </c>
+      <c r="L78" s="12">
+        <v>49.82</v>
+      </c>
+      <c r="M78" s="42">
+        <v>32.99</v>
+      </c>
+      <c r="N78" s="42">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="O78" s="21">
+        <v>0.2286</v>
+      </c>
+      <c r="P78" s="21">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="Q78" s="21">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="R78" s="21">
+        <v>0.2777</v>
+      </c>
+      <c r="S78" s="21">
+        <v>3.49E-2</v>
+      </c>
+      <c r="T78" s="45">
+        <v>1.85</v>
+      </c>
+      <c r="U78" s="74">
+        <v>304460</v>
+      </c>
+      <c r="V78" s="13" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="31"/>
-      <c r="B79" s="11"/>
+      <c r="B79" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
-      <c r="L79" s="42"/>
-      <c r="M79" s="42"/>
-      <c r="N79" s="42"/>
-      <c r="O79" s="21"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="21"/>
-      <c r="S79" s="21"/>
-      <c r="T79" s="45"/>
-      <c r="U79" s="74"/>
-      <c r="V79" s="13"/>
+      <c r="G79" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H79" s="24">
+        <v>19.28</v>
+      </c>
+      <c r="I79" s="24">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12">
+        <v>12.24</v>
+      </c>
+      <c r="L79" s="12">
+        <v>31436.7</v>
+      </c>
+      <c r="M79" s="42">
+        <v>-189.24</v>
+      </c>
+      <c r="N79" s="42">
+        <v>6.04</v>
+      </c>
+      <c r="O79" s="21">
+        <v>0.37119999999999997</v>
+      </c>
+      <c r="P79" s="21">
+        <v>-0.1951</v>
+      </c>
+      <c r="Q79" s="21">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R79" s="21">
+        <v>-0.11310000000000001</v>
+      </c>
+      <c r="S79" s="21">
+        <v>1.1623000000000001</v>
+      </c>
+      <c r="T79" s="45">
+        <v>1.8</v>
+      </c>
+      <c r="U79" s="74">
+        <v>444970</v>
+      </c>
+      <c r="V79" s="13" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="31"/>
-      <c r="B80" s="11"/>
+      <c r="B80" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="42"/>
-      <c r="O80" s="21"/>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="21"/>
-      <c r="R80" s="21"/>
-      <c r="S80" s="21"/>
-      <c r="T80" s="45"/>
-      <c r="U80" s="74"/>
-      <c r="V80" s="13"/>
+      <c r="G80" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="H80" s="24">
+        <v>15.44</v>
+      </c>
+      <c r="I80" s="24">
+        <v>1.08</v>
+      </c>
+      <c r="J80" s="12">
+        <v>19.47</v>
+      </c>
+      <c r="K80" s="12">
+        <v>4.54</v>
+      </c>
+      <c r="L80" s="12">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="M80" s="42">
+        <v>13.52</v>
+      </c>
+      <c r="N80" s="42">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="O80" s="21">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="P80" s="21">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="Q80" s="21">
+        <v>0.45760000000000001</v>
+      </c>
+      <c r="R80" s="21">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="S80" s="21">
+        <v>0</v>
+      </c>
+      <c r="T80" s="45">
+        <v>1.59</v>
+      </c>
+      <c r="U80" s="74">
+        <v>390040</v>
+      </c>
+      <c r="V80" s="13" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="19"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15"/>
-      <c r="T81" s="15"/>
-      <c r="U81" s="53"/>
-      <c r="V81" s="16"/>
+      <c r="A81" s="31"/>
+      <c r="B81" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H81" s="24">
+        <v>7.55</v>
+      </c>
+      <c r="I81" s="24">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="J81" s="42">
+        <v>18.95</v>
+      </c>
+      <c r="K81" s="12">
+        <v>4.41</v>
+      </c>
+      <c r="L81" s="42">
+        <v>15.95</v>
+      </c>
+      <c r="M81" s="42">
+        <v>16.04</v>
+      </c>
+      <c r="N81" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="O81" s="21">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="P81" s="21">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="Q81" s="21">
+        <v>0.2858</v>
+      </c>
+      <c r="R81" s="21">
+        <v>0.23319999999999999</v>
+      </c>
+      <c r="S81" s="21">
+        <v>0.19939999999999999</v>
+      </c>
+      <c r="T81" s="45">
+        <v>1.49</v>
+      </c>
+      <c r="U81" s="74">
+        <v>433150</v>
+      </c>
+      <c r="V81" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" s="19"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="53"/>
+      <c r="V82" s="16"/>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="28" t="s">
+        <v>637</v>
+      </c>
+      <c r="H83" s="38">
+        <v>13.17</v>
+      </c>
+      <c r="I83" s="38">
+        <v>0.45469999999999999</v>
+      </c>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9">
+        <v>6.79</v>
+      </c>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9">
+        <v>-8.5</v>
+      </c>
+      <c r="N83" s="9">
+        <v>3.14</v>
+      </c>
+      <c r="O83" s="20">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="P83" s="20">
+        <v>0.1802</v>
+      </c>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20">
+        <v>-0.77149999999999996</v>
+      </c>
+      <c r="S83" s="20">
+        <v>1.7843</v>
+      </c>
+      <c r="T83" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="U83" s="43">
+        <v>468440</v>
+      </c>
+      <c r="V83" s="10" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" s="31"/>
+      <c r="B84" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="H84" s="24">
+        <v>7.76</v>
+      </c>
+      <c r="I84" s="24">
+        <v>0.60858999999999996</v>
+      </c>
+      <c r="J84" s="42">
+        <v>6.58</v>
+      </c>
+      <c r="K84" s="42">
+        <v>1.97</v>
+      </c>
+      <c r="L84" s="42">
+        <v>6.51</v>
+      </c>
+      <c r="M84" s="42">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N84" s="42">
+        <v>3.46</v>
+      </c>
+      <c r="O84" s="21">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="P84" s="21">
+        <v>1.1326000000000001</v>
+      </c>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="S84" s="21">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="T84" s="45">
+        <v>1.65</v>
+      </c>
+      <c r="U84" s="74">
+        <v>102890</v>
+      </c>
+      <c r="V84" s="13" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" s="31"/>
+      <c r="B85" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="34" t="s">
+        <v>642</v>
+      </c>
+      <c r="H85" s="24">
+        <v>3.76</v>
+      </c>
+      <c r="I85" s="24">
+        <v>0.27065</v>
+      </c>
+      <c r="J85" s="42">
+        <v>57.1</v>
+      </c>
+      <c r="K85" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="L85" s="42">
+        <v>54.83</v>
+      </c>
+      <c r="M85" s="42">
+        <v>39.01</v>
+      </c>
+      <c r="N85" s="42">
+        <v>3.07</v>
+      </c>
+      <c r="O85" s="21">
+        <v>0.5998</v>
+      </c>
+      <c r="P85" s="21">
+        <v>-3.15E-2</v>
+      </c>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="S85" s="21">
+        <v>1.17E-2</v>
+      </c>
+      <c r="T85" s="45">
+        <v>4.51</v>
+      </c>
+      <c r="U85" s="74">
+        <v>645340</v>
+      </c>
+      <c r="V85" s="13" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" s="31"/>
+      <c r="B86" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="34" t="s">
+        <v>645</v>
+      </c>
+      <c r="H86" s="24">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I86" s="24">
+        <v>0.11448</v>
+      </c>
+      <c r="J86" s="42">
+        <v>380</v>
+      </c>
+      <c r="K86" s="42">
+        <v>6.75</v>
+      </c>
+      <c r="L86" s="42">
+        <v>351.92</v>
+      </c>
+      <c r="M86" s="42">
+        <v>27.35</v>
+      </c>
+      <c r="N86" s="42">
+        <v>1.92</v>
+      </c>
+      <c r="O86" s="21">
+        <v>0.29260000000000003</v>
+      </c>
+      <c r="P86" s="21">
+        <v>-0.27039999999999997</v>
+      </c>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="S86" s="21">
+        <v>0</v>
+      </c>
+      <c r="T86" s="45">
+        <v>3.77</v>
+      </c>
+      <c r="U86" s="74">
+        <v>536960</v>
+      </c>
+      <c r="V86" s="13" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" s="31"/>
+      <c r="B87" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="34" t="s">
+        <v>647</v>
+      </c>
+      <c r="H87" s="24">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="I87" s="24">
+        <v>-1.4579999999999999E-2</v>
+      </c>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42">
+        <v>9.15</v>
+      </c>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42">
+        <v>-43.42</v>
+      </c>
+      <c r="N87" s="42">
+        <v>10.02</v>
+      </c>
+      <c r="O87" s="21">
+        <v>0.66810000000000003</v>
+      </c>
+      <c r="P87" s="21">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21">
+        <v>-0.1736</v>
+      </c>
+      <c r="S87" s="21">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="T87" s="45">
+        <v>2.42</v>
+      </c>
+      <c r="U87" s="74">
+        <v>203180</v>
+      </c>
+      <c r="V87" s="13" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" s="31"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="45"/>
+      <c r="U88" s="74"/>
+      <c r="V88" s="13"/>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" s="31"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="74"/>
+      <c r="V89" s="13"/>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90" s="31"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="21"/>
+      <c r="S90" s="21"/>
+      <c r="T90" s="45"/>
+      <c r="U90" s="74"/>
+      <c r="V90" s="13"/>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" s="31"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="42"/>
+      <c r="N91" s="42"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="45"/>
+      <c r="U91" s="74"/>
+      <c r="V91" s="13"/>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92" s="19"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
+      <c r="S92" s="15"/>
+      <c r="T92" s="15"/>
+      <c r="U92" s="53"/>
+      <c r="V92" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35634,7 +35898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554D201E-890B-41A2-9456-C006731550ED}">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>

--- a/Stock/US_Stock.xlsx
+++ b/Stock/US_Stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6896DB76-38EF-40DE-9AC1-A7C024F2B5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4716C678-84A5-460E-A3D0-5E4C6135069A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="14" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="681">
   <si>
     <t>代码</t>
   </si>
@@ -1358,9 +1358,6 @@
     <t>Sparkling Water</t>
   </si>
   <si>
-    <t>Finance</t>
-  </si>
-  <si>
     <t>HEALTHEQUITY INC</t>
   </si>
   <si>
@@ -2076,6 +2073,42 @@
   </si>
   <si>
     <t>Oil Production</t>
+  </si>
+  <si>
+    <t>Healthcare system</t>
+  </si>
+  <si>
+    <t>PAYPAL HOLDINGS INC</t>
+  </si>
+  <si>
+    <t>Info System</t>
+  </si>
+  <si>
+    <t>IPHI</t>
+  </si>
+  <si>
+    <t>INPHI CORP</t>
+  </si>
+  <si>
+    <t>network connector</t>
+  </si>
+  <si>
+    <t>CCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CROWN CASTLE INTERNATIONAL </t>
+  </si>
+  <si>
+    <t>Tower Lease</t>
+  </si>
+  <si>
+    <t>IMO</t>
+  </si>
+  <si>
+    <t>IMPERIAL OIL LTD</t>
+  </si>
+  <si>
+    <t>Oil upstream in Canada</t>
   </si>
 </sst>
 </file>
@@ -2817,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B4BCA-42DA-4C85-9005-E70B6BE65D74}">
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="S78" sqref="S78"/>
+    <sheetView topLeftCell="A6" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2907,13 +2940,13 @@
         <v>31</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="14.65" hidden="1" customHeight="1">
+    <row r="2" spans="1:22" ht="14.65" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>35</v>
       </c>
@@ -2973,7 +3006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1">
+    <row r="3" spans="1:22">
       <c r="A3" s="18"/>
       <c r="B3" s="108" t="s">
         <v>2</v>
@@ -3031,7 +3064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1">
+    <row r="4" spans="1:22">
       <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
         <v>8</v>
@@ -3097,7 +3130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1">
+    <row r="5" spans="1:22">
       <c r="A5" s="18"/>
       <c r="B5" s="11" t="s">
         <v>26</v>
@@ -3155,7 +3188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1">
+    <row r="6" spans="1:22">
       <c r="A6" s="18"/>
       <c r="B6" s="87" t="s">
         <v>7</v>
@@ -3213,7 +3246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1">
+    <row r="7" spans="1:22">
       <c r="A7" s="31"/>
       <c r="B7" s="11" t="s">
         <v>45</v>
@@ -3269,7 +3302,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1">
+    <row r="8" spans="1:22">
       <c r="A8" s="31"/>
       <c r="B8" s="11" t="s">
         <v>58</v>
@@ -3325,7 +3358,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1">
+    <row r="9" spans="1:22">
       <c r="A9" s="31"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -3349,7 +3382,7 @@
       <c r="U9" s="15"/>
       <c r="V9" s="16"/>
     </row>
-    <row r="10" spans="1:22" hidden="1">
+    <row r="10" spans="1:22">
       <c r="A10" s="26" t="s">
         <v>172</v>
       </c>
@@ -3403,7 +3436,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1">
+    <row r="11" spans="1:22">
       <c r="A11" s="31"/>
       <c r="B11" s="85" t="s">
         <v>173</v>
@@ -3461,7 +3494,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1">
+    <row r="12" spans="1:22">
       <c r="A12" s="31"/>
       <c r="B12" s="11" t="s">
         <v>176</v>
@@ -3513,7 +3546,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1">
+    <row r="13" spans="1:22">
       <c r="A13" s="31"/>
       <c r="B13" s="11" t="s">
         <v>70</v>
@@ -3567,7 +3600,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1">
+    <row r="14" spans="1:22">
       <c r="A14" s="31"/>
       <c r="B14" s="11" t="s">
         <v>114</v>
@@ -3619,7 +3652,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1">
+    <row r="15" spans="1:22">
       <c r="A15" s="31"/>
       <c r="B15" s="11" t="s">
         <v>112</v>
@@ -3671,7 +3704,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1">
+    <row r="16" spans="1:22">
       <c r="A16" s="31"/>
       <c r="B16" s="11" t="s">
         <v>73</v>
@@ -3727,7 +3760,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1">
+    <row r="17" spans="1:22">
       <c r="A17" s="31"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
@@ -3751,7 +3784,7 @@
       <c r="U17" s="40"/>
       <c r="V17" s="13"/>
     </row>
-    <row r="18" spans="1:22" hidden="1">
+    <row r="18" spans="1:22">
       <c r="A18" s="31"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
@@ -3775,7 +3808,7 @@
       <c r="U18" s="47"/>
       <c r="V18" s="13"/>
     </row>
-    <row r="19" spans="1:22" hidden="1">
+    <row r="19" spans="1:22">
       <c r="A19" s="31"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -3799,7 +3832,7 @@
       <c r="U19" s="47"/>
       <c r="V19" s="13"/>
     </row>
-    <row r="20" spans="1:22" hidden="1">
+    <row r="20" spans="1:22">
       <c r="A20" s="31"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -3823,7 +3856,7 @@
       <c r="U20" s="47"/>
       <c r="V20" s="13"/>
     </row>
-    <row r="21" spans="1:22" hidden="1">
+    <row r="21" spans="1:22">
       <c r="A21" s="31"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
@@ -3847,7 +3880,7 @@
       <c r="U21" s="47"/>
       <c r="V21" s="13"/>
     </row>
-    <row r="22" spans="1:22" hidden="1">
+    <row r="22" spans="1:22">
       <c r="A22" s="31"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -3871,7 +3904,7 @@
       <c r="U22" s="47"/>
       <c r="V22" s="13"/>
     </row>
-    <row r="23" spans="1:22" hidden="1">
+    <row r="23" spans="1:22">
       <c r="A23" s="31"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -3895,7 +3928,7 @@
       <c r="U23" s="40"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="1:22" hidden="1">
+    <row r="24" spans="1:22">
       <c r="A24" s="31"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -3919,7 +3952,7 @@
       <c r="U24" s="40"/>
       <c r="V24" s="13"/>
     </row>
-    <row r="25" spans="1:22" hidden="1">
+    <row r="25" spans="1:22">
       <c r="A25" s="31"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
@@ -3943,7 +3976,7 @@
       <c r="U25" s="40"/>
       <c r="V25" s="13"/>
     </row>
-    <row r="26" spans="1:22" hidden="1">
+    <row r="26" spans="1:22">
       <c r="A26" s="31"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
@@ -3967,7 +4000,7 @@
       <c r="U26" s="40"/>
       <c r="V26" s="13"/>
     </row>
-    <row r="27" spans="1:22" hidden="1">
+    <row r="27" spans="1:22">
       <c r="A27" s="31"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
@@ -3991,7 +4024,7 @@
       <c r="U27" s="40"/>
       <c r="V27" s="13"/>
     </row>
-    <row r="28" spans="1:22" hidden="1">
+    <row r="28" spans="1:22">
       <c r="A28" s="31"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
@@ -4015,7 +4048,7 @@
       <c r="U28" s="40"/>
       <c r="V28" s="13"/>
     </row>
-    <row r="29" spans="1:22" hidden="1">
+    <row r="29" spans="1:22">
       <c r="A29" s="31"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
@@ -4039,7 +4072,7 @@
       <c r="U29" s="40"/>
       <c r="V29" s="13"/>
     </row>
-    <row r="30" spans="1:22" hidden="1">
+    <row r="30" spans="1:22">
       <c r="A30" s="31"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
@@ -4063,7 +4096,7 @@
       <c r="U30" s="40"/>
       <c r="V30" s="13"/>
     </row>
-    <row r="31" spans="1:22" hidden="1">
+    <row r="31" spans="1:22">
       <c r="A31" s="31"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
@@ -4087,9 +4120,9 @@
       <c r="U31" s="47"/>
       <c r="V31" s="16"/>
     </row>
-    <row r="32" spans="1:22" hidden="1">
+    <row r="32" spans="1:22">
       <c r="A32" s="26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>169</v>
@@ -4139,7 +4172,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:22" hidden="1">
+    <row r="33" spans="1:22">
       <c r="A33" s="31"/>
       <c r="B33" s="11" t="s">
         <v>309</v>
@@ -4189,13 +4222,13 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1">
+    <row r="34" spans="1:22">
       <c r="A34" s="31"/>
       <c r="B34" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="G34" t="s">
         <v>440</v>
-      </c>
-      <c r="G34" t="s">
-        <v>441</v>
       </c>
       <c r="H34" s="68">
         <v>1.89</v>
@@ -4234,20 +4267,20 @@
         <v>3.36</v>
       </c>
       <c r="V34" s="13" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" hidden="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="31"/>
       <c r="B35" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H35" s="24">
         <v>4.0999999999999996</v>
@@ -4290,10 +4323,10 @@
       </c>
       <c r="U35" s="45"/>
       <c r="V35" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" hidden="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="31"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
@@ -4317,12 +4350,12 @@
       <c r="U36" s="45"/>
       <c r="V36" s="13"/>
     </row>
-    <row r="37" spans="1:22" hidden="1">
+    <row r="37" spans="1:22">
       <c r="A37" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>481</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>482</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -4374,20 +4407,20 @@
         <v>555460</v>
       </c>
       <c r="V37" s="10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" hidden="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="31"/>
       <c r="B38" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H38" s="24">
         <v>48.99</v>
@@ -4432,16 +4465,16 @@
         <v>705330</v>
       </c>
       <c r="V38" s="13" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" hidden="1">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="31"/>
       <c r="B39" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="G39" t="s">
         <v>486</v>
-      </c>
-      <c r="G39" t="s">
-        <v>487</v>
       </c>
       <c r="H39" s="68">
         <v>7.16</v>
@@ -4486,20 +4519,20 @@
         <v>701890</v>
       </c>
       <c r="V39" s="13" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" hidden="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="31"/>
       <c r="B40" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H40" s="24">
         <v>13.72</v>
@@ -4544,10 +4577,10 @@
         <v>585910</v>
       </c>
       <c r="V40" s="13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" hidden="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="31"/>
       <c r="B41" s="11"/>
       <c r="H41"/>
@@ -4560,7 +4593,7 @@
       <c r="U41" s="75"/>
       <c r="V41" s="13"/>
     </row>
-    <row r="42" spans="1:22" hidden="1">
+    <row r="42" spans="1:22">
       <c r="A42" s="26" t="s">
         <v>65</v>
       </c>
@@ -4620,7 +4653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1">
+    <row r="43" spans="1:22">
       <c r="A43" s="31"/>
       <c r="B43" s="11" t="s">
         <v>51</v>
@@ -4672,7 +4705,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1">
+    <row r="44" spans="1:22">
       <c r="A44" s="31"/>
       <c r="B44" s="11" t="s">
         <v>54</v>
@@ -4715,7 +4748,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1">
+    <row r="45" spans="1:22">
       <c r="A45" s="31"/>
       <c r="B45" s="11" t="s">
         <v>117</v>
@@ -4766,13 +4799,13 @@
         <v>358490</v>
       </c>
       <c r="V45" s="23" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" hidden="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="31"/>
       <c r="B46" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>110</v>
@@ -4814,20 +4847,20 @@
         <v>297310</v>
       </c>
       <c r="V46" s="13" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" hidden="1">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="31"/>
       <c r="B47" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H47" s="24">
         <v>2.14</v>
@@ -4866,20 +4899,20 @@
       </c>
       <c r="U47" s="73"/>
       <c r="V47" s="13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" hidden="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="31"/>
       <c r="B48" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H48" s="24">
         <v>1.19</v>
@@ -4916,20 +4949,20 @@
       </c>
       <c r="U48" s="73"/>
       <c r="V48" s="13" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" hidden="1">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="31"/>
       <c r="B49" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H49" s="24">
         <v>18.84</v>
@@ -4968,20 +5001,20 @@
       </c>
       <c r="U49" s="73"/>
       <c r="V49" s="13" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" hidden="1">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="31"/>
       <c r="B50" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H50" s="24">
         <v>5.27</v>
@@ -5020,20 +5053,20 @@
       </c>
       <c r="U50" s="73"/>
       <c r="V50" s="13" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" hidden="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="31"/>
       <c r="B51" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H51" s="24">
         <v>20.53</v>
@@ -5072,20 +5105,20 @@
       </c>
       <c r="U51" s="73"/>
       <c r="V51" s="13" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" hidden="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="31"/>
       <c r="B52" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H52" s="24">
         <v>12.92</v>
@@ -5122,20 +5155,20 @@
       </c>
       <c r="U52" s="73"/>
       <c r="V52" s="13" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" hidden="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="31"/>
       <c r="B53" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H53" s="24">
         <v>11.05</v>
@@ -5176,10 +5209,10 @@
         <v>230190</v>
       </c>
       <c r="V53" s="13" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" hidden="1">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="19"/>
       <c r="B54" s="14"/>
       <c r="C54" s="15"/>
@@ -5191,7 +5224,7 @@
       <c r="U54" s="75"/>
       <c r="V54" s="16"/>
     </row>
-    <row r="55" spans="1:22" hidden="1">
+    <row r="55" spans="1:22">
       <c r="A55" s="17" t="s">
         <v>37</v>
       </c>
@@ -5251,7 +5284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:22" hidden="1">
+    <row r="56" spans="1:22">
       <c r="A56" s="18"/>
       <c r="B56" s="32" t="s">
         <v>41</v>
@@ -5309,7 +5342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:22" hidden="1">
+    <row r="57" spans="1:22">
       <c r="A57" s="18"/>
       <c r="B57" s="32" t="s">
         <v>122</v>
@@ -5367,7 +5400,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:22" hidden="1">
+    <row r="58" spans="1:22">
       <c r="A58" s="18"/>
       <c r="B58" s="32" t="s">
         <v>119</v>
@@ -5421,7 +5454,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:22" hidden="1">
+    <row r="59" spans="1:22">
       <c r="A59" s="18"/>
       <c r="B59" s="11" t="s">
         <v>311</v>
@@ -5473,10 +5506,10 @@
         <v>313</v>
       </c>
     </row>
-    <row r="60" spans="1:22" hidden="1">
+    <row r="60" spans="1:22">
       <c r="A60" s="18"/>
       <c r="B60" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -5520,20 +5553,20 @@
       </c>
       <c r="U60" s="73"/>
       <c r="V60" s="13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" hidden="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="18"/>
       <c r="B61" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
       <c r="G61" s="70" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H61" s="24">
         <v>27.25</v>
@@ -5576,20 +5609,20 @@
       </c>
       <c r="U61" s="73"/>
       <c r="V61" s="13" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" hidden="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="18"/>
       <c r="B62" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
       <c r="G62" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H62" s="24">
         <v>6.75</v>
@@ -5628,20 +5661,20 @@
       </c>
       <c r="U62" s="73"/>
       <c r="V62" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" hidden="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="18"/>
       <c r="B63" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H63" s="24">
         <v>161.06</v>
@@ -5686,20 +5719,20 @@
         <v>515210</v>
       </c>
       <c r="V63" s="13" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" hidden="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="18"/>
       <c r="B64" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H64" s="24">
         <v>3.44</v>
@@ -5742,10 +5775,10 @@
       </c>
       <c r="U64" s="73"/>
       <c r="V64" s="13" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" hidden="1">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="18"/>
       <c r="B65" s="11"/>
       <c r="C65" s="12"/>
@@ -5769,7 +5802,7 @@
       <c r="U65" s="73"/>
       <c r="V65" s="13"/>
     </row>
-    <row r="66" spans="1:22" hidden="1">
+    <row r="66" spans="1:22">
       <c r="A66" s="19"/>
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
@@ -5793,7 +5826,7 @@
       <c r="U66" s="73"/>
       <c r="V66" s="13"/>
     </row>
-    <row r="67" spans="1:22" hidden="1">
+    <row r="67" spans="1:22">
       <c r="A67" s="31" t="s">
         <v>63</v>
       </c>
@@ -5853,7 +5886,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:22" hidden="1">
+    <row r="68" spans="1:22">
       <c r="A68" s="31"/>
       <c r="B68" s="11" t="s">
         <v>141</v>
@@ -5909,7 +5942,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:22" hidden="1">
+    <row r="69" spans="1:22">
       <c r="A69" s="31"/>
       <c r="B69" s="11" t="s">
         <v>143</v>
@@ -5965,7 +5998,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:22" hidden="1">
+    <row r="70" spans="1:22">
       <c r="A70" s="19"/>
       <c r="B70" s="11" t="s">
         <v>144</v>
@@ -6021,7 +6054,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:22" hidden="1">
+    <row r="71" spans="1:22">
       <c r="A71" s="31" t="s">
         <v>64</v>
       </c>
@@ -6078,20 +6111,20 @@
         <v>1229070</v>
       </c>
       <c r="V71" s="10" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" hidden="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="31"/>
       <c r="B72" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="34" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H72" s="24">
         <v>141.47999999999999</v>
@@ -6136,10 +6169,10 @@
         <v>766030</v>
       </c>
       <c r="V72" s="13" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" hidden="1">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="31"/>
       <c r="B73" s="11"/>
       <c r="C73" s="12"/>
@@ -6163,7 +6196,7 @@
       <c r="U73" s="73"/>
       <c r="V73" s="13"/>
     </row>
-    <row r="74" spans="1:22" hidden="1">
+    <row r="74" spans="1:22">
       <c r="A74" s="31"/>
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
@@ -6187,7 +6220,7 @@
       <c r="U74" s="73"/>
       <c r="V74" s="13"/>
     </row>
-    <row r="75" spans="1:22" hidden="1">
+    <row r="75" spans="1:22">
       <c r="A75" s="19"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
@@ -6562,14 +6595,14 @@
     <row r="82" spans="1:22">
       <c r="A82" s="31"/>
       <c r="B82" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H82" s="24">
         <v>0.74956999999999996</v>
@@ -6614,330 +6647,362 @@
         <v>1210930</v>
       </c>
       <c r="V82" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="19"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="15"/>
-      <c r="T83" s="15"/>
-      <c r="U83" s="53"/>
-      <c r="V83" s="16"/>
+      <c r="A83" s="31"/>
+      <c r="B83" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="34" t="s">
+        <v>672</v>
+      </c>
+      <c r="H83" s="24">
+        <v>5.46</v>
+      </c>
+      <c r="I83" s="24">
+        <v>6.7470000000000002E-2</v>
+      </c>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42">
+        <v>15.6</v>
+      </c>
+      <c r="L83" s="42">
+        <v>210.6</v>
+      </c>
+      <c r="M83" s="42">
+        <v>191.51</v>
+      </c>
+      <c r="N83" s="42">
+        <v>12.81</v>
+      </c>
+      <c r="O83" s="21">
+        <v>0.1855</v>
+      </c>
+      <c r="P83" s="21">
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="Q83" s="21">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="R83" s="21">
+        <v>-0.20280000000000001</v>
+      </c>
+      <c r="S83" s="21">
+        <v>1.4995000000000001</v>
+      </c>
+      <c r="T83" s="45">
+        <v>2.67</v>
+      </c>
+      <c r="U83" s="73">
+        <v>617290</v>
+      </c>
+      <c r="V83" s="13" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="19"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="53"/>
+      <c r="V84" s="16"/>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="28" t="s">
         <v>636</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="28" t="s">
-        <v>637</v>
-      </c>
-      <c r="H84" s="38">
+      <c r="H85" s="38">
         <v>13.17</v>
       </c>
-      <c r="I84" s="38">
+      <c r="I85" s="38">
         <v>0.45469999999999999</v>
       </c>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9">
+      <c r="J85" s="9"/>
+      <c r="K85" s="9">
         <v>6.79</v>
       </c>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9">
+      <c r="L85" s="9"/>
+      <c r="M85" s="9">
         <v>-8.5</v>
       </c>
-      <c r="N84" s="9">
+      <c r="N85" s="9">
         <v>3.14</v>
       </c>
-      <c r="O84" s="20">
+      <c r="O85" s="20">
         <v>0.20799999999999999</v>
       </c>
-      <c r="P84" s="20">
+      <c r="P85" s="20">
         <v>0.1802</v>
       </c>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20">
+      <c r="Q85" s="20"/>
+      <c r="R85" s="20">
         <v>-0.77149999999999996</v>
       </c>
-      <c r="S84" s="20">
+      <c r="S85" s="20">
         <v>1.7843</v>
       </c>
-      <c r="T84" s="9">
+      <c r="T85" s="9">
         <v>1.1200000000000001</v>
       </c>
-      <c r="U84" s="43">
+      <c r="U85" s="43">
         <v>468440</v>
       </c>
-      <c r="V84" s="10" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22">
-      <c r="A85" s="31"/>
-      <c r="B85" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="34" t="s">
-        <v>639</v>
-      </c>
-      <c r="H85" s="24">
-        <v>7.76</v>
-      </c>
-      <c r="I85" s="24">
-        <v>0.60858999999999996</v>
-      </c>
-      <c r="J85" s="42">
-        <v>6.58</v>
-      </c>
-      <c r="K85" s="42">
-        <v>1.97</v>
-      </c>
-      <c r="L85" s="42">
-        <v>6.51</v>
-      </c>
-      <c r="M85" s="42">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N85" s="42">
-        <v>3.46</v>
-      </c>
-      <c r="O85" s="21">
-        <v>0.53210000000000002</v>
-      </c>
-      <c r="P85" s="21">
-        <v>1.1326000000000001</v>
-      </c>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21">
-        <v>0.30220000000000002</v>
-      </c>
-      <c r="S85" s="21">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="T85" s="45">
-        <v>1.65</v>
-      </c>
-      <c r="U85" s="73">
-        <v>102890</v>
-      </c>
-      <c r="V85" s="13" t="s">
-        <v>640</v>
+      <c r="V85" s="10" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="31"/>
       <c r="B86" s="11" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
       <c r="G86" s="34" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H86" s="24">
-        <v>3.76</v>
+        <v>7.76</v>
       </c>
       <c r="I86" s="24">
-        <v>0.27065</v>
+        <v>0.60858999999999996</v>
       </c>
       <c r="J86" s="42">
-        <v>57.1</v>
+        <v>6.58</v>
       </c>
       <c r="K86" s="42">
-        <v>3.3</v>
+        <v>1.97</v>
       </c>
       <c r="L86" s="42">
-        <v>54.83</v>
+        <v>6.51</v>
       </c>
       <c r="M86" s="42">
-        <v>39.01</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N86" s="42">
-        <v>3.07</v>
+        <v>3.46</v>
       </c>
       <c r="O86" s="21">
-        <v>0.5998</v>
+        <v>0.53210000000000002</v>
       </c>
       <c r="P86" s="21">
-        <v>-3.15E-2</v>
+        <v>1.1326000000000001</v>
       </c>
       <c r="Q86" s="21"/>
       <c r="R86" s="21">
-        <v>6.0199999999999997E-2</v>
+        <v>0.30220000000000002</v>
       </c>
       <c r="S86" s="21">
-        <v>1.17E-2</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="T86" s="45">
-        <v>4.51</v>
+        <v>1.65</v>
       </c>
       <c r="U86" s="73">
-        <v>645340</v>
+        <v>102890</v>
       </c>
       <c r="V86" s="13" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="31"/>
       <c r="B87" s="11" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="34" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H87" s="24">
-        <v>2.4900000000000002</v>
+        <v>3.76</v>
       </c>
       <c r="I87" s="24">
-        <v>0.11448</v>
+        <v>0.27065</v>
       </c>
       <c r="J87" s="42">
-        <v>380</v>
+        <v>57.1</v>
       </c>
       <c r="K87" s="42">
-        <v>6.75</v>
+        <v>3.3</v>
       </c>
       <c r="L87" s="42">
-        <v>351.92</v>
+        <v>54.83</v>
       </c>
       <c r="M87" s="42">
-        <v>27.35</v>
+        <v>39.01</v>
       </c>
       <c r="N87" s="42">
-        <v>1.92</v>
+        <v>3.07</v>
       </c>
       <c r="O87" s="21">
-        <v>0.29260000000000003</v>
+        <v>0.5998</v>
       </c>
       <c r="P87" s="21">
-        <v>-0.27039999999999997</v>
+        <v>-3.15E-2</v>
       </c>
       <c r="Q87" s="21"/>
       <c r="R87" s="21">
-        <v>1.9199999999999998E-2</v>
+        <v>6.0199999999999997E-2</v>
       </c>
       <c r="S87" s="21">
-        <v>0</v>
+        <v>1.17E-2</v>
       </c>
       <c r="T87" s="45">
-        <v>3.77</v>
+        <v>4.51</v>
       </c>
       <c r="U87" s="73">
-        <v>536960</v>
+        <v>645340</v>
       </c>
       <c r="V87" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="31"/>
       <c r="B88" s="11" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
       <c r="G88" s="34" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H88" s="24">
-        <v>10.130000000000001</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="I88" s="24">
-        <v>-1.4579999999999999E-2</v>
-      </c>
-      <c r="J88" s="42"/>
+        <v>0.11448</v>
+      </c>
+      <c r="J88" s="42">
+        <v>380</v>
+      </c>
       <c r="K88" s="42">
-        <v>9.15</v>
-      </c>
-      <c r="L88" s="42"/>
+        <v>6.75</v>
+      </c>
+      <c r="L88" s="42">
+        <v>351.92</v>
+      </c>
       <c r="M88" s="42">
-        <v>-43.42</v>
+        <v>27.35</v>
       </c>
       <c r="N88" s="42">
-        <v>10.02</v>
+        <v>1.92</v>
       </c>
       <c r="O88" s="21">
-        <v>0.66810000000000003</v>
+        <v>0.29260000000000003</v>
       </c>
       <c r="P88" s="21">
-        <v>-0.23899999999999999</v>
+        <v>-0.27039999999999997</v>
       </c>
       <c r="Q88" s="21"/>
       <c r="R88" s="21">
-        <v>-0.1736</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="S88" s="21">
-        <v>0.52510000000000001</v>
+        <v>0</v>
       </c>
       <c r="T88" s="45">
-        <v>2.42</v>
+        <v>3.77</v>
       </c>
       <c r="U88" s="73">
-        <v>203180</v>
+        <v>536960</v>
       </c>
       <c r="V88" s="13" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="31"/>
-      <c r="B89" s="11"/>
+      <c r="B89" s="11" t="s">
+        <v>645</v>
+      </c>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
+      <c r="G89" s="34" t="s">
+        <v>646</v>
+      </c>
+      <c r="H89" s="24">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="I89" s="24">
+        <v>-1.4579999999999999E-2</v>
+      </c>
       <c r="J89" s="42"/>
-      <c r="K89" s="42"/>
+      <c r="K89" s="42">
+        <v>9.15</v>
+      </c>
       <c r="L89" s="42"/>
-      <c r="M89" s="42"/>
-      <c r="N89" s="42"/>
-      <c r="O89" s="21"/>
-      <c r="P89" s="21"/>
+      <c r="M89" s="42">
+        <v>-43.42</v>
+      </c>
+      <c r="N89" s="42">
+        <v>10.02</v>
+      </c>
+      <c r="O89" s="21">
+        <v>0.66810000000000003</v>
+      </c>
+      <c r="P89" s="21">
+        <v>-0.23899999999999999</v>
+      </c>
       <c r="Q89" s="21"/>
-      <c r="R89" s="21"/>
-      <c r="S89" s="21"/>
-      <c r="T89" s="45"/>
-      <c r="U89" s="73"/>
-      <c r="V89" s="13"/>
+      <c r="R89" s="21">
+        <v>-0.1736</v>
+      </c>
+      <c r="S89" s="21">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="T89" s="45">
+        <v>2.42</v>
+      </c>
+      <c r="U89" s="73">
+        <v>203180</v>
+      </c>
+      <c r="V89" s="13" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="31"/>
@@ -7012,28 +7077,52 @@
       <c r="V92" s="13"/>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="19"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="15"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15"/>
-      <c r="O93" s="15"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="15"/>
-      <c r="S93" s="15"/>
-      <c r="T93" s="15"/>
-      <c r="U93" s="53"/>
-      <c r="V93" s="16"/>
+      <c r="A93" s="31"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="42"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="45"/>
+      <c r="U93" s="73"/>
+      <c r="V93" s="13"/>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="A94" s="19"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="15"/>
+      <c r="S94" s="15"/>
+      <c r="T94" s="15"/>
+      <c r="U94" s="53"/>
+      <c r="V94" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34967,10 +35056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60962558-6560-4774-AEEE-ED34B51A5A0E}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35056,7 +35145,7 @@
         <v>31</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>22</v>
@@ -35285,7 +35374,7 @@
         <v>1568520</v>
       </c>
       <c r="V5" s="83" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -35345,10 +35434,10 @@
     <row r="7" spans="1:22">
       <c r="A7" s="18"/>
       <c r="B7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G7" t="s">
         <v>559</v>
-      </c>
-      <c r="G7" t="s">
-        <v>560</v>
       </c>
       <c r="H7" s="68">
         <v>102.06</v>
@@ -35396,10 +35485,10 @@
     <row r="8" spans="1:22">
       <c r="A8" s="18"/>
       <c r="B8" s="59" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H8" s="68">
         <v>13.85</v>
@@ -35438,20 +35527,20 @@
         <v>3023370</v>
       </c>
       <c r="V8" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="18"/>
       <c r="B9" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H9" s="24">
         <v>122.51</v>
@@ -35610,10 +35699,10 @@
       <c r="G13" s="81" t="s">
         <v>412</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="80">
         <v>30.45</v>
       </c>
-      <c r="I13" s="90">
+      <c r="I13" s="80">
         <v>0.13450000000000001</v>
       </c>
       <c r="J13" s="81">
@@ -35763,14 +35852,14 @@
     <row r="16" spans="1:22">
       <c r="A16" s="18"/>
       <c r="B16" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="34" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H16" s="24">
         <v>5.41</v>
@@ -35815,20 +35904,20 @@
         <v>396500</v>
       </c>
       <c r="V16" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="18"/>
       <c r="B17" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H17" s="24">
         <v>65.62</v>
@@ -35871,7 +35960,7 @@
         <v>628490</v>
       </c>
       <c r="V17" s="13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -35902,17 +35991,17 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B19" s="59" t="s">
         <v>430</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>431</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H19" s="24">
         <v>3.65</v>
@@ -35957,164 +36046,222 @@
         <v>181510</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="18"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="59" t="s">
+        <v>447</v>
+      </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="13"/>
+      <c r="G20" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="H20" s="24">
+        <v>30.26</v>
+      </c>
+      <c r="I20" s="24">
+        <v>0.43425999999999998</v>
+      </c>
+      <c r="J20" s="40">
+        <v>106.26</v>
+      </c>
+      <c r="K20" s="42">
+        <v>20.02</v>
+      </c>
+      <c r="L20" s="42">
+        <v>93.64</v>
+      </c>
+      <c r="M20" s="42">
+        <v>109.01</v>
+      </c>
+      <c r="N20" s="42">
+        <v>27.22</v>
+      </c>
+      <c r="O20" s="21">
+        <v>0.28660000000000002</v>
+      </c>
+      <c r="P20" s="21">
+        <v>0.4859</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="R20" s="21">
+        <v>0.2006</v>
+      </c>
+      <c r="S20" s="21">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="T20" s="45">
+        <v>3.84</v>
+      </c>
+      <c r="U20" s="24">
+        <v>315360</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="19"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="16"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="13"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>661</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="34" t="s">
-        <v>662</v>
-      </c>
-      <c r="H22" s="24">
-        <v>274.57</v>
-      </c>
-      <c r="I22" s="24">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="J22" s="42">
-        <v>20.29</v>
-      </c>
-      <c r="K22" s="42">
-        <v>4.93</v>
-      </c>
-      <c r="L22" s="42">
-        <v>16.59</v>
-      </c>
-      <c r="M22" s="42">
-        <v>16.72</v>
-      </c>
-      <c r="N22" s="42">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="O22" s="21">
-        <v>0.13170000000000001</v>
-      </c>
-      <c r="P22" s="21">
-        <v>0.1847</v>
-      </c>
-      <c r="Q22" s="21">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="R22" s="21">
-        <v>0.247</v>
-      </c>
-      <c r="S22" s="21">
-        <v>0.90580000000000005</v>
-      </c>
-      <c r="T22" s="45">
-        <v>0.7</v>
-      </c>
-      <c r="U22" s="73">
-        <v>757750</v>
-      </c>
-      <c r="V22" s="13" t="s">
-        <v>663</v>
-      </c>
+      <c r="A22" s="19"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="18"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>660</v>
+      </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="13"/>
+      <c r="G23" s="34" t="s">
+        <v>661</v>
+      </c>
+      <c r="H23" s="24">
+        <v>274.57</v>
+      </c>
+      <c r="I23" s="24">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="J23" s="42">
+        <v>20.29</v>
+      </c>
+      <c r="K23" s="42">
+        <v>4.93</v>
+      </c>
+      <c r="L23" s="42">
+        <v>16.59</v>
+      </c>
+      <c r="M23" s="42">
+        <v>16.72</v>
+      </c>
+      <c r="N23" s="42">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="O23" s="21">
+        <v>0.13170000000000001</v>
+      </c>
+      <c r="P23" s="21">
+        <v>0.1847</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="R23" s="21">
+        <v>0.247</v>
+      </c>
+      <c r="S23" s="21">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="T23" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="U23" s="73">
+        <v>757750</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="19"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="16"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="13"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="19"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36126,8 +36273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554D201E-890B-41A2-9456-C006731550ED}">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36213,7 +36360,7 @@
         <v>31</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>22</v>
@@ -36221,7 +36368,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B2" s="91" t="s">
         <v>76</v>
@@ -36580,14 +36727,14 @@
     <row r="8" spans="1:22">
       <c r="A8" s="18"/>
       <c r="B8" s="59" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="34" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H8" s="24">
         <v>79.7</v>
@@ -36632,7 +36779,7 @@
         <v>225460</v>
       </c>
       <c r="V8" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -36688,7 +36835,7 @@
         <v>265160</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -36752,14 +36899,14 @@
     <row r="11" spans="1:22">
       <c r="A11" s="18"/>
       <c r="B11" s="81" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C11" s="81"/>
       <c r="D11" s="81"/>
       <c r="E11" s="81"/>
       <c r="F11" s="81"/>
       <c r="G11" s="79" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H11" s="80">
         <v>77.73</v>
@@ -36804,20 +36951,20 @@
         <v>855920</v>
       </c>
       <c r="V11" s="83" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="18"/>
       <c r="B12" s="42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="70" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H12" s="97">
         <v>36.68</v>
@@ -36862,20 +37009,20 @@
         <v>405570</v>
       </c>
       <c r="V12" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="18"/>
       <c r="B13" s="42" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="70" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H13" s="97">
         <v>31.24</v>
@@ -36920,16 +37067,16 @@
         <v>791800</v>
       </c>
       <c r="V13" s="23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="18"/>
       <c r="B14" s="42" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G14" s="70" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H14" s="97">
         <v>57.86</v>
@@ -36974,16 +37121,16 @@
         <v>145860</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="18"/>
       <c r="B15" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="G15" s="70" t="s">
         <v>584</v>
-      </c>
-      <c r="G15" s="70" t="s">
-        <v>585</v>
       </c>
       <c r="H15" s="97">
         <v>31.74</v>
@@ -37028,16 +37175,16 @@
         <v>173400</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="18"/>
       <c r="B16" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G16" s="70" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H16" s="97">
         <v>23.36</v>
@@ -37080,16 +37227,16 @@
         <v>125810</v>
       </c>
       <c r="V16" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="18"/>
       <c r="B17" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="G17" s="70" t="s">
         <v>590</v>
-      </c>
-      <c r="G17" s="70" t="s">
-        <v>591</v>
       </c>
       <c r="H17" s="97">
         <v>11.59</v>
@@ -37134,20 +37281,20 @@
         <v>792020</v>
       </c>
       <c r="V17" s="13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="18"/>
       <c r="B18" s="81" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C18" s="87"/>
       <c r="D18" s="87"/>
       <c r="E18" s="87"/>
       <c r="F18" s="87"/>
       <c r="G18" s="79" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H18" s="80">
         <v>2.75</v>
@@ -37192,20 +37339,20 @@
         <v>163720</v>
       </c>
       <c r="V18" s="83" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="18"/>
       <c r="B19" s="81" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C19" s="87"/>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="87"/>
       <c r="G19" s="79" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H19" s="80">
         <v>18.53</v>
@@ -37250,20 +37397,20 @@
         <v>349100</v>
       </c>
       <c r="V19" s="83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="18"/>
       <c r="B20" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H20" s="24">
         <v>27.93</v>
@@ -37308,13 +37455,13 @@
         <v>125780</v>
       </c>
       <c r="V20" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="18"/>
       <c r="B21" s="85" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
@@ -37366,13 +37513,13 @@
         <v>205940</v>
       </c>
       <c r="V21" s="83" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="18"/>
       <c r="B22" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -37424,20 +37571,20 @@
         <v>228290</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="18"/>
       <c r="B23" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H23" s="24">
         <v>12.55</v>
@@ -37476,20 +37623,20 @@
         <v>537360</v>
       </c>
       <c r="V23" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="18"/>
       <c r="B24" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="34" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H24" s="24">
         <v>2.81</v>
@@ -37534,7 +37681,7 @@
         <v>156960</v>
       </c>
       <c r="V24" s="23" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -37682,14 +37829,14 @@
     <row r="28" spans="1:22">
       <c r="A28" s="18"/>
       <c r="B28" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="34" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H28" s="24">
         <v>27.59</v>
@@ -37734,20 +37881,20 @@
         <v>496100</v>
       </c>
       <c r="V28" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="18"/>
       <c r="B29" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H29" s="24">
         <v>87.76</v>
@@ -37790,20 +37937,20 @@
         <v>304390</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="18"/>
       <c r="B30" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="34" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H30" s="24">
         <v>58.7</v>
@@ -37846,20 +37993,20 @@
         <v>457520</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="18"/>
       <c r="B31" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="34" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H31" s="24">
         <v>36.090000000000003</v>
@@ -37904,20 +38051,20 @@
         <v>419130</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="18"/>
       <c r="B32" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="34" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H32" s="24">
         <v>22.15</v>
@@ -37962,20 +38109,20 @@
         <v>434450</v>
       </c>
       <c r="V32" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="18"/>
       <c r="B33" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H33" s="24">
         <v>15.22</v>
@@ -38017,20 +38164,20 @@
         <v>425160</v>
       </c>
       <c r="V33" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="18"/>
       <c r="B34" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H34" s="24">
         <v>25.04</v>
@@ -38075,20 +38222,20 @@
         <v>506460</v>
       </c>
       <c r="V34" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="18"/>
       <c r="B35" s="59" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
       <c r="F35" s="42"/>
       <c r="G35" s="70" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H35" s="97">
         <v>35.869999999999997</v>
@@ -38133,7 +38280,7 @@
         <v>680410</v>
       </c>
       <c r="V35" s="23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -38162,7 +38309,7 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>267</v>
@@ -38457,14 +38604,14 @@
     <row r="42" spans="1:22">
       <c r="A42" s="18"/>
       <c r="B42" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H42" s="24">
         <v>5.14</v>
@@ -38507,20 +38654,20 @@
         <v>1230010</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="18"/>
       <c r="B43" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H43" s="24">
         <v>4.38</v>
@@ -38565,20 +38712,20 @@
         <v>128500</v>
       </c>
       <c r="V43" s="13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="18"/>
       <c r="B44" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H44" s="24">
         <v>25.23</v>
@@ -38621,7 +38768,7 @@
         <v>164880</v>
       </c>
       <c r="V44" s="13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -38650,7 +38797,7 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B46" s="87" t="s">
         <v>293</v>
@@ -38939,14 +39086,14 @@
     <row r="51" spans="1:22">
       <c r="A51" s="18"/>
       <c r="B51" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H51" s="24">
         <v>4.3099999999999996</v>
@@ -38986,7 +39133,7 @@
         <v>225300</v>
       </c>
       <c r="V51" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -39154,7 +39301,7 @@
     <row r="56" spans="1:22">
       <c r="A56" s="18"/>
       <c r="B56" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>4</v>
@@ -39169,7 +39316,7 @@
         <v>9</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H56" s="24">
         <v>46.61</v>
@@ -39212,20 +39359,20 @@
         <v>470650</v>
       </c>
       <c r="V56" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="18"/>
       <c r="B57" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H57" s="24">
         <v>2.63</v>
@@ -39270,20 +39417,20 @@
         <v>354590</v>
       </c>
       <c r="V57" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="18"/>
       <c r="B58" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H58" s="24">
         <v>128.51</v>
@@ -39320,20 +39467,20 @@
         <v>389220</v>
       </c>
       <c r="V58" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="18"/>
       <c r="B59" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="34" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H59" s="24">
         <v>69.87</v>
@@ -39374,7 +39521,7 @@
         <v>2801780</v>
       </c>
       <c r="V59" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -39742,10 +39889,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA094863-5102-4C93-A17A-D8A45FDBD33A}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView topLeftCell="Q1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39832,7 +39979,7 @@
         <v>31</v>
       </c>
       <c r="U1" s="71" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>22</v>
@@ -39919,7 +40066,7 @@
       <c r="J3" s="108">
         <v>8.58</v>
       </c>
-      <c r="K3" s="108">
+      <c r="K3" s="114">
         <v>0.7</v>
       </c>
       <c r="L3" s="108">
@@ -40237,14 +40384,14 @@
     <row r="9" spans="1:22">
       <c r="A9" s="18"/>
       <c r="B9" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="34" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H9" s="24">
         <v>46.41</v>
@@ -40289,252 +40436,286 @@
         <v>2843750</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="18"/>
-      <c r="B10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>679</v>
+      </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="13"/>
+      <c r="G10" s="34" t="s">
+        <v>678</v>
+      </c>
+      <c r="H10" s="24">
+        <v>11.2</v>
+      </c>
+      <c r="I10" s="24">
+        <v>1.76</v>
+      </c>
+      <c r="J10" s="42">
+        <v>6.81</v>
+      </c>
+      <c r="K10" s="42">
+        <v>0.62</v>
+      </c>
+      <c r="L10" s="42">
+        <v>4.49</v>
+      </c>
+      <c r="M10" s="42">
+        <v>14.19</v>
+      </c>
+      <c r="N10" s="42">
+        <v>0.49</v>
+      </c>
+      <c r="O10" s="21">
+        <v>-5.0200000000000002E-2</v>
+      </c>
+      <c r="P10" s="21">
+        <v>-8.3199999999999996E-2</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="R10" s="46">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="S10" s="21">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="T10" s="35">
+        <v>1.41</v>
+      </c>
+      <c r="U10" s="44">
+        <v>6651670</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="19"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="37" t="s">
-        <v>44</v>
-      </c>
+      <c r="A11" s="18"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="35"/>
       <c r="U11" s="44"/>
       <c r="V11" s="13"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" s="44"/>
+      <c r="V12" s="13"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B13" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="109" t="s">
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="H12" s="110">
+      <c r="H13" s="110">
         <v>8.76</v>
       </c>
-      <c r="I12" s="110">
+      <c r="I13" s="110">
         <v>0.46296999999999999</v>
       </c>
-      <c r="J12" s="108">
+      <c r="J13" s="108">
         <v>15.83</v>
       </c>
-      <c r="K12" s="108">
+      <c r="K13" s="108">
         <v>5.59</v>
       </c>
-      <c r="L12" s="108">
+      <c r="L13" s="108">
         <v>12.03</v>
       </c>
-      <c r="M12" s="108">
+      <c r="M13" s="108">
         <v>9.86</v>
       </c>
-      <c r="N12" s="108">
+      <c r="N13" s="108">
         <v>6.36</v>
       </c>
-      <c r="O12" s="111">
+      <c r="O13" s="111">
         <v>0.48459999999999998</v>
       </c>
-      <c r="P12" s="111">
+      <c r="P13" s="111">
         <v>0.73780000000000001</v>
       </c>
-      <c r="Q12" s="111">
+      <c r="Q13" s="111">
         <v>0.71199999999999997</v>
       </c>
-      <c r="R12" s="111">
+      <c r="R13" s="111">
         <v>0.35649999999999998</v>
       </c>
-      <c r="S12" s="111">
+      <c r="S13" s="111">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="T12" s="108">
+      <c r="T13" s="108">
         <v>2.0099999999999998</v>
       </c>
-      <c r="U12" s="113"/>
-      <c r="V12" s="112" t="s">
+      <c r="U13" s="113"/>
+      <c r="V13" s="112" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="18"/>
-      <c r="B13" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="H13" s="24">
-        <v>47.54</v>
-      </c>
-      <c r="I13" s="24">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="J13" s="42">
-        <v>11.88</v>
-      </c>
-      <c r="K13" s="42">
-        <v>2.59</v>
-      </c>
-      <c r="L13" s="42">
-        <v>7.76</v>
-      </c>
-      <c r="M13" s="42">
-        <v>6.15</v>
-      </c>
-      <c r="N13" s="42">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="O13" s="21">
-        <v>-1.06E-2</v>
-      </c>
-      <c r="P13" s="21">
-        <v>0.40749999999999997</v>
-      </c>
-      <c r="Q13" s="21">
-        <v>0.59419999999999995</v>
-      </c>
-      <c r="R13" s="21">
-        <v>0.2177</v>
-      </c>
-      <c r="S13" s="21">
-        <v>0.25829999999999997</v>
-      </c>
-      <c r="T13" s="35">
-        <v>2.77</v>
-      </c>
-      <c r="U13" s="44"/>
-      <c r="V13" s="13" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="18"/>
       <c r="B14" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="34" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H14" s="24">
-        <v>50.45</v>
+        <v>47.54</v>
       </c>
       <c r="I14" s="24">
-        <v>1.4</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J14" s="42">
-        <v>17.440000000000001</v>
+        <v>11.88</v>
       </c>
       <c r="K14" s="42">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="L14" s="42">
-        <v>9.1</v>
+        <v>7.76</v>
       </c>
       <c r="M14" s="42">
-        <v>9.9700000000000006</v>
+        <v>6.15</v>
       </c>
       <c r="N14" s="42">
-        <v>4.78</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="O14" s="21">
-        <v>5.96E-2</v>
+        <v>-1.06E-2</v>
       </c>
       <c r="P14" s="21">
-        <v>0.2152</v>
+        <v>0.40749999999999997</v>
       </c>
       <c r="Q14" s="21">
-        <v>0.38819999999999999</v>
+        <v>0.59419999999999995</v>
       </c>
       <c r="R14" s="21">
-        <v>0.1583</v>
+        <v>0.2177</v>
       </c>
       <c r="S14" s="21">
-        <v>0.32250000000000001</v>
-      </c>
-      <c r="T14" s="47">
-        <v>2.35</v>
-      </c>
-      <c r="U14" s="73"/>
+        <v>0.25829999999999997</v>
+      </c>
+      <c r="T14" s="35">
+        <v>2.77</v>
+      </c>
+      <c r="U14" s="44"/>
       <c r="V14" s="13" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="18"/>
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>287</v>
+      </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="13"/>
+      <c r="G15" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="H15" s="24">
+        <v>50.45</v>
+      </c>
+      <c r="I15" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="J15" s="42">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="K15" s="42">
+        <v>2.56</v>
+      </c>
+      <c r="L15" s="42">
+        <v>9.1</v>
+      </c>
+      <c r="M15" s="42">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="N15" s="42">
+        <v>4.78</v>
+      </c>
+      <c r="O15" s="21">
+        <v>5.96E-2</v>
+      </c>
+      <c r="P15" s="21">
+        <v>0.2152</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>0.38819999999999999</v>
+      </c>
+      <c r="R15" s="21">
+        <v>0.1583</v>
+      </c>
+      <c r="S15" s="21">
+        <v>0.32250000000000001</v>
+      </c>
+      <c r="T15" s="47">
+        <v>2.35</v>
+      </c>
+      <c r="U15" s="73"/>
+      <c r="V15" s="13" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="18"/>
@@ -40546,179 +40727,203 @@
       <c r="G16" s="34"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="42"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="46"/>
+      <c r="R16" s="21"/>
       <c r="S16" s="21"/>
       <c r="T16" s="35"/>
       <c r="U16" s="44"/>
       <c r="V16" s="13"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="19"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="37" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="13"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="19"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="U17" s="53"/>
-      <c r="V17" s="16"/>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="17" t="s">
+      <c r="U18" s="53"/>
+      <c r="V18" s="16"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H18" s="38">
+      <c r="H19" s="38">
         <v>111.03</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I19" s="38">
         <v>2.33</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J19" s="9">
         <v>31.45</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K19" s="9">
         <v>3.05</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L19" s="9">
         <v>14.16</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M19" s="9">
         <v>21.87</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N19" s="9">
         <v>5.59</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O19" s="20">
         <v>0.1651</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P19" s="20">
         <v>9.74E-2</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q19" s="20">
         <v>0.53239999999999998</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R19" s="20">
         <v>9.69E-2</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S19" s="20">
         <v>1.2968</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T19" s="9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="U18" s="38">
+      <c r="U19" s="38">
         <v>1333920</v>
       </c>
-      <c r="V18" s="10" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="18"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="13"/>
+      <c r="V19" s="10" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="33"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="35" t="s">
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="13"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="33"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="44"/>
-      <c r="V20" s="13"/>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="19"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="16"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="13"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="19"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40817,7 +41022,7 @@
         <v>31</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>22</v>
@@ -41489,10 +41694,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31E3AA2-82CE-474A-AD1E-5B42F12E69CD}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41578,7 +41783,7 @@
         <v>31</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>22</v>
@@ -42217,14 +42422,14 @@
     <row r="14" spans="1:22">
       <c r="A14" s="18"/>
       <c r="B14" s="48" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="34" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H14" s="24">
         <v>31.8</v>
@@ -42265,7 +42470,7 @@
         <v>965110</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -42350,25 +42555,25 @@
       <c r="N17" s="92">
         <v>15.34</v>
       </c>
-      <c r="O17" s="92">
+      <c r="O17" s="95">
         <v>0.12590000000000001</v>
       </c>
-      <c r="P17" s="92">
+      <c r="P17" s="95">
         <v>0.16739999999999999</v>
       </c>
-      <c r="Q17" s="92">
+      <c r="Q17" s="95">
         <v>0.69599999999999995</v>
       </c>
-      <c r="R17" s="92">
+      <c r="R17" s="95">
         <v>0.42170000000000002</v>
       </c>
-      <c r="S17" s="92">
+      <c r="S17" s="95">
         <v>0.55979999999999996</v>
       </c>
       <c r="T17" s="92">
         <v>1.51</v>
       </c>
-      <c r="U17" s="92">
+      <c r="U17" s="94">
         <v>1206410</v>
       </c>
       <c r="V17" s="88" t="s">
@@ -42429,7 +42634,9 @@
       <c r="U18" s="73">
         <v>914140</v>
       </c>
-      <c r="V18" s="13"/>
+      <c r="V18" s="13" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="18"/>
@@ -42496,236 +42703,294 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="19"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="16"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="48" t="s">
+        <v>670</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="H20" s="24">
+        <v>176.96</v>
+      </c>
+      <c r="I20" s="24">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="J20" s="42">
+        <v>95.48</v>
+      </c>
+      <c r="K20" s="42">
+        <v>10.82</v>
+      </c>
+      <c r="L20" s="35">
+        <v>62.14</v>
+      </c>
+      <c r="M20" s="35">
+        <v>117.35</v>
+      </c>
+      <c r="N20" s="42">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O20" s="21">
+        <v>0.1724</v>
+      </c>
+      <c r="P20" s="21">
+        <v>0.29239999999999999</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>0.2109</v>
+      </c>
+      <c r="R20" s="21">
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="S20" s="21">
+        <v>0.54469999999999996</v>
+      </c>
+      <c r="T20" s="35">
+        <v>1.36</v>
+      </c>
+      <c r="U20" s="44">
+        <v>787160</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="16"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="28" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H22" s="38">
         <v>45.04</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I22" s="38">
         <v>1.61</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J22" s="9">
         <v>32.35</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K22" s="9">
         <v>116.14</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L22" s="29">
         <v>27.94</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M22" s="29">
         <v>27.5</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N22" s="9">
         <v>9.3800000000000008</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O22" s="20">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="P21" s="20">
+      <c r="P22" s="20">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="Q22" s="20">
         <v>0.47439999999999999</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R22" s="20">
         <v>3.6448</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S22" s="20">
         <v>10.0572</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T22" s="9">
         <v>1.62</v>
       </c>
-      <c r="U21" s="43">
+      <c r="U22" s="43">
         <v>449140</v>
       </c>
-      <c r="V21" s="10" t="s">
+      <c r="V22" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="18"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="13"/>
-    </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="19"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="16"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="13"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="16"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="28" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H25" s="38">
         <v>62.27</v>
       </c>
-      <c r="I24" s="38"/>
-      <c r="J24" s="9">
+      <c r="I25" s="38"/>
+      <c r="J25" s="9">
         <v>9.51</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K25" s="9">
         <v>0.8</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L25" s="29">
         <v>6.94</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M25" s="29">
         <v>9.43</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N25" s="9">
         <v>1.21</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O25" s="20">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="P24" s="20">
+      <c r="P25" s="20">
         <v>7.6E-3</v>
       </c>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20">
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="S24" s="20"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="43">
+      <c r="S25" s="20"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="43">
         <v>1381620</v>
       </c>
-      <c r="V24" s="10" t="s">
+      <c r="V25" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="18"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="13"/>
-    </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="19"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="16"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="13"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="19"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42824,7 +43089,7 @@
         <v>31</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>22</v>
@@ -43727,7 +43992,7 @@
     <row r="19" spans="1:22">
       <c r="A19" s="18"/>
       <c r="B19" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>4</v>
@@ -43742,7 +44007,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H19" s="24">
         <v>27.94</v>
@@ -43781,7 +44046,7 @@
         <v>1799140</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -43810,17 +44075,17 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>435</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>436</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H21" s="38">
         <v>1.63</v>
@@ -43857,7 +44122,7 @@
       </c>
       <c r="U21" s="43"/>
       <c r="V21" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -44029,7 +44294,7 @@
         <v>31</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>22</v>
@@ -44677,7 +44942,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>392</v>
@@ -44796,14 +45061,14 @@
     <row r="18" spans="1:22">
       <c r="A18" s="31"/>
       <c r="B18" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H18" s="24">
         <v>275.52999999999997</v>
@@ -44844,20 +45109,20 @@
         <v>759380</v>
       </c>
       <c r="V18" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="31"/>
       <c r="B19" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H19" s="24">
         <v>14.83</v>
@@ -44898,20 +45163,20 @@
         <v>308870</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="31"/>
       <c r="B20" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="34" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H20" s="24">
         <v>36.56</v>
@@ -44956,7 +45221,7 @@
         <v>898510</v>
       </c>
       <c r="V20" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -45091,10 +45356,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0347724D-1739-43BD-B383-CFA8168BADE7}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="Q1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45180,7 +45445,7 @@
         <v>31</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>22</v>
@@ -45188,17 +45453,17 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H2" s="38">
         <v>30.45</v>
@@ -45239,20 +45504,20 @@
         <v>2118260</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="18"/>
       <c r="B3" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H3" s="24">
         <v>6.58</v>
@@ -45297,20 +45562,20 @@
         <v>170500</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="18"/>
       <c r="B4" s="103" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C4" s="103"/>
       <c r="D4" s="103"/>
       <c r="E4" s="103"/>
       <c r="F4" s="103"/>
       <c r="G4" s="103" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H4" s="104">
         <v>17.38</v>
@@ -45349,20 +45614,20 @@
         <v>7997770</v>
       </c>
       <c r="V4" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="18"/>
       <c r="B5" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="34" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H5" s="24">
         <v>5.19</v>
@@ -45403,20 +45668,20 @@
         <v>9622840</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="18"/>
       <c r="B6" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="34" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H6" s="24">
         <v>3.69</v>
@@ -45457,20 +45722,20 @@
         <v>5957580</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="18"/>
       <c r="B7" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="34" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H7" s="24">
         <v>0.79176999999999997</v>
@@ -45507,20 +45772,20 @@
         <v>2365000</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="18"/>
       <c r="B8" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="34" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H8" s="24">
         <v>6.18</v>
@@ -45559,20 +45824,20 @@
         <v>19791860</v>
       </c>
       <c r="V8" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="18"/>
       <c r="B9" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H9" s="24">
         <v>0.69703999999999999</v>
@@ -45613,136 +45878,170 @@
         <v>4033300</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="19"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="16"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="13"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="16"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="28" t="s">
         <v>630</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="28" t="s">
-        <v>631</v>
-      </c>
-      <c r="H11" s="38">
+      <c r="H12" s="38">
         <v>4.38</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I12" s="43">
         <v>0.45833000000000002</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J12" s="29">
         <v>14.85</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K12" s="29">
         <v>1.01</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L12" s="29">
         <v>14.93</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M12" s="29">
         <v>18.309999999999999</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N12" s="29">
         <v>6.39</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O12" s="20">
         <v>0.28439999999999999</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P12" s="20">
         <v>0.434</v>
       </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20">
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S12" s="20">
         <v>0.80720000000000003</v>
       </c>
-      <c r="T11" s="29"/>
-      <c r="U11" s="43">
+      <c r="T12" s="29"/>
+      <c r="U12" s="43">
         <v>6863030</v>
       </c>
-      <c r="V11" s="10" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="18"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="13"/>
+      <c r="V12" s="10" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="18"/>
-      <c r="B13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>676</v>
+      </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="13"/>
+      <c r="G13" s="34" t="s">
+        <v>675</v>
+      </c>
+      <c r="H13" s="24">
+        <v>65.14</v>
+      </c>
+      <c r="I13" s="44">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J13" s="35">
+        <v>88.25</v>
+      </c>
+      <c r="K13" s="35">
+        <v>5.98</v>
+      </c>
+      <c r="L13" s="35">
+        <v>26.77</v>
+      </c>
+      <c r="M13" s="35">
+        <v>27.88</v>
+      </c>
+      <c r="N13" s="35">
+        <v>11.26</v>
+      </c>
+      <c r="O13" s="21">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="P13" s="21">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="R13" s="21">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S13" s="21">
+        <v>2.4268000000000001</v>
+      </c>
+      <c r="T13" s="35">
+        <v>0.62</v>
+      </c>
+      <c r="U13" s="44">
+        <v>1132550</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="18"/>
@@ -45793,52 +46092,52 @@
       <c r="V15" s="13"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="19"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="16"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="13"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="18"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="13"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="18"/>
@@ -45848,6 +46147,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="2"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
@@ -45871,7 +46171,6 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
@@ -45936,28 +46235,52 @@
       <c r="V21" s="13"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="19"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="16"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="13"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="19"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stock/US_Stock.xlsx
+++ b/Stock/US_Stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4716C678-84A5-460E-A3D0-5E4C6135069A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173C544A-0D32-4D3C-9CFD-4B35FA5649D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="14" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="682">
   <si>
     <t>代码</t>
   </si>
@@ -2109,6 +2109,9 @@
   </si>
   <si>
     <t>Oil upstream in Canada</t>
+  </si>
+  <si>
+    <t>MRVL</t>
   </si>
 </sst>
 </file>
@@ -2123,12 +2126,19 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2368,28 +2378,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2401,13 +2411,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2416,22 +2426,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2441,7 +2451,7 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2469,24 +2479,24 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2534,6 +2544,8 @@
     <xf numFmtId="166" fontId="0" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7132,10 +7144,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D52812-A3F9-47E3-9419-C4458095CBBD}">
-  <dimension ref="A1:T351"/>
+  <dimension ref="A1:T361"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="U191" sqref="U191"/>
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="A357" sqref="A357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="14.25"/>
@@ -7144,7 +7156,8 @@
     <col min="5" max="5" width="12.5859375" style="61" customWidth="1"/>
     <col min="6" max="6" width="9.234375" style="61"/>
     <col min="7" max="7" width="14.76171875" style="61" customWidth="1"/>
-    <col min="8" max="16384" width="9.234375" style="61"/>
+    <col min="8" max="8" width="10.46875" style="61" customWidth="1"/>
+    <col min="9" max="16384" width="9.234375" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -28008,7 +28021,7 @@
         <v>5817</v>
       </c>
       <c r="J303" s="62">
-        <f t="shared" ref="J303:J351" si="60">H303-I303</f>
+        <f t="shared" ref="J303:J356" si="60">H303-I303</f>
         <v>-2649</v>
       </c>
       <c r="K303" s="63">
@@ -28029,7 +28042,7 @@
         <v>4835</v>
       </c>
       <c r="P303" s="61">
-        <f t="shared" ref="P303:P351" si="62">(M303-N303)/O303</f>
+        <f t="shared" ref="P303:P356" si="62">(M303-N303)/O303</f>
         <v>1.366287487073423</v>
       </c>
       <c r="Q303" s="62">
@@ -29440,7 +29453,7 @@
         <v>17505</v>
       </c>
       <c r="E324" s="63">
-        <f t="shared" ref="E324:E351" si="65">D324/C324</f>
+        <f t="shared" ref="E324:E356" si="65">D324/C324</f>
         <v>0.26906760121737527</v>
       </c>
       <c r="F324" s="62">
@@ -29723,7 +29736,7 @@
         <v>192</v>
       </c>
       <c r="G328" s="63">
-        <f t="shared" ref="G328:G351" si="67">F328/C328</f>
+        <f t="shared" ref="G328:G356" si="67">F328/C328</f>
         <v>8.0435693338919145E-2</v>
       </c>
       <c r="H328" s="61">
@@ -29737,7 +29750,7 @@
         <v>225</v>
       </c>
       <c r="K328" s="63">
-        <f t="shared" ref="K328:K351" si="68">J328/C328</f>
+        <f t="shared" ref="K328:K356" si="68">J328/C328</f>
         <v>9.4260578131545869E-2</v>
       </c>
       <c r="L328" s="63">
@@ -29767,7 +29780,7 @@
         <v>70</v>
       </c>
       <c r="T328" s="64">
-        <f t="shared" ref="T328:T351" si="69">(O328+S328)/(M328+Q328-N328-R328)</f>
+        <f t="shared" ref="T328:T356" si="69">(O328+S328)/(M328+Q328-N328-R328)</f>
         <v>0.32703927492447132</v>
       </c>
     </row>
@@ -31357,6 +31370,361 @@
         <f t="shared" si="69"/>
         <v>0.58230829625752423</v>
       </c>
+    </row>
+    <row r="352" spans="1:20">
+      <c r="A352" s="116" t="s">
+        <v>681</v>
+      </c>
+      <c r="B352" s="61">
+        <v>2015</v>
+      </c>
+      <c r="C352" s="62">
+        <v>2726</v>
+      </c>
+      <c r="D352" s="61">
+        <v>137</v>
+      </c>
+      <c r="E352" s="63">
+        <f t="shared" si="65"/>
+        <v>5.0256786500366836E-2</v>
+      </c>
+      <c r="F352" s="61">
+        <v>-811</v>
+      </c>
+      <c r="G352" s="63">
+        <f t="shared" si="67"/>
+        <v>-0.29750550256786501</v>
+      </c>
+      <c r="H352" s="61">
+        <v>205</v>
+      </c>
+      <c r="I352" s="61">
+        <v>47</v>
+      </c>
+      <c r="J352" s="62">
+        <f t="shared" si="60"/>
+        <v>158</v>
+      </c>
+      <c r="K352" s="63">
+        <f t="shared" si="68"/>
+        <v>5.7960381511371971E-2</v>
+      </c>
+      <c r="L352" s="63">
+        <f>J352/ABS(J352)</f>
+        <v>1</v>
+      </c>
+      <c r="M352" s="62">
+        <v>2919</v>
+      </c>
+      <c r="N352" s="61">
+        <v>210</v>
+      </c>
+      <c r="O352" s="62">
+        <v>1226</v>
+      </c>
+      <c r="P352" s="64">
+        <f t="shared" si="62"/>
+        <v>2.2096247960848285</v>
+      </c>
+      <c r="Q352" s="62">
+        <v>2524</v>
+      </c>
+      <c r="R352" s="62">
+        <v>2110</v>
+      </c>
+      <c r="S352" s="61">
+        <v>76</v>
+      </c>
+      <c r="T352" s="64">
+        <f t="shared" si="69"/>
+        <v>0.41690682036503363</v>
+      </c>
+    </row>
+    <row r="353" spans="1:20">
+      <c r="A353" s="116" t="s">
+        <v>681</v>
+      </c>
+      <c r="B353" s="61">
+        <v>2016</v>
+      </c>
+      <c r="C353" s="62">
+        <v>2318</v>
+      </c>
+      <c r="D353" s="61">
+        <v>323</v>
+      </c>
+      <c r="E353" s="63">
+        <f t="shared" si="65"/>
+        <v>0.13934426229508196</v>
+      </c>
+      <c r="F353" s="61">
+        <v>21</v>
+      </c>
+      <c r="G353" s="63">
+        <f t="shared" si="67"/>
+        <v>9.0595340811044003E-3</v>
+      </c>
+      <c r="H353" s="61">
+        <v>-358</v>
+      </c>
+      <c r="I353" s="61">
+        <v>45</v>
+      </c>
+      <c r="J353" s="62">
+        <f t="shared" si="60"/>
+        <v>-403</v>
+      </c>
+      <c r="K353" s="63">
+        <f t="shared" si="68"/>
+        <v>-0.17385677308024158</v>
+      </c>
+      <c r="L353" s="63">
+        <f>J353/ABS(J352)</f>
+        <v>-2.5506329113924049</v>
+      </c>
+      <c r="M353" s="62">
+        <v>2280</v>
+      </c>
+      <c r="N353" s="61">
+        <v>172</v>
+      </c>
+      <c r="O353" s="61">
+        <v>496</v>
+      </c>
+      <c r="P353" s="64">
+        <f t="shared" si="62"/>
+        <v>4.25</v>
+      </c>
+      <c r="Q353" s="62">
+        <v>2368</v>
+      </c>
+      <c r="R353" s="62">
+        <v>2073</v>
+      </c>
+      <c r="S353" s="61">
+        <v>125</v>
+      </c>
+      <c r="T353" s="64">
+        <f t="shared" si="69"/>
+        <v>0.25842696629213485</v>
+      </c>
+    </row>
+    <row r="354" spans="1:20">
+      <c r="A354" s="116" t="s">
+        <v>681</v>
+      </c>
+      <c r="B354" s="61">
+        <v>2017</v>
+      </c>
+      <c r="C354" s="117">
+        <v>2409</v>
+      </c>
+      <c r="D354" s="61">
+        <v>596</v>
+      </c>
+      <c r="E354" s="63">
+        <f t="shared" si="65"/>
+        <v>0.24740556247405562</v>
+      </c>
+      <c r="F354" s="61">
+        <v>521</v>
+      </c>
+      <c r="G354" s="63">
+        <f t="shared" si="67"/>
+        <v>0.21627231216272313</v>
+      </c>
+      <c r="H354" s="61">
+        <v>571</v>
+      </c>
+      <c r="I354" s="61">
+        <v>39</v>
+      </c>
+      <c r="J354" s="62">
+        <f t="shared" si="60"/>
+        <v>532</v>
+      </c>
+      <c r="K354" s="63">
+        <f t="shared" si="68"/>
+        <v>0.22083852220838524</v>
+      </c>
+      <c r="L354" s="63">
+        <f>J354/ABS(J352)</f>
+        <v>3.3670886075949369</v>
+      </c>
+      <c r="M354" s="62">
+        <v>2364</v>
+      </c>
+      <c r="N354" s="61">
+        <v>170</v>
+      </c>
+      <c r="O354" s="61">
+        <v>421</v>
+      </c>
+      <c r="P354" s="64">
+        <f t="shared" si="62"/>
+        <v>5.2114014251781473</v>
+      </c>
+      <c r="Q354" s="62">
+        <v>2344</v>
+      </c>
+      <c r="R354" s="62">
+        <v>2089</v>
+      </c>
+      <c r="S354" s="61">
+        <v>146</v>
+      </c>
+      <c r="T354" s="64">
+        <f t="shared" si="69"/>
+        <v>0.23152307064107799</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20">
+      <c r="A355" s="116" t="s">
+        <v>681</v>
+      </c>
+      <c r="B355" s="61">
+        <v>2018</v>
+      </c>
+      <c r="C355" s="62">
+        <v>2866</v>
+      </c>
+      <c r="D355" s="61">
+        <v>710</v>
+      </c>
+      <c r="E355" s="63">
+        <f t="shared" si="65"/>
+        <v>0.24773203070481509</v>
+      </c>
+      <c r="F355" s="61">
+        <v>-179</v>
+      </c>
+      <c r="G355" s="63">
+        <f t="shared" si="67"/>
+        <v>-6.2456385205861831E-2</v>
+      </c>
+      <c r="H355" s="61">
+        <v>597</v>
+      </c>
+      <c r="I355" s="61">
+        <v>76</v>
+      </c>
+      <c r="J355" s="62">
+        <f t="shared" si="60"/>
+        <v>521</v>
+      </c>
+      <c r="K355" s="63">
+        <f t="shared" si="68"/>
+        <v>0.18178646196789952</v>
+      </c>
+      <c r="L355" s="63">
+        <f>J355/ABS(J352)</f>
+        <v>3.2974683544303796</v>
+      </c>
+      <c r="M355" s="62">
+        <v>1395</v>
+      </c>
+      <c r="N355" s="61">
+        <v>276</v>
+      </c>
+      <c r="O355" s="61">
+        <v>637</v>
+      </c>
+      <c r="P355" s="64">
+        <f t="shared" si="62"/>
+        <v>1.7566718995290425</v>
+      </c>
+      <c r="Q355" s="62">
+        <v>8621</v>
+      </c>
+      <c r="R355" s="62">
+        <v>8180</v>
+      </c>
+      <c r="S355" s="62">
+        <v>2074</v>
+      </c>
+      <c r="T355" s="64">
+        <f t="shared" si="69"/>
+        <v>1.7378205128205129</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20">
+      <c r="A356" s="116" t="s">
+        <v>681</v>
+      </c>
+      <c r="B356" s="61">
+        <v>2019</v>
+      </c>
+      <c r="C356" s="62">
+        <v>2699</v>
+      </c>
+      <c r="D356" s="61">
+        <v>456</v>
+      </c>
+      <c r="E356" s="63">
+        <f t="shared" si="65"/>
+        <v>0.16895146350500184</v>
+      </c>
+      <c r="F356" s="62">
+        <v>1584</v>
+      </c>
+      <c r="G356" s="63">
+        <f t="shared" si="67"/>
+        <v>0.58688403112263798</v>
+      </c>
+      <c r="H356" s="61">
+        <v>360</v>
+      </c>
+      <c r="I356" s="61">
+        <v>82</v>
+      </c>
+      <c r="J356" s="62">
+        <f t="shared" si="60"/>
+        <v>278</v>
+      </c>
+      <c r="K356" s="63">
+        <f t="shared" si="68"/>
+        <v>0.10300111152278622</v>
+      </c>
+      <c r="L356" s="63">
+        <f>J356/ABS(J352)</f>
+        <v>1.759493670886076</v>
+      </c>
+      <c r="M356" s="62">
+        <v>1537</v>
+      </c>
+      <c r="N356" s="61">
+        <v>323</v>
+      </c>
+      <c r="O356" s="61">
+        <v>710</v>
+      </c>
+      <c r="P356" s="64">
+        <f t="shared" si="62"/>
+        <v>1.7098591549295774</v>
+      </c>
+      <c r="Q356" s="62">
+        <v>9596</v>
+      </c>
+      <c r="R356" s="62">
+        <v>8380</v>
+      </c>
+      <c r="S356" s="62">
+        <v>1744</v>
+      </c>
+      <c r="T356" s="64">
+        <f t="shared" si="69"/>
+        <v>1.0098765432098766</v>
+      </c>
+    </row>
+    <row r="358" spans="1:20">
+      <c r="L358" s="62"/>
+      <c r="O358" s="62"/>
+    </row>
+    <row r="360" spans="1:20">
+      <c r="O360" s="62"/>
+    </row>
+    <row r="361" spans="1:20">
+      <c r="O361" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36273,7 +36641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554D201E-890B-41A2-9456-C006731550ED}">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/Stock/US_Stock.xlsx
+++ b/Stock/US_Stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173C544A-0D32-4D3C-9CFD-4B35FA5649D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D08658-B0E1-4AE1-BAF0-EFA29A05FE93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="14" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="684">
   <si>
     <t>代码</t>
   </si>
@@ -2112,6 +2112,12 @@
   </si>
   <si>
     <t>MRVL</t>
+  </si>
+  <si>
+    <t>ERICSSON</t>
+  </si>
+  <si>
+    <t>ERIC</t>
   </si>
 </sst>
 </file>
@@ -2126,7 +2132,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2864,11 +2870,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B4BCA-42DA-4C85-9005-E70B6BE65D74}">
   <dimension ref="A1:V94"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.234375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
@@ -2890,7 +2896,7 @@
     <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -2958,7 +2964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="14.65" customHeight="1">
+    <row r="2" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>35</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A3" s="18"/>
       <c r="B3" s="108" t="s">
         <v>2</v>
@@ -3076,7 +3082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
         <v>8</v>
@@ -3142,7 +3148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A5" s="18"/>
       <c r="B5" s="11" t="s">
         <v>26</v>
@@ -3200,7 +3206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A6" s="18"/>
       <c r="B6" s="87" t="s">
         <v>7</v>
@@ -3258,7 +3264,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A7" s="31"/>
       <c r="B7" s="11" t="s">
         <v>45</v>
@@ -3314,7 +3320,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A8" s="31"/>
       <c r="B8" s="11" t="s">
         <v>58</v>
@@ -3370,7 +3376,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A9" s="31"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -3394,7 +3400,7 @@
       <c r="U9" s="15"/>
       <c r="V9" s="16"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A10" s="26" t="s">
         <v>172</v>
       </c>
@@ -3448,7 +3454,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A11" s="31"/>
       <c r="B11" s="85" t="s">
         <v>173</v>
@@ -3506,7 +3512,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A12" s="31"/>
       <c r="B12" s="11" t="s">
         <v>176</v>
@@ -3558,7 +3564,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A13" s="31"/>
       <c r="B13" s="11" t="s">
         <v>70</v>
@@ -3612,7 +3618,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A14" s="31"/>
       <c r="B14" s="11" t="s">
         <v>114</v>
@@ -3664,7 +3670,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A15" s="31"/>
       <c r="B15" s="11" t="s">
         <v>112</v>
@@ -3716,7 +3722,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A16" s="31"/>
       <c r="B16" s="11" t="s">
         <v>73</v>
@@ -3772,7 +3778,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A17" s="31"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
@@ -3796,7 +3802,7 @@
       <c r="U17" s="40"/>
       <c r="V17" s="13"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A18" s="31"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
@@ -3820,7 +3826,7 @@
       <c r="U18" s="47"/>
       <c r="V18" s="13"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A19" s="31"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -3844,7 +3850,7 @@
       <c r="U19" s="47"/>
       <c r="V19" s="13"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A20" s="31"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -3868,7 +3874,7 @@
       <c r="U20" s="47"/>
       <c r="V20" s="13"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A21" s="31"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
@@ -3892,7 +3898,7 @@
       <c r="U21" s="47"/>
       <c r="V21" s="13"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A22" s="31"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -3916,7 +3922,7 @@
       <c r="U22" s="47"/>
       <c r="V22" s="13"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A23" s="31"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -3940,7 +3946,7 @@
       <c r="U23" s="40"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A24" s="31"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -3964,7 +3970,7 @@
       <c r="U24" s="40"/>
       <c r="V24" s="13"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A25" s="31"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
@@ -3988,7 +3994,7 @@
       <c r="U25" s="40"/>
       <c r="V25" s="13"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A26" s="31"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
@@ -4012,7 +4018,7 @@
       <c r="U26" s="40"/>
       <c r="V26" s="13"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A27" s="31"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
@@ -4036,7 +4042,7 @@
       <c r="U27" s="40"/>
       <c r="V27" s="13"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A28" s="31"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
@@ -4060,7 +4066,7 @@
       <c r="U28" s="40"/>
       <c r="V28" s="13"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A29" s="31"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
@@ -4084,7 +4090,7 @@
       <c r="U29" s="40"/>
       <c r="V29" s="13"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A30" s="31"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
@@ -4108,7 +4114,7 @@
       <c r="U30" s="40"/>
       <c r="V30" s="13"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A31" s="31"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
@@ -4132,7 +4138,7 @@
       <c r="U31" s="47"/>
       <c r="V31" s="16"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A32" s="26" t="s">
         <v>438</v>
       </c>
@@ -4184,7 +4190,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A33" s="31"/>
       <c r="B33" s="11" t="s">
         <v>309</v>
@@ -4234,7 +4240,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A34" s="31"/>
       <c r="B34" s="11" t="s">
         <v>439</v>
@@ -4282,7 +4288,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A35" s="31"/>
       <c r="B35" s="11" t="s">
         <v>452</v>
@@ -4338,7 +4344,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A36" s="31"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
@@ -4362,7 +4368,7 @@
       <c r="U36" s="45"/>
       <c r="V36" s="13"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A37" s="26" t="s">
         <v>480</v>
       </c>
@@ -4422,7 +4428,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A38" s="31"/>
       <c r="B38" s="11" t="s">
         <v>483</v>
@@ -4480,7 +4486,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A39" s="31"/>
       <c r="B39" s="11" t="s">
         <v>485</v>
@@ -4534,7 +4540,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A40" s="31"/>
       <c r="B40" s="11" t="s">
         <v>490</v>
@@ -4592,7 +4598,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A41" s="31"/>
       <c r="B41" s="11"/>
       <c r="H41"/>
@@ -4605,7 +4611,7 @@
       <c r="U41" s="75"/>
       <c r="V41" s="13"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A42" s="26" t="s">
         <v>65</v>
       </c>
@@ -4665,7 +4671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A43" s="31"/>
       <c r="B43" s="11" t="s">
         <v>51</v>
@@ -4717,7 +4723,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A44" s="31"/>
       <c r="B44" s="11" t="s">
         <v>54</v>
@@ -4760,7 +4766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A45" s="31"/>
       <c r="B45" s="11" t="s">
         <v>117</v>
@@ -4814,7 +4820,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A46" s="31"/>
       <c r="B46" s="11" t="s">
         <v>444</v>
@@ -4862,7 +4868,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A47" s="31"/>
       <c r="B47" s="11" t="s">
         <v>453</v>
@@ -4914,7 +4920,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A48" s="31"/>
       <c r="B48" s="11" t="s">
         <v>456</v>
@@ -4964,7 +4970,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A49" s="31"/>
       <c r="B49" s="11" t="s">
         <v>459</v>
@@ -5016,7 +5022,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A50" s="31"/>
       <c r="B50" s="11" t="s">
         <v>467</v>
@@ -5068,7 +5074,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A51" s="31"/>
       <c r="B51" s="11" t="s">
         <v>468</v>
@@ -5120,7 +5126,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A52" s="31"/>
       <c r="B52" s="11" t="s">
         <v>477</v>
@@ -5170,7 +5176,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A53" s="31"/>
       <c r="B53" s="11" t="s">
         <v>517</v>
@@ -5224,7 +5230,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A54" s="19"/>
       <c r="B54" s="14"/>
       <c r="C54" s="15"/>
@@ -5236,7 +5242,7 @@
       <c r="U54" s="75"/>
       <c r="V54" s="16"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A55" s="17" t="s">
         <v>37</v>
       </c>
@@ -5296,7 +5302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A56" s="18"/>
       <c r="B56" s="32" t="s">
         <v>41</v>
@@ -5354,7 +5360,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A57" s="18"/>
       <c r="B57" s="32" t="s">
         <v>122</v>
@@ -5412,7 +5418,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A58" s="18"/>
       <c r="B58" s="32" t="s">
         <v>119</v>
@@ -5466,7 +5472,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A59" s="18"/>
       <c r="B59" s="11" t="s">
         <v>311</v>
@@ -5518,7 +5524,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A60" s="18"/>
       <c r="B60" s="11" t="s">
         <v>445</v>
@@ -5568,7 +5574,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A61" s="18"/>
       <c r="B61" s="11" t="s">
         <v>447</v>
@@ -5624,7 +5630,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A62" s="18"/>
       <c r="B62" s="11" t="s">
         <v>463</v>
@@ -5676,7 +5682,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A63" s="18"/>
       <c r="B63" s="11" t="s">
         <v>471</v>
@@ -5734,7 +5740,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A64" s="18"/>
       <c r="B64" s="11" t="s">
         <v>475</v>
@@ -5790,7 +5796,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A65" s="18"/>
       <c r="B65" s="11"/>
       <c r="C65" s="12"/>
@@ -5814,7 +5820,7 @@
       <c r="U65" s="73"/>
       <c r="V65" s="13"/>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A66" s="19"/>
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
@@ -5838,7 +5844,7 @@
       <c r="U66" s="73"/>
       <c r="V66" s="13"/>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A67" s="31" t="s">
         <v>63</v>
       </c>
@@ -5898,7 +5904,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A68" s="31"/>
       <c r="B68" s="11" t="s">
         <v>141</v>
@@ -5954,7 +5960,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A69" s="31"/>
       <c r="B69" s="11" t="s">
         <v>143</v>
@@ -6010,7 +6016,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A70" s="19"/>
       <c r="B70" s="11" t="s">
         <v>144</v>
@@ -6066,7 +6072,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A71" s="31" t="s">
         <v>64</v>
       </c>
@@ -6126,7 +6132,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A72" s="31"/>
       <c r="B72" s="11" t="s">
         <v>515</v>
@@ -6184,7 +6190,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A73" s="31"/>
       <c r="B73" s="11"/>
       <c r="C73" s="12"/>
@@ -6208,7 +6214,7 @@
       <c r="U73" s="73"/>
       <c r="V73" s="13"/>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A74" s="31"/>
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
@@ -6232,7 +6238,7 @@
       <c r="U74" s="73"/>
       <c r="V74" s="13"/>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A75" s="19"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
@@ -6256,7 +6262,7 @@
       <c r="U75" s="53"/>
       <c r="V75" s="16"/>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A76" s="31" t="s">
         <v>66</v>
       </c>
@@ -6316,7 +6322,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A77" s="31"/>
       <c r="B77" s="11" t="s">
         <v>98</v>
@@ -6374,7 +6380,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A78" s="31"/>
       <c r="B78" s="11" t="s">
         <v>100</v>
@@ -6432,7 +6438,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A79" s="31"/>
       <c r="B79" s="11" t="s">
         <v>103</v>
@@ -6488,7 +6494,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A80" s="31"/>
       <c r="B80" s="11" t="s">
         <v>105</v>
@@ -6546,7 +6552,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A81" s="31"/>
       <c r="B81" s="11" t="s">
         <v>108</v>
@@ -6604,7 +6610,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A82" s="31"/>
       <c r="B82" s="11" t="s">
         <v>663</v>
@@ -6662,7 +6668,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A83" s="31"/>
       <c r="B83" s="11" t="s">
         <v>673</v>
@@ -6718,7 +6724,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A84" s="19"/>
       <c r="B84" s="14"/>
       <c r="C84" s="15"/>
@@ -6742,7 +6748,7 @@
       <c r="U84" s="53"/>
       <c r="V84" s="16"/>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A85" s="31" t="s">
         <v>634</v>
       </c>
@@ -6796,7 +6802,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A86" s="31"/>
       <c r="B86" s="11" t="s">
         <v>637</v>
@@ -6852,7 +6858,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A87" s="31"/>
       <c r="B87" s="11" t="s">
         <v>640</v>
@@ -6908,7 +6914,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A88" s="31"/>
       <c r="B88" s="11" t="s">
         <v>643</v>
@@ -6964,7 +6970,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A89" s="31"/>
       <c r="B89" s="11" t="s">
         <v>645</v>
@@ -7016,7 +7022,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A90" s="31"/>
       <c r="B90" s="11"/>
       <c r="C90" s="12"/>
@@ -7040,7 +7046,7 @@
       <c r="U90" s="73"/>
       <c r="V90" s="13"/>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A91" s="31"/>
       <c r="B91" s="11"/>
       <c r="C91" s="12"/>
@@ -7064,7 +7070,7 @@
       <c r="U91" s="73"/>
       <c r="V91" s="13"/>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A92" s="31"/>
       <c r="B92" s="11"/>
       <c r="C92" s="12"/>
@@ -7088,7 +7094,7 @@
       <c r="U92" s="73"/>
       <c r="V92" s="13"/>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A93" s="31"/>
       <c r="B93" s="11"/>
       <c r="C93" s="12"/>
@@ -7112,7 +7118,7 @@
       <c r="U93" s="73"/>
       <c r="V93" s="13"/>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A94" s="19"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
@@ -7146,11 +7152,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D52812-A3F9-47E3-9419-C4458095CBBD}">
   <dimension ref="A1:T361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+    <sheetView topLeftCell="A344" workbookViewId="0">
       <selection activeCell="A357" sqref="A357"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="4" width="9.234375" style="61"/>
     <col min="5" max="5" width="12.5859375" style="61" customWidth="1"/>
@@ -7160,7 +7166,7 @@
     <col min="9" max="16384" width="9.234375" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="61" t="s">
         <v>363</v>
       </c>
@@ -7222,7 +7228,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="62" t="s">
         <v>364</v>
       </c>
@@ -7291,7 +7297,7 @@
         <v>0.61308178173623629</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="62" t="s">
         <v>364</v>
       </c>
@@ -7360,7 +7366,7 @@
         <v>0.62211594743579024</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="62" t="s">
         <v>364</v>
       </c>
@@ -7429,7 +7435,7 @@
         <v>0.66567158414011351</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="62" t="s">
         <v>364</v>
       </c>
@@ -7498,7 +7504,7 @@
         <v>0.71475997114180601</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="62" t="s">
         <v>364</v>
       </c>
@@ -7567,7 +7573,7 @@
         <v>0.74168834664035166</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="62" t="s">
         <v>101</v>
       </c>
@@ -7636,7 +7642,7 @@
         <v>0.6142433234421365</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="62" t="s">
         <v>101</v>
       </c>
@@ -7705,7 +7711,7 @@
         <v>0.65295887662988972</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="62" t="s">
         <v>101</v>
       </c>
@@ -7774,7 +7780,7 @@
         <v>0.77581395348837212</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="62" t="s">
         <v>101</v>
       </c>
@@ -7843,7 +7849,7 @@
         <v>0.70594262295081966</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="62" t="s">
         <v>101</v>
       </c>
@@ -7912,7 +7918,7 @@
         <v>0.6986376021798365</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="62" t="s">
         <v>32</v>
       </c>
@@ -7981,7 +7987,7 @@
         <v>0.63439065108514192</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="62" t="s">
         <v>32</v>
       </c>
@@ -8050,7 +8056,7 @@
         <v>0.716547533531954</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="62" t="s">
         <v>32</v>
       </c>
@@ -8119,7 +8125,7 @@
         <v>0.87099655612179039</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="62" t="s">
         <v>32</v>
       </c>
@@ -8188,7 +8194,7 @@
         <v>0.82904212755942575</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="62" t="s">
         <v>32</v>
       </c>
@@ -8257,7 +8263,7 @@
         <v>0.78488562822462793</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="62" t="s">
         <v>29</v>
       </c>
@@ -8326,7 +8332,7 @@
         <v>0.25285231917540429</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="62" t="s">
         <v>29</v>
       </c>
@@ -8395,7 +8401,7 @@
         <v>0.19506139400505598</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="62" t="s">
         <v>29</v>
       </c>
@@ -8464,7 +8470,7 @@
         <v>0.21634921374128752</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="62" t="s">
         <v>29</v>
       </c>
@@ -8533,7 +8539,7 @@
         <v>0.26015256177722895</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="62" t="s">
         <v>29</v>
       </c>
@@ -8602,7 +8608,7 @@
         <v>0.41642128209410462</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="61" t="s">
         <v>33</v>
       </c>
@@ -8671,7 +8677,7 @@
         <v>1.0272296764009472</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="61" t="s">
         <v>33</v>
       </c>
@@ -8740,7 +8746,7 @@
         <v>0.95266184271132048</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="61" t="s">
         <v>33</v>
       </c>
@@ -8809,7 +8815,7 @@
         <v>1.0513385155568185</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="61" t="s">
         <v>33</v>
       </c>
@@ -8878,7 +8884,7 @@
         <v>0.93532021832174972</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="61" t="s">
         <v>33</v>
       </c>
@@ -8947,7 +8953,7 @@
         <v>0.87464156889648781</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="61" t="s">
         <v>27</v>
       </c>
@@ -9016,7 +9022,7 @@
         <v>0.21319565593223003</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="61" t="s">
         <v>27</v>
       </c>
@@ -9085,7 +9091,7 @@
         <v>0.19301612706335536</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="61" t="s">
         <v>27</v>
       </c>
@@ -9154,7 +9160,7 @@
         <v>0.25291490454922733</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="61" t="s">
         <v>27</v>
       </c>
@@ -9223,7 +9229,7 @@
         <v>0.26072777286756121</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="61" t="s">
         <v>27</v>
       </c>
@@ -9292,7 +9298,7 @@
         <v>0.29514440740843495</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="61" t="s">
         <v>222</v>
       </c>
@@ -9361,7 +9367,7 @@
         <v>0.47033073929961089</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" s="61" t="s">
         <v>222</v>
       </c>
@@ -9430,7 +9436,7 @@
         <v>0.48996996996996994</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="61" t="s">
         <v>222</v>
       </c>
@@ -9499,7 +9505,7 @@
         <v>0.41405820977484897</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="61" t="s">
         <v>222</v>
       </c>
@@ -9568,7 +9574,7 @@
         <v>0.3573367106929618</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="61" t="s">
         <v>222</v>
       </c>
@@ -9637,7 +9643,7 @@
         <v>0.32618546173974089</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="61" t="s">
         <v>174</v>
       </c>
@@ -9706,7 +9712,7 @@
         <v>0.82692307692307687</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="61" t="s">
         <v>174</v>
       </c>
@@ -9775,7 +9781,7 @@
         <v>0.69850187265917607</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="61" t="s">
         <v>174</v>
       </c>
@@ -9844,7 +9850,7 @@
         <v>0.69961977186311786</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="61" t="s">
         <v>174</v>
       </c>
@@ -9913,7 +9919,7 @@
         <v>0.64901256732495516</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" s="61" t="s">
         <v>174</v>
       </c>
@@ -9982,7 +9988,7 @@
         <v>0.64545980335454023</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" s="61" t="s">
         <v>34</v>
       </c>
@@ -10051,7 +10057,7 @@
         <v>1.6190879400024192</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" s="61" t="s">
         <v>34</v>
       </c>
@@ -10120,7 +10126,7 @@
         <v>1.9212362911266201</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" s="61" t="s">
         <v>34</v>
       </c>
@@ -10189,7 +10195,7 @@
         <v>1.7126771653543307</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" s="61" t="s">
         <v>34</v>
       </c>
@@ -10258,7 +10264,7 @@
         <v>1.6689013977610525</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="61" t="s">
         <v>34</v>
       </c>
@@ -10327,7 +10333,7 @@
         <v>1.4281304416653475</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47" s="61" t="s">
         <v>195</v>
       </c>
@@ -10396,7 +10402,7 @@
         <v>1.0214233308877476</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48" s="61" t="s">
         <v>195</v>
       </c>
@@ -10465,7 +10471,7 @@
         <v>0.82834676821126552</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49" s="61" t="s">
         <v>195</v>
       </c>
@@ -10534,7 +10540,7 @@
         <v>0.88652291105121295</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" s="61" t="s">
         <v>195</v>
       </c>
@@ -10603,7 +10609,7 @@
         <v>0.89156993339676494</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51" s="61" t="s">
         <v>195</v>
       </c>
@@ -10672,7 +10678,7 @@
         <v>0.86694242223692919</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52" s="61" t="s">
         <v>46</v>
       </c>
@@ -10741,7 +10747,7 @@
         <v>0.67232360097323596</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53" s="61" t="s">
         <v>46</v>
       </c>
@@ -10810,7 +10816,7 @@
         <v>0.60681070925317049</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54" s="61" t="s">
         <v>46</v>
       </c>
@@ -10879,7 +10885,7 @@
         <v>0.764479719827176</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55" s="61" t="s">
         <v>46</v>
       </c>
@@ -10948,7 +10954,7 @@
         <v>0.80509281875915972</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56" s="61" t="s">
         <v>46</v>
       </c>
@@ -11017,7 +11023,7 @@
         <v>0.90344760060488039</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57" s="61" t="s">
         <v>218</v>
       </c>
@@ -11086,7 +11092,7 @@
         <v>0.68677162876816766</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58" s="61" t="s">
         <v>218</v>
       </c>
@@ -11155,7 +11161,7 @@
         <v>0.79021394376403231</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59" s="61" t="s">
         <v>218</v>
       </c>
@@ -11224,7 +11230,7 @@
         <v>0.89451802052267093</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60" s="61" t="s">
         <v>218</v>
       </c>
@@ -11293,7 +11299,7 @@
         <v>0.82510875878664314</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61" s="61" t="s">
         <v>218</v>
       </c>
@@ -11362,7 +11368,7 @@
         <v>0.89521047233587348</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62" s="61" t="s">
         <v>225</v>
       </c>
@@ -11431,7 +11437,7 @@
         <v>2.5071283095723014</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63" s="61" t="s">
         <v>225</v>
       </c>
@@ -11500,7 +11506,7 @@
         <v>2.0746705710102491</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64" s="61" t="s">
         <v>225</v>
       </c>
@@ -11569,7 +11575,7 @@
         <v>1.9423669159700836</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65" s="61" t="s">
         <v>225</v>
       </c>
@@ -11638,7 +11644,7 @@
         <v>1.6501877346683353</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66" s="61" t="s">
         <v>225</v>
       </c>
@@ -11707,7 +11713,7 @@
         <v>1.2227842533538598</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67" s="61" t="s">
         <v>251</v>
       </c>
@@ -11776,7 +11782,7 @@
         <v>0.60961876832844575</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68" s="61" t="s">
         <v>251</v>
       </c>
@@ -11845,7 +11851,7 @@
         <v>1.4319300667126753</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69" s="61" t="s">
         <v>251</v>
       </c>
@@ -11914,7 +11920,7 @@
         <v>1.407610216235661</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70" s="61" t="s">
         <v>251</v>
       </c>
@@ -11983,7 +11989,7 @@
         <v>1.3303743436709099</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71" s="61" t="s">
         <v>251</v>
       </c>
@@ -12052,7 +12058,7 @@
         <v>1.2572168027075452</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72" s="61" t="s">
         <v>62</v>
       </c>
@@ -12121,7 +12127,7 @@
         <v>0.48375000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73" s="61" t="s">
         <v>62</v>
       </c>
@@ -12190,7 +12196,7 @@
         <v>0.56645851917930423</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74" s="61" t="s">
         <v>62</v>
       </c>
@@ -12259,7 +12265,7 @@
         <v>0.66809728183118744</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75" s="61" t="s">
         <v>62</v>
       </c>
@@ -12328,7 +12334,7 @@
         <v>0.74184689323721253</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76" s="61" t="s">
         <v>62</v>
       </c>
@@ -12397,7 +12403,7 @@
         <v>0.68042226487523993</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A77" s="61" t="s">
         <v>365</v>
       </c>
@@ -12466,7 +12472,7 @@
         <v>0.96209482989552642</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A78" s="61" t="s">
         <v>365</v>
       </c>
@@ -12535,7 +12541,7 @@
         <v>1.4560545168617858</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A79" s="61" t="s">
         <v>365</v>
       </c>
@@ -12604,7 +12610,7 @@
         <v>1.2007304030259554</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A80" s="61" t="s">
         <v>365</v>
       </c>
@@ -12673,7 +12679,7 @@
         <v>0.89598893499308441</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A81" s="61" t="s">
         <v>365</v>
       </c>
@@ -12742,7 +12748,7 @@
         <v>0.74387151310228228</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A82" s="61" t="s">
         <v>366</v>
       </c>
@@ -12811,7 +12817,7 @@
         <v>0.7256822953114066</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A83" s="61" t="s">
         <v>366</v>
       </c>
@@ -12880,7 +12886,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A84" s="61" t="s">
         <v>366</v>
       </c>
@@ -12949,7 +12955,7 @@
         <v>0.60936198567382971</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A85" s="61" t="s">
         <v>366</v>
       </c>
@@ -13018,7 +13024,7 @@
         <v>0.60165912518853693</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A86" s="61" t="s">
         <v>366</v>
       </c>
@@ -13087,7 +13093,7 @@
         <v>0.51963313270278022</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A87" s="61" t="s">
         <v>367</v>
       </c>
@@ -13156,7 +13162,7 @@
         <v>0.40046340992469587</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A88" s="61" t="s">
         <v>367</v>
       </c>
@@ -13225,7 +13231,7 @@
         <v>0.4052603327965647</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A89" s="61" t="s">
         <v>367</v>
       </c>
@@ -13294,7 +13300,7 @@
         <v>0.3830579850988014</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A90" s="61" t="s">
         <v>367</v>
       </c>
@@ -13363,7 +13369,7 @@
         <v>0.37757282645371726</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A91" s="61" t="s">
         <v>367</v>
       </c>
@@ -13432,7 +13438,7 @@
         <v>0.35106663155122464</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A92" s="61" t="s">
         <v>368</v>
       </c>
@@ -13501,7 +13507,7 @@
         <v>0.13653136531365315</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A93" s="61" t="s">
         <v>368</v>
       </c>
@@ -13570,7 +13576,7 @@
         <v>0.17662337662337663</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A94" s="61" t="s">
         <v>368</v>
       </c>
@@ -13639,7 +13645,7 @@
         <v>0.20449264136328427</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A95" s="61" t="s">
         <v>368</v>
       </c>
@@ -13708,7 +13714,7 @@
         <v>0.58303886925795056</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A96" s="61" t="s">
         <v>368</v>
       </c>
@@ -13777,7 +13783,7 @@
         <v>0.50828282828282834</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A97" s="61" t="s">
         <v>232</v>
       </c>
@@ -13846,7 +13852,7 @@
         <v>0.48354664072050496</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A98" s="61" t="s">
         <v>232</v>
       </c>
@@ -13915,7 +13921,7 @@
         <v>0.49469056313665194</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A99" s="61" t="s">
         <v>232</v>
       </c>
@@ -13984,7 +13990,7 @@
         <v>0.65434819460925575</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A100" s="61" t="s">
         <v>232</v>
       </c>
@@ -14053,7 +14059,7 @@
         <v>1.4743732590529248</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A101" s="61" t="s">
         <v>232</v>
       </c>
@@ -14122,7 +14128,7 @@
         <v>1.2140414664762151</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A102" s="61" t="s">
         <v>235</v>
       </c>
@@ -14191,7 +14197,7 @@
         <v>0.2196078431372549</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A103" s="61" t="s">
         <v>235</v>
       </c>
@@ -14260,7 +14266,7 @@
         <v>0.12605379365716579</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A104" s="61" t="s">
         <v>235</v>
       </c>
@@ -14329,7 +14335,7 @@
         <v>0.16235218919782679</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A105" s="61" t="s">
         <v>235</v>
       </c>
@@ -14398,7 +14404,7 @@
         <v>0.24359400998336106</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A106" s="61" t="s">
         <v>235</v>
       </c>
@@ -14467,7 +14473,7 @@
         <v>0.24454297407912687</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A107" s="61" t="s">
         <v>239</v>
       </c>
@@ -14536,7 +14542,7 @@
         <v>0.34287076776347164</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A108" s="61" t="s">
         <v>239</v>
       </c>
@@ -14605,7 +14611,7 @@
         <v>0.71904547501125615</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A109" s="61" t="s">
         <v>239</v>
       </c>
@@ -14674,7 +14680,7 @@
         <v>0.64549424374751885</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A110" s="61" t="s">
         <v>239</v>
       </c>
@@ -14743,7 +14749,7 @@
         <v>0.55841446453407506</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A111" s="61" t="s">
         <v>239</v>
       </c>
@@ -14812,7 +14818,7 @@
         <v>0.53389830508474578</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A112" s="61" t="s">
         <v>162</v>
       </c>
@@ -14880,7 +14886,7 @@
         <v>0.86884582970031554</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A113" s="61" t="s">
         <v>162</v>
       </c>
@@ -14949,7 +14955,7 @@
         <v>0.87880224287667508</v>
       </c>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A114" s="61" t="s">
         <v>162</v>
       </c>
@@ -15018,7 +15024,7 @@
         <v>0.87662215407856692</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A115" s="61" t="s">
         <v>162</v>
       </c>
@@ -15087,7 +15093,7 @@
         <v>0.88270533738938051</v>
       </c>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A116" s="61" t="s">
         <v>162</v>
       </c>
@@ -15156,7 +15162,7 @@
         <v>0.87473637112223979</v>
       </c>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A117" s="61" t="s">
         <v>165</v>
       </c>
@@ -15225,7 +15231,7 @@
         <v>0.80688080162046638</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A118" s="61" t="s">
         <v>165</v>
       </c>
@@ -15294,7 +15300,7 @@
         <v>0.79888904906059299</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A119" s="61" t="s">
         <v>165</v>
       </c>
@@ -15363,7 +15369,7 @@
         <v>0.79186312843808104</v>
       </c>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A120" s="61" t="s">
         <v>165</v>
       </c>
@@ -15432,7 +15438,7 @@
         <v>0.77893542954499706</v>
       </c>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A121" s="61" t="s">
         <v>165</v>
       </c>
@@ -15501,7 +15507,7 @@
         <v>0.76647147113001157</v>
       </c>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A122" s="61" t="s">
         <v>152</v>
       </c>
@@ -15570,7 +15576,7 @@
         <v>0.569925794869239</v>
       </c>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A123" s="61" t="s">
         <v>152</v>
       </c>
@@ -15639,7 +15645,7 @@
         <v>0.56847745781178638</v>
       </c>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A124" s="61" t="s">
         <v>152</v>
       </c>
@@ -15708,7 +15714,7 @@
         <v>0.5664331630068733</v>
       </c>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A125" s="61" t="s">
         <v>152</v>
       </c>
@@ -15777,7 +15783,7 @@
         <v>0.57320677328817482</v>
       </c>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A126" s="61" t="s">
         <v>152</v>
       </c>
@@ -15846,7 +15852,7 @@
         <v>0.59368741447256368</v>
       </c>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A127" s="61" t="s">
         <v>157</v>
       </c>
@@ -15915,7 +15921,7 @@
         <v>0.54285766842701755</v>
       </c>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A128" s="61" t="s">
         <v>157</v>
       </c>
@@ -15984,7 +15990,7 @@
         <v>0.55398334736213661</v>
       </c>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A129" s="61" t="s">
         <v>157</v>
       </c>
@@ -16053,7 +16059,7 @@
         <v>0.55368514709818895</v>
       </c>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A130" s="61" t="s">
         <v>157</v>
       </c>
@@ -16122,7 +16128,7 @@
         <v>0.55705182582828172</v>
       </c>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A131" s="61" t="s">
         <v>157</v>
       </c>
@@ -16191,7 +16197,7 @@
         <v>0.56408170306485395</v>
       </c>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A132" s="61" t="s">
         <v>283</v>
       </c>
@@ -16260,7 +16266,7 @@
         <v>0.44047619047619047</v>
       </c>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A133" s="61" t="s">
         <v>283</v>
       </c>
@@ -16329,7 +16335,7 @@
         <v>0.48175182481751827</v>
       </c>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A134" s="61" t="s">
         <v>283</v>
       </c>
@@ -16398,7 +16404,7 @@
         <v>0.35015290519877673</v>
       </c>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A135" s="61" t="s">
         <v>283</v>
       </c>
@@ -16467,7 +16473,7 @@
         <v>0.43389830508474575</v>
       </c>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A136" s="61" t="s">
         <v>283</v>
       </c>
@@ -16536,7 +16542,7 @@
         <v>0.53690563083888954</v>
       </c>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A137" s="61" t="s">
         <v>288</v>
       </c>
@@ -16605,7 +16611,7 @@
         <v>0.46490778688524592</v>
       </c>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A138" s="61" t="s">
         <v>288</v>
       </c>
@@ -16674,7 +16680,7 @@
         <v>0.46598137499363901</v>
       </c>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A139" s="61" t="s">
         <v>288</v>
       </c>
@@ -16743,7 +16749,7 @@
         <v>0.46506663890045813</v>
       </c>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A140" s="61" t="s">
         <v>288</v>
       </c>
@@ -16812,7 +16818,7 @@
         <v>0.47467505673612542</v>
       </c>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A141" s="61" t="s">
         <v>288</v>
       </c>
@@ -16881,7 +16887,7 @@
         <v>0.49492586119411403</v>
       </c>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A142" s="61" t="s">
         <v>285</v>
       </c>
@@ -16950,7 +16956,7 @@
         <v>0.89229080725125842</v>
       </c>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A143" s="61" t="s">
         <v>285</v>
       </c>
@@ -17019,7 +17025,7 @@
         <v>0.80631252155915834</v>
       </c>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A144" s="61" t="s">
         <v>285</v>
       </c>
@@ -17088,7 +17094,7 @@
         <v>0.76442702160634513</v>
       </c>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A145" s="61" t="s">
         <v>285</v>
       </c>
@@ -17157,7 +17163,7 @@
         <v>0.72448794634765268</v>
       </c>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A146" s="61" t="s">
         <v>285</v>
       </c>
@@ -17226,7 +17232,7 @@
         <v>0.76142339306683005</v>
       </c>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A147" s="61" t="s">
         <v>129</v>
       </c>
@@ -17295,7 +17301,7 @@
         <v>0.72830402722631882</v>
       </c>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A148" s="61" t="s">
         <v>129</v>
       </c>
@@ -17364,7 +17370,7 @@
         <v>0.93676387388777449</v>
       </c>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A149" s="61" t="s">
         <v>129</v>
       </c>
@@ -17433,7 +17439,7 @@
         <v>1.0375571424303087</v>
       </c>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A150" s="61" t="s">
         <v>129</v>
       </c>
@@ -17502,7 +17508,7 @@
         <v>1.0329486281555467</v>
       </c>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A151" s="61" t="s">
         <v>129</v>
       </c>
@@ -17571,7 +17577,7 @@
         <v>1.1061925579153902</v>
       </c>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A152" s="61" t="s">
         <v>126</v>
       </c>
@@ -17640,7 +17646,7 @@
         <v>0.66744250623219648</v>
       </c>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A153" s="61" t="s">
         <v>126</v>
       </c>
@@ -17709,7 +17715,7 @@
         <v>0.64752533038948845</v>
       </c>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A154" s="61" t="s">
         <v>126</v>
       </c>
@@ -17778,7 +17784,7 @@
         <v>0.63901911069976092</v>
       </c>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A155" s="61" t="s">
         <v>126</v>
       </c>
@@ -17847,7 +17853,7 @@
         <v>0.62586252207873172</v>
       </c>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A156" s="61" t="s">
         <v>126</v>
       </c>
@@ -17916,7 +17922,7 @@
         <v>0.66163473024306174</v>
       </c>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A157" s="61" t="s">
         <v>369</v>
       </c>
@@ -17985,7 +17991,7 @@
         <v>0.61079833219476576</v>
       </c>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A158" s="61" t="s">
         <v>369</v>
       </c>
@@ -18054,7 +18060,7 @@
         <v>0.66221622517340151</v>
       </c>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A159" s="61" t="s">
         <v>369</v>
       </c>
@@ -18123,7 +18129,7 @@
         <v>0.70755272192251106</v>
       </c>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A160" s="61" t="s">
         <v>369</v>
       </c>
@@ -18192,7 +18198,7 @@
         <v>0.702821993708034</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A161" s="61" t="s">
         <v>369</v>
       </c>
@@ -18261,7 +18267,7 @@
         <v>0.83467274732812402</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A162" s="61" t="s">
         <v>128</v>
       </c>
@@ -18330,7 +18336,7 @@
         <v>0.5203069253702165</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A163" s="61" t="s">
         <v>128</v>
       </c>
@@ -18399,7 +18405,7 @@
         <v>0.51015898071935961</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A164" s="61" t="s">
         <v>128</v>
       </c>
@@ -18468,7 +18474,7 @@
         <v>0.44804612427930812</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A165" s="61" t="s">
         <v>128</v>
       </c>
@@ -18537,7 +18543,7 @@
         <v>0.47947232947232948</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A166" s="61" t="s">
         <v>128</v>
       </c>
@@ -18606,7 +18612,7 @@
         <v>0.47326050585572288</v>
       </c>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A167" s="61" t="s">
         <v>370</v>
       </c>
@@ -18675,7 +18681,7 @@
         <v>0.54161051212938005</v>
       </c>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A168" s="61" t="s">
         <v>370</v>
       </c>
@@ -18744,7 +18750,7 @@
         <v>0.57481247532570079</v>
       </c>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A169" s="61" t="s">
         <v>370</v>
       </c>
@@ -18813,7 +18819,7 @@
         <v>0.56212600013447189</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A170" s="61" t="s">
         <v>370</v>
       </c>
@@ -18882,7 +18888,7 @@
         <v>0.55519897304236199</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A171" s="61" t="s">
         <v>370</v>
       </c>
@@ -18951,7 +18957,7 @@
         <v>0.51914529217469318</v>
       </c>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A172" s="61" t="s">
         <v>139</v>
       </c>
@@ -19020,7 +19026,7 @@
         <v>0.43975452717874763</v>
       </c>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A173" s="61" t="s">
         <v>139</v>
       </c>
@@ -19089,7 +19095,7 @@
         <v>0.45328257583633907</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A174" s="61" t="s">
         <v>139</v>
       </c>
@@ -19158,7 +19164,7 @@
         <v>0.42877015880832203</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A175" s="61" t="s">
         <v>139</v>
       </c>
@@ -19227,7 +19233,7 @@
         <v>0.40313822386215786</v>
       </c>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A176" s="61" t="s">
         <v>139</v>
       </c>
@@ -19296,7 +19302,7 @@
         <v>0.40604622287191183</v>
       </c>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A177" s="61" t="s">
         <v>371</v>
       </c>
@@ -19365,7 +19371,7 @@
         <v>0.55348182058279782</v>
       </c>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A178" s="61" t="s">
         <v>371</v>
       </c>
@@ -19434,7 +19440,7 @@
         <v>0.60942240509064849</v>
       </c>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A179" s="61" t="s">
         <v>371</v>
       </c>
@@ -19503,7 +19509,7 @@
         <v>0.58509508127058318</v>
       </c>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A180" s="61" t="s">
         <v>371</v>
       </c>
@@ -19572,7 +19578,7 @@
         <v>0.55476725784293535</v>
       </c>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A181" s="61" t="s">
         <v>371</v>
       </c>
@@ -19641,7 +19647,7 @@
         <v>0.59945512488122898</v>
       </c>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A182" s="61" t="s">
         <v>86</v>
       </c>
@@ -19710,7 +19716,7 @@
         <v>1.151648553216857</v>
       </c>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A183" s="61" t="s">
         <v>86</v>
       </c>
@@ -19779,7 +19785,7 @@
         <v>1.1313877755511021</v>
       </c>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A184" s="61" t="s">
         <v>86</v>
       </c>
@@ -19848,7 +19854,7 @@
         <v>1.1566381987577641</v>
       </c>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A185" s="61" t="s">
         <v>86</v>
       </c>
@@ -19917,7 +19923,7 @@
         <v>1.1371297721385938</v>
       </c>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A186" s="61" t="s">
         <v>86</v>
       </c>
@@ -19986,7 +19992,7 @@
         <v>1.124633267723846</v>
       </c>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A187" s="61" t="s">
         <v>372</v>
       </c>
@@ -20055,7 +20061,7 @@
         <v>1.3859649122807018</v>
       </c>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A188" s="61" t="s">
         <v>372</v>
       </c>
@@ -20124,7 +20130,7 @@
         <v>1.309833946504922</v>
       </c>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A189" s="61" t="s">
         <v>372</v>
       </c>
@@ -20193,7 +20199,7 @@
         <v>1.5048809915542394</v>
       </c>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A190" s="61" t="s">
         <v>372</v>
       </c>
@@ -20262,7 +20268,7 @@
         <v>1.7029859154929576</v>
       </c>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A191" s="61" t="s">
         <v>372</v>
       </c>
@@ -20331,7 +20337,7 @@
         <v>1.3535110963895329</v>
       </c>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A192" s="61" t="s">
         <v>268</v>
       </c>
@@ -20400,7 +20406,7 @@
         <v>0.73275099513489605</v>
       </c>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A193" s="61" t="s">
         <v>268</v>
       </c>
@@ -20469,7 +20475,7 @@
         <v>0.78758749416705554</v>
       </c>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A194" s="61" t="s">
         <v>268</v>
       </c>
@@ -20538,7 +20544,7 @@
         <v>0.80843920145190562</v>
       </c>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A195" s="61" t="s">
         <v>268</v>
       </c>
@@ -20607,7 +20613,7 @@
         <v>1.26465246821859</v>
       </c>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A196" s="61" t="s">
         <v>268</v>
       </c>
@@ -20676,7 +20682,7 @@
         <v>1.8967804441794605</v>
       </c>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A197" s="61" t="s">
         <v>77</v>
       </c>
@@ -20745,7 +20751,7 @@
         <v>0.92112343062122937</v>
       </c>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A198" s="61" t="s">
         <v>77</v>
       </c>
@@ -20814,7 +20820,7 @@
         <v>0.86099859469289908</v>
       </c>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A199" s="61" t="s">
         <v>77</v>
       </c>
@@ -20883,7 +20889,7 @@
         <v>0.95304190397163657</v>
       </c>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A200" s="61" t="s">
         <v>77</v>
       </c>
@@ -20952,7 +20958,7 @@
         <v>0.93074857334676064</v>
       </c>
     </row>
-    <row r="201" spans="1:20">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A201" s="61" t="s">
         <v>77</v>
       </c>
@@ -21021,7 +21027,7 @@
         <v>0.8768122334950742</v>
       </c>
     </row>
-    <row r="202" spans="1:20">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A202" s="61" t="s">
         <v>89</v>
       </c>
@@ -21090,7 +21096,7 @@
         <v>1.265207067532649</v>
       </c>
     </row>
-    <row r="203" spans="1:20">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A203" s="61" t="s">
         <v>89</v>
       </c>
@@ -21159,7 +21165,7 @@
         <v>1.3639669538200818</v>
       </c>
     </row>
-    <row r="204" spans="1:20">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A204" s="61" t="s">
         <v>89</v>
       </c>
@@ -21228,7 +21234,7 @@
         <v>1.459872568291195</v>
       </c>
     </row>
-    <row r="205" spans="1:20">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A205" s="61" t="s">
         <v>89</v>
       </c>
@@ -21297,7 +21303,7 @@
         <v>1.6488535901674692</v>
       </c>
     </row>
-    <row r="206" spans="1:20">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A206" s="61" t="s">
         <v>89</v>
       </c>
@@ -21366,7 +21372,7 @@
         <v>1.5776610258047661</v>
       </c>
     </row>
-    <row r="207" spans="1:20">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A207" s="61" t="s">
         <v>373</v>
       </c>
@@ -21435,7 +21441,7 @@
         <v>1.2837532907107936</v>
       </c>
     </row>
-    <row r="208" spans="1:20">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A208" s="61" t="s">
         <v>373</v>
       </c>
@@ -21504,7 +21510,7 @@
         <v>1.2208245981830887</v>
       </c>
     </row>
-    <row r="209" spans="1:20">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A209" s="61" t="s">
         <v>373</v>
       </c>
@@ -21573,7 +21579,7 @@
         <v>1.2201709401709402</v>
       </c>
     </row>
-    <row r="210" spans="1:20">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A210" s="61" t="s">
         <v>373</v>
       </c>
@@ -21642,7 +21648,7 @@
         <v>1.2392648877893622</v>
       </c>
     </row>
-    <row r="211" spans="1:20">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A211" s="61" t="s">
         <v>373</v>
       </c>
@@ -21711,7 +21717,7 @@
         <v>1.1572410147991543</v>
       </c>
     </row>
-    <row r="212" spans="1:20">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A212" s="61" t="s">
         <v>80</v>
       </c>
@@ -21780,7 +21786,7 @@
         <v>0.83783061329171993</v>
       </c>
     </row>
-    <row r="213" spans="1:20">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A213" s="61" t="s">
         <v>80</v>
       </c>
@@ -21849,7 +21855,7 @@
         <v>0.85258969886552016</v>
       </c>
     </row>
-    <row r="214" spans="1:20">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A214" s="61" t="s">
         <v>80</v>
       </c>
@@ -21918,7 +21924,7 @@
         <v>0.86808845098493304</v>
       </c>
     </row>
-    <row r="215" spans="1:20">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A215" s="61" t="s">
         <v>80</v>
       </c>
@@ -21987,7 +21993,7 @@
         <v>0.97091313566686366</v>
       </c>
     </row>
-    <row r="216" spans="1:20">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A216" s="61" t="s">
         <v>80</v>
       </c>
@@ -22056,7 +22062,7 @@
         <v>0.96245659587420107</v>
       </c>
     </row>
-    <row r="217" spans="1:20">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A217" s="61" t="s">
         <v>83</v>
       </c>
@@ -22125,7 +22131,7 @@
         <v>0.87002931430028041</v>
       </c>
     </row>
-    <row r="218" spans="1:20">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A218" s="61" t="s">
         <v>83</v>
       </c>
@@ -22194,7 +22200,7 @@
         <v>0.91736825693794821</v>
       </c>
     </row>
-    <row r="219" spans="1:20">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A219" s="61" t="s">
         <v>83</v>
       </c>
@@ -22263,7 +22269,7 @@
         <v>0.92320703653585923</v>
       </c>
     </row>
-    <row r="220" spans="1:20">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A220" s="61" t="s">
         <v>83</v>
       </c>
@@ -22332,7 +22338,7 @@
         <v>0.96459123946742131</v>
       </c>
     </row>
-    <row r="221" spans="1:20">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A221" s="61" t="s">
         <v>83</v>
       </c>
@@ -22401,7 +22407,7 @@
         <v>0.93489622670009964</v>
       </c>
     </row>
-    <row r="222" spans="1:20">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A222" s="61" t="s">
         <v>270</v>
       </c>
@@ -22470,7 +22476,7 @@
         <v>0.87336862667383852</v>
       </c>
     </row>
-    <row r="223" spans="1:20">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A223" s="61" t="s">
         <v>270</v>
       </c>
@@ -22539,7 +22545,7 @@
         <v>1.1606818499371245</v>
       </c>
     </row>
-    <row r="224" spans="1:20">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A224" s="61" t="s">
         <v>270</v>
       </c>
@@ -22608,7 +22614,7 @@
         <v>1.181954407779372</v>
       </c>
     </row>
-    <row r="225" spans="1:20">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A225" s="61" t="s">
         <v>270</v>
       </c>
@@ -22677,7 +22683,7 @@
         <v>1.3102384385794292</v>
       </c>
     </row>
-    <row r="226" spans="1:20">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A226" s="61" t="s">
         <v>270</v>
       </c>
@@ -22746,7 +22752,7 @@
         <v>1.2629992293394987</v>
       </c>
     </row>
-    <row r="227" spans="1:20">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A227" s="61" t="s">
         <v>374</v>
       </c>
@@ -22815,7 +22821,7 @@
         <v>0.78359732767678369</v>
       </c>
     </row>
-    <row r="228" spans="1:20">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A228" s="61" t="s">
         <v>374</v>
       </c>
@@ -22884,7 +22890,7 @@
         <v>0.81772624186114562</v>
       </c>
     </row>
-    <row r="229" spans="1:20">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A229" s="61" t="s">
         <v>374</v>
       </c>
@@ -22953,7 +22959,7 @@
         <v>0.90715865270391283</v>
       </c>
     </row>
-    <row r="230" spans="1:20">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A230" s="61" t="s">
         <v>374</v>
       </c>
@@ -23022,7 +23028,7 @@
         <v>0.77222327930670631</v>
       </c>
     </row>
-    <row r="231" spans="1:20">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A231" s="61" t="s">
         <v>374</v>
       </c>
@@ -23091,7 +23097,7 @@
         <v>1.0819423008429301</v>
       </c>
     </row>
-    <row r="232" spans="1:20">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A232" s="61" t="s">
         <v>375</v>
       </c>
@@ -23160,7 +23166,7 @@
         <v>1.0936001096340962</v>
       </c>
     </row>
-    <row r="233" spans="1:20">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A233" s="61" t="s">
         <v>375</v>
       </c>
@@ -23229,7 +23235,7 @@
         <v>1.1061866125760649</v>
       </c>
     </row>
-    <row r="234" spans="1:20">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A234" s="61" t="s">
         <v>375</v>
       </c>
@@ -23298,7 +23304,7 @@
         <v>1.0495170725071419</v>
       </c>
     </row>
-    <row r="235" spans="1:20">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A235" s="61" t="s">
         <v>375</v>
       </c>
@@ -23367,7 +23373,7 @@
         <v>0.9957739038563127</v>
       </c>
     </row>
-    <row r="236" spans="1:20">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A236" s="61" t="s">
         <v>375</v>
       </c>
@@ -23436,7 +23442,7 @@
         <v>0.77684247704261833</v>
       </c>
     </row>
-    <row r="237" spans="1:20">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A237" s="61" t="s">
         <v>123</v>
       </c>
@@ -23505,7 +23511,7 @@
         <v>0.7291839557399723</v>
       </c>
     </row>
-    <row r="238" spans="1:20">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A238" s="61" t="s">
         <v>123</v>
       </c>
@@ -23574,7 +23580,7 @@
         <v>1.0564295485636115</v>
       </c>
     </row>
-    <row r="239" spans="1:20">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A239" s="62" t="s">
         <v>123</v>
       </c>
@@ -23643,7 +23649,7 @@
         <v>0.98655034532897123</v>
       </c>
     </row>
-    <row r="240" spans="1:20">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A240" s="61" t="s">
         <v>123</v>
       </c>
@@ -23712,7 +23718,7 @@
         <v>0.80547632629777521</v>
       </c>
     </row>
-    <row r="241" spans="1:20">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A241" s="61" t="s">
         <v>123</v>
       </c>
@@ -23781,7 +23787,7 @@
         <v>0.55400087450808921</v>
       </c>
     </row>
-    <row r="242" spans="1:20">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A242" s="61" t="s">
         <v>244</v>
       </c>
@@ -23850,7 +23856,7 @@
         <v>1.6095430921602898</v>
       </c>
     </row>
-    <row r="243" spans="1:20">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A243" s="61" t="s">
         <v>244</v>
       </c>
@@ -23919,7 +23925,7 @@
         <v>1.5564143226775728</v>
       </c>
     </row>
-    <row r="244" spans="1:20">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A244" s="61" t="s">
         <v>244</v>
       </c>
@@ -23988,7 +23994,7 @@
         <v>1.3598653144089274</v>
       </c>
     </row>
-    <row r="245" spans="1:20">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A245" s="61" t="s">
         <v>244</v>
       </c>
@@ -24057,7 +24063,7 @@
         <v>1.5528458272839212</v>
       </c>
     </row>
-    <row r="246" spans="1:20">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A246" s="61" t="s">
         <v>244</v>
       </c>
@@ -24126,7 +24132,7 @@
         <v>1.4372513725876976</v>
       </c>
     </row>
-    <row r="247" spans="1:20">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A247" s="61" t="s">
         <v>245</v>
       </c>
@@ -24195,7 +24201,7 @@
         <v>1.8417300071461054</v>
       </c>
     </row>
-    <row r="248" spans="1:20">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A248" s="61" t="s">
         <v>245</v>
       </c>
@@ -24264,7 +24270,7 @@
         <v>1.8314684325682387</v>
       </c>
     </row>
-    <row r="249" spans="1:20">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A249" s="61" t="s">
         <v>245</v>
       </c>
@@ -24333,7 +24339,7 @@
         <v>1.6562799653863245</v>
       </c>
     </row>
-    <row r="250" spans="1:20">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A250" s="61" t="s">
         <v>245</v>
       </c>
@@ -24402,7 +24408,7 @@
         <v>1.5567368530235453</v>
       </c>
     </row>
-    <row r="251" spans="1:20">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A251" s="61" t="s">
         <v>245</v>
       </c>
@@ -24471,7 +24477,7 @@
         <v>1.4185263914625152</v>
       </c>
     </row>
-    <row r="252" spans="1:20">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A252" s="61" t="s">
         <v>246</v>
       </c>
@@ -24540,7 +24546,7 @@
         <v>1.3142456100146094</v>
       </c>
     </row>
-    <row r="253" spans="1:20">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A253" s="61" t="s">
         <v>246</v>
       </c>
@@ -24609,7 +24615,7 @@
         <v>1.3346122609012239</v>
       </c>
     </row>
-    <row r="254" spans="1:20">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A254" s="61" t="s">
         <v>246</v>
       </c>
@@ -24678,7 +24684,7 @@
         <v>1.5128423308436545</v>
       </c>
     </row>
-    <row r="255" spans="1:20">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A255" s="61" t="s">
         <v>246</v>
       </c>
@@ -24747,7 +24753,7 @@
         <v>1.4158216213010733</v>
       </c>
     </row>
-    <row r="256" spans="1:20">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A256" s="61" t="s">
         <v>246</v>
       </c>
@@ -24816,7 +24822,7 @@
         <v>1.2251986426960608</v>
       </c>
     </row>
-    <row r="257" spans="1:20">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A257" s="61" t="s">
         <v>376</v>
       </c>
@@ -24885,7 +24891,7 @@
         <v>0.38082765845992667</v>
       </c>
     </row>
-    <row r="258" spans="1:20">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A258" s="61" t="s">
         <v>376</v>
       </c>
@@ -24954,7 +24960,7 @@
         <v>0.39826839826839827</v>
       </c>
     </row>
-    <row r="259" spans="1:20">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A259" s="61" t="s">
         <v>376</v>
       </c>
@@ -25023,7 +25029,7 @@
         <v>0.41971438523162663</v>
       </c>
     </row>
-    <row r="260" spans="1:20">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A260" s="61" t="s">
         <v>376</v>
       </c>
@@ -25092,7 +25098,7 @@
         <v>0.45274781715459683</v>
       </c>
     </row>
-    <row r="261" spans="1:20">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A261" s="61" t="s">
         <v>376</v>
       </c>
@@ -25161,7 +25167,7 @@
         <v>0.46955944210759354</v>
       </c>
     </row>
-    <row r="262" spans="1:20">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A262" s="61" t="s">
         <v>199</v>
       </c>
@@ -25230,7 +25236,7 @@
         <v>0.63591484109842644</v>
       </c>
     </row>
-    <row r="263" spans="1:20">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A263" s="61" t="s">
         <v>199</v>
       </c>
@@ -25299,7 +25305,7 @@
         <v>0.89704006124011226</v>
       </c>
     </row>
-    <row r="264" spans="1:20">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A264" s="61" t="s">
         <v>199</v>
       </c>
@@ -25368,7 +25374,7 @@
         <v>0.81549901243174161</v>
       </c>
     </row>
-    <row r="265" spans="1:20">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A265" s="61" t="s">
         <v>199</v>
       </c>
@@ -25437,7 +25443,7 @@
         <v>0.81541790025051242</v>
       </c>
     </row>
-    <row r="266" spans="1:20">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A266" s="61" t="s">
         <v>199</v>
       </c>
@@ -25506,7 +25512,7 @@
         <v>0.79789977892409725</v>
       </c>
     </row>
-    <row r="267" spans="1:20">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A267" s="61" t="s">
         <v>202</v>
       </c>
@@ -25575,7 +25581,7 @@
         <v>1.0136981947622681</v>
       </c>
     </row>
-    <row r="268" spans="1:20">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A268" s="61" t="s">
         <v>202</v>
       </c>
@@ -25644,7 +25650,7 @@
         <v>1.0118603754178452</v>
       </c>
     </row>
-    <row r="269" spans="1:20">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A269" s="61" t="s">
         <v>202</v>
       </c>
@@ -25713,7 +25719,7 @@
         <v>1.0053989202159568</v>
       </c>
     </row>
-    <row r="270" spans="1:20">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A270" s="61" t="s">
         <v>202</v>
       </c>
@@ -25782,7 +25788,7 @@
         <v>0.96323875432525952</v>
       </c>
     </row>
-    <row r="271" spans="1:20">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A271" s="61" t="s">
         <v>202</v>
       </c>
@@ -25851,7 +25857,7 @@
         <v>0.93348785420501279</v>
       </c>
     </row>
-    <row r="272" spans="1:20">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A272" s="61" t="s">
         <v>203</v>
       </c>
@@ -25920,7 +25926,7 @@
         <v>1.1191572706579853</v>
       </c>
     </row>
-    <row r="273" spans="1:20">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A273" s="61" t="s">
         <v>203</v>
       </c>
@@ -25989,7 +25995,7 @@
         <v>1.090730997425277</v>
       </c>
     </row>
-    <row r="274" spans="1:20">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A274" s="61" t="s">
         <v>203</v>
       </c>
@@ -26058,7 +26064,7 @@
         <v>1.0551953271528858</v>
       </c>
     </row>
-    <row r="275" spans="1:20">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A275" s="61" t="s">
         <v>203</v>
       </c>
@@ -26127,7 +26133,7 @@
         <v>1.0443721973094171</v>
       </c>
     </row>
-    <row r="276" spans="1:20">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A276" s="61" t="s">
         <v>203</v>
       </c>
@@ -26196,7 +26202,7 @@
         <v>1.0173159277572046</v>
       </c>
     </row>
-    <row r="277" spans="1:20">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A277" s="61" t="s">
         <v>209</v>
       </c>
@@ -26265,7 +26271,7 @@
         <v>0.65004770992366412</v>
       </c>
     </row>
-    <row r="278" spans="1:20">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A278" s="61" t="s">
         <v>209</v>
       </c>
@@ -26334,7 +26340,7 @@
         <v>0.59474141677531511</v>
       </c>
     </row>
-    <row r="279" spans="1:20">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A279" s="61" t="s">
         <v>209</v>
       </c>
@@ -26403,7 +26409,7 @@
         <v>0.52101105845181672</v>
       </c>
     </row>
-    <row r="280" spans="1:20">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A280" s="61" t="s">
         <v>209</v>
       </c>
@@ -26472,7 +26478,7 @@
         <v>0.57500247206565802</v>
       </c>
     </row>
-    <row r="281" spans="1:20">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A281" s="61" t="s">
         <v>209</v>
       </c>
@@ -26541,7 +26547,7 @@
         <v>0.61391859261814419</v>
       </c>
     </row>
-    <row r="282" spans="1:20">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A282" s="61" t="s">
         <v>201</v>
       </c>
@@ -26610,7 +26616,7 @@
         <v>0.71313946951499974</v>
       </c>
     </row>
-    <row r="283" spans="1:20">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A283" s="61" t="s">
         <v>201</v>
       </c>
@@ -26679,7 +26685,7 @@
         <v>0.6887672249802812</v>
       </c>
     </row>
-    <row r="284" spans="1:20">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A284" s="61" t="s">
         <v>201</v>
       </c>
@@ -26748,7 +26754,7 @@
         <v>0.62985369202385555</v>
       </c>
     </row>
-    <row r="285" spans="1:20">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A285" s="61" t="s">
         <v>201</v>
       </c>
@@ -26817,7 +26823,7 @@
         <v>0.67139111912174343</v>
       </c>
     </row>
-    <row r="286" spans="1:20">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A286" s="61" t="s">
         <v>201</v>
       </c>
@@ -26886,7 +26892,7 @@
         <v>0.66651452282157675</v>
       </c>
     </row>
-    <row r="287" spans="1:20">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A287" s="61" t="s">
         <v>215</v>
       </c>
@@ -26955,7 +26961,7 @@
         <v>0.62684020668811546</v>
       </c>
     </row>
-    <row r="288" spans="1:20">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A288" s="61" t="s">
         <v>215</v>
       </c>
@@ -27024,7 +27030,7 @@
         <v>0.6020175278437101</v>
       </c>
     </row>
-    <row r="289" spans="1:20">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A289" s="61" t="s">
         <v>215</v>
       </c>
@@ -27093,7 +27099,7 @@
         <v>0.52967243821097354</v>
       </c>
     </row>
-    <row r="290" spans="1:20">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A290" s="61" t="s">
         <v>215</v>
       </c>
@@ -27162,7 +27168,7 @@
         <v>0.6254286159600998</v>
       </c>
     </row>
-    <row r="291" spans="1:20">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A291" s="61" t="s">
         <v>215</v>
       </c>
@@ -27231,7 +27237,7 @@
         <v>0.62208623677973895</v>
       </c>
     </row>
-    <row r="292" spans="1:20">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A292" s="61" t="s">
         <v>216</v>
       </c>
@@ -27300,7 +27306,7 @@
         <v>0.4462333015955452</v>
       </c>
     </row>
-    <row r="293" spans="1:20">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A293" s="61" t="s">
         <v>216</v>
       </c>
@@ -27369,7 +27375,7 @@
         <v>0.47457085596444859</v>
       </c>
     </row>
-    <row r="294" spans="1:20">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A294" s="61" t="s">
         <v>216</v>
       </c>
@@ -27438,7 +27444,7 @@
         <v>0.45721068904593637</v>
       </c>
     </row>
-    <row r="295" spans="1:20">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A295" s="61" t="s">
         <v>216</v>
       </c>
@@ -27507,7 +27513,7 @@
         <v>0.47445178335535004</v>
       </c>
     </row>
-    <row r="296" spans="1:20">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A296" s="61" t="s">
         <v>216</v>
       </c>
@@ -27576,7 +27582,7 @@
         <v>0.48570723887039091</v>
       </c>
     </row>
-    <row r="297" spans="1:20">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A297" s="61" t="s">
         <v>68</v>
       </c>
@@ -27645,7 +27651,7 @@
         <v>0.20425531914893616</v>
       </c>
     </row>
-    <row r="298" spans="1:20">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A298" s="61" t="s">
         <v>68</v>
       </c>
@@ -27714,7 +27720,7 @@
         <v>0.17270788912579957</v>
       </c>
     </row>
-    <row r="299" spans="1:20">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A299" s="61" t="s">
         <v>68</v>
       </c>
@@ -27783,7 +27789,7 @@
         <v>0.1050185873605948</v>
       </c>
     </row>
-    <row r="300" spans="1:20">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A300" s="61" t="s">
         <v>68</v>
       </c>
@@ -27852,7 +27858,7 @@
         <v>7.4851665905979012E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:20">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A301" s="61" t="s">
         <v>68</v>
       </c>
@@ -27921,7 +27927,7 @@
         <v>0.15709066755230822</v>
       </c>
     </row>
-    <row r="302" spans="1:20">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A302" s="61" t="s">
         <v>229</v>
       </c>
@@ -27990,7 +27996,7 @@
         <v>0.50833567481502295</v>
       </c>
     </row>
-    <row r="303" spans="1:20">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A303" s="61" t="s">
         <v>229</v>
       </c>
@@ -28059,7 +28065,7 @@
         <v>0.60673504131545075</v>
       </c>
     </row>
-    <row r="304" spans="1:20">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A304" s="61" t="s">
         <v>229</v>
       </c>
@@ -28128,7 +28134,7 @@
         <v>0.51784430354925159</v>
       </c>
     </row>
-    <row r="305" spans="1:20">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A305" s="61" t="s">
         <v>229</v>
       </c>
@@ -28197,7 +28203,7 @@
         <v>0.26455967767254462</v>
       </c>
     </row>
-    <row r="306" spans="1:20">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A306" s="61" t="s">
         <v>229</v>
       </c>
@@ -28266,7 +28272,7 @@
         <v>0.28480367763797065</v>
       </c>
     </row>
-    <row r="307" spans="1:20">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A307" s="61" t="s">
         <v>180</v>
       </c>
@@ -28335,7 +28341,7 @@
         <v>2.2355974395448079</v>
       </c>
     </row>
-    <row r="308" spans="1:20">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A308" s="61" t="s">
         <v>180</v>
       </c>
@@ -28404,7 +28410,7 @@
         <v>2.2890019006523863</v>
       </c>
     </row>
-    <row r="309" spans="1:20">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A309" s="61" t="s">
         <v>180</v>
       </c>
@@ -28473,7 +28479,7 @@
         <v>2.3062699149459318</v>
       </c>
     </row>
-    <row r="310" spans="1:20">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A310" s="61" t="s">
         <v>180</v>
       </c>
@@ -28542,7 +28548,7 @@
         <v>2.6870620131884291</v>
       </c>
     </row>
-    <row r="311" spans="1:20">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A311" s="61" t="s">
         <v>180</v>
       </c>
@@ -28611,7 +28617,7 @@
         <v>3.1120491174213352</v>
       </c>
     </row>
-    <row r="312" spans="1:20">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A312" s="61" t="s">
         <v>377</v>
       </c>
@@ -28680,7 +28686,7 @@
         <v>0.72217433456234692</v>
       </c>
     </row>
-    <row r="313" spans="1:20">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A313" s="61" t="s">
         <v>377</v>
       </c>
@@ -28749,7 +28755,7 @@
         <v>0.75412671963208544</v>
       </c>
     </row>
-    <row r="314" spans="1:20">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A314" s="61" t="s">
         <v>377</v>
       </c>
@@ -28818,7 +28824,7 @@
         <v>0.8027989298209508</v>
       </c>
     </row>
-    <row r="315" spans="1:20">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A315" s="61" t="s">
         <v>377</v>
       </c>
@@ -28887,7 +28893,7 @@
         <v>0.8555456528679366</v>
       </c>
     </row>
-    <row r="316" spans="1:20">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A316" s="61" t="s">
         <v>377</v>
       </c>
@@ -28956,7 +28962,7 @@
         <v>0.80365166049647851</v>
       </c>
     </row>
-    <row r="317" spans="1:20">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A317" s="61" t="s">
         <v>302</v>
       </c>
@@ -29025,7 +29031,7 @@
         <v>1.2087031700288184</v>
       </c>
     </row>
-    <row r="318" spans="1:20">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A318" s="61" t="s">
         <v>302</v>
       </c>
@@ -29094,7 +29100,7 @@
         <v>1.2510673690047132</v>
       </c>
     </row>
-    <row r="319" spans="1:20">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A319" s="61" t="s">
         <v>302</v>
       </c>
@@ -29163,7 +29169,7 @@
         <v>1.2858466640655482</v>
       </c>
     </row>
-    <row r="320" spans="1:20">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A320" s="61" t="s">
         <v>302</v>
       </c>
@@ -29232,7 +29238,7 @@
         <v>1.3719757026665294</v>
       </c>
     </row>
-    <row r="321" spans="1:20">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A321" s="61" t="s">
         <v>302</v>
       </c>
@@ -29301,7 +29307,7 @@
         <v>1.6680997005120277</v>
       </c>
     </row>
-    <row r="322" spans="1:20">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A322" s="61" t="s">
         <v>305</v>
       </c>
@@ -29370,7 +29376,7 @@
         <v>1.33166987333654</v>
       </c>
     </row>
-    <row r="323" spans="1:20">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A323" s="61" t="s">
         <v>305</v>
       </c>
@@ -29439,7 +29445,7 @@
         <v>1.291541377957903</v>
       </c>
     </row>
-    <row r="324" spans="1:20">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A324" s="61" t="s">
         <v>305</v>
       </c>
@@ -29508,7 +29514,7 @@
         <v>1.3781132719208462</v>
       </c>
     </row>
-    <row r="325" spans="1:20">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A325" s="61" t="s">
         <v>305</v>
       </c>
@@ -29577,7 +29583,7 @@
         <v>1.4704348803236318</v>
       </c>
     </row>
-    <row r="326" spans="1:20">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A326" s="61" t="s">
         <v>305</v>
       </c>
@@ -29646,7 +29652,7 @@
         <v>1.4809388023689405</v>
       </c>
     </row>
-    <row r="327" spans="1:20">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A327" s="61" t="s">
         <v>290</v>
       </c>
@@ -29715,7 +29721,7 @@
         <v>0.36909871244635195</v>
       </c>
     </row>
-    <row r="328" spans="1:20">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A328" s="61" t="s">
         <v>290</v>
       </c>
@@ -29784,7 +29790,7 @@
         <v>0.32703927492447132</v>
       </c>
     </row>
-    <row r="329" spans="1:20">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A329" s="61" t="s">
         <v>290</v>
       </c>
@@ -29853,7 +29859,7 @@
         <v>0.36053984575835474</v>
       </c>
     </row>
-    <row r="330" spans="1:20">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A330" s="61" t="s">
         <v>290</v>
       </c>
@@ -29922,7 +29928,7 @@
         <v>0.41126589945487585</v>
       </c>
     </row>
-    <row r="331" spans="1:20">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A331" s="61" t="s">
         <v>290</v>
       </c>
@@ -29991,7 +29997,7 @@
         <v>0.50702905342080595</v>
       </c>
     </row>
-    <row r="332" spans="1:20">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A332" s="61" t="s">
         <v>291</v>
       </c>
@@ -30060,7 +30066,7 @@
         <v>0.5277431606432853</v>
       </c>
     </row>
-    <row r="333" spans="1:20">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A333" s="61" t="s">
         <v>291</v>
       </c>
@@ -30129,7 +30135,7 @@
         <v>0.56596060943887028</v>
       </c>
     </row>
-    <row r="334" spans="1:20">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A334" s="61" t="s">
         <v>291</v>
       </c>
@@ -30198,7 +30204,7 @@
         <v>0.61028005848610956</v>
       </c>
     </row>
-    <row r="335" spans="1:20">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A335" s="61" t="s">
         <v>291</v>
       </c>
@@ -30267,7 +30273,7 @@
         <v>0.75576146353052986</v>
       </c>
     </row>
-    <row r="336" spans="1:20">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A336" s="61" t="s">
         <v>291</v>
       </c>
@@ -30336,7 +30342,7 @@
         <v>0.83118133423943819</v>
       </c>
     </row>
-    <row r="337" spans="1:20">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A337" s="61" t="s">
         <v>292</v>
       </c>
@@ -30405,7 +30411,7 @@
         <v>0.19491525423728814</v>
       </c>
     </row>
-    <row r="338" spans="1:20">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A338" s="61" t="s">
         <v>292</v>
       </c>
@@ -30474,7 +30480,7 @@
         <v>0.28557213930348258</v>
       </c>
     </row>
-    <row r="339" spans="1:20">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A339" s="61" t="s">
         <v>292</v>
       </c>
@@ -30543,7 +30549,7 @@
         <v>0.22247191011235956</v>
       </c>
     </row>
-    <row r="340" spans="1:20">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A340" s="61" t="s">
         <v>292</v>
       </c>
@@ -30612,7 +30618,7 @@
         <v>0.2446743761412051</v>
       </c>
     </row>
-    <row r="341" spans="1:20">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A341" s="61" t="s">
         <v>292</v>
       </c>
@@ -30681,7 +30687,7 @@
         <v>0.38549848942598186</v>
       </c>
     </row>
-    <row r="342" spans="1:20">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A342" s="61" t="s">
         <v>317</v>
       </c>
@@ -30750,7 +30756,7 @@
         <v>1.0086087624903921</v>
       </c>
     </row>
-    <row r="343" spans="1:20">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A343" s="61" t="s">
         <v>317</v>
       </c>
@@ -30819,7 +30825,7 @@
         <v>0.92206034910468626</v>
       </c>
     </row>
-    <row r="344" spans="1:20">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A344" s="61" t="s">
         <v>317</v>
       </c>
@@ -30888,7 +30894,7 @@
         <v>0.87811243261743821</v>
       </c>
     </row>
-    <row r="345" spans="1:20">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A345" s="61" t="s">
         <v>317</v>
       </c>
@@ -30957,7 +30963,7 @@
         <v>0.92824854113585931</v>
       </c>
     </row>
-    <row r="346" spans="1:20">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A346" s="61" t="s">
         <v>317</v>
       </c>
@@ -31026,7 +31032,7 @@
         <v>0.87208843268851166</v>
       </c>
     </row>
-    <row r="347" spans="1:20">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A347" s="61" t="s">
         <v>315</v>
       </c>
@@ -31095,7 +31101,7 @@
         <v>0.52127967573827449</v>
       </c>
     </row>
-    <row r="348" spans="1:20">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A348" s="61" t="s">
         <v>315</v>
       </c>
@@ -31164,7 +31170,7 @@
         <v>0.54894954980706012</v>
       </c>
     </row>
-    <row r="349" spans="1:20">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A349" s="61" t="s">
         <v>315</v>
       </c>
@@ -31233,7 +31239,7 @@
         <v>0.60527472527472526</v>
       </c>
     </row>
-    <row r="350" spans="1:20">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A350" s="61" t="s">
         <v>315</v>
       </c>
@@ -31302,7 +31308,7 @@
         <v>0.59035427210479308</v>
       </c>
     </row>
-    <row r="351" spans="1:20">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A351" s="61" t="s">
         <v>315</v>
       </c>
@@ -31371,7 +31377,7 @@
         <v>0.58230829625752423</v>
       </c>
     </row>
-    <row r="352" spans="1:20">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A352" s="116" t="s">
         <v>681</v>
       </c>
@@ -31440,7 +31446,7 @@
         <v>0.41690682036503363</v>
       </c>
     </row>
-    <row r="353" spans="1:20">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A353" s="116" t="s">
         <v>681</v>
       </c>
@@ -31509,7 +31515,7 @@
         <v>0.25842696629213485</v>
       </c>
     </row>
-    <row r="354" spans="1:20">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A354" s="116" t="s">
         <v>681</v>
       </c>
@@ -31578,7 +31584,7 @@
         <v>0.23152307064107799</v>
       </c>
     </row>
-    <row r="355" spans="1:20">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A355" s="116" t="s">
         <v>681</v>
       </c>
@@ -31647,7 +31653,7 @@
         <v>1.7378205128205129</v>
       </c>
     </row>
-    <row r="356" spans="1:20">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A356" s="116" t="s">
         <v>681</v>
       </c>
@@ -31716,14 +31722,14 @@
         <v>1.0098765432098766</v>
       </c>
     </row>
-    <row r="358" spans="1:20">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.45">
       <c r="L358" s="62"/>
       <c r="O358" s="62"/>
     </row>
-    <row r="360" spans="1:20">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.45">
       <c r="O360" s="62"/>
     </row>
-    <row r="361" spans="1:20">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.45">
       <c r="O361" s="62"/>
     </row>
   </sheetData>
@@ -31740,9 +31746,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>378</v>
       </c>
@@ -31818,7 +31824,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -31881,7 +31887,7 @@
         <v>0.50556608695652172</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A3" s="60" t="s">
         <v>29</v>
       </c>
@@ -31944,7 +31950,7 @@
         <v>0.82455679443950269</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A4" s="60"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -31965,7 +31971,7 @@
       <c r="R4" s="60"/>
       <c r="S4" s="46"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A5" s="60" t="s">
         <v>101</v>
       </c>
@@ -32028,7 +32034,7 @@
         <v>0.89374197689345314</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -32091,7 +32097,7 @@
         <v>0.42105123496757352</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
@@ -32154,7 +32160,7 @@
         <v>0.50105156424453712</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A8" s="60" t="s">
         <v>364</v>
       </c>
@@ -32217,7 +32223,7 @@
         <v>0.4083467999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A9" s="60" t="s">
         <v>195</v>
       </c>
@@ -32280,7 +32286,7 @@
         <v>0.36658390410958902</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A10" s="60" t="s">
         <v>34</v>
       </c>
@@ -32343,7 +32349,7 @@
         <v>0.46951031829310946</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A11" s="60" t="s">
         <v>46</v>
       </c>
@@ -32406,7 +32412,7 @@
         <v>0.64735644454433083</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A13" s="60" t="s">
         <v>302</v>
       </c>
@@ -32469,7 +32475,7 @@
         <v>0.61161261056929006</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A14" s="60" t="s">
         <v>305</v>
       </c>
@@ -32532,7 +32538,7 @@
         <v>0.39932983976619962</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A15" s="60" t="s">
         <v>180</v>
       </c>
@@ -32595,7 +32601,7 @@
         <v>-0.41211934789295601</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A16" s="60" t="s">
         <v>377</v>
       </c>
@@ -32658,7 +32664,7 @@
         <v>-0.60677527799327635</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A19" s="60" t="s">
         <v>77</v>
       </c>
@@ -32721,7 +32727,7 @@
         <v>0.39159836065573772</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A20" s="60" t="s">
         <v>86</v>
       </c>
@@ -32784,7 +32790,7 @@
         <v>6.8314519268197746E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A22" s="60" t="s">
         <v>162</v>
       </c>
@@ -32850,7 +32856,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A23" s="60" t="s">
         <v>162</v>
       </c>
@@ -32916,7 +32922,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -32982,12 +32988,12 @@
         <v>384</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.5">
       <c r="D25" s="60"/>
       <c r="F25" s="60"/>
       <c r="H25" s="60"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A26" s="60" t="s">
         <v>283</v>
       </c>
@@ -33053,7 +33059,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A27" s="60" t="s">
         <v>288</v>
       </c>
@@ -33119,7 +33125,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A28" s="60" t="s">
         <v>285</v>
       </c>
@@ -33185,7 +33191,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>386</v>
       </c>
@@ -33251,7 +33257,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A31" s="60" t="s">
         <v>218</v>
       </c>
@@ -33314,7 +33320,7 @@
         <v>1.01481364497789</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A32" s="60" t="s">
         <v>222</v>
       </c>
@@ -33377,7 +33383,7 @@
         <v>0.65651352426412091</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A33" s="60" t="s">
         <v>225</v>
       </c>
@@ -33440,7 +33446,7 @@
         <v>0.14009725079483823</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A34" s="60" t="s">
         <v>374</v>
       </c>
@@ -33503,11 +33509,11 @@
         <v>0.77023455741880709</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.5">
       <c r="B35" s="60"/>
       <c r="C35" s="60"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A36" s="60" t="s">
         <v>244</v>
       </c>
@@ -33570,7 +33576,7 @@
         <v>1.7637842910194466</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A37" s="60" t="s">
         <v>245</v>
       </c>
@@ -33633,7 +33639,7 @@
         <v>0.79676103541032761</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A38" s="60" t="s">
         <v>246</v>
       </c>
@@ -33695,14 +33701,14 @@
         <v>-265.11204103671713</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A40" s="60" t="s">
         <v>251</v>
       </c>
@@ -33765,7 +33771,7 @@
         <v>0.6605291435541486</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A42" s="60" t="s">
         <v>129</v>
       </c>
@@ -33828,7 +33834,7 @@
         <v>0.22349128296826123</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A43" s="60" t="s">
         <v>126</v>
       </c>
@@ -33891,7 +33897,7 @@
         <v>1.2012794299876084</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A44" s="60" t="s">
         <v>369</v>
       </c>
@@ -33954,7 +33960,7 @@
         <v>5.2578039215686276</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A45" s="60" t="s">
         <v>128</v>
       </c>
@@ -34017,7 +34023,7 @@
         <v>2.7704839382561537</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A46" s="60" t="s">
         <v>370</v>
       </c>
@@ -34081,7 +34087,7 @@
       </c>
       <c r="T46" s="60"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A47" s="60" t="s">
         <v>371</v>
       </c>
@@ -34145,12 +34151,12 @@
       </c>
       <c r="T47" s="60"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.5">
       <c r="B48" s="60"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A49" s="60" t="s">
         <v>292</v>
       </c>
@@ -34213,7 +34219,7 @@
         <v>0.41969767441860467</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A50" s="60" t="s">
         <v>229</v>
       </c>
@@ -34276,7 +34282,7 @@
         <v>3.6210697325668582</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A51" s="60" t="s">
         <v>174</v>
       </c>
@@ -34339,7 +34345,7 @@
         <v>0.16408083441981747</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A52" s="60" t="s">
         <v>62</v>
       </c>
@@ -34402,7 +34408,7 @@
         <v>0.57143723468768948</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A53" s="60" t="s">
         <v>123</v>
       </c>
@@ -34465,7 +34471,7 @@
         <v>0.61897177752104304</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A54" s="60" t="s">
         <v>365</v>
       </c>
@@ -34528,7 +34534,7 @@
         <v>0.58745078740157475</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A55" s="60" t="s">
         <v>366</v>
       </c>
@@ -34591,10 +34597,10 @@
         <v>0.883013435700576</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.5">
       <c r="C56" s="60"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A57" s="60" t="s">
         <v>185</v>
       </c>
@@ -34657,7 +34663,7 @@
         <v>1.1988902340597258</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A58" s="60" t="s">
         <v>368</v>
       </c>
@@ -34720,7 +34726,7 @@
         <v>3.4594017094017095</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A59" s="60" t="s">
         <v>215</v>
       </c>
@@ -34783,7 +34789,7 @@
         <v>1.4542082738944362</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A60" s="60" t="s">
         <v>216</v>
       </c>
@@ -34846,7 +34852,7 @@
         <v>-2.3260981912144705</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A61" s="60" t="s">
         <v>232</v>
       </c>
@@ -34909,7 +34915,7 @@
         <v>0.60089017201972816</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A62" s="60" t="s">
         <v>235</v>
       </c>
@@ -34972,7 +34978,7 @@
         <v>0.94403131115459893</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A63" s="60" t="s">
         <v>239</v>
       </c>
@@ -35035,7 +35041,7 @@
         <v>1.2867476240760296</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A64" s="60" t="s">
         <v>201</v>
       </c>
@@ -35098,7 +35104,7 @@
         <v>2.8540676175382984</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>199</v>
       </c>
@@ -35161,7 +35167,7 @@
         <v>1.8302056555269923</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A66" s="60" t="s">
         <v>202</v>
       </c>
@@ -35224,7 +35230,7 @@
         <v>0.25799242424242375</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A67" s="60" t="s">
         <v>376</v>
       </c>
@@ -35287,7 +35293,7 @@
         <v>0.48689107827038863</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A68" s="60" t="s">
         <v>317</v>
       </c>
@@ -35350,7 +35356,7 @@
         <v>4.4352353780313836</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A69" s="60" t="s">
         <v>315</v>
       </c>
@@ -35413,7 +35419,7 @@
         <v>-0.65514018691588771</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.5">
       <c r="C74" s="60"/>
     </row>
   </sheetData>
@@ -35430,7 +35436,7 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.234375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
@@ -35451,7 +35457,7 @@
     <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -35519,7 +35525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>401</v>
       </c>
@@ -35579,7 +35585,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A3" s="18"/>
       <c r="B3" t="s">
         <v>404</v>
@@ -35633,7 +35639,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A4" s="18"/>
       <c r="B4" t="s">
         <v>406</v>
@@ -35687,7 +35693,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A5" s="18"/>
       <c r="B5" s="87" t="s">
         <v>409</v>
@@ -35745,7 +35751,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A6" s="18"/>
       <c r="B6" t="s">
         <v>417</v>
@@ -35799,7 +35805,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>558</v>
@@ -35850,7 +35856,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A8" s="18"/>
       <c r="B8" s="59" t="s">
         <v>560</v>
@@ -35898,7 +35904,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A9" s="18"/>
       <c r="B9" s="11" t="s">
         <v>565</v>
@@ -35956,7 +35962,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A10" s="18"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -35980,7 +35986,7 @@
       <c r="U10" s="68"/>
       <c r="V10" s="13"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A11" s="19"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
@@ -36006,7 +36012,7 @@
       <c r="U11" s="39"/>
       <c r="V11" s="16"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A12" s="17" t="s">
         <v>397</v>
       </c>
@@ -36055,7 +36061,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A13" s="18"/>
       <c r="B13" s="85" t="s">
         <v>414</v>
@@ -36113,7 +36119,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A14" s="18"/>
       <c r="B14" t="s">
         <v>415</v>
@@ -36159,7 +36165,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A15" s="18"/>
       <c r="B15" s="11" t="s">
         <v>419</v>
@@ -36217,7 +36223,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="11" t="s">
         <v>654</v>
@@ -36275,7 +36281,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="11" t="s">
         <v>656</v>
@@ -36331,7 +36337,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
@@ -36357,7 +36363,7 @@
       <c r="U18" s="39"/>
       <c r="V18" s="16"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A19" s="18" t="s">
         <v>671</v>
       </c>
@@ -36417,7 +36423,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A20" s="18"/>
       <c r="B20" s="59" t="s">
         <v>447</v>
@@ -36475,7 +36481,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A21" s="18"/>
       <c r="B21" s="42"/>
       <c r="C21" s="12"/>
@@ -36499,7 +36505,7 @@
       <c r="U21" s="44"/>
       <c r="V21" s="13"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A22" s="19"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -36523,7 +36529,7 @@
       <c r="U22" s="53"/>
       <c r="V22" s="16"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
         <v>561</v>
       </c>
@@ -36583,7 +36589,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A24" s="18"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -36607,7 +36613,7 @@
       <c r="U24" s="44"/>
       <c r="V24" s="13"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A25" s="19"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -36645,7 +36651,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.234375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
@@ -36666,7 +36672,7 @@
     <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -36734,7 +36740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>603</v>
       </c>
@@ -36794,7 +36800,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A3" s="18"/>
       <c r="B3" s="11" t="s">
         <v>79</v>
@@ -36852,7 +36858,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
         <v>82</v>
@@ -36918,7 +36924,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A5" s="18"/>
       <c r="B5" s="11" t="s">
         <v>85</v>
@@ -36976,7 +36982,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A6" s="18"/>
       <c r="B6" s="11" t="s">
         <v>90</v>
@@ -37034,7 +37040,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="11" t="s">
         <v>93</v>
@@ -37092,7 +37098,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A8" s="18"/>
       <c r="B8" s="59" t="s">
         <v>570</v>
@@ -37150,7 +37156,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A9" s="18"/>
       <c r="B9" s="12" t="s">
         <v>88</v>
@@ -37206,7 +37212,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A10" s="18"/>
       <c r="B10" s="12" t="s">
         <v>423</v>
@@ -37264,7 +37270,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A11" s="18"/>
       <c r="B11" s="81" t="s">
         <v>568</v>
@@ -37322,7 +37328,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A12" s="18"/>
       <c r="B12" s="42" t="s">
         <v>572</v>
@@ -37380,7 +37386,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A13" s="18"/>
       <c r="B13" s="42" t="s">
         <v>577</v>
@@ -37438,7 +37444,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A14" s="18"/>
       <c r="B14" s="42" t="s">
         <v>581</v>
@@ -37492,7 +37498,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A15" s="18"/>
       <c r="B15" s="42" t="s">
         <v>583</v>
@@ -37546,7 +37552,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="42" t="s">
         <v>587</v>
@@ -37598,7 +37604,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="42" t="s">
         <v>589</v>
@@ -37652,7 +37658,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A18" s="18"/>
       <c r="B18" s="81" t="s">
         <v>592</v>
@@ -37710,7 +37716,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A19" s="18"/>
       <c r="B19" s="81" t="s">
         <v>595</v>
@@ -37768,7 +37774,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A20" s="18"/>
       <c r="B20" s="11" t="s">
         <v>598</v>
@@ -37826,7 +37832,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A21" s="18"/>
       <c r="B21" s="85" t="s">
         <v>600</v>
@@ -37884,7 +37890,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A22" s="18"/>
       <c r="B22" s="11" t="s">
         <v>601</v>
@@ -37942,7 +37948,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A23" s="18"/>
       <c r="B23" s="11" t="s">
         <v>604</v>
@@ -37994,7 +38000,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A24" s="18"/>
       <c r="B24" s="11" t="s">
         <v>648</v>
@@ -38052,7 +38058,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A25" s="18"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -38076,7 +38082,7 @@
       <c r="U25" s="15"/>
       <c r="V25" s="16"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A26" s="17" t="s">
         <v>266</v>
       </c>
@@ -38136,7 +38142,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A27" s="18"/>
       <c r="B27" s="85" t="s">
         <v>427</v>
@@ -38194,7 +38200,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A28" s="18"/>
       <c r="B28" s="11" t="s">
         <v>502</v>
@@ -38252,7 +38258,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A29" s="18"/>
       <c r="B29" s="11" t="s">
         <v>505</v>
@@ -38308,7 +38314,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A30" s="18"/>
       <c r="B30" s="11" t="s">
         <v>508</v>
@@ -38364,7 +38370,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A31" s="18"/>
       <c r="B31" s="11" t="s">
         <v>536</v>
@@ -38422,7 +38428,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A32" s="18"/>
       <c r="B32" s="11" t="s">
         <v>527</v>
@@ -38480,7 +38486,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A33" s="18"/>
       <c r="B33" s="11" t="s">
         <v>539</v>
@@ -38535,7 +38541,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A34" s="18"/>
       <c r="B34" s="11" t="s">
         <v>542</v>
@@ -38593,7 +38599,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A35" s="18"/>
       <c r="B35" s="59" t="s">
         <v>529</v>
@@ -38651,7 +38657,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A36" s="19"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
@@ -38675,7 +38681,7 @@
       <c r="U36" s="15"/>
       <c r="V36" s="16"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A37" s="17" t="s">
         <v>501</v>
       </c>
@@ -38733,7 +38739,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A38" s="18"/>
       <c r="B38" s="11" t="s">
         <v>271</v>
@@ -38789,7 +38795,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A39" s="18"/>
       <c r="B39" s="11" t="s">
         <v>273</v>
@@ -38855,7 +38861,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A40" s="18"/>
       <c r="B40" s="11" t="s">
         <v>276</v>
@@ -38911,7 +38917,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A41" s="18"/>
       <c r="B41" s="11" t="s">
         <v>279</v>
@@ -38969,7 +38975,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A42" s="18"/>
       <c r="B42" s="11" t="s">
         <v>546</v>
@@ -39025,7 +39031,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A43" s="18"/>
       <c r="B43" s="11" t="s">
         <v>548</v>
@@ -39083,7 +39089,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A44" s="18"/>
       <c r="B44" s="11" t="s">
         <v>555</v>
@@ -39139,7 +39145,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A45" s="19"/>
       <c r="B45" s="14"/>
       <c r="C45" s="15"/>
@@ -39163,7 +39169,7 @@
       <c r="U45" s="53"/>
       <c r="V45" s="16"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A46" s="17" t="s">
         <v>551</v>
       </c>
@@ -39223,7 +39229,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A47" s="18"/>
       <c r="B47" s="11" t="s">
         <v>295</v>
@@ -39279,7 +39285,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A48" s="18"/>
       <c r="B48" s="11" t="s">
         <v>297</v>
@@ -39343,7 +39349,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A49" s="18"/>
       <c r="B49" s="11" t="s">
         <v>334</v>
@@ -39399,7 +39405,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A50" s="18"/>
       <c r="B50" s="11" t="s">
         <v>425</v>
@@ -39451,7 +39457,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A51" s="18"/>
       <c r="B51" s="11" t="s">
         <v>553</v>
@@ -39504,7 +39510,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A52" s="18"/>
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
@@ -39528,7 +39534,7 @@
       <c r="U52" s="73"/>
       <c r="V52" s="13"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A53" s="19"/>
       <c r="B53" s="14"/>
       <c r="C53" s="15"/>
@@ -39552,7 +39558,7 @@
       <c r="U53" s="53"/>
       <c r="V53" s="16"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A54" s="17" t="s">
         <v>301</v>
       </c>
@@ -39610,7 +39616,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A55" s="18"/>
       <c r="B55" s="11" t="s">
         <v>325</v>
@@ -39666,7 +39672,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A56" s="18"/>
       <c r="B56" s="11" t="s">
         <v>520</v>
@@ -39730,7 +39736,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A57" s="18"/>
       <c r="B57" s="11" t="s">
         <v>523</v>
@@ -39788,7 +39794,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A58" s="18"/>
       <c r="B58" s="11" t="s">
         <v>533</v>
@@ -39838,7 +39844,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A59" s="18"/>
       <c r="B59" s="11" t="s">
         <v>652</v>
@@ -39892,7 +39898,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A60" s="18"/>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
@@ -39916,7 +39922,7 @@
       <c r="U60" s="44"/>
       <c r="V60" s="13"/>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A61" s="19"/>
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
@@ -39940,7 +39946,7 @@
       <c r="U61" s="15"/>
       <c r="V61" s="16"/>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A62" s="17" t="s">
         <v>314</v>
       </c>
@@ -39993,7 +39999,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A63" s="18"/>
       <c r="B63" s="108" t="s">
         <v>318</v>
@@ -40051,7 +40057,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A64" s="18"/>
       <c r="B64" s="59" t="s">
         <v>320</v>
@@ -40115,7 +40121,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A65" s="18"/>
       <c r="B65" s="59" t="s">
         <v>321</v>
@@ -40169,7 +40175,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A66" s="18"/>
       <c r="B66" s="59" t="s">
         <v>323</v>
@@ -40225,7 +40231,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A67" s="19"/>
       <c r="B67" s="14"/>
       <c r="C67" s="15"/>
@@ -40259,11 +40265,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA094863-5102-4C93-A17A-D8A45FDBD33A}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="20.76171875" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
@@ -40285,7 +40291,7 @@
     <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -40353,7 +40359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>125</v>
       </c>
@@ -40413,7 +40419,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A3" s="18"/>
       <c r="B3" s="108" t="s">
         <v>133</v>
@@ -40471,7 +40477,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A4" s="18"/>
       <c r="B4" s="108" t="s">
         <v>134</v>
@@ -40529,7 +40535,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A5" s="18"/>
       <c r="B5" s="11" t="s">
         <v>136</v>
@@ -40579,7 +40585,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A6" s="18"/>
       <c r="B6" s="108" t="s">
         <v>138</v>
@@ -40637,7 +40643,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="11" t="s">
         <v>328</v>
@@ -40695,7 +40701,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A8" s="18"/>
       <c r="B8" s="11" t="s">
         <v>330</v>
@@ -40749,7 +40755,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A9" s="18"/>
       <c r="B9" s="11" t="s">
         <v>666</v>
@@ -40807,7 +40813,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A10" s="18"/>
       <c r="B10" s="11" t="s">
         <v>679</v>
@@ -40865,7 +40871,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A11" s="18"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -40889,7 +40895,7 @@
       <c r="U11" s="44"/>
       <c r="V11" s="13"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A12" s="19"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
@@ -40915,7 +40921,7 @@
       <c r="U12" s="44"/>
       <c r="V12" s="13"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A13" s="17" t="s">
         <v>140</v>
       </c>
@@ -40973,7 +40979,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A14" s="18"/>
       <c r="B14" s="11" t="s">
         <v>286</v>
@@ -41029,7 +41035,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A15" s="18"/>
       <c r="B15" s="11" t="s">
         <v>287</v>
@@ -41085,7 +41091,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -41109,7 +41115,7 @@
       <c r="U16" s="44"/>
       <c r="V16" s="13"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
@@ -41133,7 +41139,7 @@
       <c r="U17" s="44"/>
       <c r="V17" s="13"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
@@ -41159,7 +41165,7 @@
       <c r="U18" s="53"/>
       <c r="V18" s="16"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A19" s="17" t="s">
         <v>510</v>
       </c>
@@ -41219,7 +41225,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A20" s="18"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -41243,7 +41249,7 @@
       <c r="U20" s="12"/>
       <c r="V20" s="13"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A21" s="33"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
@@ -41269,7 +41275,7 @@
       <c r="U21" s="44"/>
       <c r="V21" s="13"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A22" s="19"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
@@ -41307,7 +41313,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.234375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
@@ -41328,7 +41334,7 @@
     <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -41396,7 +41402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>178</v>
       </c>
@@ -41454,7 +41460,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A3" s="18"/>
       <c r="B3" s="11" t="s">
         <v>182</v>
@@ -41512,7 +41518,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A4" s="18"/>
       <c r="B4" s="87" t="s">
         <v>187</v>
@@ -41570,7 +41576,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A5" s="18"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -41594,7 +41600,7 @@
       <c r="U5" s="44"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A6" s="18"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -41618,7 +41624,7 @@
       <c r="U6" s="44"/>
       <c r="V6" s="13"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A7" s="19"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -41642,7 +41648,7 @@
       <c r="U7" s="53"/>
       <c r="V7" s="16"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A8" s="17" t="s">
         <v>188</v>
       </c>
@@ -41702,7 +41708,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A9" s="18"/>
       <c r="B9" s="11" t="s">
         <v>192</v>
@@ -41760,7 +41766,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A10" s="18"/>
       <c r="B10" s="11" t="s">
         <v>194</v>
@@ -41816,7 +41822,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A11" s="18"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -41840,7 +41846,7 @@
       <c r="U11" s="44"/>
       <c r="V11" s="13"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A12" s="18"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -41864,7 +41870,7 @@
       <c r="U12" s="44"/>
       <c r="V12" s="13"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A13" s="19"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
@@ -41888,7 +41894,7 @@
       <c r="U13" s="53"/>
       <c r="V13" s="16"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A14" s="18"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -41912,7 +41918,7 @@
       <c r="U14" s="44"/>
       <c r="V14" s="13"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A15" s="18"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -41935,7 +41941,7 @@
       <c r="U15" s="44"/>
       <c r="V15" s="13"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -41959,7 +41965,7 @@
       <c r="U16" s="44"/>
       <c r="V16" s="13"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
@@ -41983,7 +41989,7 @@
       <c r="U17" s="44"/>
       <c r="V17" s="13"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A18" s="18"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
@@ -42007,7 +42013,7 @@
       <c r="U18" s="44"/>
       <c r="V18" s="13"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A19" s="19"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
@@ -42031,7 +42037,7 @@
       <c r="U19" s="53"/>
       <c r="V19" s="16"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
@@ -42068,7 +42074,7 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.234375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
@@ -42089,7 +42095,7 @@
     <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -42157,7 +42163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -42211,7 +42217,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A3" s="18"/>
       <c r="B3" s="11" t="s">
         <v>154</v>
@@ -42263,7 +42269,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
         <v>156</v>
@@ -42323,7 +42329,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A5" s="18"/>
       <c r="B5" s="11" t="s">
         <v>159</v>
@@ -42375,7 +42381,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A6" s="18"/>
       <c r="B6" s="11" t="s">
         <v>339</v>
@@ -42427,7 +42433,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="11" t="s">
         <v>341</v>
@@ -42481,7 +42487,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A8" s="18"/>
       <c r="B8" s="11" t="s">
         <v>342</v>
@@ -42535,7 +42541,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A9" s="18"/>
       <c r="B9" s="11" t="s">
         <v>343</v>
@@ -42589,7 +42595,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A10" s="19"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -42613,7 +42619,7 @@
       <c r="U10" s="15"/>
       <c r="V10" s="16"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A11" s="17" t="s">
         <v>160</v>
       </c>
@@ -42669,7 +42675,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A12" s="18"/>
       <c r="B12" s="11" t="s">
         <v>164</v>
@@ -42723,7 +42729,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A13" s="18"/>
       <c r="B13" s="48" t="s">
         <v>167</v>
@@ -42787,7 +42793,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A14" s="18"/>
       <c r="B14" s="48" t="s">
         <v>574</v>
@@ -42841,7 +42847,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A15" s="18"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -42864,7 +42870,7 @@
       <c r="U15" s="12"/>
       <c r="V15" s="13"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A16" s="19"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
@@ -42888,7 +42894,7 @@
       <c r="U16" s="15"/>
       <c r="V16" s="16"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A17" s="17" t="s">
         <v>64</v>
       </c>
@@ -42948,7 +42954,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A18" s="18"/>
       <c r="B18" s="11" t="s">
         <v>254</v>
@@ -43006,7 +43012,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A19" s="18"/>
       <c r="B19" s="48" t="s">
         <v>255</v>
@@ -43070,7 +43076,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A20" s="18"/>
       <c r="B20" s="48" t="s">
         <v>670</v>
@@ -43128,7 +43134,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A21" s="19"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
@@ -43152,7 +43158,7 @@
       <c r="U21" s="53"/>
       <c r="V21" s="16"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A22" s="17" t="s">
         <v>258</v>
       </c>
@@ -43212,7 +43218,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A23" s="18"/>
       <c r="B23" s="48"/>
       <c r="C23" s="12"/>
@@ -43236,7 +43242,7 @@
       <c r="U23" s="44"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A24" s="19"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
@@ -43260,7 +43266,7 @@
       <c r="U24" s="53"/>
       <c r="V24" s="16"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A25" s="17" t="s">
         <v>263</v>
       </c>
@@ -43312,7 +43318,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A26" s="18"/>
       <c r="B26" s="48"/>
       <c r="C26" s="12"/>
@@ -43336,7 +43342,7 @@
       <c r="U26" s="44"/>
       <c r="V26" s="13"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A27" s="19"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
@@ -43374,7 +43380,7 @@
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.234375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
@@ -43395,7 +43401,7 @@
     <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -43463,7 +43469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>197</v>
       </c>
@@ -43523,7 +43529,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A3" s="18"/>
       <c r="B3" s="11" t="s">
         <v>200</v>
@@ -43581,7 +43587,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
         <v>204</v>
@@ -43647,7 +43653,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A5" s="18"/>
       <c r="B5" s="11" t="s">
         <v>206</v>
@@ -43703,7 +43709,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A6" s="18"/>
       <c r="B6" s="56" t="s">
         <v>208</v>
@@ -43761,7 +43767,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="11" t="s">
         <v>211</v>
@@ -43819,7 +43825,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A8" s="18"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -43843,7 +43849,7 @@
       <c r="U8" s="73"/>
       <c r="V8" s="13"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>207</v>
@@ -43899,7 +43905,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A10" s="17" t="s">
         <v>213</v>
       </c>
@@ -43957,7 +43963,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A11" s="18"/>
       <c r="B11" s="11" t="s">
         <v>217</v>
@@ -44013,7 +44019,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A12" s="19"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
@@ -44037,7 +44043,7 @@
       <c r="U12" s="53"/>
       <c r="V12" s="16"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A13" s="17" t="s">
         <v>243</v>
       </c>
@@ -44095,7 +44101,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A14" s="18"/>
       <c r="B14" s="11" t="s">
         <v>248</v>
@@ -44151,7 +44157,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A15" s="18"/>
       <c r="B15" s="11" t="s">
         <v>249</v>
@@ -44215,7 +44221,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A16" s="19"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
@@ -44239,7 +44245,7 @@
       <c r="U16" s="76"/>
       <c r="V16" s="16"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A17" s="17" t="s">
         <v>387</v>
       </c>
@@ -44299,7 +44305,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A18" s="18"/>
       <c r="B18" s="11" t="s">
         <v>390</v>
@@ -44357,7 +44363,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A19" s="18"/>
       <c r="B19" s="11" t="s">
         <v>488</v>
@@ -44417,7 +44423,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A20" s="19"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
@@ -44441,7 +44447,7 @@
       <c r="U20" s="76"/>
       <c r="V20" s="16"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A21" s="17" t="s">
         <v>434</v>
       </c>
@@ -44493,7 +44499,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A22" s="18"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -44517,7 +44523,7 @@
       <c r="U22" s="73"/>
       <c r="V22" s="13"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A23" s="18"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -44541,7 +44547,7 @@
       <c r="U23" s="73"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A24" s="19"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
@@ -44573,13 +44579,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B19A25B-F1A6-4E6B-99E7-465E22F90C14}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.234375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
@@ -44600,7 +44606,7 @@
     <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -44668,7 +44674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>220</v>
       </c>
@@ -44724,7 +44730,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A3" s="18"/>
       <c r="B3" s="11" t="s">
         <v>221</v>
@@ -44782,7 +44788,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
         <v>224</v>
@@ -44840,7 +44846,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A5" s="19"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -44864,7 +44870,7 @@
       <c r="U5" s="89"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>227</v>
       </c>
@@ -44924,7 +44930,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -44948,7 +44954,7 @@
       <c r="U7" s="73"/>
       <c r="V7" s="13"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A8" s="18"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -44972,7 +44978,7 @@
       <c r="U8" s="73"/>
       <c r="V8" s="13"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A9" s="19"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -44996,7 +45002,7 @@
       <c r="U9" s="53"/>
       <c r="V9" s="16"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A10" s="17" t="s">
         <v>231</v>
       </c>
@@ -45056,7 +45062,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A11" s="18"/>
       <c r="B11" s="85" t="s">
         <v>234</v>
@@ -45068,10 +45074,10 @@
       <c r="G11" s="81" t="s">
         <v>235</v>
       </c>
-      <c r="H11" s="81">
+      <c r="H11" s="80">
         <v>15.85</v>
       </c>
-      <c r="I11" s="81">
+      <c r="I11" s="80">
         <v>0.8367</v>
       </c>
       <c r="J11" s="81">
@@ -45089,16 +45095,16 @@
       <c r="N11" s="81">
         <v>4.82</v>
       </c>
-      <c r="O11" s="81">
+      <c r="O11" s="82">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="P11" s="81">
+      <c r="P11" s="82">
         <v>0.16120000000000001</v>
       </c>
-      <c r="Q11" s="81">
+      <c r="Q11" s="82">
         <v>0.4123</v>
       </c>
-      <c r="R11" s="81">
+      <c r="R11" s="82">
         <v>0.1993</v>
       </c>
       <c r="S11" s="82">
@@ -45114,7 +45120,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A12" s="18"/>
       <c r="B12" s="11" t="s">
         <v>238</v>
@@ -45172,7 +45178,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A13" s="18"/>
       <c r="B13" s="87" t="s">
         <v>240</v>
@@ -45184,7 +45190,7 @@
       <c r="G13" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="H13" s="87">
+      <c r="H13" s="107">
         <v>103.73</v>
       </c>
       <c r="I13" s="87"/>
@@ -45203,16 +45209,16 @@
       <c r="N13" s="87">
         <v>4.57</v>
       </c>
-      <c r="O13" s="87">
+      <c r="O13" s="100">
         <v>0.39550000000000002</v>
       </c>
-      <c r="P13" s="87">
+      <c r="P13" s="100">
         <v>0.56100000000000005</v>
       </c>
-      <c r="Q13" s="87">
+      <c r="Q13" s="100">
         <v>0.45300000000000001</v>
       </c>
-      <c r="R13" s="87">
+      <c r="R13" s="100">
         <v>0.1089</v>
       </c>
       <c r="S13" s="100">
@@ -45228,7 +45234,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A14" s="18"/>
       <c r="B14" s="11" t="s">
         <v>394</v>
@@ -45284,391 +45290,425 @@
         <v>396</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="19"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="16"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="17" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A15" s="18"/>
+      <c r="B15" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="34" t="s">
+        <v>683</v>
+      </c>
+      <c r="H15" s="24">
+        <v>31.92</v>
+      </c>
+      <c r="I15" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J15" s="42">
+        <v>160.33000000000001</v>
+      </c>
+      <c r="K15" s="12">
+        <v>3.76</v>
+      </c>
+      <c r="L15" s="35">
+        <v>27.93</v>
+      </c>
+      <c r="M15" s="35">
+        <v>18.54</v>
+      </c>
+      <c r="N15" s="42">
+        <v>1.32</v>
+      </c>
+      <c r="O15" s="84">
+        <v>-3.5499999999999997E-2</v>
+      </c>
+      <c r="P15" s="21">
+        <v>-0.19139999999999999</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>0.1341</v>
+      </c>
+      <c r="R15" s="21">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="S15" s="21">
+        <v>0.64180000000000004</v>
+      </c>
+      <c r="T15" s="45">
+        <v>1.32</v>
+      </c>
+      <c r="U15" s="73">
+        <v>241980</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A16" s="19"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="16"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A17" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="28" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H17" s="38">
         <v>104.98</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I17" s="38">
         <v>5.64</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J17" s="9">
         <v>21.87</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K17" s="9">
         <v>12.44</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L17" s="29">
         <v>17.63</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M17" s="29">
         <v>18.43</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N17" s="9">
         <v>7.51</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O17" s="20">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P17" s="20">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q17" s="20">
         <v>0.46710000000000002</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R17" s="20">
         <v>0.58330000000000004</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S17" s="20">
         <v>0.73260000000000003</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T17" s="9">
         <v>3.68</v>
       </c>
-      <c r="U16" s="43">
+      <c r="U17" s="43">
         <v>474270</v>
       </c>
-      <c r="V16" s="10" t="s">
+      <c r="V17" s="10" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="18"/>
-      <c r="B17" s="11" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A18" s="18"/>
+      <c r="B18" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="34" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H18" s="24">
         <v>47.55</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I18" s="24">
         <v>2.99</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J18" s="42">
         <v>17.13</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K18" s="42">
         <v>5.76</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L18" s="35">
         <v>14.95</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M18" s="35">
         <v>12.06</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N18" s="42">
         <v>3.18</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O18" s="21">
         <v>0.1</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P18" s="21">
         <v>0.1623</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q18" s="21">
         <v>0.46139999999999998</v>
       </c>
-      <c r="R17" s="21">
+      <c r="R18" s="21">
         <v>0.3407</v>
       </c>
-      <c r="S17" s="21">
+      <c r="S18" s="21">
         <v>0.6321</v>
       </c>
-      <c r="T17" s="45">
+      <c r="T18" s="45">
         <v>2.5</v>
       </c>
-      <c r="U17" s="73">
+      <c r="U18" s="73">
         <v>682590</v>
       </c>
-      <c r="V17" s="13" t="s">
+      <c r="V18" s="13" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="31"/>
-      <c r="B18" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="34" t="s">
-        <v>497</v>
-      </c>
-      <c r="H18" s="24">
-        <v>275.52999999999997</v>
-      </c>
-      <c r="I18" s="24">
-        <v>3.09</v>
-      </c>
-      <c r="J18" s="12">
-        <v>20.05</v>
-      </c>
-      <c r="K18" s="12">
-        <v>5.33</v>
-      </c>
-      <c r="L18" s="35">
-        <v>13.25</v>
-      </c>
-      <c r="M18" s="35">
-        <v>17.8</v>
-      </c>
-      <c r="N18" s="12">
-        <v>7.07</v>
-      </c>
-      <c r="O18" s="21">
-        <v>8.1799999999999998E-2</v>
-      </c>
-      <c r="P18" s="21">
-        <v>7.8399999999999997E-2</v>
-      </c>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21">
-        <v>0.26519999999999999</v>
-      </c>
-      <c r="S18" s="21"/>
-      <c r="T18" s="12">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="U18" s="44">
-        <v>759380</v>
-      </c>
-      <c r="V18" s="13" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A19" s="31"/>
       <c r="B19" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+        <v>496</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="34" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H19" s="24">
-        <v>14.83</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="42">
-        <v>18.57</v>
-      </c>
-      <c r="K19" s="42">
-        <v>8.5299999999999994</v>
+        <v>275.52999999999997</v>
+      </c>
+      <c r="I19" s="24">
+        <v>3.09</v>
+      </c>
+      <c r="J19" s="12">
+        <v>20.05</v>
+      </c>
+      <c r="K19" s="12">
+        <v>5.33</v>
       </c>
       <c r="L19" s="35">
-        <v>16.3</v>
+        <v>13.25</v>
       </c>
       <c r="M19" s="35">
-        <v>20.010000000000002</v>
-      </c>
-      <c r="N19" s="42">
-        <v>6.75</v>
+        <v>17.8</v>
+      </c>
+      <c r="N19" s="12">
+        <v>7.07</v>
       </c>
       <c r="O19" s="21">
-        <v>-1.1599999999999999E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="P19" s="21">
-        <v>9.4500000000000001E-2</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>0.3584</v>
-      </c>
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="Q19" s="21"/>
       <c r="R19" s="21">
-        <v>0.3407</v>
+        <v>0.26519999999999999</v>
       </c>
       <c r="S19" s="21"/>
-      <c r="T19" s="45">
-        <v>6.6</v>
-      </c>
-      <c r="U19" s="73">
-        <v>308870</v>
+      <c r="T19" s="12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="U19" s="44">
+        <v>759380</v>
       </c>
       <c r="V19" s="13" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A20" s="31"/>
       <c r="B20" s="11" t="s">
-        <v>632</v>
+        <v>499</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="34" t="s">
-        <v>633</v>
+        <v>500</v>
       </c>
       <c r="H20" s="24">
-        <v>36.56</v>
-      </c>
-      <c r="I20" s="24">
-        <v>1.98</v>
-      </c>
+        <v>14.83</v>
+      </c>
+      <c r="I20" s="24"/>
       <c r="J20" s="42">
-        <v>18.100000000000001</v>
+        <v>18.57</v>
       </c>
       <c r="K20" s="42">
-        <v>7.84</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="L20" s="35">
-        <v>15.39</v>
+        <v>16.3</v>
       </c>
       <c r="M20" s="35">
-        <v>14.23</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="N20" s="42">
-        <v>3.78</v>
+        <v>6.75</v>
       </c>
       <c r="O20" s="21">
-        <v>0.15939999999999999</v>
+        <v>-1.1599999999999999E-2</v>
       </c>
       <c r="P20" s="21">
-        <v>0.22020000000000001</v>
+        <v>9.4500000000000001E-2</v>
       </c>
       <c r="Q20" s="21">
-        <v>0.2913</v>
+        <v>0.3584</v>
       </c>
       <c r="R20" s="21">
-        <v>0.45269999999999999</v>
-      </c>
-      <c r="S20" s="21">
-        <v>1.1568000000000001</v>
-      </c>
+        <v>0.3407</v>
+      </c>
+      <c r="S20" s="21"/>
       <c r="T20" s="45">
-        <v>3.71</v>
+        <v>6.6</v>
       </c>
       <c r="U20" s="73">
-        <v>898510</v>
+        <v>308870</v>
       </c>
       <c r="V20" s="13" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A21" s="31"/>
-      <c r="B21" s="12"/>
+      <c r="B21" s="11" t="s">
+        <v>632</v>
+      </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="13"/>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="19"/>
-      <c r="V22" s="16"/>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="17"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="10"/>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="18"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="13"/>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="G21" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="H21" s="24">
+        <v>36.56</v>
+      </c>
+      <c r="I21" s="24">
+        <v>1.98</v>
+      </c>
+      <c r="J21" s="42">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K21" s="42">
+        <v>7.84</v>
+      </c>
+      <c r="L21" s="35">
+        <v>15.39</v>
+      </c>
+      <c r="M21" s="35">
+        <v>14.23</v>
+      </c>
+      <c r="N21" s="42">
+        <v>3.78</v>
+      </c>
+      <c r="O21" s="21">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="P21" s="21">
+        <v>0.22020000000000001</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>0.2913</v>
+      </c>
+      <c r="R21" s="21">
+        <v>0.45269999999999999</v>
+      </c>
+      <c r="S21" s="21">
+        <v>1.1568000000000001</v>
+      </c>
+      <c r="T21" s="45">
+        <v>3.71</v>
+      </c>
+      <c r="U21" s="73">
+        <v>898510</v>
+      </c>
+      <c r="V21" s="13" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A22" s="31"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="13"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A23" s="19"/>
+      <c r="V23" s="16"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A24" s="17"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="10"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A25" s="18"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
@@ -45678,11 +45718,11 @@
       <c r="G25" s="34"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="35"/>
       <c r="M25" s="35"/>
-      <c r="N25" s="12"/>
+      <c r="N25" s="42"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
@@ -45692,29 +45732,53 @@
       <c r="U25" s="73"/>
       <c r="V25" s="13"/>
     </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="19"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="16"/>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A26" s="18"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="13"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A27" s="19"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45730,7 +45794,7 @@
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.234375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
@@ -45751,7 +45815,7 @@
     <col min="22" max="22" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -45819,7 +45883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>615</v>
       </c>
@@ -45875,7 +45939,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A3" s="18"/>
       <c r="B3" s="11" t="s">
         <v>610</v>
@@ -45933,7 +45997,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A4" s="18"/>
       <c r="B4" s="103" t="s">
         <v>613</v>
@@ -45985,7 +46049,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A5" s="18"/>
       <c r="B5" s="11" t="s">
         <v>616</v>
@@ -46039,7 +46103,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A6" s="18"/>
       <c r="B6" s="11" t="s">
         <v>618</v>
@@ -46093,7 +46157,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="11" t="s">
         <v>621</v>
@@ -46143,7 +46207,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A8" s="18"/>
       <c r="B8" s="11" t="s">
         <v>623</v>
@@ -46195,7 +46259,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A9" s="18"/>
       <c r="B9" s="11" t="s">
         <v>627</v>
@@ -46249,7 +46313,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A10" s="18"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -46273,7 +46337,7 @@
       <c r="U10" s="44"/>
       <c r="V10" s="13"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A11" s="19"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
@@ -46297,7 +46361,7 @@
       <c r="U11" s="53"/>
       <c r="V11" s="16"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A12" s="17" t="s">
         <v>628</v>
       </c>
@@ -46353,7 +46417,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A13" s="18"/>
       <c r="B13" s="11" t="s">
         <v>676</v>
@@ -46411,7 +46475,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A14" s="18"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -46435,7 +46499,7 @@
       <c r="U14" s="44"/>
       <c r="V14" s="13"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A15" s="18"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -46459,7 +46523,7 @@
       <c r="U15" s="44"/>
       <c r="V15" s="13"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -46483,7 +46547,7 @@
       <c r="U16" s="44"/>
       <c r="V16" s="13"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A17" s="19"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -46507,7 +46571,7 @@
       <c r="U17" s="53"/>
       <c r="V17" s="16"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A18" s="18"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
@@ -46531,7 +46595,7 @@
       <c r="U18" s="44"/>
       <c r="V18" s="13"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A19" s="18"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -46554,7 +46618,7 @@
       <c r="U19" s="44"/>
       <c r="V19" s="13"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A20" s="18"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -46578,7 +46642,7 @@
       <c r="U20" s="44"/>
       <c r="V20" s="13"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A21" s="18"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
@@ -46602,7 +46666,7 @@
       <c r="U21" s="44"/>
       <c r="V21" s="13"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A22" s="18"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -46626,7 +46690,7 @@
       <c r="U22" s="44"/>
       <c r="V22" s="13"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A23" s="19"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>

--- a/Stock/US_Stock.xlsx
+++ b/Stock/US_Stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D08658-B0E1-4AE1-BAF0-EFA29A05FE93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E4D43E-B5CD-4C16-80B1-9472B1A1D65D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19058" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="14" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="714">
   <si>
     <t>代码</t>
   </si>
@@ -2118,6 +2118,96 @@
   </si>
   <si>
     <t>ERIC</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>SNOW</t>
+  </si>
+  <si>
+    <t>OSTK</t>
+  </si>
+  <si>
+    <t>BIGC</t>
+  </si>
+  <si>
+    <t>Edge and CDN</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>SNOWFLAKE INC</t>
+  </si>
+  <si>
+    <t>MONGODB INC</t>
+  </si>
+  <si>
+    <t>CLOUDERA INC</t>
+  </si>
+  <si>
+    <t>Gross Margin (TTM)</t>
+  </si>
+  <si>
+    <t>CLOUDFLARE INC</t>
+  </si>
+  <si>
+    <t>AKAMAI TECHNOLOGIES INC</t>
+  </si>
+  <si>
+    <t>UNITY SOFTWARE INC</t>
+  </si>
+  <si>
+    <t>Game engine</t>
+  </si>
+  <si>
+    <t>OVERSTOCKCOM INC</t>
+  </si>
+  <si>
+    <t>BIGCOMMERCE HOLDINGS INC</t>
+  </si>
+  <si>
+    <t>ETSY</t>
+  </si>
+  <si>
+    <t>ETSY INC</t>
+  </si>
+  <si>
+    <t>CHWY</t>
+  </si>
+  <si>
+    <t>CHEWY INC</t>
+  </si>
+  <si>
+    <t>KINGSOFT CLOUD</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>CHGG</t>
+  </si>
+  <si>
+    <t>CHEGG INC</t>
+  </si>
+  <si>
+    <t>Loan Company</t>
+  </si>
+  <si>
+    <t>ROCKET COMPANIES INC</t>
+  </si>
+  <si>
+    <t>RKT</t>
+  </si>
+  <si>
+    <t>MELI</t>
+  </si>
+  <si>
+    <t>MERCADOLIBRE INC</t>
   </si>
 </sst>
 </file>
@@ -2387,7 +2477,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2552,6 +2642,9 @@
     <xf numFmtId="4" fontId="0" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2868,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B4BCA-42DA-4C85-9005-E70B6BE65D74}">
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -2889,14 +2982,14 @@
     <col min="13" max="13" width="22.29296875" customWidth="1"/>
     <col min="14" max="14" width="20.234375" customWidth="1"/>
     <col min="15" max="15" width="30.05859375" customWidth="1"/>
-    <col min="16" max="16" width="39.234375" customWidth="1"/>
-    <col min="17" max="18" width="23.76171875" customWidth="1"/>
-    <col min="19" max="19" width="27.76171875" customWidth="1"/>
-    <col min="20" max="21" width="23.76171875" customWidth="1"/>
-    <col min="22" max="22" width="76.05859375" customWidth="1"/>
+    <col min="16" max="17" width="39.234375" customWidth="1"/>
+    <col min="18" max="19" width="23.76171875" customWidth="1"/>
+    <col min="20" max="20" width="27.76171875" customWidth="1"/>
+    <col min="21" max="22" width="23.76171875" customWidth="1"/>
+    <col min="23" max="23" width="76.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -2946,25 +3039,28 @@
         <v>19</v>
       </c>
       <c r="Q1" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:23" ht="14.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>35</v>
       </c>
@@ -3005,26 +3101,27 @@
       <c r="P2" s="111">
         <v>0.14069999999999999</v>
       </c>
-      <c r="Q2" s="111">
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111">
         <v>0.45700000000000002</v>
       </c>
-      <c r="R2" s="111">
+      <c r="S2" s="111">
         <v>0.4289</v>
       </c>
-      <c r="S2" s="111">
+      <c r="T2" s="111">
         <v>0.79149999999999998</v>
       </c>
-      <c r="T2" s="108">
+      <c r="U2" s="108">
         <v>2.77</v>
       </c>
-      <c r="U2" s="110">
+      <c r="V2" s="110">
         <v>963190</v>
       </c>
-      <c r="V2" s="112" t="s">
+      <c r="W2" s="112" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A3" s="18"/>
       <c r="B3" s="108" t="s">
         <v>2</v>
@@ -3063,26 +3160,27 @@
       <c r="P3" s="111">
         <v>0.50409999999999999</v>
       </c>
-      <c r="Q3" s="111">
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111">
         <v>0.13020000000000001</v>
       </c>
-      <c r="R3" s="111">
+      <c r="S3" s="111">
         <v>0.2107</v>
       </c>
-      <c r="S3" s="111">
+      <c r="T3" s="111">
         <v>1.2494000000000001</v>
       </c>
-      <c r="T3" s="108">
+      <c r="U3" s="108">
         <v>2.12</v>
       </c>
-      <c r="U3" s="110">
+      <c r="V3" s="110">
         <v>371270</v>
       </c>
-      <c r="V3" s="112" t="s">
+      <c r="W3" s="112" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
         <v>8</v>
@@ -3129,26 +3227,27 @@
       <c r="P4" s="21">
         <v>0.4052</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21">
         <v>0.15429999999999999</v>
       </c>
-      <c r="R4" s="21">
+      <c r="S4" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S4" s="21">
+      <c r="T4" s="21">
         <v>0.1847</v>
       </c>
-      <c r="T4" s="12">
+      <c r="U4" s="12">
         <v>1.02</v>
       </c>
-      <c r="U4" s="24">
+      <c r="V4" s="24">
         <v>344000</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="W4" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A5" s="18"/>
       <c r="B5" s="11" t="s">
         <v>26</v>
@@ -3187,26 +3286,27 @@
       <c r="P5" s="21">
         <v>0.19939999999999999</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21">
         <v>0.2974</v>
       </c>
-      <c r="R5" s="21">
+      <c r="S5" s="21">
         <v>0.1779</v>
       </c>
-      <c r="S5" s="21">
+      <c r="T5" s="21">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="T5" s="12">
+      <c r="U5" s="12">
         <v>3.75</v>
       </c>
-      <c r="U5" s="24">
+      <c r="V5" s="24">
         <v>1401840</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="W5" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A6" s="18"/>
       <c r="B6" s="87" t="s">
         <v>7</v>
@@ -3245,26 +3345,27 @@
       <c r="P6" s="100">
         <v>0.42099999999999999</v>
       </c>
-      <c r="Q6" s="100">
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100">
         <v>0.49120000000000003</v>
       </c>
-      <c r="R6" s="100">
+      <c r="S6" s="100">
         <v>0.19969999999999999</v>
       </c>
-      <c r="S6" s="100">
+      <c r="T6" s="100">
         <v>0.10489999999999999</v>
       </c>
-      <c r="T6" s="87">
+      <c r="U6" s="87">
         <v>4.67</v>
       </c>
-      <c r="U6" s="107">
+      <c r="V6" s="107">
         <v>1632260</v>
       </c>
-      <c r="V6" s="83" t="s">
+      <c r="W6" s="83" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A7" s="31"/>
       <c r="B7" s="11" t="s">
         <v>45</v>
@@ -3301,26 +3402,27 @@
       <c r="P7" s="21">
         <v>0.3584</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21">
         <v>0.25929999999999997</v>
       </c>
-      <c r="R7" s="21">
+      <c r="S7" s="21">
         <v>0.2944</v>
       </c>
-      <c r="S7" s="21">
+      <c r="T7" s="21">
         <v>0.16450000000000001</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>1.47</v>
       </c>
-      <c r="U7" s="24">
+      <c r="V7" s="24">
         <v>703600</v>
       </c>
-      <c r="V7" s="13" t="s">
+      <c r="W7" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A8" s="31"/>
       <c r="B8" s="11" t="s">
         <v>58</v>
@@ -3360,23 +3462,24 @@
         <v>0.41670000000000001</v>
       </c>
       <c r="Q8" s="21"/>
-      <c r="R8" s="21">
+      <c r="R8" s="21"/>
+      <c r="S8" s="21">
         <v>1.3802000000000001</v>
       </c>
-      <c r="S8" s="21">
+      <c r="T8" s="21">
         <v>0.95050000000000001</v>
       </c>
-      <c r="T8" s="12">
+      <c r="U8" s="12">
         <v>0.75</v>
       </c>
-      <c r="U8" s="24">
+      <c r="V8" s="24">
         <v>348740</v>
       </c>
-      <c r="V8" s="13" t="s">
+      <c r="W8" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A9" s="31"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -3396,11 +3499,12 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
-      <c r="T9" s="15"/>
+      <c r="T9" s="22"/>
       <c r="U9" s="15"/>
-      <c r="V9" s="16"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="V9" s="15"/>
+      <c r="W9" s="16"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A10" s="26" t="s">
         <v>172</v>
       </c>
@@ -3435,26 +3539,27 @@
       <c r="P10" s="95">
         <v>0.38279999999999997</v>
       </c>
-      <c r="Q10" s="95">
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95">
         <v>-6.6799999999999998E-2</v>
       </c>
-      <c r="R10" s="95">
+      <c r="S10" s="95">
         <v>-4.9299999999999997E-2</v>
       </c>
-      <c r="S10" s="95">
+      <c r="T10" s="95">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="T10" s="92">
+      <c r="U10" s="92">
         <v>10.65</v>
       </c>
-      <c r="U10" s="94">
+      <c r="V10" s="94">
         <v>315630</v>
       </c>
-      <c r="V10" s="88" t="s">
+      <c r="W10" s="88" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A11" s="31"/>
       <c r="B11" s="85" t="s">
         <v>173</v>
@@ -3493,26 +3598,27 @@
       <c r="P11" s="82">
         <v>1.8495999999999999</v>
       </c>
-      <c r="Q11" s="82">
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82">
         <v>0.20250000000000001</v>
       </c>
-      <c r="R11" s="82">
+      <c r="S11" s="82">
         <v>0.2094</v>
       </c>
-      <c r="S11" s="82">
+      <c r="T11" s="82">
         <v>0.30930000000000002</v>
       </c>
-      <c r="T11" s="81">
+      <c r="U11" s="81">
         <v>1.61</v>
       </c>
-      <c r="U11" s="80">
+      <c r="V11" s="80">
         <v>504620</v>
       </c>
-      <c r="V11" s="83" t="s">
+      <c r="W11" s="83" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A12" s="31"/>
       <c r="B12" s="11" t="s">
         <v>176</v>
@@ -3545,26 +3651,27 @@
       <c r="P12" s="21">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21">
         <v>-4.0300000000000002E-2</v>
       </c>
-      <c r="R12" s="21">
+      <c r="S12" s="21">
         <v>-0.12089999999999999</v>
       </c>
-      <c r="S12" s="21">
+      <c r="T12" s="21">
         <v>0.60019999999999996</v>
       </c>
-      <c r="T12" s="45">
+      <c r="U12" s="45">
         <v>2.62</v>
       </c>
-      <c r="U12" s="97">
+      <c r="V12" s="97">
         <v>684190</v>
       </c>
-      <c r="V12" s="13" t="s">
+      <c r="W12" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A13" s="31"/>
       <c r="B13" s="11" t="s">
         <v>70</v>
@@ -3599,26 +3706,27 @@
       <c r="P13" s="46">
         <v>0.11360000000000001</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46">
         <v>0.111</v>
       </c>
-      <c r="R13" s="46">
+      <c r="S13" s="46">
         <v>7.3899999999999993E-2</v>
       </c>
-      <c r="S13" s="46">
+      <c r="T13" s="46">
         <v>1.7283999999999999</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>2.8</v>
       </c>
-      <c r="U13" s="68">
+      <c r="V13" s="68">
         <v>348260</v>
       </c>
-      <c r="V13" s="13" t="s">
+      <c r="W13" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A14" s="31"/>
       <c r="B14" s="11" t="s">
         <v>114</v>
@@ -3651,26 +3759,27 @@
       <c r="P14" s="21">
         <v>0.77390000000000003</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="R14" s="21">
+      <c r="S14" s="21">
         <v>-0.3468</v>
       </c>
-      <c r="S14" s="21">
+      <c r="T14" s="21">
         <v>1.4045000000000001</v>
       </c>
-      <c r="T14" s="45">
+      <c r="U14" s="45">
         <v>1.1200000000000001</v>
       </c>
-      <c r="U14" s="97">
+      <c r="V14" s="97">
         <v>419880</v>
       </c>
-      <c r="V14" s="13" t="s">
+      <c r="W14" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A15" s="31"/>
       <c r="B15" s="11" t="s">
         <v>112</v>
@@ -3703,26 +3812,27 @@
       <c r="P15" s="21">
         <v>0.51060000000000005</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21">
         <v>-0.21479999999999999</v>
       </c>
-      <c r="R15" s="21">
+      <c r="S15" s="21">
         <v>-7.5899999999999995E-2</v>
       </c>
-      <c r="S15" s="21">
+      <c r="T15" s="21">
         <v>0.14960000000000001</v>
       </c>
-      <c r="T15" s="45">
+      <c r="U15" s="45">
         <v>8.56</v>
       </c>
-      <c r="U15" s="97">
+      <c r="V15" s="97">
         <v>390520</v>
       </c>
-      <c r="V15" s="13" t="s">
+      <c r="W15" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A16" s="31"/>
       <c r="B16" s="11" t="s">
         <v>73</v>
@@ -3759,194 +3869,381 @@
       <c r="P16" s="21">
         <v>1.0944</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="R16" s="21">
+      <c r="S16" s="21">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="S16" s="21">
+      <c r="T16" s="21">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="T16" s="12">
+      <c r="U16" s="12">
         <v>3.63</v>
       </c>
-      <c r="U16" s="24">
+      <c r="V16" s="24">
         <v>245920</v>
       </c>
-      <c r="V16" s="13" t="s">
+      <c r="W16" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A17" s="31"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>697</v>
+      </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="24"/>
+      <c r="G17" s="34" t="s">
+        <v>684</v>
+      </c>
+      <c r="H17" s="24">
+        <v>40</v>
+      </c>
       <c r="I17" s="24"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="12"/>
+      <c r="K17" s="12">
+        <v>61.58</v>
+      </c>
       <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="13"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="M17" s="12">
+        <v>-74.94</v>
+      </c>
+      <c r="N17" s="12">
+        <v>45.62</v>
+      </c>
+      <c r="O17" s="21">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="P17" s="21">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="R17" s="21">
+        <v>-0.18690000000000001</v>
+      </c>
+      <c r="S17" s="21">
+        <v>-0.47410000000000002</v>
+      </c>
+      <c r="T17" s="21">
+        <v>6.13E-2</v>
+      </c>
+      <c r="U17" s="12">
+        <v>2.77</v>
+      </c>
+      <c r="V17" s="24"/>
+      <c r="W17" s="13" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A18" s="31"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="42"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="13"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A19" s="31"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="13"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A19" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="H19" s="38">
+        <v>2.96</v>
+      </c>
+      <c r="I19" s="38">
+        <v>0.18734999999999999</v>
+      </c>
+      <c r="J19" s="9">
+        <v>330.14</v>
+      </c>
+      <c r="K19" s="49">
+        <v>15.85</v>
+      </c>
+      <c r="L19" s="9">
+        <v>59.88</v>
+      </c>
+      <c r="M19" s="9">
+        <v>23.92</v>
+      </c>
+      <c r="N19" s="9">
+        <v>1.26</v>
+      </c>
+      <c r="O19" s="20">
+        <v>-5.1000000000000004E-3</v>
+      </c>
+      <c r="P19" s="20">
+        <v>0.27929999999999999</v>
+      </c>
+      <c r="Q19" s="20">
+        <v>0.22520000000000001</v>
+      </c>
+      <c r="R19" s="20">
+        <v>1.35E-2</v>
+      </c>
+      <c r="S19" s="20">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="T19" s="20">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="U19" s="9">
+        <v>1.18</v>
+      </c>
+      <c r="V19" s="38">
+        <v>1386640</v>
+      </c>
+      <c r="W19" s="10"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A20" s="31"/>
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>700</v>
+      </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="24"/>
+      <c r="G20" s="34" t="s">
+        <v>687</v>
+      </c>
+      <c r="H20" s="24">
+        <v>5.43</v>
+      </c>
       <c r="I20" s="24"/>
       <c r="J20" s="40"/>
       <c r="K20" s="42"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="13"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="M20" s="42">
+        <v>-133.72999999999999</v>
+      </c>
+      <c r="N20" s="42">
+        <v>24.45</v>
+      </c>
+      <c r="O20" s="21">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="P20" s="21">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>0.79479999999999995</v>
+      </c>
+      <c r="R20" s="21">
+        <v>-0.2243</v>
+      </c>
+      <c r="S20" s="21">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="T20" s="21">
+        <v>0.24210000000000001</v>
+      </c>
+      <c r="U20" s="45">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V20" s="24">
+        <v>203250</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A21" s="31"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="13"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="B21" s="120" t="s">
+        <v>702</v>
+      </c>
+      <c r="G21" t="s">
+        <v>701</v>
+      </c>
+      <c r="H21" s="68">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="I21" s="68">
+        <v>0.50665000000000004</v>
+      </c>
+      <c r="J21">
+        <v>89.19</v>
+      </c>
+      <c r="K21">
+        <v>38.57</v>
+      </c>
+      <c r="L21">
+        <v>66.11</v>
+      </c>
+      <c r="M21">
+        <v>46.91</v>
+      </c>
+      <c r="N21">
+        <v>14.02</v>
+      </c>
+      <c r="O21" s="21">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="P21" s="21">
+        <v>1.3566</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>0.75009999999999999</v>
+      </c>
+      <c r="R21" s="21">
+        <v>0.2545</v>
+      </c>
+      <c r="S21" s="21">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="T21" s="21">
+        <v>1.6651</v>
+      </c>
+      <c r="U21">
+        <v>4.88</v>
+      </c>
+      <c r="V21" s="68">
+        <v>1111510</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A22" s="31"/>
-      <c r="B22" s="11"/>
+      <c r="B22" s="11" t="s">
+        <v>704</v>
+      </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="G22" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="H22" s="24">
+        <v>30.1</v>
+      </c>
+      <c r="I22" s="24">
+        <v>-2.6429999999999999E-2</v>
+      </c>
       <c r="J22" s="40"/>
       <c r="K22" s="42"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="13"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="M22" s="42">
+        <v>-305.12</v>
+      </c>
+      <c r="N22" s="42">
+        <v>5.05</v>
+      </c>
+      <c r="O22" s="21">
+        <v>0.18160000000000001</v>
+      </c>
+      <c r="P22" s="21">
+        <v>-7.3899999999999993E-2</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>0.24210000000000001</v>
+      </c>
+      <c r="R22" s="21">
+        <v>-3.1800000000000002E-2</v>
+      </c>
+      <c r="S22" s="21">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="T22" s="21">
+        <v>-0.73509999999999998</v>
+      </c>
+      <c r="U22" s="45">
+        <v>0.59</v>
+      </c>
+      <c r="V22" s="68">
+        <v>492130</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A23" s="31"/>
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>713</v>
+      </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="13"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="G23" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="H23" s="24">
+        <v>75.3</v>
+      </c>
+      <c r="I23" s="24">
+        <v>0.80840999999999996</v>
+      </c>
+      <c r="J23" s="40"/>
+      <c r="K23" s="42">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="L23" s="42">
+        <v>844.52</v>
+      </c>
+      <c r="M23" s="42">
+        <v>435.27</v>
+      </c>
+      <c r="N23" s="42">
+        <v>22.67</v>
+      </c>
+      <c r="O23" s="21">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="P23" s="21">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>0.4884</v>
+      </c>
+      <c r="R23" s="21">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="S23" s="21">
+        <v>-4.3E-3</v>
+      </c>
+      <c r="T23" s="21">
+        <v>0.83909999999999996</v>
+      </c>
+      <c r="U23" s="45">
+        <v>1.89</v>
+      </c>
+      <c r="V23" s="68">
+        <v>342210</v>
+      </c>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A24" s="31"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -3967,3180 +4264,3979 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="13"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="U24" s="12"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A25" s="31"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="13"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A26" s="31"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="13"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="16"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A26" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="38">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I26" s="38">
+        <v>4.0160000000000001E-2</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="49">
+        <v>55.63</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9">
+        <v>30.7</v>
+      </c>
+      <c r="O26" s="20">
+        <v>0.46820000000000001</v>
+      </c>
+      <c r="P26" s="20">
+        <v>0.2059</v>
+      </c>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20">
+        <v>-0.28079999999999999</v>
+      </c>
+      <c r="S26" s="20">
+        <v>-0.64580000000000004</v>
+      </c>
+      <c r="T26" s="20">
+        <v>2.7242999999999999</v>
+      </c>
+      <c r="U26" s="9">
+        <v>2</v>
+      </c>
+      <c r="V26" s="9"/>
+      <c r="W26" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A27" s="31"/>
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>309</v>
+      </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="G27" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="H27" s="24">
+        <v>15.33</v>
+      </c>
+      <c r="I27" s="24">
+        <v>1.2460000000000001E-2</v>
+      </c>
+      <c r="J27" s="40"/>
+      <c r="K27" s="42">
+        <v>35.58</v>
+      </c>
       <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="13"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="M27" s="42">
+        <v>-179.93</v>
+      </c>
+      <c r="N27" s="42">
+        <v>31.45</v>
+      </c>
+      <c r="O27" s="21">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="P27" s="21">
+        <v>-1.5299999999999999E-2</v>
+      </c>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21">
+        <v>-0.25459999999999999</v>
+      </c>
+      <c r="S27" s="21">
+        <v>-0.3332</v>
+      </c>
+      <c r="T27" s="21"/>
+      <c r="U27" s="45">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V27" s="45"/>
+      <c r="W27" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A28" s="31"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="13"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="B28" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="G28" t="s">
+        <v>440</v>
+      </c>
+      <c r="H28" s="68">
+        <v>1.89</v>
+      </c>
+      <c r="I28" s="68">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="K28">
+        <v>2.94</v>
+      </c>
+      <c r="L28">
+        <v>59.19</v>
+      </c>
+      <c r="M28">
+        <v>43.53</v>
+      </c>
+      <c r="N28">
+        <v>7.67</v>
+      </c>
+      <c r="O28" s="21">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="P28" s="21">
+        <v>-8.14E-2</v>
+      </c>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21">
+        <v>0.1797</v>
+      </c>
+      <c r="S28" s="21">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="T28" s="21">
+        <v>7.17E-2</v>
+      </c>
+      <c r="U28">
+        <v>3.36</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A29" s="31"/>
-      <c r="B29" s="11"/>
+      <c r="B29" s="11" t="s">
+        <v>452</v>
+      </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="13"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="G29" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H29" s="24">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I29" s="24">
+        <v>0.13303000000000001</v>
+      </c>
+      <c r="J29" s="40">
+        <v>62.38</v>
+      </c>
+      <c r="K29" s="42">
+        <v>10.88</v>
+      </c>
+      <c r="L29" s="42">
+        <v>12.11</v>
+      </c>
+      <c r="M29" s="42">
+        <v>40.72</v>
+      </c>
+      <c r="N29" s="42">
+        <v>12.73</v>
+      </c>
+      <c r="O29" s="21">
+        <v>0.19209999999999999</v>
+      </c>
+      <c r="P29" s="21">
+        <v>0.18990000000000001</v>
+      </c>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21">
+        <v>0.32929999999999998</v>
+      </c>
+      <c r="S29" s="21">
+        <v>0.18429999999999999</v>
+      </c>
+      <c r="T29" s="21">
+        <v>0.1341</v>
+      </c>
+      <c r="U29" s="45">
+        <v>1.8</v>
+      </c>
+      <c r="V29" s="45"/>
+      <c r="W29" s="13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A30" s="31"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="13"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A31" s="31"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="16"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A32" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="H32" s="38">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="I32" s="38">
-        <v>4.0160000000000001E-2</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="49">
-        <v>55.63</v>
-      </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9">
-        <v>30.7</v>
-      </c>
-      <c r="O32" s="20">
-        <v>0.46820000000000001</v>
-      </c>
-      <c r="P32" s="20">
-        <v>0.2059</v>
-      </c>
-      <c r="Q32" s="20">
-        <v>-0.28079999999999999</v>
-      </c>
-      <c r="R32" s="20">
-        <v>-0.64580000000000004</v>
-      </c>
-      <c r="S32" s="20">
-        <v>2.7242999999999999</v>
-      </c>
-      <c r="T32" s="9">
-        <v>2</v>
-      </c>
-      <c r="U32" s="9"/>
-      <c r="V32" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="G30" s="2"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A31" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="H31" s="38">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I31" s="38">
+        <v>1.76</v>
+      </c>
+      <c r="J31" s="9">
+        <v>12.01</v>
+      </c>
+      <c r="K31" s="49">
+        <v>5.13</v>
+      </c>
+      <c r="L31" s="9">
+        <v>11.29</v>
+      </c>
+      <c r="M31" s="9">
+        <v>21.56</v>
+      </c>
+      <c r="N31" s="9">
+        <v>6.24</v>
+      </c>
+      <c r="O31" s="20">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="P31" s="20">
+        <v>0.40920000000000001</v>
+      </c>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20">
+        <v>0.2611</v>
+      </c>
+      <c r="S31" s="20">
+        <v>0.43190000000000001</v>
+      </c>
+      <c r="T31" s="20">
+        <v>0.1711</v>
+      </c>
+      <c r="U31" s="9">
+        <v>3.08</v>
+      </c>
+      <c r="V31" s="38">
+        <v>555460</v>
+      </c>
+      <c r="W31" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A32" s="31"/>
+      <c r="B32" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="H32" s="24">
+        <v>48.99</v>
+      </c>
+      <c r="I32" s="24">
+        <v>1.72</v>
+      </c>
+      <c r="J32" s="40">
+        <v>32.68</v>
+      </c>
+      <c r="K32" s="42">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="L32" s="42">
+        <v>23.6</v>
+      </c>
+      <c r="M32" s="42">
+        <v>18.2</v>
+      </c>
+      <c r="N32" s="42">
+        <v>7.54</v>
+      </c>
+      <c r="O32" s="21">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="P32" s="21">
+        <v>0.1162</v>
+      </c>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="S32" s="21">
+        <v>0.1237</v>
+      </c>
+      <c r="T32" s="21">
+        <v>0.23019999999999999</v>
+      </c>
+      <c r="U32" s="45">
+        <v>2.91</v>
+      </c>
+      <c r="V32" s="24">
+        <v>705330</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A33" s="31"/>
       <c r="B33" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="H33" s="24">
-        <v>15.33</v>
-      </c>
-      <c r="I33" s="24">
-        <v>1.2460000000000001E-2</v>
-      </c>
-      <c r="J33" s="40"/>
-      <c r="K33" s="42">
-        <v>35.58</v>
-      </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="42">
-        <v>-179.93</v>
-      </c>
-      <c r="N33" s="42">
-        <v>31.45</v>
+        <v>485</v>
+      </c>
+      <c r="G33" t="s">
+        <v>486</v>
+      </c>
+      <c r="H33" s="68">
+        <v>7.16</v>
+      </c>
+      <c r="I33" s="68">
+        <v>0.23919000000000001</v>
+      </c>
+      <c r="J33" s="47">
+        <v>188.5</v>
+      </c>
+      <c r="K33">
+        <v>3.85</v>
+      </c>
+      <c r="L33">
+        <v>58.53</v>
+      </c>
+      <c r="M33">
+        <v>111.05</v>
+      </c>
+      <c r="N33">
+        <v>5.37</v>
       </c>
       <c r="O33" s="21">
-        <v>0.32300000000000001</v>
+        <v>0.13869999999999999</v>
       </c>
       <c r="P33" s="21">
-        <v>-1.5299999999999999E-2</v>
-      </c>
-      <c r="Q33" s="21">
-        <v>-0.25459999999999999</v>
-      </c>
+        <v>-3.2300000000000002E-2</v>
+      </c>
+      <c r="Q33" s="21"/>
       <c r="R33" s="21">
-        <v>-0.3332</v>
-      </c>
-      <c r="S33" s="21"/>
-      <c r="T33" s="45">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="U33" s="45"/>
-      <c r="V33" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.5">
+        <v>4.3E-3</v>
+      </c>
+      <c r="S33" s="21">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="T33" s="21">
+        <v>0.36270000000000002</v>
+      </c>
+      <c r="U33">
+        <v>1.73</v>
+      </c>
+      <c r="V33" s="68">
+        <v>701890</v>
+      </c>
+      <c r="W33" s="13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A34" s="31"/>
       <c r="B34" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="G34" t="s">
-        <v>440</v>
-      </c>
-      <c r="H34" s="68">
-        <v>1.89</v>
-      </c>
-      <c r="I34" s="68">
-        <v>-2.8999999999999998E-3</v>
-      </c>
-      <c r="K34">
-        <v>2.94</v>
-      </c>
-      <c r="L34">
-        <v>59.19</v>
-      </c>
-      <c r="M34">
-        <v>43.53</v>
-      </c>
-      <c r="N34">
-        <v>7.67</v>
+        <v>490</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H34" s="24">
+        <v>13.72</v>
+      </c>
+      <c r="I34" s="24">
+        <v>0.83518000000000003</v>
+      </c>
+      <c r="J34" s="40">
+        <v>40.76</v>
+      </c>
+      <c r="K34" s="42">
+        <v>6.28</v>
+      </c>
+      <c r="L34" s="42">
+        <v>33.6</v>
+      </c>
+      <c r="M34" s="42">
+        <v>18.93</v>
+      </c>
+      <c r="N34" s="42">
+        <v>4.7699999999999996</v>
       </c>
       <c r="O34" s="21">
-        <v>7.0800000000000002E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="P34" s="21">
-        <v>-8.14E-2</v>
-      </c>
-      <c r="Q34" s="21">
-        <v>0.1797</v>
-      </c>
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="Q34" s="21"/>
       <c r="R34" s="21">
-        <v>-2.3999999999999998E-3</v>
+        <v>0.15060000000000001</v>
       </c>
       <c r="S34" s="21">
-        <v>7.17E-2</v>
-      </c>
-      <c r="T34">
-        <v>3.36</v>
-      </c>
-      <c r="V34" s="13" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.5">
+        <v>0.1555</v>
+      </c>
+      <c r="T34" s="21">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="U34" s="45">
+        <v>1.51</v>
+      </c>
+      <c r="V34" s="68">
+        <v>585910</v>
+      </c>
+      <c r="W34" s="13" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A35" s="31"/>
-      <c r="B35" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="H35" s="24">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I35" s="24">
-        <v>0.13303000000000001</v>
-      </c>
-      <c r="J35" s="40">
-        <v>62.38</v>
-      </c>
-      <c r="K35" s="42">
-        <v>10.88</v>
-      </c>
-      <c r="L35" s="42">
-        <v>12.11</v>
-      </c>
-      <c r="M35" s="42">
-        <v>40.72</v>
-      </c>
-      <c r="N35" s="42">
-        <v>12.73</v>
-      </c>
-      <c r="O35" s="21">
-        <v>0.19209999999999999</v>
-      </c>
-      <c r="P35" s="21">
-        <v>0.18990000000000001</v>
-      </c>
-      <c r="Q35" s="21">
-        <v>0.32929999999999998</v>
-      </c>
-      <c r="R35" s="21">
-        <v>0.18429999999999999</v>
-      </c>
-      <c r="S35" s="21">
-        <v>0.1341</v>
-      </c>
-      <c r="T35" s="45">
-        <v>1.8</v>
-      </c>
-      <c r="U35" s="45"/>
-      <c r="V35" s="13" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A36" s="31"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="13"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A37" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="H37" s="38">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="I37" s="38">
-        <v>1.76</v>
-      </c>
-      <c r="J37" s="9">
-        <v>12.01</v>
-      </c>
-      <c r="K37" s="49">
-        <v>5.13</v>
-      </c>
-      <c r="L37" s="9">
-        <v>11.29</v>
-      </c>
-      <c r="M37" s="9">
-        <v>21.56</v>
-      </c>
-      <c r="N37" s="9">
-        <v>6.24</v>
-      </c>
-      <c r="O37" s="20">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="P37" s="20">
-        <v>0.40920000000000001</v>
-      </c>
-      <c r="Q37" s="20">
-        <v>0.2611</v>
-      </c>
-      <c r="R37" s="20">
-        <v>0.43190000000000001</v>
-      </c>
-      <c r="S37" s="20">
-        <v>0.1711</v>
-      </c>
-      <c r="T37" s="9">
-        <v>3.08</v>
-      </c>
-      <c r="U37" s="38">
-        <v>555460</v>
-      </c>
-      <c r="V37" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="B35" s="11"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="V35" s="75"/>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A36" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="38">
+        <v>17.07</v>
+      </c>
+      <c r="I36" s="38">
+        <v>0.49623</v>
+      </c>
+      <c r="J36" s="9">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="K36" s="49">
+        <v>4.95</v>
+      </c>
+      <c r="L36" s="9">
+        <v>19.38</v>
+      </c>
+      <c r="M36" s="9">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="N36" s="9">
+        <v>5.92</v>
+      </c>
+      <c r="O36" s="20">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="P36" s="20">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="S36" s="20">
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="T36" s="20">
+        <v>0.73029999999999995</v>
+      </c>
+      <c r="U36" s="9">
+        <v>3.28</v>
+      </c>
+      <c r="V36" s="43">
+        <v>382110</v>
+      </c>
+      <c r="W36" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A37" s="31"/>
+      <c r="B37" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="24">
+        <v>8.85</v>
+      </c>
+      <c r="I37" s="24">
+        <v>-3.3099999999999997E-2</v>
+      </c>
+      <c r="J37" s="40"/>
+      <c r="K37" s="42">
+        <v>44.09</v>
+      </c>
+      <c r="L37" s="12"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42">
+        <v>20.62</v>
+      </c>
+      <c r="O37" s="21">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="P37" s="21">
+        <v>0.1799</v>
+      </c>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21">
+        <v>-0.30940000000000001</v>
+      </c>
+      <c r="S37" s="21">
+        <v>-0.89</v>
+      </c>
+      <c r="T37" s="21">
+        <v>11.9099</v>
+      </c>
+      <c r="U37" s="45">
+        <v>3.37</v>
+      </c>
+      <c r="V37" s="73">
+        <v>232610</v>
+      </c>
+      <c r="W37" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A38" s="31"/>
       <c r="B38" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="34" t="s">
-        <v>484</v>
-      </c>
-      <c r="H38" s="24">
-        <v>48.99</v>
-      </c>
-      <c r="I38" s="24">
-        <v>1.72</v>
-      </c>
-      <c r="J38" s="40">
-        <v>32.68</v>
-      </c>
-      <c r="K38" s="42">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="L38" s="42">
-        <v>23.6</v>
-      </c>
-      <c r="M38" s="42">
-        <v>18.2</v>
-      </c>
-      <c r="N38" s="42">
-        <v>7.54</v>
+        <v>54</v>
+      </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="68">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I38" s="68">
+        <v>-4.403E-2</v>
+      </c>
+      <c r="K38">
+        <v>1.49</v>
+      </c>
+      <c r="N38">
+        <v>2.76</v>
       </c>
       <c r="O38" s="21">
-        <v>8.0399999999999999E-2</v>
+        <v>0.36749999999999999</v>
       </c>
       <c r="P38" s="21">
-        <v>0.1162</v>
-      </c>
-      <c r="Q38" s="21">
-        <v>0.35639999999999999</v>
-      </c>
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="Q38" s="21"/>
       <c r="R38" s="21">
-        <v>0.1237</v>
+        <v>-0.31180000000000002</v>
       </c>
       <c r="S38" s="21">
-        <v>0.23019999999999999</v>
-      </c>
-      <c r="T38" s="45">
-        <v>2.91</v>
-      </c>
-      <c r="U38" s="24">
-        <v>705330</v>
-      </c>
-      <c r="V38" s="13" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.5">
+        <v>-0.22950000000000001</v>
+      </c>
+      <c r="T38" s="21">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="U38">
+        <v>1.31</v>
+      </c>
+      <c r="V38" s="75"/>
+      <c r="W38" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A39" s="31"/>
       <c r="B39" s="11" t="s">
-        <v>485</v>
+        <v>117</v>
       </c>
       <c r="G39" t="s">
-        <v>486</v>
-      </c>
-      <c r="H39" s="68">
-        <v>7.16</v>
+        <v>118</v>
+      </c>
+      <c r="H39">
+        <v>56.76</v>
       </c>
       <c r="I39" s="68">
-        <v>0.23919000000000001</v>
-      </c>
-      <c r="J39" s="47">
-        <v>188.5</v>
-      </c>
-      <c r="K39">
-        <v>3.85</v>
-      </c>
-      <c r="L39">
-        <v>58.53</v>
-      </c>
-      <c r="M39">
-        <v>111.05</v>
-      </c>
-      <c r="N39">
-        <v>5.37</v>
+        <v>0.97108000000000005</v>
+      </c>
+      <c r="J39" s="12">
+        <v>94.51</v>
+      </c>
+      <c r="K39" s="12">
+        <v>37.380000000000003</v>
+      </c>
+      <c r="L39" s="12">
+        <v>63.94</v>
+      </c>
+      <c r="M39" s="42">
+        <v>19.91</v>
+      </c>
+      <c r="N39" s="42">
+        <v>16.239999999999998</v>
       </c>
       <c r="O39" s="21">
-        <v>0.13869999999999999</v>
+        <v>0.3836</v>
       </c>
       <c r="P39" s="21">
-        <v>-3.2300000000000002E-2</v>
-      </c>
-      <c r="Q39" s="21">
-        <v>4.3E-3</v>
-      </c>
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="Q39" s="21"/>
       <c r="R39" s="21">
-        <v>2.2700000000000001E-2</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="S39" s="21">
-        <v>0.36270000000000002</v>
-      </c>
-      <c r="T39">
-        <v>1.73</v>
-      </c>
-      <c r="U39" s="68">
-        <v>701890</v>
-      </c>
-      <c r="V39" s="13" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.5">
+        <v>0.41689999999999999</v>
+      </c>
+      <c r="T39" s="21">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="U39" s="35">
+        <v>1.07</v>
+      </c>
+      <c r="V39" s="44">
+        <v>358490</v>
+      </c>
+      <c r="W39" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A40" s="31"/>
       <c r="B40" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="2" t="s">
-        <v>489</v>
+        <v>444</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="H40" s="24">
-        <v>13.72</v>
+        <v>34.590000000000003</v>
       </c>
       <c r="I40" s="24">
-        <v>0.83518000000000003</v>
-      </c>
-      <c r="J40" s="40">
-        <v>40.76</v>
-      </c>
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="J40" s="40"/>
       <c r="K40" s="42">
-        <v>6.28</v>
-      </c>
-      <c r="L40" s="42">
-        <v>33.6</v>
-      </c>
-      <c r="M40" s="42">
-        <v>18.93</v>
-      </c>
+        <v>15.07</v>
+      </c>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
       <c r="N40" s="42">
-        <v>4.7699999999999996</v>
+        <v>9.41</v>
       </c>
       <c r="O40" s="21">
-        <v>2.5700000000000001E-2</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="P40" s="21">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="Q40" s="21">
-        <v>0.15060000000000001</v>
-      </c>
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="Q40" s="21"/>
       <c r="R40" s="21">
-        <v>0.1555</v>
+        <v>-6.3200000000000006E-2</v>
       </c>
       <c r="S40" s="21">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="T40" s="45">
-        <v>1.51</v>
-      </c>
-      <c r="U40" s="68">
-        <v>585910</v>
-      </c>
-      <c r="V40" s="13" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.5">
+        <v>-0.2122</v>
+      </c>
+      <c r="T40" s="21">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="U40" s="45">
+        <v>1.01</v>
+      </c>
+      <c r="V40" s="73">
+        <v>297310</v>
+      </c>
+      <c r="W40" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A41" s="31"/>
       <c r="B41" s="11"/>
-      <c r="H41"/>
-      <c r="I41"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42">
+        <v>10.49</v>
+      </c>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
-      <c r="U41" s="75"/>
-      <c r="V41" s="13"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A42" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="H42" s="38">
-        <v>17.07</v>
-      </c>
-      <c r="I42" s="38">
-        <v>0.49623</v>
-      </c>
-      <c r="J42" s="9">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="K42" s="49">
-        <v>4.95</v>
-      </c>
-      <c r="L42" s="9">
-        <v>19.38</v>
-      </c>
-      <c r="M42" s="9">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="N42" s="9">
-        <v>5.92</v>
-      </c>
-      <c r="O42" s="20">
-        <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="P42" s="20">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="Q42" s="20">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="R42" s="20">
-        <v>0.13819999999999999</v>
-      </c>
-      <c r="S42" s="20">
-        <v>0.73029999999999995</v>
-      </c>
-      <c r="T42" s="9">
-        <v>3.28</v>
-      </c>
-      <c r="U42" s="43">
-        <v>382110</v>
-      </c>
-      <c r="V42" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="T41" s="21"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="13" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A42" s="31"/>
+      <c r="B42" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H42" s="24">
+        <v>1.19</v>
+      </c>
+      <c r="I42" s="24">
+        <v>-2.5010000000000001E-2</v>
+      </c>
+      <c r="J42" s="40"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42">
+        <v>-14.33</v>
+      </c>
+      <c r="N42" s="42">
+        <v>4.28</v>
+      </c>
+      <c r="O42" s="21">
+        <v>0.19439999999999999</v>
+      </c>
+      <c r="P42" s="21">
+        <v>0.15820000000000001</v>
+      </c>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21">
+        <v>-0.2737</v>
+      </c>
+      <c r="S42" s="21">
+        <v>-0.4914</v>
+      </c>
+      <c r="T42" s="21">
+        <v>0.4773</v>
+      </c>
+      <c r="U42" s="45">
+        <v>1.79</v>
+      </c>
+      <c r="V42" s="73"/>
+      <c r="W42" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A43" s="31"/>
       <c r="B43" s="11" t="s">
-        <v>51</v>
+        <v>459</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="34" t="s">
-        <v>52</v>
+        <v>460</v>
       </c>
       <c r="H43" s="24">
-        <v>8.85</v>
+        <v>18.84</v>
       </c>
       <c r="I43" s="24">
-        <v>-3.3099999999999997E-2</v>
+        <v>4.3650000000000001E-2</v>
       </c>
       <c r="J43" s="40"/>
       <c r="K43" s="42">
-        <v>44.09</v>
+        <v>32.369999999999997</v>
       </c>
       <c r="L43" s="12"/>
-      <c r="M43" s="42"/>
+      <c r="M43" s="42">
+        <v>-137.94999999999999</v>
+      </c>
       <c r="N43" s="42">
-        <v>20.62</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="O43" s="21">
-        <v>0.45229999999999998</v>
+        <v>0.20619999999999999</v>
       </c>
       <c r="P43" s="21">
-        <v>0.1799</v>
-      </c>
-      <c r="Q43" s="21">
-        <v>-0.30940000000000001</v>
-      </c>
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="Q43" s="21"/>
       <c r="R43" s="21">
-        <v>-0.89</v>
+        <v>-0.1472</v>
       </c>
       <c r="S43" s="21">
-        <v>11.9099</v>
-      </c>
-      <c r="T43" s="45">
-        <v>3.37</v>
-      </c>
-      <c r="U43" s="73">
-        <v>232610</v>
-      </c>
-      <c r="V43" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.5">
+        <v>-0.36549999999999999</v>
+      </c>
+      <c r="T43" s="21">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="U43" s="45">
+        <v>1.55</v>
+      </c>
+      <c r="V43" s="73"/>
+      <c r="W43" s="13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A44" s="31"/>
       <c r="B44" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" s="68">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="I44" s="68">
-        <v>-4.403E-2</v>
-      </c>
-      <c r="K44">
-        <v>1.49</v>
-      </c>
-      <c r="N44">
-        <v>2.76</v>
+        <v>467</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="H44" s="24">
+        <v>5.27</v>
+      </c>
+      <c r="I44" s="24">
+        <v>-2.9420000000000002E-2</v>
+      </c>
+      <c r="J44" s="40"/>
+      <c r="K44" s="42">
+        <v>17.3</v>
+      </c>
+      <c r="L44" s="12"/>
+      <c r="M44" s="42">
+        <v>-42.96</v>
+      </c>
+      <c r="N44" s="42">
+        <v>14.76</v>
       </c>
       <c r="O44" s="21">
-        <v>0.36749999999999999</v>
+        <v>0.23630000000000001</v>
       </c>
       <c r="P44" s="21">
-        <v>4.6699999999999998E-2</v>
-      </c>
-      <c r="Q44" s="21">
-        <v>-0.31180000000000002</v>
-      </c>
+        <v>0.29149999999999998</v>
+      </c>
+      <c r="Q44" s="21"/>
       <c r="R44" s="21">
-        <v>-0.22950000000000001</v>
+        <v>-0.36430000000000001</v>
       </c>
       <c r="S44" s="21">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="T44">
-        <v>1.31</v>
-      </c>
-      <c r="U44" s="75"/>
-      <c r="V44" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.5">
+        <v>-0.50239999999999996</v>
+      </c>
+      <c r="T44" s="21">
+        <v>0.1903</v>
+      </c>
+      <c r="U44" s="45">
+        <v>1.71</v>
+      </c>
+      <c r="V44" s="73"/>
+      <c r="W44" s="13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A45" s="31"/>
       <c r="B45" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G45" t="s">
-        <v>118</v>
-      </c>
-      <c r="H45">
-        <v>56.76</v>
-      </c>
-      <c r="I45" s="68">
-        <v>0.97108000000000005</v>
-      </c>
-      <c r="J45" s="12">
-        <v>94.51</v>
-      </c>
-      <c r="K45" s="12">
-        <v>37.380000000000003</v>
-      </c>
-      <c r="L45" s="12">
-        <v>63.94</v>
-      </c>
-      <c r="M45" s="42">
-        <v>19.91</v>
+        <v>468</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="H45" s="24">
+        <v>20.53</v>
+      </c>
+      <c r="I45" s="24">
+        <v>-0.39134000000000002</v>
+      </c>
+      <c r="J45" s="40"/>
+      <c r="K45" s="42">
+        <v>11.97</v>
+      </c>
+      <c r="L45" s="12"/>
+      <c r="M45" s="47">
+        <v>-4477.8900000000003</v>
       </c>
       <c r="N45" s="42">
-        <v>16.239999999999998</v>
+        <v>8.48</v>
       </c>
       <c r="O45" s="21">
-        <v>0.3836</v>
+        <v>0.39229999999999998</v>
       </c>
       <c r="P45" s="21">
-        <v>0.44950000000000001</v>
-      </c>
-      <c r="Q45" s="21">
-        <v>8.5199999999999998E-2</v>
-      </c>
+        <v>5.62E-2</v>
+      </c>
+      <c r="Q45" s="21"/>
       <c r="R45" s="21">
-        <v>0.41689999999999999</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="S45" s="21">
-        <v>0.53139999999999998</v>
-      </c>
-      <c r="T45" s="35">
-        <v>1.07</v>
-      </c>
-      <c r="U45" s="44">
-        <v>358490</v>
-      </c>
-      <c r="V45" s="23" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.5">
+        <v>-0.2014</v>
+      </c>
+      <c r="T45" s="21">
+        <v>1.1615</v>
+      </c>
+      <c r="U45" s="45">
+        <v>2.64</v>
+      </c>
+      <c r="V45" s="73"/>
+      <c r="W45" s="13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A46" s="31"/>
       <c r="B46" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>110</v>
+        <v>477</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="H46" s="24">
-        <v>34.590000000000003</v>
+        <v>12.92</v>
       </c>
       <c r="I46" s="24">
-        <v>0.52159999999999995</v>
+        <v>7.9100000000000004E-4</v>
       </c>
       <c r="J46" s="40"/>
       <c r="K46" s="42">
-        <v>15.07</v>
-      </c>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
+        <v>26.08</v>
+      </c>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42">
+        <v>720.32</v>
+      </c>
       <c r="N46" s="42">
-        <v>9.41</v>
+        <v>35.33</v>
       </c>
       <c r="O46" s="21">
-        <v>0.35709999999999997</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="P46" s="21">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="Q46" s="21">
-        <v>-6.3200000000000006E-2</v>
-      </c>
-      <c r="R46" s="21">
-        <v>-0.2122</v>
-      </c>
+        <v>1.0047999999999999</v>
+      </c>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
       <c r="S46" s="21">
-        <v>0.63129999999999997</v>
-      </c>
-      <c r="T46" s="45">
-        <v>1.01</v>
-      </c>
-      <c r="U46" s="73">
-        <v>297310</v>
-      </c>
-      <c r="V46" s="13" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.5">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="T46" s="21">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="U46" s="45">
+        <v>3.6</v>
+      </c>
+      <c r="V46" s="73"/>
+      <c r="W46" s="13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A47" s="31"/>
       <c r="B47" s="11" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="2" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
       <c r="H47" s="24">
-        <v>2.14</v>
+        <v>11.05</v>
       </c>
       <c r="I47" s="24">
-        <v>-5.0770000000000003E-2</v>
+        <v>5.6189999999999997E-2</v>
       </c>
       <c r="J47" s="40"/>
       <c r="K47" s="42">
-        <v>12.92</v>
+        <v>25.77</v>
       </c>
       <c r="L47" s="42"/>
       <c r="M47" s="42">
-        <v>-58.17</v>
+        <v>-188.37</v>
       </c>
       <c r="N47" s="42">
-        <v>10.49</v>
+        <v>27.74</v>
       </c>
       <c r="O47" s="21">
-        <v>0.13830000000000001</v>
+        <v>0.50280000000000002</v>
       </c>
       <c r="P47" s="21">
-        <v>8.9399999999999993E-2</v>
-      </c>
-      <c r="Q47" s="21">
-        <v>-0.14960000000000001</v>
-      </c>
+        <v>0.1888</v>
+      </c>
+      <c r="Q47" s="21"/>
       <c r="R47" s="21">
-        <v>-0.31680000000000003</v>
+        <v>-0.10589999999999999</v>
       </c>
       <c r="S47" s="21">
-        <v>0.115</v>
-      </c>
-      <c r="T47" s="45">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="U47" s="73"/>
-      <c r="V47" s="13" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.5">
+        <v>-0.2165</v>
+      </c>
+      <c r="T47" s="21">
+        <v>1.7579</v>
+      </c>
+      <c r="U47" s="45">
+        <v>1.8</v>
+      </c>
+      <c r="V47" s="73">
+        <v>230190</v>
+      </c>
+      <c r="W47" s="13" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A48" s="31"/>
-      <c r="B48" s="11" t="s">
-        <v>456</v>
-      </c>
+      <c r="B48" s="11"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="H48" s="24">
-        <v>1.19</v>
-      </c>
-      <c r="I48" s="24">
-        <v>-2.5010000000000001E-2</v>
-      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
       <c r="J48" s="40"/>
       <c r="K48" s="42"/>
       <c r="L48" s="42"/>
-      <c r="M48" s="42">
-        <v>-14.33</v>
-      </c>
-      <c r="N48" s="42">
-        <v>4.28</v>
-      </c>
-      <c r="O48" s="21">
-        <v>0.19439999999999999</v>
-      </c>
-      <c r="P48" s="21">
-        <v>0.15820000000000001</v>
-      </c>
-      <c r="Q48" s="21">
-        <v>-0.2737</v>
-      </c>
-      <c r="R48" s="21">
-        <v>-0.4914</v>
-      </c>
-      <c r="S48" s="21">
-        <v>0.4773</v>
-      </c>
-      <c r="T48" s="45">
-        <v>1.79</v>
-      </c>
-      <c r="U48" s="73"/>
-      <c r="V48" s="13" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A49" s="31"/>
-      <c r="B49" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="34" t="s">
-        <v>460</v>
-      </c>
-      <c r="H49" s="24">
-        <v>18.84</v>
-      </c>
-      <c r="I49" s="24">
-        <v>4.3650000000000001E-2</v>
-      </c>
-      <c r="J49" s="40"/>
-      <c r="K49" s="42">
-        <v>32.369999999999997</v>
-      </c>
-      <c r="L49" s="12"/>
-      <c r="M49" s="42">
-        <v>-137.94999999999999</v>
-      </c>
-      <c r="N49" s="42">
-        <v>18.940000000000001</v>
-      </c>
-      <c r="O49" s="21">
-        <v>0.20619999999999999</v>
-      </c>
-      <c r="P49" s="21">
-        <v>0.12709999999999999</v>
-      </c>
-      <c r="Q49" s="21">
-        <v>-0.1472</v>
-      </c>
-      <c r="R49" s="21">
-        <v>-0.36549999999999999</v>
-      </c>
-      <c r="S49" s="21">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="T49" s="45">
-        <v>1.55</v>
-      </c>
-      <c r="U49" s="73"/>
-      <c r="V49" s="13" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A50" s="31"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="73"/>
+      <c r="W48" s="13"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A49" s="19"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="V49" s="75"/>
+      <c r="W49" s="16"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A50" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="B50" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="34" t="s">
-        <v>465</v>
-      </c>
-      <c r="H50" s="24">
-        <v>5.27</v>
-      </c>
-      <c r="I50" s="24">
-        <v>-2.9420000000000002E-2</v>
-      </c>
-      <c r="J50" s="40"/>
-      <c r="K50" s="42">
-        <v>17.3</v>
-      </c>
-      <c r="L50" s="12"/>
-      <c r="M50" s="42">
-        <v>-42.96</v>
-      </c>
-      <c r="N50" s="42">
-        <v>14.76</v>
-      </c>
-      <c r="O50" s="21">
-        <v>0.23630000000000001</v>
-      </c>
-      <c r="P50" s="21">
-        <v>0.29149999999999998</v>
-      </c>
-      <c r="Q50" s="21">
-        <v>-0.36430000000000001</v>
-      </c>
-      <c r="R50" s="21">
-        <v>-0.50239999999999996</v>
-      </c>
-      <c r="S50" s="21">
-        <v>0.1903</v>
-      </c>
-      <c r="T50" s="45">
-        <v>1.71</v>
-      </c>
-      <c r="U50" s="73"/>
-      <c r="V50" s="13" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A51" s="31"/>
-      <c r="B51" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="38">
+        <v>172.65</v>
+      </c>
+      <c r="I50" s="43">
+        <v>12.4</v>
+      </c>
+      <c r="J50" s="9">
+        <v>17.18</v>
+      </c>
+      <c r="K50" s="9">
+        <v>10.16</v>
+      </c>
+      <c r="L50" s="9">
+        <v>12.93</v>
+      </c>
+      <c r="M50" s="9">
+        <v>12.37</v>
+      </c>
+      <c r="N50" s="9">
+        <v>4.47</v>
+      </c>
+      <c r="O50" s="20">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="P50" s="20">
+        <v>2E-3</v>
+      </c>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20">
+        <v>0.43230000000000002</v>
+      </c>
+      <c r="S50" s="20">
+        <v>0.61470000000000002</v>
+      </c>
+      <c r="T50" s="20">
+        <v>3.7614999999999998</v>
+      </c>
+      <c r="U50" s="29">
+        <v>2.31</v>
+      </c>
+      <c r="V50" s="43">
+        <v>292400</v>
+      </c>
+      <c r="W50" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A51" s="18"/>
+      <c r="B51" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
       <c r="G51" s="34" t="s">
-        <v>469</v>
+        <v>41</v>
       </c>
       <c r="H51" s="24">
-        <v>20.53</v>
+        <v>147.31</v>
       </c>
       <c r="I51" s="24">
-        <v>-0.39134000000000002</v>
-      </c>
-      <c r="J51" s="40"/>
-      <c r="K51" s="42">
-        <v>11.97</v>
-      </c>
-      <c r="L51" s="12"/>
-      <c r="M51" s="47">
-        <v>-4477.8900000000003</v>
-      </c>
-      <c r="N51" s="42">
-        <v>8.48</v>
+        <v>3.01</v>
+      </c>
+      <c r="J51" s="12">
+        <v>39.43</v>
+      </c>
+      <c r="K51" s="12">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="L51" s="12">
+        <v>25.28</v>
+      </c>
+      <c r="M51" s="42">
+        <v>24.47</v>
+      </c>
+      <c r="N51" s="12">
+        <v>4.76</v>
       </c>
       <c r="O51" s="21">
-        <v>0.39229999999999998</v>
+        <v>7.7899999999999997E-2</v>
       </c>
       <c r="P51" s="21">
-        <v>5.62E-2</v>
-      </c>
-      <c r="Q51" s="21">
-        <v>-8.3000000000000004E-2</v>
-      </c>
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="Q51" s="21"/>
       <c r="R51" s="21">
-        <v>-0.2014</v>
+        <v>0.29559999999999997</v>
       </c>
       <c r="S51" s="21">
-        <v>1.1615</v>
-      </c>
-      <c r="T51" s="45">
-        <v>2.64</v>
-      </c>
-      <c r="U51" s="73"/>
-      <c r="V51" s="13" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A52" s="31"/>
-      <c r="B52" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="2" t="s">
-        <v>478</v>
+        <v>0.1133</v>
+      </c>
+      <c r="T51" s="21">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="U51" s="35">
+        <v>1.03</v>
+      </c>
+      <c r="V51" s="44">
+        <v>311460</v>
+      </c>
+      <c r="W51" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A52" s="18"/>
+      <c r="B52" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="H52" s="24">
-        <v>12.92</v>
+        <v>68.78</v>
       </c>
       <c r="I52" s="24">
-        <v>7.9100000000000004E-4</v>
-      </c>
-      <c r="J52" s="40"/>
+        <v>2.17</v>
+      </c>
+      <c r="J52" s="42">
+        <v>42.72</v>
+      </c>
       <c r="K52" s="42">
-        <v>26.08</v>
-      </c>
-      <c r="L52" s="42"/>
+        <v>18.09</v>
+      </c>
+      <c r="L52" s="42">
+        <v>36.96</v>
+      </c>
       <c r="M52" s="42">
-        <v>720.32</v>
+        <v>56.59</v>
       </c>
       <c r="N52" s="42">
-        <v>35.33</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="O52" s="21">
-        <v>0.29199999999999998</v>
+        <v>8.5300000000000001E-2</v>
       </c>
       <c r="P52" s="21">
-        <v>1.0047999999999999</v>
+        <v>0.1099</v>
       </c>
       <c r="Q52" s="21"/>
       <c r="R52" s="21">
-        <v>-3.4000000000000002E-2</v>
+        <v>0.30009999999999998</v>
       </c>
       <c r="S52" s="21">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="T52" s="45">
-        <v>3.6</v>
-      </c>
-      <c r="U52" s="73"/>
-      <c r="V52" s="13" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A53" s="31"/>
-      <c r="B53" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="2" t="s">
-        <v>518</v>
+        <v>0.42980000000000002</v>
+      </c>
+      <c r="T52" s="21">
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="U52" s="35">
+        <v>1.79</v>
+      </c>
+      <c r="V52" s="44">
+        <v>758190</v>
+      </c>
+      <c r="W52" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A53" s="18"/>
+      <c r="B53" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="H53" s="24">
-        <v>11.05</v>
+        <v>39.020000000000003</v>
       </c>
       <c r="I53" s="24">
-        <v>5.6189999999999997E-2</v>
-      </c>
-      <c r="J53" s="40"/>
-      <c r="K53" s="42">
-        <v>25.77</v>
-      </c>
-      <c r="L53" s="42"/>
+        <v>1.36</v>
+      </c>
+      <c r="J53" s="12">
+        <v>185.28</v>
+      </c>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12">
+        <v>114.29</v>
+      </c>
       <c r="M53" s="42">
-        <v>-188.37</v>
+        <v>59.18</v>
       </c>
       <c r="N53" s="42">
-        <v>27.74</v>
+        <v>10.85</v>
       </c>
       <c r="O53" s="21">
-        <v>0.50280000000000002</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="P53" s="21">
-        <v>0.1888</v>
-      </c>
-      <c r="Q53" s="21">
-        <v>-0.10589999999999999</v>
-      </c>
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="Q53" s="21"/>
       <c r="R53" s="21">
-        <v>-0.2165</v>
+        <v>0.15090000000000001</v>
       </c>
       <c r="S53" s="21">
-        <v>1.7579</v>
-      </c>
-      <c r="T53" s="45">
-        <v>1.8</v>
-      </c>
-      <c r="U53" s="73">
-        <v>230190</v>
-      </c>
-      <c r="V53" s="13" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A54" s="19"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="U54" s="75"/>
-      <c r="V54" s="16"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A55" s="17" t="s">
-        <v>37</v>
-      </c>
+        <v>-1.1436999999999999</v>
+      </c>
+      <c r="T53" s="21">
+        <v>-18.293299999999999</v>
+      </c>
+      <c r="U53" s="35">
+        <v>0.66</v>
+      </c>
+      <c r="V53" s="44"/>
+      <c r="W53" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A54" s="18"/>
+      <c r="B54" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="H54" s="24">
+        <v>4.99</v>
+      </c>
+      <c r="I54" s="24">
+        <v>-4.9750000000000003E-2</v>
+      </c>
+      <c r="J54" s="40"/>
+      <c r="K54" s="42">
+        <v>13.93</v>
+      </c>
+      <c r="L54" s="12"/>
+      <c r="M54" s="42">
+        <v>-31.94</v>
+      </c>
+      <c r="N54" s="42">
+        <v>12.4</v>
+      </c>
+      <c r="O54" s="21">
+        <v>0.25240000000000001</v>
+      </c>
+      <c r="P54" s="21">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21">
+        <v>-0.36609999999999998</v>
+      </c>
+      <c r="S54" s="21">
+        <v>-0.499</v>
+      </c>
+      <c r="T54" s="21">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="U54" s="45">
+        <v>1.82</v>
+      </c>
+      <c r="V54" s="73"/>
+      <c r="W54" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A55" s="18"/>
       <c r="B55" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H55" s="38">
-        <v>172.65</v>
-      </c>
-      <c r="I55" s="43">
-        <v>12.4</v>
-      </c>
-      <c r="J55" s="9">
-        <v>17.18</v>
-      </c>
-      <c r="K55" s="9">
-        <v>10.16</v>
-      </c>
-      <c r="L55" s="9">
-        <v>12.93</v>
-      </c>
-      <c r="M55" s="9">
-        <v>12.37</v>
-      </c>
-      <c r="N55" s="9">
-        <v>4.47</v>
-      </c>
-      <c r="O55" s="20">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="P55" s="20">
-        <v>2E-3</v>
-      </c>
-      <c r="Q55" s="20">
-        <v>0.43230000000000002</v>
-      </c>
-      <c r="R55" s="20">
-        <v>0.61470000000000002</v>
-      </c>
-      <c r="S55" s="20">
-        <v>3.7614999999999998</v>
-      </c>
-      <c r="T55" s="29">
-        <v>2.31</v>
-      </c>
-      <c r="U55" s="43">
-        <v>292400</v>
-      </c>
-      <c r="V55" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.5">
+        <v>445</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="24">
+        <v>14.93</v>
+      </c>
+      <c r="I55" s="24">
+        <v>-6.2019999999999999E-2</v>
+      </c>
+      <c r="J55" s="40"/>
+      <c r="K55" s="42">
+        <v>36.75</v>
+      </c>
+      <c r="L55" s="12"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42">
+        <v>23.21</v>
+      </c>
+      <c r="O55" s="21">
+        <v>0.23380000000000001</v>
+      </c>
+      <c r="P55" s="21">
+        <v>0.34029999999999999</v>
+      </c>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21">
+        <v>-0.84189999999999998</v>
+      </c>
+      <c r="S55" s="21">
+        <v>-1.4341999999999999</v>
+      </c>
+      <c r="T55" s="21">
+        <v>0.32</v>
+      </c>
+      <c r="U55" s="45">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="V55" s="73"/>
+      <c r="W55" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A56" s="18"/>
-      <c r="B56" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="34" t="s">
-        <v>41</v>
+      <c r="B56" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="70" t="s">
+        <v>448</v>
       </c>
       <c r="H56" s="24">
-        <v>147.31</v>
+        <v>27.25</v>
       </c>
       <c r="I56" s="24">
-        <v>3.01</v>
-      </c>
-      <c r="J56" s="12">
-        <v>39.43</v>
-      </c>
-      <c r="K56" s="12">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="L56" s="12">
-        <v>25.28</v>
+        <v>0.43425999999999998</v>
+      </c>
+      <c r="J56" s="40">
+        <v>95.68</v>
+      </c>
+      <c r="K56" s="42">
+        <v>18.03</v>
+      </c>
+      <c r="L56" s="42">
+        <v>84.31</v>
       </c>
       <c r="M56" s="42">
-        <v>24.47</v>
-      </c>
-      <c r="N56" s="12">
-        <v>4.76</v>
+        <v>98.15</v>
+      </c>
+      <c r="N56" s="42">
+        <v>24.51</v>
       </c>
       <c r="O56" s="21">
-        <v>7.7899999999999997E-2</v>
+        <v>0.28660000000000002</v>
       </c>
       <c r="P56" s="21">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="Q56" s="21">
-        <v>0.29559999999999997</v>
-      </c>
+        <v>0.4859</v>
+      </c>
+      <c r="Q56" s="21"/>
       <c r="R56" s="21">
-        <v>0.1133</v>
+        <v>0.27839999999999998</v>
       </c>
       <c r="S56" s="21">
-        <v>0.51449999999999996</v>
-      </c>
-      <c r="T56" s="35">
-        <v>1.03</v>
-      </c>
-      <c r="U56" s="44">
-        <v>311460</v>
-      </c>
-      <c r="V56" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.5">
+        <v>0.2006</v>
+      </c>
+      <c r="T56" s="21">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="U56" s="45">
+        <v>3.84</v>
+      </c>
+      <c r="V56" s="73"/>
+      <c r="W56" s="13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A57" s="18"/>
-      <c r="B57" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="34" t="s">
-        <v>123</v>
+      <c r="B57" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="H57" s="24">
-        <v>68.78</v>
+        <v>6.75</v>
       </c>
       <c r="I57" s="24">
-        <v>2.17</v>
-      </c>
-      <c r="J57" s="42">
-        <v>42.72</v>
-      </c>
+        <v>1.221E-2</v>
+      </c>
+      <c r="J57" s="40"/>
       <c r="K57" s="42">
-        <v>18.09</v>
-      </c>
-      <c r="L57" s="42">
-        <v>36.96</v>
-      </c>
+        <v>16.87</v>
+      </c>
+      <c r="L57" s="42"/>
       <c r="M57" s="42">
-        <v>56.59</v>
+        <v>-205.95</v>
       </c>
       <c r="N57" s="42">
-        <v>9.6300000000000008</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="O57" s="21">
-        <v>8.5300000000000001E-2</v>
+        <v>0.17960000000000001</v>
       </c>
       <c r="P57" s="21">
-        <v>0.1099</v>
-      </c>
-      <c r="Q57" s="21">
-        <v>0.30009999999999998</v>
-      </c>
+        <v>-6.2300000000000001E-2</v>
+      </c>
+      <c r="Q57" s="21"/>
       <c r="R57" s="21">
-        <v>0.42980000000000002</v>
+        <v>-0.1048</v>
       </c>
       <c r="S57" s="21">
-        <v>0.20230000000000001</v>
-      </c>
-      <c r="T57" s="35">
-        <v>1.79</v>
-      </c>
-      <c r="U57" s="44">
-        <v>758190</v>
-      </c>
-      <c r="V57" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.5">
+        <v>-0.12970000000000001</v>
+      </c>
+      <c r="T57" s="21">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="U57" s="45">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="V57" s="73"/>
+      <c r="W57" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A58" s="18"/>
-      <c r="B58" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="34" t="s">
-        <v>120</v>
+      <c r="B58" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="H58" s="24">
-        <v>39.020000000000003</v>
+        <v>161.06</v>
       </c>
       <c r="I58" s="24">
-        <v>1.36</v>
-      </c>
-      <c r="J58" s="12">
-        <v>185.28</v>
-      </c>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12">
-        <v>114.29</v>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J58" s="40">
+        <v>50.52</v>
+      </c>
+      <c r="K58" s="42">
+        <v>15.68</v>
+      </c>
+      <c r="L58" s="42">
+        <v>40.24</v>
       </c>
       <c r="M58" s="42">
-        <v>59.18</v>
+        <v>35.229999999999997</v>
       </c>
       <c r="N58" s="42">
-        <v>10.85</v>
+        <v>13.84</v>
       </c>
       <c r="O58" s="21">
-        <v>5.4399999999999997E-2</v>
+        <v>9.2200000000000004E-2</v>
       </c>
       <c r="P58" s="21">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="Q58" s="21">
-        <v>0.15090000000000001</v>
-      </c>
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="Q58" s="21"/>
       <c r="R58" s="21">
-        <v>-1.1436999999999999</v>
+        <v>0.3679</v>
       </c>
       <c r="S58" s="21">
-        <v>-18.293299999999999</v>
-      </c>
-      <c r="T58" s="35">
-        <v>0.66</v>
-      </c>
-      <c r="U58" s="44"/>
-      <c r="V58" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.5">
+        <v>0.314</v>
+      </c>
+      <c r="T58" s="21">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="U58" s="45">
+        <v>0.83</v>
+      </c>
+      <c r="V58" s="73">
+        <v>515210</v>
+      </c>
+      <c r="W58" s="13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A59" s="18"/>
       <c r="B59" s="11" t="s">
-        <v>311</v>
+        <v>475</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="34" t="s">
-        <v>312</v>
+      <c r="G59" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="H59" s="24">
-        <v>4.99</v>
+        <v>3.44</v>
       </c>
       <c r="I59" s="24">
-        <v>-4.9750000000000003E-2</v>
-      </c>
-      <c r="J59" s="40"/>
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="J59" s="40">
+        <v>98.84</v>
+      </c>
       <c r="K59" s="42">
-        <v>13.93</v>
-      </c>
-      <c r="L59" s="12"/>
+        <v>29.18</v>
+      </c>
+      <c r="L59" s="42">
+        <v>58.51</v>
+      </c>
       <c r="M59" s="42">
-        <v>-31.94</v>
+        <v>80.78</v>
       </c>
       <c r="N59" s="42">
-        <v>12.4</v>
+        <v>13.41</v>
       </c>
       <c r="O59" s="21">
-        <v>0.25240000000000001</v>
+        <v>0.39960000000000001</v>
       </c>
       <c r="P59" s="21">
-        <v>0.14630000000000001</v>
-      </c>
-      <c r="Q59" s="21">
-        <v>-0.36609999999999998</v>
-      </c>
+        <v>0.64880000000000004</v>
+      </c>
+      <c r="Q59" s="21"/>
       <c r="R59" s="21">
-        <v>-0.499</v>
+        <v>0.1139</v>
       </c>
       <c r="S59" s="21">
-        <v>8.6800000000000002E-2</v>
-      </c>
-      <c r="T59" s="45">
-        <v>1.82</v>
-      </c>
-      <c r="U59" s="73"/>
-      <c r="V59" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.5">
+        <v>0.30840000000000001</v>
+      </c>
+      <c r="T59" s="21">
+        <v>0.6421</v>
+      </c>
+      <c r="U59" s="45">
+        <v>1.46</v>
+      </c>
+      <c r="V59" s="73"/>
+      <c r="W59" s="13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A60" s="18"/>
-      <c r="B60" s="11" t="s">
-        <v>445</v>
-      </c>
+      <c r="B60" s="11"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="H60" s="24">
-        <v>14.93</v>
-      </c>
-      <c r="I60" s="24">
-        <v>-6.2019999999999999E-2</v>
-      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="42">
-        <v>36.75</v>
-      </c>
-      <c r="L60" s="12"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
       <c r="M60" s="42"/>
-      <c r="N60" s="42">
-        <v>23.21</v>
-      </c>
-      <c r="O60" s="21">
-        <v>0.23380000000000001</v>
-      </c>
-      <c r="P60" s="21">
-        <v>0.34029999999999999</v>
-      </c>
-      <c r="Q60" s="21">
-        <v>-0.84189999999999998</v>
-      </c>
-      <c r="R60" s="21">
-        <v>-1.4341999999999999</v>
-      </c>
-      <c r="S60" s="21">
-        <v>0.32</v>
-      </c>
-      <c r="T60" s="45">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="U60" s="73"/>
-      <c r="V60" s="13" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A61" s="18"/>
-      <c r="B61" s="11" t="s">
-        <v>447</v>
-      </c>
+      <c r="N60" s="42"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="73"/>
+      <c r="W60" s="13"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A61" s="19"/>
+      <c r="B61" s="11"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="70" t="s">
-        <v>448</v>
-      </c>
-      <c r="H61" s="24">
-        <v>27.25</v>
-      </c>
-      <c r="I61" s="24">
-        <v>0.43425999999999998</v>
-      </c>
-      <c r="J61" s="40">
-        <v>95.68</v>
-      </c>
-      <c r="K61" s="42">
-        <v>18.03</v>
-      </c>
-      <c r="L61" s="42">
-        <v>84.31</v>
-      </c>
-      <c r="M61" s="42">
-        <v>98.15</v>
-      </c>
-      <c r="N61" s="42">
-        <v>24.51</v>
-      </c>
-      <c r="O61" s="21">
-        <v>0.28660000000000002</v>
-      </c>
-      <c r="P61" s="21">
-        <v>0.4859</v>
-      </c>
-      <c r="Q61" s="21">
-        <v>0.27839999999999998</v>
-      </c>
-      <c r="R61" s="21">
-        <v>0.2006</v>
-      </c>
-      <c r="S61" s="21">
-        <v>3.2899999999999999E-2</v>
-      </c>
-      <c r="T61" s="45">
-        <v>3.84</v>
-      </c>
-      <c r="U61" s="73"/>
-      <c r="V61" s="13" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A62" s="18"/>
-      <c r="B62" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="H62" s="24">
-        <v>6.75</v>
-      </c>
-      <c r="I62" s="24">
-        <v>1.221E-2</v>
-      </c>
-      <c r="J62" s="40"/>
-      <c r="K62" s="42">
-        <v>16.87</v>
-      </c>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42">
-        <v>-205.95</v>
-      </c>
-      <c r="N62" s="42">
-        <v>17.079999999999998</v>
-      </c>
-      <c r="O62" s="21">
-        <v>0.17960000000000001</v>
-      </c>
-      <c r="P62" s="21">
-        <v>-6.2300000000000001E-2</v>
-      </c>
-      <c r="Q62" s="21">
-        <v>-0.1048</v>
-      </c>
-      <c r="R62" s="21">
-        <v>-0.12970000000000001</v>
-      </c>
-      <c r="S62" s="21">
-        <v>0.14460000000000001</v>
-      </c>
-      <c r="T62" s="45">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="U62" s="73"/>
-      <c r="V62" s="13" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A63" s="18"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="73"/>
+      <c r="W61" s="13"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A62" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="H62" s="38">
+        <v>1210</v>
+      </c>
+      <c r="I62" s="38">
+        <v>63.9</v>
+      </c>
+      <c r="J62" s="9">
+        <v>21.87</v>
+      </c>
+      <c r="K62" s="9">
+        <v>13.01</v>
+      </c>
+      <c r="L62" s="9">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="M62" s="9">
+        <v>12.03</v>
+      </c>
+      <c r="N62" s="9">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="O62" s="20">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="P62" s="20">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20">
+        <v>0.2918</v>
+      </c>
+      <c r="S62" s="20">
+        <v>0.6018</v>
+      </c>
+      <c r="T62" s="20">
+        <v>1.304</v>
+      </c>
+      <c r="U62" s="9">
+        <v>1.49</v>
+      </c>
+      <c r="V62" s="43">
+        <v>1956070</v>
+      </c>
+      <c r="W62" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A63" s="31"/>
       <c r="B63" s="11" t="s">
-        <v>471</v>
+        <v>141</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="2" t="s">
-        <v>472</v>
+      <c r="G63" s="34" t="s">
+        <v>141</v>
       </c>
       <c r="H63" s="24">
-        <v>161.06</v>
+        <v>106.82</v>
       </c>
       <c r="I63" s="24">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="J63" s="40">
-        <v>50.52</v>
+        <v>12</v>
+      </c>
+      <c r="J63" s="12">
+        <v>11.92</v>
       </c>
       <c r="K63" s="42">
-        <v>15.68</v>
-      </c>
-      <c r="L63" s="42">
-        <v>40.24</v>
+        <v>5.59</v>
+      </c>
+      <c r="L63" s="12">
+        <v>7.83</v>
       </c>
       <c r="M63" s="42">
-        <v>35.229999999999997</v>
+        <v>22.88</v>
       </c>
       <c r="N63" s="42">
-        <v>13.84</v>
+        <v>1.39</v>
       </c>
       <c r="O63" s="21">
-        <v>9.2200000000000004E-2</v>
+        <v>-3.6299999999999999E-2</v>
       </c>
       <c r="P63" s="21">
-        <v>0.44219999999999998</v>
-      </c>
-      <c r="Q63" s="21">
-        <v>0.3679</v>
-      </c>
-      <c r="R63" s="21">
-        <v>0.314</v>
-      </c>
+        <v>-5.21E-2</v>
+      </c>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
       <c r="S63" s="21">
-        <v>0.45019999999999999</v>
-      </c>
-      <c r="T63" s="45">
-        <v>0.83</v>
-      </c>
-      <c r="U63" s="73">
-        <v>515210</v>
-      </c>
-      <c r="V63" s="13" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A64" s="18"/>
+        <v>0.47189999999999999</v>
+      </c>
+      <c r="T63" s="21">
+        <v>3.4729000000000001</v>
+      </c>
+      <c r="U63" s="45">
+        <v>1.24</v>
+      </c>
+      <c r="V63" s="73">
+        <v>217060</v>
+      </c>
+      <c r="W63" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A64" s="31"/>
       <c r="B64" s="11" t="s">
-        <v>475</v>
+        <v>143</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
-      <c r="G64" s="2" t="s">
-        <v>474</v>
+      <c r="G64" s="34" t="s">
+        <v>147</v>
       </c>
       <c r="H64" s="24">
-        <v>3.44</v>
+        <v>22.02</v>
       </c>
       <c r="I64" s="24">
-        <v>3.0800000000000001E-2</v>
-      </c>
-      <c r="J64" s="40">
-        <v>98.84</v>
-      </c>
-      <c r="K64" s="42">
-        <v>29.18</v>
-      </c>
-      <c r="L64" s="42">
-        <v>58.51</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J64" s="12">
+        <v>7.64</v>
+      </c>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12">
+        <v>5.94</v>
       </c>
       <c r="M64" s="42">
-        <v>80.78</v>
+        <v>5.98</v>
       </c>
       <c r="N64" s="42">
-        <v>13.41</v>
+        <v>0.38</v>
       </c>
       <c r="O64" s="21">
-        <v>0.39960000000000001</v>
+        <v>-0.1202</v>
       </c>
       <c r="P64" s="21">
-        <v>0.64880000000000004</v>
-      </c>
-      <c r="Q64" s="21">
-        <v>0.1139</v>
-      </c>
+        <v>-0.16059999999999999</v>
+      </c>
+      <c r="Q64" s="21"/>
       <c r="R64" s="21">
-        <v>0.30840000000000001</v>
+        <v>8.7400000000000005E-2</v>
       </c>
       <c r="S64" s="21">
-        <v>0.6421</v>
-      </c>
-      <c r="T64" s="45">
-        <v>1.46</v>
-      </c>
-      <c r="U64" s="73"/>
-      <c r="V64" s="13" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A65" s="18"/>
-      <c r="B65" s="11"/>
+        <v>-2.2237</v>
+      </c>
+      <c r="T64" s="21">
+        <v>-3.6903000000000001</v>
+      </c>
+      <c r="U64" s="45">
+        <v>0.78</v>
+      </c>
+      <c r="V64" s="73">
+        <v>1047570</v>
+      </c>
+      <c r="W64" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A65" s="19"/>
+      <c r="B65" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
+      <c r="G65" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65" s="24">
+        <v>30.43</v>
+      </c>
+      <c r="I65" s="24">
+        <v>7.05</v>
+      </c>
+      <c r="J65" s="42">
+        <v>6.77</v>
+      </c>
+      <c r="K65" s="12"/>
+      <c r="L65" s="42">
+        <v>2.77</v>
+      </c>
+      <c r="M65" s="42">
+        <v>3.72</v>
+      </c>
+      <c r="N65" s="42">
+        <v>0.32</v>
+      </c>
+      <c r="O65" s="21">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="P65" s="21">
+        <v>0.5645</v>
+      </c>
       <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="45"/>
-      <c r="U65" s="73"/>
-      <c r="V65" s="13"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A66" s="19"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="45"/>
-      <c r="U66" s="73"/>
-      <c r="V66" s="13"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A67" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="H67" s="38">
-        <v>1210</v>
-      </c>
-      <c r="I67" s="38">
-        <v>63.9</v>
-      </c>
-      <c r="J67" s="9">
-        <v>21.87</v>
-      </c>
-      <c r="K67" s="9">
-        <v>13.01</v>
-      </c>
-      <c r="L67" s="9">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="M67" s="9">
-        <v>12.03</v>
-      </c>
-      <c r="N67" s="9">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="O67" s="20">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="P67" s="20">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="Q67" s="20">
-        <v>0.2918</v>
-      </c>
-      <c r="R67" s="20">
-        <v>0.6018</v>
-      </c>
-      <c r="S67" s="20">
-        <v>1.304</v>
-      </c>
-      <c r="T67" s="9">
-        <v>1.49</v>
-      </c>
-      <c r="U67" s="43">
-        <v>1956070</v>
-      </c>
-      <c r="V67" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="R65" s="21">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="S65" s="21">
+        <v>-1.5022</v>
+      </c>
+      <c r="T65" s="21">
+        <v>-34.210900000000002</v>
+      </c>
+      <c r="U65" s="45">
+        <v>0.73</v>
+      </c>
+      <c r="V65" s="73">
+        <v>558510</v>
+      </c>
+      <c r="W65" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A66" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="38">
+        <v>27.27</v>
+      </c>
+      <c r="I66" s="38">
+        <v>0.4032</v>
+      </c>
+      <c r="J66" s="9">
+        <v>82.89</v>
+      </c>
+      <c r="K66" s="9">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="L66" s="9">
+        <v>59.7</v>
+      </c>
+      <c r="M66" s="9">
+        <v>16.64</v>
+      </c>
+      <c r="N66" s="9">
+        <v>5.71</v>
+      </c>
+      <c r="O66" s="20">
+        <v>0.40849999999999997</v>
+      </c>
+      <c r="P66" s="20">
+        <v>0.27189999999999998</v>
+      </c>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="S66" s="20">
+        <v>0.28489999999999999</v>
+      </c>
+      <c r="T66" s="20">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="U66" s="9">
+        <v>1.62</v>
+      </c>
+      <c r="V66" s="43">
+        <v>1229070</v>
+      </c>
+      <c r="W66" s="10" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A67" s="31"/>
+      <c r="B67" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="H67" s="24">
+        <v>141.47999999999999</v>
+      </c>
+      <c r="I67" s="24">
+        <v>3.86</v>
+      </c>
+      <c r="J67" s="42">
+        <v>58.27</v>
+      </c>
+      <c r="K67" s="42">
+        <v>8.76</v>
+      </c>
+      <c r="L67" s="42">
+        <v>42</v>
+      </c>
+      <c r="M67" s="42">
+        <v>48.19</v>
+      </c>
+      <c r="N67" s="42">
+        <v>7.97</v>
+      </c>
+      <c r="O67" s="21">
+        <v>0.1724</v>
+      </c>
+      <c r="P67" s="21">
+        <v>0.29239999999999999</v>
+      </c>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21">
+        <v>0.20849999999999999</v>
+      </c>
+      <c r="S67" s="21">
+        <v>0.15210000000000001</v>
+      </c>
+      <c r="T67" s="21">
+        <v>0.3241</v>
+      </c>
+      <c r="U67" s="45">
+        <v>1.32</v>
+      </c>
+      <c r="V67" s="73">
+        <v>766030</v>
+      </c>
+      <c r="W67" s="13" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A68" s="31"/>
-      <c r="B68" s="11" t="s">
-        <v>141</v>
-      </c>
+      <c r="B68" s="11"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
-      <c r="G68" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="H68" s="24">
-        <v>106.82</v>
-      </c>
-      <c r="I68" s="24">
-        <v>12</v>
-      </c>
-      <c r="J68" s="12">
-        <v>11.92</v>
-      </c>
-      <c r="K68" s="42">
-        <v>5.59</v>
-      </c>
-      <c r="L68" s="12">
-        <v>7.83</v>
-      </c>
-      <c r="M68" s="42">
-        <v>22.88</v>
-      </c>
-      <c r="N68" s="42">
-        <v>1.39</v>
-      </c>
-      <c r="O68" s="21">
-        <v>-3.6299999999999999E-2</v>
-      </c>
-      <c r="P68" s="21">
-        <v>-5.21E-2</v>
-      </c>
+      <c r="G68" s="34"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
       <c r="Q68" s="21"/>
-      <c r="R68" s="21">
-        <v>0.47189999999999999</v>
-      </c>
-      <c r="S68" s="21">
-        <v>3.4729000000000001</v>
-      </c>
-      <c r="T68" s="45">
-        <v>1.24</v>
-      </c>
-      <c r="U68" s="73">
-        <v>217060</v>
-      </c>
-      <c r="V68" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="45"/>
+      <c r="V68" s="73"/>
+      <c r="W68" s="13"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A69" s="31"/>
-      <c r="B69" s="11" t="s">
-        <v>143</v>
-      </c>
+      <c r="B69" s="11"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
-      <c r="G69" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="H69" s="24">
-        <v>22.02</v>
-      </c>
-      <c r="I69" s="24">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="J69" s="12">
-        <v>7.64</v>
-      </c>
+      <c r="G69" s="34"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="42"/>
       <c r="K69" s="12"/>
-      <c r="L69" s="12">
-        <v>5.94</v>
-      </c>
-      <c r="M69" s="42">
-        <v>5.98</v>
-      </c>
-      <c r="N69" s="42">
-        <v>0.38</v>
-      </c>
-      <c r="O69" s="21">
-        <v>-0.1202</v>
-      </c>
-      <c r="P69" s="21">
-        <v>-0.16059999999999999</v>
-      </c>
-      <c r="Q69" s="21">
-        <v>8.7400000000000005E-2</v>
-      </c>
-      <c r="R69" s="21">
-        <v>-2.2237</v>
-      </c>
-      <c r="S69" s="21">
-        <v>-3.6903000000000001</v>
-      </c>
-      <c r="T69" s="45">
-        <v>0.78</v>
-      </c>
-      <c r="U69" s="73">
-        <v>1047570</v>
-      </c>
-      <c r="V69" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="45"/>
+      <c r="V69" s="73"/>
+      <c r="W69" s="13"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A70" s="19"/>
-      <c r="B70" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="H70" s="24">
-        <v>30.43</v>
-      </c>
-      <c r="I70" s="24">
-        <v>7.05</v>
-      </c>
-      <c r="J70" s="42">
-        <v>6.77</v>
-      </c>
-      <c r="K70" s="12"/>
-      <c r="L70" s="42">
-        <v>2.77</v>
-      </c>
-      <c r="M70" s="42">
-        <v>3.72</v>
-      </c>
-      <c r="N70" s="42">
-        <v>0.32</v>
-      </c>
-      <c r="O70" s="21">
-        <v>8.3699999999999997E-2</v>
-      </c>
-      <c r="P70" s="21">
-        <v>0.5645</v>
-      </c>
-      <c r="Q70" s="21">
-        <v>0.10489999999999999</v>
-      </c>
-      <c r="R70" s="21">
-        <v>-1.5022</v>
-      </c>
-      <c r="S70" s="21">
-        <v>-34.210900000000002</v>
-      </c>
-      <c r="T70" s="45">
-        <v>0.73</v>
-      </c>
-      <c r="U70" s="73">
-        <v>558510</v>
-      </c>
-      <c r="V70" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="53"/>
+      <c r="W70" s="16"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A71" s="31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="28" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="H71" s="38">
-        <v>27.27</v>
+        <v>180.16</v>
       </c>
       <c r="I71" s="38">
-        <v>0.4032</v>
+        <v>14.83</v>
       </c>
       <c r="J71" s="9">
-        <v>82.89</v>
+        <v>16.59</v>
       </c>
       <c r="K71" s="9">
-        <v>20.440000000000001</v>
+        <v>5.16</v>
       </c>
       <c r="L71" s="9">
-        <v>59.7</v>
+        <v>14.01</v>
       </c>
       <c r="M71" s="9">
-        <v>16.64</v>
+        <v>13.23</v>
       </c>
       <c r="N71" s="9">
-        <v>5.71</v>
+        <v>3.51</v>
       </c>
       <c r="O71" s="20">
-        <v>0.40849999999999997</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="P71" s="20">
-        <v>0.27189999999999998</v>
-      </c>
-      <c r="Q71" s="20">
-        <v>2.3699999999999999E-2</v>
-      </c>
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="Q71" s="20"/>
       <c r="R71" s="20">
-        <v>0.28489999999999999</v>
+        <v>0.31929999999999997</v>
       </c>
       <c r="S71" s="20">
-        <v>0.62819999999999998</v>
-      </c>
-      <c r="T71" s="9">
-        <v>1.62</v>
-      </c>
-      <c r="U71" s="43">
-        <v>1229070</v>
-      </c>
-      <c r="V71" s="10" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.5">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="T71" s="20">
+        <v>0.48039999999999999</v>
+      </c>
+      <c r="U71" s="9">
+        <v>1.66</v>
+      </c>
+      <c r="V71" s="43">
+        <v>679180</v>
+      </c>
+      <c r="W71" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A72" s="31"/>
       <c r="B72" s="11" t="s">
-        <v>515</v>
+        <v>98</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="34" t="s">
-        <v>514</v>
+        <v>99</v>
       </c>
       <c r="H72" s="24">
-        <v>141.47999999999999</v>
+        <v>7.58</v>
       </c>
       <c r="I72" s="24">
-        <v>3.86</v>
-      </c>
-      <c r="J72" s="42">
-        <v>58.27</v>
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="J72" s="12">
+        <v>22.57</v>
       </c>
       <c r="K72" s="42">
-        <v>8.76</v>
-      </c>
-      <c r="L72" s="42">
-        <v>42</v>
+        <v>1.66</v>
+      </c>
+      <c r="L72" s="12">
+        <v>13.96</v>
       </c>
       <c r="M72" s="42">
-        <v>48.19</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="N72" s="42">
-        <v>7.97</v>
+        <v>1.74</v>
       </c>
       <c r="O72" s="21">
-        <v>0.1724</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="P72" s="21">
-        <v>0.29239999999999999</v>
-      </c>
-      <c r="Q72" s="21">
-        <v>0.20849999999999999</v>
-      </c>
+        <v>0.2928</v>
+      </c>
+      <c r="Q72" s="21"/>
       <c r="R72" s="21">
-        <v>0.15210000000000001</v>
+        <v>0.15890000000000001</v>
       </c>
       <c r="S72" s="21">
-        <v>0.3241</v>
-      </c>
-      <c r="T72" s="45">
-        <v>1.32</v>
-      </c>
-      <c r="U72" s="73">
-        <v>766030</v>
-      </c>
-      <c r="V72" s="13" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.5">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="T72" s="21">
+        <v>0.40870000000000001</v>
+      </c>
+      <c r="U72" s="45">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="V72" s="73">
+        <v>471570</v>
+      </c>
+      <c r="W72" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A73" s="31"/>
-      <c r="B73" s="11"/>
+      <c r="B73" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="42"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
+      <c r="G73" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H73" s="24">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I73" s="24">
+        <v>0.71579999999999999</v>
+      </c>
+      <c r="J73" s="12">
+        <v>60.09</v>
+      </c>
+      <c r="K73" s="12">
+        <v>16.45</v>
+      </c>
+      <c r="L73" s="12">
+        <v>49.82</v>
+      </c>
+      <c r="M73" s="42">
+        <v>32.99</v>
+      </c>
+      <c r="N73" s="42">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="O73" s="21">
+        <v>0.2286</v>
+      </c>
+      <c r="P73" s="21">
+        <v>0.52300000000000002</v>
+      </c>
       <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="45"/>
-      <c r="U73" s="73"/>
-      <c r="V73" s="13"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="R73" s="21">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="S73" s="21">
+        <v>0.2777</v>
+      </c>
+      <c r="T73" s="21">
+        <v>3.49E-2</v>
+      </c>
+      <c r="U73" s="45">
+        <v>1.85</v>
+      </c>
+      <c r="V73" s="73">
+        <v>304460</v>
+      </c>
+      <c r="W73" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A74" s="31"/>
-      <c r="B74" s="11"/>
+      <c r="B74" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
+      <c r="G74" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H74" s="24">
+        <v>19.28</v>
+      </c>
+      <c r="I74" s="24">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12">
+        <v>12.24</v>
+      </c>
+      <c r="L74" s="12">
+        <v>31436.7</v>
+      </c>
+      <c r="M74" s="42">
+        <v>-189.24</v>
+      </c>
+      <c r="N74" s="42">
+        <v>6.04</v>
+      </c>
+      <c r="O74" s="21">
+        <v>0.37119999999999997</v>
+      </c>
+      <c r="P74" s="21">
+        <v>-0.1951</v>
+      </c>
       <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="45"/>
-      <c r="U74" s="73"/>
-      <c r="V74" s="13"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A75" s="19"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
-      <c r="U75" s="53"/>
-      <c r="V75" s="16"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A76" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H76" s="38">
-        <v>180.16</v>
-      </c>
-      <c r="I76" s="38">
-        <v>14.83</v>
-      </c>
-      <c r="J76" s="9">
-        <v>16.59</v>
-      </c>
-      <c r="K76" s="9">
-        <v>5.16</v>
-      </c>
-      <c r="L76" s="9">
-        <v>14.01</v>
-      </c>
-      <c r="M76" s="9">
-        <v>13.23</v>
-      </c>
-      <c r="N76" s="9">
-        <v>3.51</v>
-      </c>
-      <c r="O76" s="20">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="P76" s="20">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="Q76" s="20">
-        <v>0.31929999999999997</v>
-      </c>
-      <c r="R76" s="20">
-        <v>0.31509999999999999</v>
-      </c>
-      <c r="S76" s="20">
-        <v>0.48039999999999999</v>
-      </c>
-      <c r="T76" s="9">
-        <v>1.66</v>
-      </c>
-      <c r="U76" s="43">
-        <v>679180</v>
-      </c>
-      <c r="V76" s="10" t="s">
+      <c r="R74" s="21">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="S74" s="21">
+        <v>-0.11310000000000001</v>
+      </c>
+      <c r="T74" s="21">
+        <v>1.1623000000000001</v>
+      </c>
+      <c r="U74" s="45">
+        <v>1.8</v>
+      </c>
+      <c r="V74" s="73">
+        <v>444970</v>
+      </c>
+      <c r="W74" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A75" s="31"/>
+      <c r="B75" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="H75" s="24">
+        <v>15.44</v>
+      </c>
+      <c r="I75" s="24">
+        <v>1.08</v>
+      </c>
+      <c r="J75" s="12">
+        <v>19.47</v>
+      </c>
+      <c r="K75" s="12">
+        <v>4.54</v>
+      </c>
+      <c r="L75" s="12">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="M75" s="42">
+        <v>13.52</v>
+      </c>
+      <c r="N75" s="42">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="O75" s="21">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="P75" s="21">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21">
+        <v>0.45760000000000001</v>
+      </c>
+      <c r="S75" s="21">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="T75" s="21">
+        <v>0</v>
+      </c>
+      <c r="U75" s="45">
+        <v>1.59</v>
+      </c>
+      <c r="V75" s="73">
+        <v>390040</v>
+      </c>
+      <c r="W75" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A76" s="31"/>
+      <c r="B76" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H76" s="24">
+        <v>7.55</v>
+      </c>
+      <c r="I76" s="24">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="J76" s="42">
+        <v>18.95</v>
+      </c>
+      <c r="K76" s="12">
+        <v>4.41</v>
+      </c>
+      <c r="L76" s="42">
+        <v>15.95</v>
+      </c>
+      <c r="M76" s="42">
+        <v>16.04</v>
+      </c>
+      <c r="N76" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="O76" s="21">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="P76" s="21">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21">
+        <v>0.2858</v>
+      </c>
+      <c r="S76" s="21">
+        <v>0.23319999999999999</v>
+      </c>
+      <c r="T76" s="21">
+        <v>0.19939999999999999</v>
+      </c>
+      <c r="U76" s="45">
+        <v>1.49</v>
+      </c>
+      <c r="V76" s="73">
+        <v>433150</v>
+      </c>
+      <c r="W76" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A77" s="31"/>
       <c r="B77" s="11" t="s">
-        <v>98</v>
+        <v>663</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="34" t="s">
-        <v>99</v>
+        <v>664</v>
       </c>
       <c r="H77" s="24">
-        <v>7.58</v>
+        <v>0.74956999999999996</v>
       </c>
       <c r="I77" s="24">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="J77" s="12">
-        <v>22.57</v>
+        <v>7.0180000000000006E-2</v>
+      </c>
+      <c r="J77" s="42">
+        <v>93.81</v>
       </c>
       <c r="K77" s="42">
-        <v>1.66</v>
-      </c>
-      <c r="L77" s="12">
-        <v>13.96</v>
+        <v>1.25</v>
+      </c>
+      <c r="L77" s="42">
+        <v>27.73</v>
       </c>
       <c r="M77" s="42">
-        <v>8.6999999999999993</v>
+        <v>438.86</v>
       </c>
       <c r="N77" s="42">
-        <v>1.74</v>
+        <v>0.78</v>
       </c>
       <c r="O77" s="21">
-        <v>-8.0000000000000002E-3</v>
+        <v>-6.4399999999999999E-2</v>
       </c>
       <c r="P77" s="21">
-        <v>0.2928</v>
-      </c>
-      <c r="Q77" s="21">
-        <v>0.15890000000000001</v>
-      </c>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="Q77" s="21"/>
       <c r="R77" s="21">
-        <v>7.3800000000000004E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="S77" s="21">
-        <v>0.40870000000000001</v>
-      </c>
-      <c r="T77" s="45">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="U77" s="73">
-        <v>471570</v>
-      </c>
-      <c r="V77" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.5">
+        <v>1.43E-2</v>
+      </c>
+      <c r="T77" s="21">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="U77" s="45">
+        <v>2.61</v>
+      </c>
+      <c r="V77" s="73">
+        <v>1210930</v>
+      </c>
+      <c r="W77" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A78" s="31"/>
       <c r="B78" s="11" t="s">
-        <v>100</v>
+        <v>673</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="34" t="s">
-        <v>101</v>
+        <v>672</v>
       </c>
       <c r="H78" s="24">
-        <v>19.399999999999999</v>
+        <v>5.46</v>
       </c>
       <c r="I78" s="24">
-        <v>0.71579999999999999</v>
-      </c>
-      <c r="J78" s="12">
-        <v>60.09</v>
-      </c>
-      <c r="K78" s="12">
-        <v>16.45</v>
-      </c>
-      <c r="L78" s="12">
-        <v>49.82</v>
+        <v>6.7470000000000002E-2</v>
+      </c>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42">
+        <v>15.6</v>
+      </c>
+      <c r="L78" s="42">
+        <v>210.6</v>
       </c>
       <c r="M78" s="42">
-        <v>32.99</v>
+        <v>191.51</v>
       </c>
       <c r="N78" s="42">
-        <v>8.9700000000000006</v>
+        <v>12.81</v>
       </c>
       <c r="O78" s="21">
-        <v>0.2286</v>
+        <v>0.1855</v>
       </c>
       <c r="P78" s="21">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="Q78" s="21">
-        <v>0.18820000000000001</v>
-      </c>
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="Q78" s="21"/>
       <c r="R78" s="21">
-        <v>0.2777</v>
+        <v>0.14940000000000001</v>
       </c>
       <c r="S78" s="21">
-        <v>3.49E-2</v>
-      </c>
-      <c r="T78" s="45">
-        <v>1.85</v>
-      </c>
-      <c r="U78" s="73">
-        <v>304460</v>
-      </c>
-      <c r="V78" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A79" s="31"/>
-      <c r="B79" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="H79" s="24">
-        <v>19.28</v>
-      </c>
-      <c r="I79" s="24">
-        <v>0.89029999999999998</v>
-      </c>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12">
-        <v>12.24</v>
-      </c>
-      <c r="L79" s="12">
-        <v>31436.7</v>
-      </c>
-      <c r="M79" s="42">
-        <v>-189.24</v>
-      </c>
-      <c r="N79" s="42">
-        <v>6.04</v>
-      </c>
-      <c r="O79" s="21">
-        <v>0.37119999999999997</v>
-      </c>
-      <c r="P79" s="21">
-        <v>-0.1951</v>
-      </c>
-      <c r="Q79" s="21">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R79" s="21">
-        <v>-0.11310000000000001</v>
-      </c>
-      <c r="S79" s="21">
-        <v>1.1623000000000001</v>
-      </c>
-      <c r="T79" s="45">
-        <v>1.8</v>
-      </c>
-      <c r="U79" s="73">
-        <v>444970</v>
-      </c>
-      <c r="V79" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A80" s="31"/>
-      <c r="B80" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H80" s="24">
-        <v>15.44</v>
-      </c>
-      <c r="I80" s="24">
-        <v>1.08</v>
-      </c>
-      <c r="J80" s="12">
-        <v>19.47</v>
-      </c>
-      <c r="K80" s="12">
-        <v>4.54</v>
-      </c>
-      <c r="L80" s="12">
-        <v>19.440000000000001</v>
-      </c>
-      <c r="M80" s="42">
-        <v>13.52</v>
-      </c>
-      <c r="N80" s="42">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="O80" s="21">
-        <v>5.9299999999999999E-2</v>
-      </c>
-      <c r="P80" s="21">
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="Q80" s="21">
-        <v>0.45760000000000001</v>
-      </c>
-      <c r="R80" s="21">
-        <v>0.22689999999999999</v>
-      </c>
-      <c r="S80" s="21">
-        <v>0</v>
-      </c>
-      <c r="T80" s="45">
-        <v>1.59</v>
-      </c>
-      <c r="U80" s="73">
-        <v>390040</v>
-      </c>
-      <c r="V80" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.5">
+        <v>-0.20280000000000001</v>
+      </c>
+      <c r="T78" s="21">
+        <v>1.4995000000000001</v>
+      </c>
+      <c r="U78" s="45">
+        <v>2.67</v>
+      </c>
+      <c r="V78" s="73">
+        <v>617290</v>
+      </c>
+      <c r="W78" s="13" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A79" s="19"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="15"/>
+      <c r="V79" s="53"/>
+      <c r="W79" s="16"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A80" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H80" s="38">
+        <v>13.17</v>
+      </c>
+      <c r="I80" s="38">
+        <v>0.45469999999999999</v>
+      </c>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9">
+        <v>6.79</v>
+      </c>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9">
+        <v>-8.5</v>
+      </c>
+      <c r="N80" s="9">
+        <v>3.14</v>
+      </c>
+      <c r="O80" s="20">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="P80" s="20">
+        <v>0.1802</v>
+      </c>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="20"/>
+      <c r="S80" s="20">
+        <v>-0.77149999999999996</v>
+      </c>
+      <c r="T80" s="20">
+        <v>1.7843</v>
+      </c>
+      <c r="U80" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="V80" s="43">
+        <v>468440</v>
+      </c>
+      <c r="W80" s="10" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A81" s="31"/>
       <c r="B81" s="11" t="s">
-        <v>108</v>
+        <v>637</v>
       </c>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="34" t="s">
-        <v>109</v>
+        <v>638</v>
       </c>
       <c r="H81" s="24">
-        <v>7.55</v>
+        <v>7.76</v>
       </c>
       <c r="I81" s="24">
-        <v>0.58899999999999997</v>
+        <v>0.60858999999999996</v>
       </c>
       <c r="J81" s="42">
-        <v>18.95</v>
-      </c>
-      <c r="K81" s="12">
-        <v>4.41</v>
+        <v>6.58</v>
+      </c>
+      <c r="K81" s="42">
+        <v>1.97</v>
       </c>
       <c r="L81" s="42">
-        <v>15.95</v>
+        <v>6.51</v>
       </c>
       <c r="M81" s="42">
-        <v>16.04</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N81" s="42">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
       <c r="O81" s="21">
-        <v>5.2999999999999999E-2</v>
+        <v>0.53210000000000002</v>
       </c>
       <c r="P81" s="21">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="Q81" s="21">
-        <v>0.2858</v>
-      </c>
-      <c r="R81" s="21">
-        <v>0.23319999999999999</v>
-      </c>
+        <v>1.1326000000000001</v>
+      </c>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
       <c r="S81" s="21">
-        <v>0.19939999999999999</v>
-      </c>
-      <c r="T81" s="45">
-        <v>1.49</v>
-      </c>
-      <c r="U81" s="73">
-        <v>433150</v>
-      </c>
-      <c r="V81" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.5">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="T81" s="21">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="U81" s="45">
+        <v>1.65</v>
+      </c>
+      <c r="V81" s="73">
+        <v>102890</v>
+      </c>
+      <c r="W81" s="13" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A82" s="31"/>
       <c r="B82" s="11" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="34" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="H82" s="24">
-        <v>0.74956999999999996</v>
+        <v>3.76</v>
       </c>
       <c r="I82" s="24">
-        <v>7.0180000000000006E-2</v>
+        <v>0.27065</v>
       </c>
       <c r="J82" s="42">
-        <v>93.81</v>
+        <v>57.1</v>
       </c>
       <c r="K82" s="42">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="L82" s="42">
-        <v>27.73</v>
+        <v>54.83</v>
       </c>
       <c r="M82" s="42">
-        <v>438.86</v>
+        <v>39.01</v>
       </c>
       <c r="N82" s="42">
-        <v>0.78</v>
+        <v>3.07</v>
       </c>
       <c r="O82" s="21">
-        <v>-6.4399999999999999E-2</v>
+        <v>0.5998</v>
       </c>
       <c r="P82" s="21">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="Q82" s="21">
-        <v>3.44E-2</v>
-      </c>
-      <c r="R82" s="21">
-        <v>1.43E-2</v>
-      </c>
+        <v>-3.15E-2</v>
+      </c>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
       <c r="S82" s="21">
-        <v>5.5100000000000003E-2</v>
-      </c>
-      <c r="T82" s="45">
-        <v>2.61</v>
-      </c>
-      <c r="U82" s="73">
-        <v>1210930</v>
-      </c>
-      <c r="V82" s="13" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.5">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="T82" s="21">
+        <v>1.17E-2</v>
+      </c>
+      <c r="U82" s="45">
+        <v>4.51</v>
+      </c>
+      <c r="V82" s="73">
+        <v>645340</v>
+      </c>
+      <c r="W82" s="13" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A83" s="31"/>
       <c r="B83" s="11" t="s">
-        <v>673</v>
+        <v>643</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
       <c r="G83" s="34" t="s">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="H83" s="24">
-        <v>5.46</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="I83" s="24">
-        <v>6.7470000000000002E-2</v>
-      </c>
-      <c r="J83" s="42"/>
+        <v>0.11448</v>
+      </c>
+      <c r="J83" s="42">
+        <v>380</v>
+      </c>
       <c r="K83" s="42">
-        <v>15.6</v>
+        <v>6.75</v>
       </c>
       <c r="L83" s="42">
-        <v>210.6</v>
+        <v>351.92</v>
       </c>
       <c r="M83" s="42">
-        <v>191.51</v>
+        <v>27.35</v>
       </c>
       <c r="N83" s="42">
-        <v>12.81</v>
+        <v>1.92</v>
       </c>
       <c r="O83" s="21">
-        <v>0.1855</v>
+        <v>0.29260000000000003</v>
       </c>
       <c r="P83" s="21">
-        <v>0.17530000000000001</v>
-      </c>
-      <c r="Q83" s="21">
-        <v>0.14940000000000001</v>
-      </c>
-      <c r="R83" s="21">
-        <v>-0.20280000000000001</v>
-      </c>
+        <v>-0.27039999999999997</v>
+      </c>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
       <c r="S83" s="21">
-        <v>1.4995000000000001</v>
-      </c>
-      <c r="T83" s="45">
-        <v>2.67</v>
-      </c>
-      <c r="U83" s="73">
-        <v>617290</v>
-      </c>
-      <c r="V83" s="13" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A84" s="19"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
-      <c r="T84" s="15"/>
-      <c r="U84" s="53"/>
-      <c r="V84" s="16"/>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A85" s="31" t="s">
-        <v>634</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="28" t="s">
-        <v>636</v>
-      </c>
-      <c r="H85" s="38">
-        <v>13.17</v>
-      </c>
-      <c r="I85" s="38">
-        <v>0.45469999999999999</v>
-      </c>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9">
-        <v>6.79</v>
-      </c>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9">
-        <v>-8.5</v>
-      </c>
-      <c r="N85" s="9">
-        <v>3.14</v>
-      </c>
-      <c r="O85" s="20">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="P85" s="20">
-        <v>0.1802</v>
-      </c>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="20">
-        <v>-0.77149999999999996</v>
-      </c>
-      <c r="S85" s="20">
-        <v>1.7843</v>
-      </c>
-      <c r="T85" s="9">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="U85" s="43">
-        <v>468440</v>
-      </c>
-      <c r="V85" s="10" t="s">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="T83" s="21">
+        <v>0</v>
+      </c>
+      <c r="U83" s="45">
+        <v>3.77</v>
+      </c>
+      <c r="V83" s="73">
+        <v>536960</v>
+      </c>
+      <c r="W83" s="13" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A84" s="31"/>
+      <c r="B84" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="34" t="s">
+        <v>646</v>
+      </c>
+      <c r="H84" s="24">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="I84" s="24">
+        <v>-1.4579999999999999E-2</v>
+      </c>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42">
+        <v>9.15</v>
+      </c>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42">
+        <v>-43.42</v>
+      </c>
+      <c r="N84" s="42">
+        <v>10.02</v>
+      </c>
+      <c r="O84" s="21">
+        <v>0.66810000000000003</v>
+      </c>
+      <c r="P84" s="21">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="21">
+        <v>-0.1736</v>
+      </c>
+      <c r="T84" s="21">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="U84" s="45">
+        <v>2.42</v>
+      </c>
+      <c r="V84" s="73">
+        <v>203180</v>
+      </c>
+      <c r="W84" s="13" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A85" s="31"/>
+      <c r="B85" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="34" t="s">
+        <v>706</v>
+      </c>
+      <c r="H85" s="24">
+        <v>9.06</v>
+      </c>
+      <c r="I85" s="24"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42">
+        <v>30.11</v>
+      </c>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42">
+        <v>374.79</v>
+      </c>
+      <c r="N85" s="42">
+        <v>8.33</v>
+      </c>
+      <c r="O85" s="21">
+        <v>0.11990000000000001</v>
+      </c>
+      <c r="P85" s="21">
+        <v>-3.3700000000000001E-2</v>
+      </c>
+      <c r="Q85" s="21">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="R85" s="21">
+        <v>-8.7300000000000003E-2</v>
+      </c>
+      <c r="S85" s="21">
+        <v>-0.6855</v>
+      </c>
+      <c r="T85" s="21">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="U85" s="45">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="V85" s="73">
+        <v>469490</v>
+      </c>
+      <c r="W85" s="13"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A86" s="31"/>
-      <c r="B86" s="11" t="s">
-        <v>637</v>
-      </c>
+      <c r="B86" s="11"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
-      <c r="G86" s="34" t="s">
-        <v>638</v>
-      </c>
-      <c r="H86" s="24">
-        <v>7.76</v>
-      </c>
-      <c r="I86" s="24">
-        <v>0.60858999999999996</v>
-      </c>
-      <c r="J86" s="42">
-        <v>6.58</v>
-      </c>
-      <c r="K86" s="42">
-        <v>1.97</v>
-      </c>
-      <c r="L86" s="42">
-        <v>6.51</v>
-      </c>
-      <c r="M86" s="42">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N86" s="42">
-        <v>3.46</v>
-      </c>
-      <c r="O86" s="21">
-        <v>0.53210000000000002</v>
-      </c>
-      <c r="P86" s="21">
-        <v>1.1326000000000001</v>
-      </c>
+      <c r="G86" s="34"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
       <c r="Q86" s="21"/>
-      <c r="R86" s="21">
-        <v>0.30220000000000002</v>
-      </c>
-      <c r="S86" s="21">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="T86" s="45">
-        <v>1.65</v>
-      </c>
-      <c r="U86" s="73">
-        <v>102890</v>
-      </c>
-      <c r="V86" s="13" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
+      <c r="U86" s="45"/>
+      <c r="V86" s="73"/>
+      <c r="W86" s="13"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A87" s="31"/>
-      <c r="B87" s="11" t="s">
-        <v>640</v>
-      </c>
+      <c r="B87" s="11"/>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
-      <c r="G87" s="34" t="s">
-        <v>641</v>
-      </c>
-      <c r="H87" s="24">
-        <v>3.76</v>
-      </c>
-      <c r="I87" s="24">
-        <v>0.27065</v>
-      </c>
-      <c r="J87" s="42">
-        <v>57.1</v>
-      </c>
-      <c r="K87" s="42">
-        <v>3.3</v>
-      </c>
-      <c r="L87" s="42">
-        <v>54.83</v>
-      </c>
-      <c r="M87" s="42">
-        <v>39.01</v>
-      </c>
-      <c r="N87" s="42">
-        <v>3.07</v>
-      </c>
-      <c r="O87" s="21">
-        <v>0.5998</v>
-      </c>
-      <c r="P87" s="21">
-        <v>-3.15E-2</v>
-      </c>
+      <c r="G87" s="34"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
       <c r="Q87" s="21"/>
-      <c r="R87" s="21">
-        <v>6.0199999999999997E-2</v>
-      </c>
-      <c r="S87" s="21">
-        <v>1.17E-2</v>
-      </c>
-      <c r="T87" s="45">
-        <v>4.51</v>
-      </c>
-      <c r="U87" s="73">
-        <v>645340</v>
-      </c>
-      <c r="V87" s="13" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="45"/>
+      <c r="V87" s="73"/>
+      <c r="W87" s="13"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A88" s="31"/>
-      <c r="B88" s="11" t="s">
-        <v>643</v>
-      </c>
+      <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
-      <c r="G88" s="34" t="s">
-        <v>644</v>
-      </c>
-      <c r="H88" s="24">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="I88" s="24">
-        <v>0.11448</v>
-      </c>
-      <c r="J88" s="42">
-        <v>380</v>
-      </c>
-      <c r="K88" s="42">
-        <v>6.75</v>
-      </c>
-      <c r="L88" s="42">
-        <v>351.92</v>
-      </c>
-      <c r="M88" s="42">
-        <v>27.35</v>
-      </c>
-      <c r="N88" s="42">
-        <v>1.92</v>
-      </c>
-      <c r="O88" s="21">
-        <v>0.29260000000000003</v>
-      </c>
-      <c r="P88" s="21">
-        <v>-0.27039999999999997</v>
-      </c>
+      <c r="G88" s="34"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
       <c r="Q88" s="21"/>
-      <c r="R88" s="21">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="S88" s="21">
-        <v>0</v>
-      </c>
-      <c r="T88" s="45">
-        <v>3.77</v>
-      </c>
-      <c r="U88" s="73">
-        <v>536960</v>
-      </c>
-      <c r="V88" s="13" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A89" s="31"/>
-      <c r="B89" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="34" t="s">
-        <v>646</v>
-      </c>
-      <c r="H89" s="24">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="I89" s="24">
-        <v>-1.4579999999999999E-2</v>
-      </c>
-      <c r="J89" s="42"/>
-      <c r="K89" s="42">
-        <v>9.15</v>
-      </c>
-      <c r="L89" s="42"/>
-      <c r="M89" s="42">
-        <v>-43.42</v>
-      </c>
-      <c r="N89" s="42">
-        <v>10.02</v>
-      </c>
-      <c r="O89" s="21">
-        <v>0.66810000000000003</v>
-      </c>
-      <c r="P89" s="21">
-        <v>-0.23899999999999999</v>
-      </c>
-      <c r="Q89" s="21"/>
-      <c r="R89" s="21">
-        <v>-0.1736</v>
-      </c>
-      <c r="S89" s="21">
-        <v>0.52510000000000001</v>
-      </c>
-      <c r="T89" s="45">
-        <v>2.42</v>
-      </c>
-      <c r="U89" s="73">
-        <v>203180</v>
-      </c>
-      <c r="V89" s="13" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A90" s="31"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="42"/>
-      <c r="L90" s="42"/>
-      <c r="M90" s="42"/>
-      <c r="N90" s="42"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="21"/>
-      <c r="Q90" s="21"/>
-      <c r="R90" s="21"/>
-      <c r="S90" s="21"/>
-      <c r="T90" s="45"/>
-      <c r="U90" s="73"/>
-      <c r="V90" s="13"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="U88" s="45"/>
+      <c r="V88" s="73"/>
+      <c r="W88" s="13"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A89" s="19"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="15"/>
+      <c r="U89" s="15"/>
+      <c r="V89" s="53"/>
+      <c r="W89" s="16"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A90" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H90" s="38">
+        <v>16.98</v>
+      </c>
+      <c r="I90" s="38">
+        <v>0.50795000000000001</v>
+      </c>
+      <c r="J90" s="9">
+        <v>30.59</v>
+      </c>
+      <c r="K90" s="49">
+        <v>4.42</v>
+      </c>
+      <c r="L90" s="9">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="M90" s="9">
+        <v>15.75</v>
+      </c>
+      <c r="N90" s="9">
+        <v>5.42</v>
+      </c>
+      <c r="O90" s="20">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="P90" s="20">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="Q90" s="20">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="R90" s="20">
+        <v>0.36020000000000002</v>
+      </c>
+      <c r="S90" s="20">
+        <v>0.1467</v>
+      </c>
+      <c r="T90" s="20">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="U90" s="9">
+        <v>3.22</v>
+      </c>
+      <c r="V90" s="43">
+        <v>404450</v>
+      </c>
+      <c r="W90" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A91" s="31"/>
-      <c r="B91" s="11"/>
+      <c r="B91" s="11" t="s">
+        <v>453</v>
+      </c>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="42"/>
-      <c r="K91" s="42"/>
-      <c r="L91" s="42"/>
-      <c r="M91" s="42"/>
-      <c r="N91" s="42"/>
-      <c r="O91" s="21"/>
-      <c r="P91" s="21"/>
-      <c r="Q91" s="21"/>
-      <c r="R91" s="21"/>
-      <c r="S91" s="21"/>
-      <c r="T91" s="45"/>
-      <c r="U91" s="73"/>
-      <c r="V91" s="13"/>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A92" s="31"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="42"/>
-      <c r="K92" s="42"/>
-      <c r="L92" s="42"/>
-      <c r="M92" s="42"/>
-      <c r="N92" s="42"/>
-      <c r="O92" s="21"/>
-      <c r="P92" s="21"/>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="45"/>
-      <c r="U92" s="73"/>
-      <c r="V92" s="13"/>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A93" s="31"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="42"/>
-      <c r="K93" s="42"/>
-      <c r="L93" s="42"/>
-      <c r="M93" s="42"/>
-      <c r="N93" s="42"/>
-      <c r="O93" s="21"/>
-      <c r="P93" s="21"/>
+      <c r="G91" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="H91" s="24">
+        <v>9.01</v>
+      </c>
+      <c r="I91" s="24">
+        <v>-2.6200000000000001E-2</v>
+      </c>
+      <c r="J91" s="40"/>
+      <c r="K91" s="42">
+        <v>21.34</v>
+      </c>
+      <c r="L91" s="12"/>
+      <c r="M91" s="42">
+        <v>-119.75</v>
+      </c>
+      <c r="N91" s="42">
+        <v>31.77</v>
+      </c>
+      <c r="O91" s="21">
+        <v>0.13830000000000001</v>
+      </c>
+      <c r="P91" s="21">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="Q91" s="21">
+        <v>0.65369999999999995</v>
+      </c>
+      <c r="R91" s="21">
+        <v>-0.14030000000000001</v>
+      </c>
+      <c r="S91" s="21">
+        <v>-0.16170000000000001</v>
+      </c>
+      <c r="T91" s="21">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="U91" s="45">
+        <v>8.48</v>
+      </c>
+      <c r="V91" s="73">
+        <v>424070</v>
+      </c>
+      <c r="W91" s="13"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A92" s="19"/>
+      <c r="B92" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="H92" s="39">
+        <v>22.95</v>
+      </c>
+      <c r="I92" s="39">
+        <v>-9.2149999999999996E-2</v>
+      </c>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15">
+        <v>29.38</v>
+      </c>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15">
+        <v>-423.43</v>
+      </c>
+      <c r="N92" s="15">
+        <v>58.41</v>
+      </c>
+      <c r="O92" s="22">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="P92" s="22">
+        <v>1.2169000000000001</v>
+      </c>
+      <c r="Q92" s="22">
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="R92" s="22">
+        <v>-0.15959999999999999</v>
+      </c>
+      <c r="S92" s="22">
+        <v>-0.1467</v>
+      </c>
+      <c r="T92" s="22">
+        <v>0.51</v>
+      </c>
+      <c r="U92" s="15">
+        <v>8.1</v>
+      </c>
+      <c r="V92" s="53">
+        <v>306350</v>
+      </c>
+      <c r="W92" s="16"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A93" s="31" t="s">
+        <v>690</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="G93" s="70" t="s">
+        <v>685</v>
+      </c>
+      <c r="H93" s="68">
+        <v>90.97</v>
+      </c>
+      <c r="I93" s="68"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="42">
+        <v>-307.88</v>
+      </c>
+      <c r="N93" s="42">
+        <v>135.61000000000001</v>
+      </c>
+      <c r="O93" s="21">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="P93" s="21">
+        <v>0.14319999999999999</v>
+      </c>
       <c r="Q93" s="21"/>
       <c r="R93" s="21"/>
-      <c r="S93" s="21"/>
-      <c r="T93" s="45"/>
-      <c r="U93" s="73"/>
-      <c r="V93" s="13"/>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A94" s="19"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
-      <c r="O94" s="15"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="15"/>
-      <c r="S94" s="15"/>
-      <c r="T94" s="15"/>
-      <c r="U94" s="53"/>
-      <c r="V94" s="16"/>
+      <c r="S93" s="21">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="T93" s="21">
+        <v>-0.30930000000000002</v>
+      </c>
+      <c r="U93" s="35">
+        <v>1.63</v>
+      </c>
+      <c r="V93" s="44"/>
+      <c r="W93" s="23"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A94" s="31"/>
+      <c r="B94" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="G94" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="H94" s="24">
+        <v>15.89</v>
+      </c>
+      <c r="I94" s="24">
+        <v>-4.333E-2</v>
+      </c>
+      <c r="J94" s="40"/>
+      <c r="K94" s="42">
+        <v>151.02000000000001</v>
+      </c>
+      <c r="M94" s="12">
+        <v>-65.489999999999995</v>
+      </c>
+      <c r="N94" s="42">
+        <v>31.08</v>
+      </c>
+      <c r="O94" s="21">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="P94" s="21">
+        <v>0.1799</v>
+      </c>
+      <c r="Q94" s="21">
+        <v>0.72070000000000001</v>
+      </c>
+      <c r="R94" s="21">
+        <v>-0.30890000000000001</v>
+      </c>
+      <c r="S94" s="21">
+        <v>-2.1646999999999998</v>
+      </c>
+      <c r="T94" s="21">
+        <v>21.611899999999999</v>
+      </c>
+      <c r="U94" s="45">
+        <v>4.09</v>
+      </c>
+      <c r="V94" s="73">
+        <v>276650</v>
+      </c>
+      <c r="W94" s="13"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A95" s="31"/>
+      <c r="B95" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" t="s">
+        <v>55</v>
+      </c>
+      <c r="H95" s="24">
+        <v>3.63</v>
+      </c>
+      <c r="I95" s="24">
+        <v>7.8589999999999993E-2</v>
+      </c>
+      <c r="J95" s="40"/>
+      <c r="K95" s="42">
+        <v>2.44</v>
+      </c>
+      <c r="L95" s="42"/>
+      <c r="M95" s="42">
+        <v>-66.64</v>
+      </c>
+      <c r="N95" s="42">
+        <v>4.18</v>
+      </c>
+      <c r="O95" s="21">
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="P95" s="21">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="Q95" s="21">
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="R95" s="21">
+        <v>-0.1777</v>
+      </c>
+      <c r="S95" s="21">
+        <v>-0.16839999999999999</v>
+      </c>
+      <c r="T95" s="21">
+        <v>0.1421</v>
+      </c>
+      <c r="U95" s="45">
+        <v>1.25</v>
+      </c>
+      <c r="V95" s="73">
+        <v>306580</v>
+      </c>
+      <c r="W95" s="13"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A96" s="31"/>
+      <c r="B96" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="H96" s="24">
+        <v>32.72</v>
+      </c>
+      <c r="I96" s="24">
+        <v>-0.42082000000000003</v>
+      </c>
+      <c r="J96" s="40"/>
+      <c r="K96" s="42">
+        <v>17.68</v>
+      </c>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42">
+        <v>-34.21</v>
+      </c>
+      <c r="N96" s="42">
+        <v>13.78</v>
+      </c>
+      <c r="O96" s="21">
+        <v>0.39229999999999998</v>
+      </c>
+      <c r="P96" s="21">
+        <v>5.62E-2</v>
+      </c>
+      <c r="Q96" s="21">
+        <v>0.82110000000000005</v>
+      </c>
+      <c r="R96" s="21">
+        <v>-0.20119999999999999</v>
+      </c>
+      <c r="S96" s="21">
+        <v>-0.35439999999999999</v>
+      </c>
+      <c r="T96" s="21">
+        <v>1.5972</v>
+      </c>
+      <c r="U96" s="45">
+        <v>2.31</v>
+      </c>
+      <c r="V96" s="73">
+        <v>404010</v>
+      </c>
+      <c r="W96" s="13"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A97" s="31"/>
+      <c r="B97" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H97" s="24">
+        <v>29.14</v>
+      </c>
+      <c r="I97" s="24">
+        <v>7.7410000000000007E-2</v>
+      </c>
+      <c r="J97" s="40"/>
+      <c r="K97" s="42">
+        <v>33.68</v>
+      </c>
+      <c r="L97" s="40">
+        <v>3873.84</v>
+      </c>
+      <c r="M97" s="42">
+        <v>-651.79999999999995</v>
+      </c>
+      <c r="N97" s="42">
+        <v>53.59</v>
+      </c>
+      <c r="O97" s="21">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="P97" s="21">
+        <v>1.0047999999999999</v>
+      </c>
+      <c r="Q97" s="21">
+        <v>0.8145</v>
+      </c>
+      <c r="R97" s="21">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="S97" s="21">
+        <v>-8.6999999999999994E-3</v>
+      </c>
+      <c r="T97" s="21">
+        <v>0.67549999999999999</v>
+      </c>
+      <c r="U97" s="45">
+        <v>5.64</v>
+      </c>
+      <c r="V97" s="73">
+        <v>384590</v>
+      </c>
+      <c r="W97" s="13"/>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A98" s="31"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="42"/>
+      <c r="N98" s="42"/>
+      <c r="O98" s="21"/>
+      <c r="P98" s="21"/>
+      <c r="Q98" s="21"/>
+      <c r="R98" s="21"/>
+      <c r="S98" s="21"/>
+      <c r="T98" s="21"/>
+      <c r="U98" s="45"/>
+      <c r="V98" s="73"/>
+      <c r="W98" s="13"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A99" s="19"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="77"/>
+      <c r="L99" s="77"/>
+      <c r="M99" s="77"/>
+      <c r="N99" s="77"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="22"/>
+      <c r="S99" s="22"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="118"/>
+      <c r="V99" s="119"/>
+      <c r="W99" s="16"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A100" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="H100" s="38">
+        <v>217</v>
+      </c>
+      <c r="I100" s="38">
+        <v>0.64546999999999999</v>
+      </c>
+      <c r="J100" s="9">
+        <v>79.25</v>
+      </c>
+      <c r="K100" s="9">
+        <v>24.27</v>
+      </c>
+      <c r="L100" s="29">
+        <v>74.16</v>
+      </c>
+      <c r="M100" s="29">
+        <v>66.3</v>
+      </c>
+      <c r="N100" s="9">
+        <v>9.08</v>
+      </c>
+      <c r="O100" s="20">
+        <v>0.2964</v>
+      </c>
+      <c r="P100" s="20">
+        <v>0.43769999999999998</v>
+      </c>
+      <c r="Q100" s="46">
+        <v>0.40179999999999999</v>
+      </c>
+      <c r="R100" s="20">
+        <v>0.1855</v>
+      </c>
+      <c r="S100" s="20">
+        <v>0.31480000000000002</v>
+      </c>
+      <c r="T100" s="20">
+        <v>1.7552000000000001</v>
+      </c>
+      <c r="U100" s="9">
+        <v>1.02</v>
+      </c>
+      <c r="V100" s="43">
+        <v>2769660</v>
+      </c>
+      <c r="W100" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A101" s="18"/>
+      <c r="B101" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="H101" s="24">
+        <v>262.04000000000002</v>
+      </c>
+      <c r="I101" s="24">
+        <v>3.6</v>
+      </c>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12">
+        <v>3.01</v>
+      </c>
+      <c r="L101" s="35">
+        <v>104.54</v>
+      </c>
+      <c r="M101" s="35">
+        <v>104.82</v>
+      </c>
+      <c r="N101" s="12">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="O101" s="21">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="P101" s="21">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="R101" s="21">
+        <v>0.21510000000000001</v>
+      </c>
+      <c r="S101" s="21">
+        <v>-3.2399999999999998E-2</v>
+      </c>
+      <c r="T101" s="21">
+        <v>0.70140000000000002</v>
+      </c>
+      <c r="U101" s="45">
+        <v>1.08</v>
+      </c>
+      <c r="V101" s="73">
+        <v>293220</v>
+      </c>
+      <c r="W101" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A102" s="18"/>
+      <c r="B102" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="H102" s="24">
+        <v>52.63</v>
+      </c>
+      <c r="I102" s="24">
+        <v>0.32837</v>
+      </c>
+      <c r="J102" s="12"/>
+      <c r="K102" s="42">
+        <v>21.2</v>
+      </c>
+      <c r="L102" s="35"/>
+      <c r="M102" s="35">
+        <v>-131.04</v>
+      </c>
+      <c r="N102" s="42">
+        <v>5.8</v>
+      </c>
+      <c r="O102" s="21">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="P102" s="21">
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="Q102" s="46">
+        <v>0.26340000000000002</v>
+      </c>
+      <c r="R102" s="21">
+        <v>-2.3199999999999998E-2</v>
+      </c>
+      <c r="S102" s="21">
+        <v>-0.3145</v>
+      </c>
+      <c r="T102" s="21">
+        <v>0.2482</v>
+      </c>
+      <c r="U102" s="45">
+        <v>0.89</v>
+      </c>
+      <c r="V102" s="73">
+        <v>2030610</v>
+      </c>
+      <c r="W102" s="13" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A103" s="19"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="52"/>
+      <c r="J103" s="52"/>
+      <c r="K103" s="52"/>
+      <c r="L103" s="52"/>
+      <c r="M103" s="52"/>
+      <c r="N103" s="52"/>
+      <c r="O103" s="52"/>
+      <c r="P103" s="52"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="52"/>
+      <c r="S103" s="52"/>
+      <c r="T103" s="52"/>
+      <c r="U103" s="52"/>
+      <c r="V103" s="76"/>
+      <c r="W103" s="16"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A104" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="H104" s="38">
+        <v>1.63</v>
+      </c>
+      <c r="I104" s="38"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9">
+        <v>8.08</v>
+      </c>
+      <c r="L104" s="29"/>
+      <c r="M104" s="29">
+        <v>-14.88</v>
+      </c>
+      <c r="N104" s="9">
+        <v>4.96</v>
+      </c>
+      <c r="O104" s="20">
+        <v>0.19170000000000001</v>
+      </c>
+      <c r="P104" s="20">
+        <v>0.69040000000000001</v>
+      </c>
+      <c r="R104" s="20">
+        <v>-0.41739999999999999</v>
+      </c>
+      <c r="S104" s="20">
+        <v>-0.57889999999999997</v>
+      </c>
+      <c r="T104" s="20">
+        <v>2.6623000000000001</v>
+      </c>
+      <c r="U104" s="9">
+        <v>2.67</v>
+      </c>
+      <c r="V104" s="43"/>
+      <c r="W104" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A105" s="18"/>
+      <c r="B105" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="H105" s="24">
+        <v>9.65</v>
+      </c>
+      <c r="I105" s="24">
+        <v>7.7579999999999996E-2</v>
+      </c>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="L105" s="35">
+        <v>326.24</v>
+      </c>
+      <c r="M105" s="35">
+        <v>-119.15</v>
+      </c>
+      <c r="N105" s="12">
+        <v>16.55</v>
+      </c>
+      <c r="O105" s="21">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="P105" s="21">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="Q105" s="21">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="R105" s="46">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="S105" s="21">
+        <v>-4.5699999999999998E-2</v>
+      </c>
+      <c r="T105" s="21">
+        <v>2.4083000000000001</v>
+      </c>
+      <c r="U105" s="45">
+        <v>8.99</v>
+      </c>
+      <c r="V105" s="73">
+        <v>402660</v>
+      </c>
+      <c r="W105" s="13"/>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A106" s="18"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="35"/>
+      <c r="M106" s="35"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="21"/>
+      <c r="Q106" s="21"/>
+      <c r="S106" s="21"/>
+      <c r="T106" s="21"/>
+      <c r="U106" s="45"/>
+      <c r="V106" s="73"/>
+      <c r="W106" s="13"/>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A107" s="19"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="52"/>
+      <c r="I107" s="52"/>
+      <c r="J107" s="52"/>
+      <c r="K107" s="52"/>
+      <c r="L107" s="52"/>
+      <c r="M107" s="52"/>
+      <c r="N107" s="52"/>
+      <c r="O107" s="52"/>
+      <c r="P107" s="52"/>
+      <c r="Q107" s="52"/>
+      <c r="R107" s="15"/>
+      <c r="S107" s="52"/>
+      <c r="T107" s="52"/>
+      <c r="U107" s="52"/>
+      <c r="V107" s="76"/>
+      <c r="W107" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36647,8 +37743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554D201E-890B-41A2-9456-C006731550ED}">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A30" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -42068,10 +43164,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31E3AA2-82CE-474A-AD1E-5B42F12E69CD}">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="Q1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -43366,6 +44462,99 @@
       <c r="U27" s="53"/>
       <c r="V27" s="16"/>
     </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A28" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="H28" s="38">
+        <v>2.34</v>
+      </c>
+      <c r="I28" s="38"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="M28" s="29">
+        <v>10.63</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="O28" s="20">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="P28" s="20">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20">
+        <v>73.094099999999997</v>
+      </c>
+      <c r="T28" s="9"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="10" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A29" s="18"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="13"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A30" s="19"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43377,7 +44566,7 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="A21" sqref="A21:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -44245,208 +45434,6 @@
       <c r="U16" s="76"/>
       <c r="V16" s="16"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A17" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="H17" s="38">
-        <v>186.9</v>
-      </c>
-      <c r="I17" s="38">
-        <v>-2.54</v>
-      </c>
-      <c r="J17" s="9">
-        <v>86.03</v>
-      </c>
-      <c r="K17" s="9">
-        <v>25.75</v>
-      </c>
-      <c r="L17" s="29">
-        <v>79.650000000000006</v>
-      </c>
-      <c r="M17" s="29">
-        <v>63.35</v>
-      </c>
-      <c r="N17" s="9">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="O17" s="20">
-        <v>0.2964</v>
-      </c>
-      <c r="P17" s="20">
-        <v>0.43769999999999998</v>
-      </c>
-      <c r="Q17" s="20">
-        <v>0.1603</v>
-      </c>
-      <c r="R17" s="20">
-        <v>0.30830000000000002</v>
-      </c>
-      <c r="S17" s="20">
-        <v>1.9341999999999999</v>
-      </c>
-      <c r="T17" s="9">
-        <v>0.82</v>
-      </c>
-      <c r="U17" s="43">
-        <v>2488740</v>
-      </c>
-      <c r="V17" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A18" s="18"/>
-      <c r="B18" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="H18" s="24">
-        <v>180.73</v>
-      </c>
-      <c r="I18" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J18" s="12">
-        <v>17.09</v>
-      </c>
-      <c r="K18" s="12">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="L18" s="35">
-        <v>12.43</v>
-      </c>
-      <c r="M18" s="35">
-        <v>13.17</v>
-      </c>
-      <c r="N18" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="O18" s="21">
-        <v>7.3400000000000007E-2</v>
-      </c>
-      <c r="P18" s="21">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="Q18" s="21">
-        <v>0.21510000000000001</v>
-      </c>
-      <c r="R18" s="21">
-        <v>0.109</v>
-      </c>
-      <c r="S18" s="21">
-        <v>0.5786</v>
-      </c>
-      <c r="T18" s="45">
-        <v>0.78</v>
-      </c>
-      <c r="U18" s="73">
-        <v>336880</v>
-      </c>
-      <c r="V18" s="13" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A19" s="18"/>
-      <c r="B19" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>492</v>
-      </c>
-      <c r="H19" s="24">
-        <v>27.94</v>
-      </c>
-      <c r="I19" s="24">
-        <v>0.27539000000000002</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="42">
-        <v>12.49</v>
-      </c>
-      <c r="L19" s="35">
-        <v>413.22</v>
-      </c>
-      <c r="M19" s="35">
-        <v>235.43</v>
-      </c>
-      <c r="N19" s="42">
-        <v>3.48</v>
-      </c>
-      <c r="O19" s="21">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="P19" s="21">
-        <v>-0.26800000000000002</v>
-      </c>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21">
-        <v>-2.1899999999999999E-2</v>
-      </c>
-      <c r="S19" s="21"/>
-      <c r="T19" s="45">
-        <v>0.85</v>
-      </c>
-      <c r="U19" s="73">
-        <v>1799140</v>
-      </c>
-      <c r="V19" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A20" s="19"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="16"/>
-    </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A21" s="17" t="s">
         <v>434</v>
@@ -44581,7 +45568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B19A25B-F1A6-4E6B-99E7-465E22F90C14}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>

--- a/Stock/US_Stock.xlsx
+++ b/Stock/US_Stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E4D43E-B5CD-4C16-80B1-9472B1A1D65D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD97596-800E-46C9-92D8-BE2D7B7DE576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19058" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="14" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="715">
   <si>
     <t>代码</t>
   </si>
@@ -2208,6 +2208,9 @@
   </si>
   <si>
     <t>MERCADOLIBRE INC</t>
+  </si>
+  <si>
+    <t>STEM</t>
   </si>
 </sst>
 </file>
@@ -2963,7 +2966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B4BCA-42DA-4C85-9005-E70B6BE65D74}">
   <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
@@ -32836,10 +32839,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A85E73-482F-4ACD-A04A-F3E5846F532F}">
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -34869,1654 +34872,1654 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A42" s="60" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B42" s="60">
-        <v>5676</v>
+        <v>3854</v>
       </c>
       <c r="C42" s="60">
-        <v>3576</v>
+        <v>5919</v>
       </c>
       <c r="D42" s="60">
-        <v>3280</v>
+        <v>14664</v>
       </c>
       <c r="E42" s="60">
-        <v>3453</v>
+        <v>16440</v>
       </c>
       <c r="F42" s="60">
-        <v>3476</v>
+        <v>5355</v>
       </c>
       <c r="G42" s="60" cm="1">
         <f t="array" ref="G42:P42">_xlfn.FORECAST.LINEAR($G$1:$P$1,B42:F42,$B$1:$F$1)</f>
-        <v>2535.3000000000002</v>
+        <v>13303.3</v>
       </c>
       <c r="H42">
-        <v>2083.0000000000005</v>
+        <v>14655.6</v>
       </c>
       <c r="I42">
-        <v>1630.7000000000003</v>
+        <v>16007.9</v>
       </c>
       <c r="J42">
-        <v>1178.4000000000001</v>
+        <v>17360.199999999997</v>
       </c>
       <c r="K42">
-        <v>726.10000000000036</v>
+        <v>18712.5</v>
       </c>
       <c r="L42">
-        <v>273.80000000000018</v>
+        <v>20064.8</v>
       </c>
       <c r="M42">
-        <v>-178.5</v>
+        <v>21417.1</v>
       </c>
       <c r="N42">
-        <v>-630.80000000000018</v>
+        <v>22769.399999999998</v>
       </c>
       <c r="O42">
-        <v>-1083.0999999999995</v>
+        <v>24121.7</v>
       </c>
       <c r="P42">
-        <v>-1535.3999999999996</v>
+        <v>25474</v>
       </c>
       <c r="Q42" s="60">
-        <f t="shared" ref="Q42:Q47" si="13">SUM(G42:P42)</f>
-        <v>4999.5000000000036</v>
+        <f t="shared" ref="Q42:Q46" si="13">SUM(G42:P42)</f>
+        <v>193886.5</v>
       </c>
       <c r="R42" s="60">
-        <f>22.37*1000</f>
-        <v>22370</v>
+        <f>161.4*1000</f>
+        <v>161400</v>
       </c>
       <c r="S42" s="46">
-        <f t="shared" ref="S42:S47" si="14">Q42/R42</f>
-        <v>0.22349128296826123</v>
+        <f t="shared" ref="S42:S46" si="14">Q42/R42</f>
+        <v>1.2012794299876084</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A43" s="60" t="s">
-        <v>126</v>
+        <v>369</v>
       </c>
       <c r="B43" s="60">
-        <v>3854</v>
+        <v>-1921</v>
       </c>
       <c r="C43" s="60">
-        <v>5919</v>
+        <v>666</v>
       </c>
       <c r="D43" s="60">
-        <v>14664</v>
+        <v>1397</v>
       </c>
       <c r="E43" s="60">
-        <v>16440</v>
+        <v>2694</v>
       </c>
       <c r="F43" s="60">
-        <v>5355</v>
+        <v>1020</v>
       </c>
       <c r="G43" s="60" cm="1">
         <f t="array" ref="G43:P43">_xlfn.FORECAST.LINEAR($G$1:$P$1,B43:F43,$B$1:$F$1)</f>
-        <v>13303.3</v>
+        <v>3144.2</v>
       </c>
       <c r="H43">
-        <v>14655.6</v>
+        <v>3935.2</v>
       </c>
       <c r="I43">
-        <v>16007.9</v>
+        <v>4726.2</v>
       </c>
       <c r="J43">
-        <v>17360.199999999997</v>
+        <v>5517.2</v>
       </c>
       <c r="K43">
-        <v>18712.5</v>
+        <v>6308.2</v>
       </c>
       <c r="L43">
-        <v>20064.8</v>
+        <v>7099.2</v>
       </c>
       <c r="M43">
-        <v>21417.1</v>
+        <v>7890.2</v>
       </c>
       <c r="N43">
-        <v>22769.399999999998</v>
+        <v>8681.2000000000007</v>
       </c>
       <c r="O43">
-        <v>24121.7</v>
+        <v>9472.2000000000007</v>
       </c>
       <c r="P43">
-        <v>25474</v>
+        <v>10263.200000000001</v>
       </c>
       <c r="Q43" s="60">
         <f t="shared" si="13"/>
-        <v>193886.5</v>
+        <v>67037</v>
       </c>
       <c r="R43" s="60">
-        <f>161.4*1000</f>
-        <v>161400</v>
+        <f>12.75*1000</f>
+        <v>12750</v>
       </c>
       <c r="S43" s="46">
         <f t="shared" si="14"/>
-        <v>1.2012794299876084</v>
+        <v>5.2578039215686276</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A44" s="60" t="s">
-        <v>369</v>
+        <v>128</v>
       </c>
       <c r="B44" s="60">
-        <v>-1921</v>
+        <v>-51</v>
       </c>
       <c r="C44" s="60">
-        <v>666</v>
+        <v>119</v>
       </c>
       <c r="D44" s="60">
-        <v>1397</v>
+        <v>1816</v>
       </c>
       <c r="E44" s="60">
-        <v>2694</v>
+        <v>4934</v>
       </c>
       <c r="F44" s="60">
-        <v>1020</v>
+        <v>935</v>
       </c>
       <c r="G44" s="60" cm="1">
         <f t="array" ref="G44:P44">_xlfn.FORECAST.LINEAR($G$1:$P$1,B44:F44,$B$1:$F$1)</f>
-        <v>3144.2</v>
+        <v>3586.7</v>
       </c>
       <c r="H44">
-        <v>3935.2</v>
+        <v>4265.3999999999996</v>
       </c>
       <c r="I44">
-        <v>4726.2</v>
+        <v>4944.0999999999995</v>
       </c>
       <c r="J44">
-        <v>5517.2</v>
+        <v>5622.7999999999993</v>
       </c>
       <c r="K44">
-        <v>6308.2</v>
+        <v>6301.4999999999991</v>
       </c>
       <c r="L44">
-        <v>7099.2</v>
+        <v>6980.1999999999989</v>
       </c>
       <c r="M44">
-        <v>7890.2</v>
+        <v>7658.9</v>
       </c>
       <c r="N44">
-        <v>8681.2000000000007</v>
+        <v>8337.5999999999985</v>
       </c>
       <c r="O44">
-        <v>9472.2000000000007</v>
+        <v>9016.2999999999993</v>
       </c>
       <c r="P44">
-        <v>10263.200000000001</v>
+        <v>9694.9999999999982</v>
       </c>
       <c r="Q44" s="60">
         <f t="shared" si="13"/>
-        <v>67037</v>
+        <v>66408.5</v>
       </c>
       <c r="R44" s="60">
-        <f>12.75*1000</f>
-        <v>12750</v>
+        <f>23.97*1000</f>
+        <v>23970</v>
       </c>
       <c r="S44" s="46">
         <f t="shared" si="14"/>
-        <v>5.2578039215686276</v>
+        <v>2.7704839382561537</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A45" s="60" t="s">
-        <v>128</v>
+        <v>370</v>
       </c>
       <c r="B45" s="60">
-        <v>-51</v>
+        <v>-188</v>
       </c>
       <c r="C45" s="60">
-        <v>119</v>
+        <v>-131</v>
       </c>
       <c r="D45" s="60">
-        <v>1816</v>
+        <v>1071</v>
       </c>
       <c r="E45" s="60">
-        <v>4934</v>
+        <v>600</v>
       </c>
       <c r="F45" s="60">
-        <v>935</v>
+        <v>1584</v>
       </c>
       <c r="G45" s="60" cm="1">
         <f t="array" ref="G45:P45">_xlfn.FORECAST.LINEAR($G$1:$P$1,B45:F45,$B$1:$F$1)</f>
-        <v>3586.7</v>
+        <v>1869.7</v>
       </c>
       <c r="H45">
-        <v>4265.3999999999996</v>
+        <v>2297.1999999999998</v>
       </c>
       <c r="I45">
-        <v>4944.0999999999995</v>
+        <v>2724.7</v>
       </c>
       <c r="J45">
-        <v>5622.7999999999993</v>
+        <v>3152.2</v>
       </c>
       <c r="K45">
-        <v>6301.4999999999991</v>
+        <v>3579.7</v>
       </c>
       <c r="L45">
-        <v>6980.1999999999989</v>
+        <v>4007.2</v>
       </c>
       <c r="M45">
-        <v>7658.9</v>
+        <v>4434.7</v>
       </c>
       <c r="N45">
-        <v>8337.5999999999985</v>
+        <v>4862.2</v>
       </c>
       <c r="O45">
-        <v>9016.2999999999993</v>
+        <v>5289.7</v>
       </c>
       <c r="P45">
-        <v>9694.9999999999982</v>
+        <v>5717.2</v>
       </c>
       <c r="Q45" s="60">
         <f t="shared" si="13"/>
-        <v>66408.5</v>
+        <v>37934.5</v>
       </c>
       <c r="R45" s="60">
-        <f>23.97*1000</f>
-        <v>23970</v>
+        <f>3.69*1000</f>
+        <v>3690</v>
       </c>
       <c r="S45" s="46">
         <f t="shared" si="14"/>
-        <v>2.7704839382561537</v>
-      </c>
+        <v>10.280352303523035</v>
+      </c>
+      <c r="T45" s="60"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A46" s="60" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B46" s="60">
-        <v>-188</v>
+        <v>3679</v>
       </c>
       <c r="C46" s="60">
-        <v>-131</v>
+        <v>-1501</v>
       </c>
       <c r="D46" s="60">
-        <v>1071</v>
+        <v>14805</v>
       </c>
       <c r="E46" s="60">
-        <v>600</v>
+        <v>30074</v>
       </c>
       <c r="F46" s="60">
-        <v>1584</v>
+        <v>19208</v>
       </c>
       <c r="G46" s="60" cm="1">
         <f t="array" ref="G46:P46">_xlfn.FORECAST.LINEAR($G$1:$P$1,B46:F46,$B$1:$F$1)</f>
-        <v>1869.7</v>
+        <v>32042.9</v>
       </c>
       <c r="H46">
-        <v>2297.1999999999998</v>
+        <v>38306.199999999997</v>
       </c>
       <c r="I46">
-        <v>2724.7</v>
+        <v>44569.5</v>
       </c>
       <c r="J46">
-        <v>3152.2</v>
+        <v>50832.800000000003</v>
       </c>
       <c r="K46">
-        <v>3579.7</v>
+        <v>57096.1</v>
       </c>
       <c r="L46">
-        <v>4007.2</v>
+        <v>63359.4</v>
       </c>
       <c r="M46">
-        <v>4434.7</v>
+        <v>69622.700000000012</v>
       </c>
       <c r="N46">
-        <v>4862.2</v>
+        <v>75886</v>
       </c>
       <c r="O46">
-        <v>5289.7</v>
+        <v>82149.299999999988</v>
       </c>
       <c r="P46">
-        <v>5717.2</v>
+        <v>88412.6</v>
       </c>
       <c r="Q46" s="60">
         <f t="shared" si="13"/>
-        <v>37934.5</v>
+        <v>602277.5</v>
       </c>
       <c r="R46" s="60">
-        <f>3.69*1000</f>
-        <v>3690</v>
+        <f>131.2 * 1000</f>
+        <v>131200</v>
       </c>
       <c r="S46" s="46">
         <f t="shared" si="14"/>
-        <v>10.280352303523035</v>
+        <v>4.5905297256097564</v>
       </c>
       <c r="T46" s="60"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A47" s="60" t="s">
-        <v>371</v>
-      </c>
-      <c r="B47" s="60">
-        <v>3679</v>
-      </c>
-      <c r="C47" s="60">
-        <v>-1501</v>
-      </c>
-      <c r="D47" s="60">
-        <v>14805</v>
-      </c>
-      <c r="E47" s="60">
-        <v>30074</v>
-      </c>
-      <c r="F47" s="60">
-        <v>19208</v>
-      </c>
-      <c r="G47" s="60" cm="1">
-        <f t="array" ref="G47:P47">_xlfn.FORECAST.LINEAR($G$1:$P$1,B47:F47,$B$1:$F$1)</f>
-        <v>32042.9</v>
-      </c>
-      <c r="H47">
-        <v>38306.199999999997</v>
-      </c>
-      <c r="I47">
-        <v>44569.5</v>
-      </c>
-      <c r="J47">
-        <v>50832.800000000003</v>
-      </c>
-      <c r="K47">
-        <v>57096.1</v>
-      </c>
-      <c r="L47">
-        <v>63359.4</v>
-      </c>
-      <c r="M47">
-        <v>69622.700000000012</v>
-      </c>
-      <c r="N47">
-        <v>75886</v>
-      </c>
-      <c r="O47">
-        <v>82149.299999999988</v>
-      </c>
-      <c r="P47">
-        <v>88412.6</v>
-      </c>
-      <c r="Q47" s="60">
-        <f t="shared" si="13"/>
-        <v>602277.5</v>
-      </c>
-      <c r="R47" s="60">
-        <f>131.2 * 1000</f>
-        <v>131200</v>
-      </c>
-      <c r="S47" s="46">
-        <f t="shared" si="14"/>
-        <v>4.5905297256097564</v>
-      </c>
-      <c r="T47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="B48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
+      <c r="A48" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="B48" s="60">
+        <v>194</v>
+      </c>
+      <c r="C48" s="60">
+        <v>156</v>
+      </c>
+      <c r="D48" s="60">
+        <v>235</v>
+      </c>
+      <c r="E48" s="60">
+        <v>331</v>
+      </c>
+      <c r="F48" s="60">
+        <v>517</v>
+      </c>
+      <c r="G48" s="60" cm="1">
+        <f t="array" ref="G48:P48">_xlfn.FORECAST.LINEAR($G$1:$P$1,B48:F48,$B$1:$F$1)</f>
+        <v>532.9</v>
+      </c>
+      <c r="H48">
+        <v>615</v>
+      </c>
+      <c r="I48">
+        <v>697.1</v>
+      </c>
+      <c r="J48">
+        <v>779.2</v>
+      </c>
+      <c r="K48">
+        <v>861.30000000000007</v>
+      </c>
+      <c r="L48">
+        <v>943.4</v>
+      </c>
+      <c r="M48">
+        <v>1025.5</v>
+      </c>
+      <c r="N48">
+        <v>1107.5999999999999</v>
+      </c>
+      <c r="O48">
+        <v>1189.6999999999998</v>
+      </c>
+      <c r="P48">
+        <v>1271.8</v>
+      </c>
+      <c r="Q48" s="60">
+        <f t="shared" ref="Q48:Q54" si="15">SUM(G48:P48)</f>
+        <v>9023.5</v>
+      </c>
+      <c r="R48" s="60">
+        <f>21.5*1000</f>
+        <v>21500</v>
+      </c>
+      <c r="S48" s="46">
+        <f t="shared" ref="S48:S54" si="16">Q48/R48</f>
+        <v>0.41969767441860467</v>
+      </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A49" s="60" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="B49" s="60">
-        <v>194</v>
+        <v>1187</v>
       </c>
       <c r="C49" s="60">
-        <v>156</v>
+        <v>-2649</v>
       </c>
       <c r="D49" s="60">
-        <v>235</v>
+        <v>3419</v>
       </c>
       <c r="E49" s="60">
-        <v>331</v>
+        <v>8521</v>
       </c>
       <c r="F49" s="60">
-        <v>517</v>
+        <v>3409</v>
       </c>
       <c r="G49" s="60" cm="1">
         <f t="array" ref="G49:P49">_xlfn.FORECAST.LINEAR($G$1:$P$1,B49:F49,$B$1:$F$1)</f>
-        <v>532.9</v>
+        <v>7461.6</v>
       </c>
       <c r="H49">
-        <v>615</v>
+        <v>9023</v>
       </c>
       <c r="I49">
-        <v>697.1</v>
+        <v>10584.4</v>
       </c>
       <c r="J49">
-        <v>779.2</v>
+        <v>12145.8</v>
       </c>
       <c r="K49">
-        <v>861.30000000000007</v>
+        <v>13707.199999999999</v>
       </c>
       <c r="L49">
-        <v>943.4</v>
+        <v>15268.6</v>
       </c>
       <c r="M49">
-        <v>1025.5</v>
+        <v>16830.000000000004</v>
       </c>
       <c r="N49">
-        <v>1107.5999999999999</v>
+        <v>18391.400000000001</v>
       </c>
       <c r="O49">
-        <v>1189.6999999999998</v>
+        <v>19952.800000000003</v>
       </c>
       <c r="P49">
-        <v>1271.8</v>
+        <v>21514.2</v>
       </c>
       <c r="Q49" s="60">
-        <f t="shared" ref="Q49:Q55" si="15">SUM(G49:P49)</f>
-        <v>9023.5</v>
+        <f t="shared" si="15"/>
+        <v>144879</v>
       </c>
       <c r="R49" s="60">
-        <f>21.5*1000</f>
-        <v>21500</v>
+        <f>40.01*1000</f>
+        <v>40010</v>
       </c>
       <c r="S49" s="46">
-        <f t="shared" ref="S49:S55" si="16">Q49/R49</f>
-        <v>0.41969767441860467</v>
+        <f t="shared" si="16"/>
+        <v>3.6210697325668582</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A50" s="60" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="B50" s="60">
-        <v>1187</v>
+        <v>-42</v>
       </c>
       <c r="C50" s="60">
-        <v>-2649</v>
+        <v>68</v>
       </c>
       <c r="D50" s="60">
-        <v>3419</v>
+        <v>21</v>
       </c>
       <c r="E50" s="60">
-        <v>8521</v>
+        <v>67</v>
       </c>
       <c r="F50" s="60">
-        <v>3409</v>
+        <v>24</v>
       </c>
       <c r="G50" s="60" cm="1">
         <f t="array" ref="G50:P50">_xlfn.FORECAST.LINEAR($G$1:$P$1,B50:F50,$B$1:$F$1)</f>
-        <v>7461.6</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="H50">
-        <v>9023</v>
+        <v>80</v>
       </c>
       <c r="I50">
-        <v>10584.4</v>
+        <v>93.1</v>
       </c>
       <c r="J50">
-        <v>12145.8</v>
+        <v>106.19999999999999</v>
       </c>
       <c r="K50">
-        <v>13707.199999999999</v>
+        <v>119.30000000000001</v>
       </c>
       <c r="L50">
-        <v>15268.6</v>
+        <v>132.4</v>
       </c>
       <c r="M50">
-        <v>16830.000000000004</v>
+        <v>145.5</v>
       </c>
       <c r="N50">
-        <v>18391.400000000001</v>
+        <v>158.6</v>
       </c>
       <c r="O50">
-        <v>19952.800000000003</v>
+        <v>171.70000000000002</v>
       </c>
       <c r="P50">
-        <v>21514.2</v>
+        <v>184.8</v>
       </c>
       <c r="Q50" s="60">
         <f t="shared" si="15"/>
-        <v>144879</v>
+        <v>1258.5</v>
       </c>
       <c r="R50" s="60">
-        <f>40.01*1000</f>
-        <v>40010</v>
+        <f>7.67*1000</f>
+        <v>7670</v>
       </c>
       <c r="S50" s="46">
         <f t="shared" si="16"/>
-        <v>3.6210697325668582</v>
+        <v>0.16408083441981747</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A51" s="60" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="B51" s="60">
-        <v>-42</v>
+        <v>-9</v>
       </c>
       <c r="C51" s="60">
-        <v>68</v>
+        <v>-2</v>
       </c>
       <c r="D51" s="60">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="E51" s="60">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="F51" s="60">
-        <v>24</v>
+        <v>404</v>
       </c>
       <c r="G51" s="60" cm="1">
         <f t="array" ref="G51:P51">_xlfn.FORECAST.LINEAR($G$1:$P$1,B51:F51,$B$1:$F$1)</f>
-        <v>66.900000000000006</v>
+        <v>464.40000000000003</v>
       </c>
       <c r="H51">
-        <v>80</v>
+        <v>570.59999999999991</v>
       </c>
       <c r="I51">
-        <v>93.1</v>
+        <v>676.8</v>
       </c>
       <c r="J51">
-        <v>106.19999999999999</v>
+        <v>783</v>
       </c>
       <c r="K51">
-        <v>119.30000000000001</v>
+        <v>889.2</v>
       </c>
       <c r="L51">
-        <v>132.4</v>
+        <v>995.40000000000009</v>
       </c>
       <c r="M51">
-        <v>145.5</v>
+        <v>1101.6000000000001</v>
       </c>
       <c r="N51">
-        <v>158.6</v>
+        <v>1207.8000000000002</v>
       </c>
       <c r="O51">
-        <v>171.70000000000002</v>
+        <v>1314</v>
       </c>
       <c r="P51">
-        <v>184.8</v>
+        <v>1420.2</v>
       </c>
       <c r="Q51" s="60">
         <f t="shared" si="15"/>
-        <v>1258.5</v>
+        <v>9423</v>
       </c>
       <c r="R51" s="60">
-        <f>7.67*1000</f>
-        <v>7670</v>
+        <f>16.49*1000</f>
+        <v>16490</v>
       </c>
       <c r="S51" s="46">
         <f t="shared" si="16"/>
-        <v>0.16408083441981747</v>
+        <v>0.57143723468768948</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A52" s="60" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="B52" s="60">
-        <v>-9</v>
+        <v>1243</v>
       </c>
       <c r="C52" s="60">
-        <v>-2</v>
+        <v>879</v>
       </c>
       <c r="D52" s="60">
-        <v>102</v>
+        <v>1369</v>
       </c>
       <c r="E52" s="60">
-        <v>234</v>
+        <v>1988</v>
       </c>
       <c r="F52" s="60">
-        <v>404</v>
+        <v>2169</v>
       </c>
       <c r="G52" s="60" cm="1">
         <f t="array" ref="G52:P52">_xlfn.FORECAST.LINEAR($G$1:$P$1,B52:F52,$B$1:$F$1)</f>
-        <v>464.40000000000003</v>
+        <v>2417.9</v>
       </c>
       <c r="H52">
-        <v>570.59999999999991</v>
+        <v>2714</v>
       </c>
       <c r="I52">
-        <v>676.8</v>
+        <v>3010.1</v>
       </c>
       <c r="J52">
-        <v>783</v>
+        <v>3306.2</v>
       </c>
       <c r="K52">
-        <v>889.2</v>
+        <v>3602.2999999999997</v>
       </c>
       <c r="L52">
-        <v>995.40000000000009</v>
+        <v>3898.4</v>
       </c>
       <c r="M52">
-        <v>1101.6000000000001</v>
+        <v>4194.5</v>
       </c>
       <c r="N52">
-        <v>1207.8000000000002</v>
+        <v>4490.6000000000004</v>
       </c>
       <c r="O52">
-        <v>1314</v>
-      </c>
-      <c r="P52">
-        <v>1420.2</v>
+        <v>4786.7000000000007</v>
+      </c>
+      <c r="P52" s="60">
+        <v>5082.8</v>
       </c>
       <c r="Q52" s="60">
         <f t="shared" si="15"/>
-        <v>9423</v>
+        <v>37503.5</v>
       </c>
       <c r="R52" s="60">
-        <f>16.49*1000</f>
-        <v>16490</v>
+        <f>60.59*1000</f>
+        <v>60590</v>
       </c>
       <c r="S52" s="46">
         <f t="shared" si="16"/>
-        <v>0.57143723468768948</v>
+        <v>0.61897177752104304</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A53" s="60" t="s">
-        <v>123</v>
+        <v>365</v>
       </c>
       <c r="B53" s="60">
-        <v>1243</v>
+        <v>1081</v>
       </c>
       <c r="C53" s="60">
-        <v>879</v>
+        <v>2019</v>
       </c>
       <c r="D53" s="60">
-        <v>1369</v>
+        <v>2058</v>
       </c>
       <c r="E53" s="60">
-        <v>1988</v>
+        <v>1659</v>
       </c>
       <c r="F53" s="60">
-        <v>2169</v>
+        <v>1715</v>
       </c>
       <c r="G53" s="60" cm="1">
         <f t="array" ref="G53:P53">_xlfn.FORECAST.LINEAR($G$1:$P$1,B53:F53,$B$1:$F$1)</f>
-        <v>2417.9</v>
+        <v>1978.8</v>
       </c>
       <c r="H53">
-        <v>2714</v>
+        <v>2069.6</v>
       </c>
       <c r="I53">
-        <v>3010.1</v>
+        <v>2160.4</v>
       </c>
       <c r="J53">
-        <v>3306.2</v>
+        <v>2251.1999999999998</v>
       </c>
       <c r="K53">
-        <v>3602.2999999999997</v>
+        <v>2342</v>
       </c>
       <c r="L53">
-        <v>3898.4</v>
+        <v>2432.8000000000002</v>
       </c>
       <c r="M53">
-        <v>4194.5</v>
+        <v>2523.6</v>
       </c>
       <c r="N53">
-        <v>4490.6000000000004</v>
+        <v>2614.3999999999996</v>
       </c>
       <c r="O53">
-        <v>4786.7000000000007</v>
-      </c>
-      <c r="P53" s="60">
-        <v>5082.8</v>
+        <v>2705.2</v>
+      </c>
+      <c r="P53">
+        <v>2796</v>
       </c>
       <c r="Q53" s="60">
         <f t="shared" si="15"/>
-        <v>37503.5</v>
+        <v>23874</v>
       </c>
       <c r="R53" s="60">
-        <f>60.59*1000</f>
-        <v>60590</v>
+        <f>40.64*1000</f>
+        <v>40640</v>
       </c>
       <c r="S53" s="46">
         <f t="shared" si="16"/>
-        <v>0.61897177752104304</v>
+        <v>0.58745078740157475</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A54" s="60" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B54" s="60">
-        <v>1081</v>
+        <v>972</v>
       </c>
       <c r="C54" s="60">
-        <v>2019</v>
+        <v>1130</v>
       </c>
       <c r="D54" s="60">
-        <v>2058</v>
+        <v>1260</v>
       </c>
       <c r="E54" s="60">
-        <v>1659</v>
+        <v>1585</v>
       </c>
       <c r="F54" s="60">
-        <v>1715</v>
+        <v>1428</v>
       </c>
       <c r="G54" s="60" cm="1">
         <f t="array" ref="G54:P54">_xlfn.FORECAST.LINEAR($G$1:$P$1,B54:F54,$B$1:$F$1)</f>
-        <v>1978.8</v>
-      </c>
-      <c r="H54">
-        <v>2069.6</v>
-      </c>
-      <c r="I54">
-        <v>2160.4</v>
-      </c>
-      <c r="J54">
-        <v>2251.1999999999998</v>
-      </c>
-      <c r="K54">
-        <v>2342</v>
-      </c>
-      <c r="L54">
-        <v>2432.8000000000002</v>
-      </c>
-      <c r="M54">
-        <v>2523.6</v>
-      </c>
-      <c r="N54">
-        <v>2614.3999999999996</v>
-      </c>
-      <c r="O54">
-        <v>2705.2</v>
-      </c>
-      <c r="P54">
-        <v>2796</v>
+        <v>1685.1</v>
+      </c>
+      <c r="H54" s="60">
+        <v>1821.8</v>
+      </c>
+      <c r="I54" s="60">
+        <v>1958.5</v>
+      </c>
+      <c r="J54" s="60">
+        <v>2095.1999999999998</v>
+      </c>
+      <c r="K54" s="60">
+        <v>2231.9</v>
+      </c>
+      <c r="L54" s="60">
+        <v>2368.6</v>
+      </c>
+      <c r="M54" s="60">
+        <v>2505.3000000000002</v>
+      </c>
+      <c r="N54" s="60">
+        <v>2642</v>
+      </c>
+      <c r="O54" s="60">
+        <v>2778.7</v>
+      </c>
+      <c r="P54" s="60">
+        <v>2915.4</v>
       </c>
       <c r="Q54" s="60">
         <f t="shared" si="15"/>
-        <v>23874</v>
+        <v>23002.500000000004</v>
       </c>
       <c r="R54" s="60">
-        <f>40.64*1000</f>
-        <v>40640</v>
+        <f>26.05*1000</f>
+        <v>26050</v>
       </c>
       <c r="S54" s="46">
         <f t="shared" si="16"/>
-        <v>0.58745078740157475</v>
+        <v>0.883013435700576</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A55" s="60" t="s">
-        <v>366</v>
-      </c>
-      <c r="B55" s="60">
-        <v>972</v>
-      </c>
-      <c r="C55" s="60">
-        <v>1130</v>
-      </c>
-      <c r="D55" s="60">
-        <v>1260</v>
-      </c>
-      <c r="E55" s="60">
-        <v>1585</v>
-      </c>
-      <c r="F55" s="60">
-        <v>1428</v>
-      </c>
-      <c r="G55" s="60" cm="1">
-        <f t="array" ref="G55:P55">_xlfn.FORECAST.LINEAR($G$1:$P$1,B55:F55,$B$1:$F$1)</f>
-        <v>1685.1</v>
-      </c>
-      <c r="H55" s="60">
-        <v>1821.8</v>
-      </c>
-      <c r="I55" s="60">
-        <v>1958.5</v>
-      </c>
-      <c r="J55" s="60">
-        <v>2095.1999999999998</v>
-      </c>
-      <c r="K55" s="60">
-        <v>2231.9</v>
-      </c>
-      <c r="L55" s="60">
-        <v>2368.6</v>
-      </c>
-      <c r="M55" s="60">
-        <v>2505.3000000000002</v>
-      </c>
-      <c r="N55" s="60">
-        <v>2642</v>
-      </c>
-      <c r="O55" s="60">
-        <v>2778.7</v>
-      </c>
-      <c r="P55" s="60">
-        <v>2915.4</v>
-      </c>
-      <c r="Q55" s="60">
-        <f t="shared" si="15"/>
-        <v>23002.500000000004</v>
-      </c>
-      <c r="R55" s="60">
-        <f>26.05*1000</f>
-        <v>26050</v>
-      </c>
-      <c r="S55" s="46">
-        <f t="shared" si="16"/>
-        <v>0.883013435700576</v>
-      </c>
+      <c r="C55" s="60"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="C56" s="60"/>
+      <c r="A56" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="60">
+        <v>4674</v>
+      </c>
+      <c r="C56" s="60">
+        <v>2181</v>
+      </c>
+      <c r="D56" s="60">
+        <v>3617</v>
+      </c>
+      <c r="E56" s="60">
+        <v>4420</v>
+      </c>
+      <c r="F56" s="60">
+        <v>6627</v>
+      </c>
+      <c r="G56" s="60" cm="1">
+        <f t="array" ref="G56:P56">_xlfn.FORECAST.LINEAR($G$1:$P$1,B56:F56,$B$1:$F$1)</f>
+        <v>6147.3</v>
+      </c>
+      <c r="H56" s="60">
+        <v>6761.8</v>
+      </c>
+      <c r="I56" s="60">
+        <v>7376.3</v>
+      </c>
+      <c r="J56" s="60">
+        <v>7990.8</v>
+      </c>
+      <c r="K56" s="60">
+        <v>8605.2999999999993</v>
+      </c>
+      <c r="L56" s="60">
+        <v>9219.7999999999993</v>
+      </c>
+      <c r="M56" s="60">
+        <v>9834.2999999999993</v>
+      </c>
+      <c r="N56" s="60">
+        <v>10448.799999999999</v>
+      </c>
+      <c r="O56" s="60">
+        <v>11063.3</v>
+      </c>
+      <c r="P56" s="60">
+        <v>11677.8</v>
+      </c>
+      <c r="Q56" s="60">
+        <f t="shared" ref="Q56:Q63" si="17">SUM(G56:P56)</f>
+        <v>89125.500000000015</v>
+      </c>
+      <c r="R56" s="60">
+        <f>74.34*1000</f>
+        <v>74340</v>
+      </c>
+      <c r="S56" s="46">
+        <f t="shared" ref="S56:S63" si="18">Q56/R56</f>
+        <v>1.1988902340597258</v>
+      </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A57" s="60" t="s">
-        <v>185</v>
+        <v>368</v>
       </c>
       <c r="B57" s="60">
-        <v>4674</v>
+        <v>43</v>
       </c>
       <c r="C57" s="60">
-        <v>2181</v>
+        <v>211</v>
       </c>
       <c r="D57" s="60">
-        <v>3617</v>
+        <v>396</v>
       </c>
       <c r="E57" s="60">
-        <v>4420</v>
+        <v>449</v>
       </c>
       <c r="F57" s="60">
-        <v>6627</v>
+        <v>756</v>
       </c>
       <c r="G57" s="60" cm="1">
         <f t="array" ref="G57:P57">_xlfn.FORECAST.LINEAR($G$1:$P$1,B57:F57,$B$1:$F$1)</f>
-        <v>6147.3</v>
-      </c>
-      <c r="H57" s="60">
-        <v>6761.8</v>
-      </c>
-      <c r="I57" s="60">
-        <v>7376.3</v>
-      </c>
-      <c r="J57" s="60">
-        <v>7990.8</v>
-      </c>
-      <c r="K57" s="60">
-        <v>8605.2999999999993</v>
-      </c>
-      <c r="L57" s="60">
-        <v>9219.7999999999993</v>
-      </c>
-      <c r="M57" s="60">
-        <v>9834.2999999999993</v>
-      </c>
-      <c r="N57" s="60">
-        <v>10448.799999999999</v>
-      </c>
-      <c r="O57" s="60">
-        <v>11063.3</v>
-      </c>
-      <c r="P57" s="60">
-        <v>11677.8</v>
+        <v>870.2</v>
+      </c>
+      <c r="H57">
+        <v>1036.5999999999999</v>
+      </c>
+      <c r="I57">
+        <v>1203</v>
+      </c>
+      <c r="J57">
+        <v>1369.4</v>
+      </c>
+      <c r="K57">
+        <v>1535.8</v>
+      </c>
+      <c r="L57">
+        <v>1702.2</v>
+      </c>
+      <c r="M57">
+        <v>1868.6000000000001</v>
+      </c>
+      <c r="N57">
+        <v>2035.0000000000002</v>
+      </c>
+      <c r="O57">
+        <v>2201.3999999999996</v>
+      </c>
+      <c r="P57">
+        <v>2367.8000000000002</v>
       </c>
       <c r="Q57" s="60">
-        <f t="shared" ref="Q57:Q64" si="17">SUM(G57:P57)</f>
-        <v>89125.500000000015</v>
+        <f t="shared" si="17"/>
+        <v>16190</v>
       </c>
       <c r="R57" s="60">
-        <f>74.34*1000</f>
-        <v>74340</v>
+        <f>4.68*1000</f>
+        <v>4680</v>
       </c>
       <c r="S57" s="46">
-        <f t="shared" ref="S57:S64" si="18">Q57/R57</f>
-        <v>1.1988902340597258</v>
+        <f t="shared" si="18"/>
+        <v>3.4594017094017095</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A58" s="60" t="s">
-        <v>368</v>
+        <v>215</v>
       </c>
       <c r="B58" s="60">
-        <v>43</v>
+        <v>333</v>
       </c>
       <c r="C58" s="60">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="D58" s="60">
-        <v>396</v>
+        <v>2311</v>
       </c>
       <c r="E58" s="60">
-        <v>449</v>
+        <v>-181</v>
       </c>
       <c r="F58" s="60">
-        <v>756</v>
+        <v>691</v>
       </c>
       <c r="G58" s="60" cm="1">
         <f t="array" ref="G58:P58">_xlfn.FORECAST.LINEAR($G$1:$P$1,B58:F58,$B$1:$F$1)</f>
-        <v>870.2</v>
+        <v>789</v>
       </c>
       <c r="H58">
-        <v>1036.5999999999999</v>
+        <v>840.19999999999993</v>
       </c>
       <c r="I58">
-        <v>1203</v>
+        <v>891.39999999999986</v>
       </c>
       <c r="J58">
-        <v>1369.4</v>
+        <v>942.59999999999991</v>
       </c>
       <c r="K58">
-        <v>1535.8</v>
+        <v>993.8</v>
       </c>
       <c r="L58">
-        <v>1702.2</v>
+        <v>1044.9999999999998</v>
       </c>
       <c r="M58">
-        <v>1868.6000000000001</v>
+        <v>1096.1999999999998</v>
       </c>
       <c r="N58">
-        <v>2035.0000000000002</v>
+        <v>1147.3999999999999</v>
       </c>
       <c r="O58">
-        <v>2201.3999999999996</v>
+        <v>1198.5999999999999</v>
       </c>
       <c r="P58">
-        <v>2367.8000000000002</v>
+        <v>1249.7999999999997</v>
       </c>
       <c r="Q58" s="60">
         <f t="shared" si="17"/>
-        <v>16190</v>
+        <v>10193.999999999998</v>
       </c>
       <c r="R58" s="60">
-        <f>4.68*1000</f>
-        <v>4680</v>
+        <f>7.01*1000</f>
+        <v>7010</v>
       </c>
       <c r="S58" s="46">
         <f t="shared" si="18"/>
-        <v>3.4594017094017095</v>
+        <v>1.4542082738944362</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A59" s="60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B59" s="60">
-        <v>333</v>
+        <v>2251</v>
       </c>
       <c r="C59" s="60">
-        <v>23</v>
+        <v>2072</v>
       </c>
       <c r="D59" s="60">
-        <v>2311</v>
+        <v>2378</v>
       </c>
       <c r="E59" s="60">
-        <v>-181</v>
+        <v>1800</v>
       </c>
       <c r="F59" s="60">
-        <v>691</v>
+        <v>47</v>
       </c>
       <c r="G59" s="60" cm="1">
         <f t="array" ref="G59:P59">_xlfn.FORECAST.LINEAR($G$1:$P$1,B59:F59,$B$1:$F$1)</f>
-        <v>789</v>
+        <v>305.59999999999991</v>
       </c>
       <c r="H59">
-        <v>840.19999999999993</v>
-      </c>
-      <c r="I59">
-        <v>891.39999999999986</v>
+        <v>-162.40000000000009</v>
+      </c>
+      <c r="I59" s="60">
+        <v>-630.40000000000009</v>
       </c>
       <c r="J59">
-        <v>942.59999999999991</v>
+        <v>-1098.4000000000001</v>
       </c>
       <c r="K59">
-        <v>993.8</v>
+        <v>-1566.4</v>
       </c>
       <c r="L59">
-        <v>1044.9999999999998</v>
+        <v>-2034.4</v>
       </c>
       <c r="M59">
-        <v>1096.1999999999998</v>
+        <v>-2502.4</v>
       </c>
       <c r="N59">
-        <v>1147.3999999999999</v>
+        <v>-2970.4</v>
       </c>
       <c r="O59">
-        <v>1198.5999999999999</v>
+        <v>-3438.4</v>
       </c>
       <c r="P59">
-        <v>1249.7999999999997</v>
+        <v>-3906.4</v>
       </c>
       <c r="Q59" s="60">
         <f t="shared" si="17"/>
-        <v>10193.999999999998</v>
+        <v>-18004</v>
       </c>
       <c r="R59" s="60">
+        <f>7.74*1000</f>
+        <v>7740</v>
+      </c>
+      <c r="S59" s="46">
+        <f t="shared" si="18"/>
+        <v>-2.3260981912144705</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A60" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="B60" s="60">
+        <v>4512</v>
+      </c>
+      <c r="C60" s="60">
+        <v>6861</v>
+      </c>
+      <c r="D60" s="60">
+        <v>4003</v>
+      </c>
+      <c r="E60" s="60">
+        <v>3111</v>
+      </c>
+      <c r="F60" s="60">
+        <v>6399</v>
+      </c>
+      <c r="G60" s="60" cm="1">
+        <f t="array" ref="G60:P60">_xlfn.FORECAST.LINEAR($G$1:$P$1,B60:F60,$B$1:$F$1)</f>
+        <v>4984.3999999999996</v>
+      </c>
+      <c r="H60">
+        <v>4986.8</v>
+      </c>
+      <c r="I60">
+        <v>4989.2</v>
+      </c>
+      <c r="J60">
+        <v>4991.6000000000004</v>
+      </c>
+      <c r="K60">
+        <v>4994</v>
+      </c>
+      <c r="L60">
+        <v>4996.3999999999996</v>
+      </c>
+      <c r="M60">
+        <v>4998.8</v>
+      </c>
+      <c r="N60">
+        <v>5001.2</v>
+      </c>
+      <c r="O60">
+        <v>5003.6000000000004</v>
+      </c>
+      <c r="P60">
+        <v>5006</v>
+      </c>
+      <c r="Q60" s="60">
+        <f t="shared" si="17"/>
+        <v>49952</v>
+      </c>
+      <c r="R60" s="60">
+        <f>83.13*1000</f>
+        <v>83130</v>
+      </c>
+      <c r="S60" s="46">
+        <f t="shared" si="18"/>
+        <v>0.60089017201972816</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A61" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" s="60">
+        <v>563</v>
+      </c>
+      <c r="C61" s="60">
+        <v>907</v>
+      </c>
+      <c r="D61" s="60">
+        <v>1168</v>
+      </c>
+      <c r="E61" s="60">
+        <v>839</v>
+      </c>
+      <c r="F61" s="60">
+        <v>969</v>
+      </c>
+      <c r="G61" s="60" cm="1">
+        <f t="array" ref="G61:P61">_xlfn.FORECAST.LINEAR($G$1:$P$1,B61:F61,$B$1:$F$1)</f>
+        <v>1112.4000000000001</v>
+      </c>
+      <c r="H61">
+        <v>1186.8000000000002</v>
+      </c>
+      <c r="I61">
+        <v>1261.2</v>
+      </c>
+      <c r="J61">
+        <v>1335.6</v>
+      </c>
+      <c r="K61">
+        <v>1410</v>
+      </c>
+      <c r="L61">
+        <v>1484.4</v>
+      </c>
+      <c r="M61">
+        <v>1558.8000000000002</v>
+      </c>
+      <c r="N61">
+        <v>1633.2</v>
+      </c>
+      <c r="O61">
+        <v>1707.6000000000001</v>
+      </c>
+      <c r="P61">
+        <v>1782</v>
+      </c>
+      <c r="Q61" s="60">
+        <f t="shared" si="17"/>
+        <v>14472.000000000002</v>
+      </c>
+      <c r="R61" s="60">
+        <f>15.33 * 1000</f>
+        <v>15330</v>
+      </c>
+      <c r="S61" s="46">
+        <f t="shared" si="18"/>
+        <v>0.94403131115459893</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A62" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" s="60">
+        <v>136</v>
+      </c>
+      <c r="C62" s="60">
+        <v>372</v>
+      </c>
+      <c r="D62" s="60">
+        <v>224</v>
+      </c>
+      <c r="E62" s="60">
+        <v>583</v>
+      </c>
+      <c r="F62" s="60">
+        <v>589</v>
+      </c>
+      <c r="G62" s="60" cm="1">
+        <f t="array" ref="G62:P62">_xlfn.FORECAST.LINEAR($G$1:$P$1,B62:F62,$B$1:$F$1)</f>
+        <v>715.90000000000009</v>
+      </c>
+      <c r="H62">
+        <v>827.59999999999991</v>
+      </c>
+      <c r="I62">
+        <v>939.3</v>
+      </c>
+      <c r="J62">
+        <v>1051</v>
+      </c>
+      <c r="K62">
+        <v>1162.7</v>
+      </c>
+      <c r="L62">
+        <v>1274.4000000000001</v>
+      </c>
+      <c r="M62">
+        <v>1386.1000000000001</v>
+      </c>
+      <c r="N62">
+        <v>1497.8000000000002</v>
+      </c>
+      <c r="O62">
+        <v>1609.5</v>
+      </c>
+      <c r="P62">
+        <v>1721.2</v>
+      </c>
+      <c r="Q62" s="60">
+        <f t="shared" si="17"/>
+        <v>12185.5</v>
+      </c>
+      <c r="R62" s="60">
+        <f>9.47*1000</f>
+        <v>9470</v>
+      </c>
+      <c r="S62" s="46">
+        <f t="shared" si="18"/>
+        <v>1.2867476240760296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A63" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63" s="60">
+        <v>1197</v>
+      </c>
+      <c r="C63" s="60">
+        <v>2146</v>
+      </c>
+      <c r="D63" s="60">
+        <v>1680</v>
+      </c>
+      <c r="E63" s="60">
+        <v>2917</v>
+      </c>
+      <c r="F63" s="60">
+        <v>2960</v>
+      </c>
+      <c r="G63" s="60" cm="1">
+        <f t="array" ref="G63:P63">_xlfn.FORECAST.LINEAR($G$1:$P$1,B63:F63,$B$1:$F$1)</f>
+        <v>3469.1</v>
+      </c>
+      <c r="H63">
+        <v>3898.8</v>
+      </c>
+      <c r="I63">
+        <v>4328.5</v>
+      </c>
+      <c r="J63">
+        <v>4758.2</v>
+      </c>
+      <c r="K63">
+        <v>5187.8999999999996</v>
+      </c>
+      <c r="L63">
+        <v>5617.6</v>
+      </c>
+      <c r="M63">
+        <v>6047.2999999999993</v>
+      </c>
+      <c r="N63">
+        <v>6477</v>
+      </c>
+      <c r="O63">
+        <v>6906.7000000000007</v>
+      </c>
+      <c r="P63">
+        <v>7336.4</v>
+      </c>
+      <c r="Q63" s="60">
+        <f t="shared" si="17"/>
+        <v>54027.499999999993</v>
+      </c>
+      <c r="R63" s="60">
+        <f>18.93*1000</f>
+        <v>18930</v>
+      </c>
+      <c r="S63" s="46">
+        <f t="shared" si="18"/>
+        <v>2.8540676175382984</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A64" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="60">
+        <v>753</v>
+      </c>
+      <c r="C64" s="60">
+        <v>708</v>
+      </c>
+      <c r="D64" s="60">
+        <v>564</v>
+      </c>
+      <c r="E64" s="60">
+        <v>235</v>
+      </c>
+      <c r="F64" s="60">
+        <v>1026</v>
+      </c>
+      <c r="G64" s="60" cm="1">
+        <f t="array" ref="G64:P64">_xlfn.FORECAST.LINEAR($G$1:$P$1,B64:F64,$B$1:$F$1)</f>
+        <v>679.1</v>
+      </c>
+      <c r="H64" s="60">
+        <v>686.40000000000009</v>
+      </c>
+      <c r="I64">
+        <v>693.7</v>
+      </c>
+      <c r="J64">
+        <v>701.00000000000011</v>
+      </c>
+      <c r="K64">
+        <v>708.30000000000007</v>
+      </c>
+      <c r="L64">
+        <v>715.6</v>
+      </c>
+      <c r="M64">
+        <v>722.90000000000009</v>
+      </c>
+      <c r="N64">
+        <v>730.2</v>
+      </c>
+      <c r="O64">
+        <v>737.50000000000011</v>
+      </c>
+      <c r="P64">
+        <v>744.80000000000007</v>
+      </c>
+      <c r="Q64" s="60">
+        <f t="shared" ref="Q64:Q69" si="19">SUM(G64:P64)</f>
+        <v>7119.5</v>
+      </c>
+      <c r="R64" s="60">
+        <f>3.89*1000</f>
+        <v>3890</v>
+      </c>
+      <c r="S64" s="46">
+        <f t="shared" ref="S64:S69" si="20">Q64/R64</f>
+        <v>1.8302056555269923</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A65" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="60">
+        <v>3245</v>
+      </c>
+      <c r="C65" s="60">
+        <v>2319</v>
+      </c>
+      <c r="D65" s="60">
+        <v>-585</v>
+      </c>
+      <c r="E65" s="60">
+        <v>2004</v>
+      </c>
+      <c r="F65" s="60">
+        <v>2381</v>
+      </c>
+      <c r="G65" s="60" cm="1">
+        <f t="array" ref="G65:P65">_xlfn.FORECAST.LINEAR($G$1:$P$1,B65:F65,$B$1:$F$1)</f>
+        <v>1259.8999999999996</v>
+      </c>
+      <c r="H65" s="60">
+        <v>1055.5999999999995</v>
+      </c>
+      <c r="I65">
+        <v>851.2999999999995</v>
+      </c>
+      <c r="J65">
+        <v>646.99999999999955</v>
+      </c>
+      <c r="K65">
+        <v>442.69999999999936</v>
+      </c>
+      <c r="L65">
+        <v>238.39999999999918</v>
+      </c>
+      <c r="M65">
+        <v>34.099999999999454</v>
+      </c>
+      <c r="N65">
+        <v>-170.20000000000073</v>
+      </c>
+      <c r="O65">
+        <v>-374.50000000000091</v>
+      </c>
+      <c r="P65">
+        <v>-578.80000000000064</v>
+      </c>
+      <c r="Q65" s="60">
+        <f t="shared" si="19"/>
+        <v>3405.4999999999932</v>
+      </c>
+      <c r="R65" s="60">
+        <f>13.2*1000</f>
+        <v>13200</v>
+      </c>
+      <c r="S65" s="46">
+        <f t="shared" si="20"/>
+        <v>0.25799242424242375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A66" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="B66" s="60">
+        <v>319</v>
+      </c>
+      <c r="C66" s="60">
+        <v>454</v>
+      </c>
+      <c r="D66" s="60">
+        <v>512</v>
+      </c>
+      <c r="E66" s="60">
+        <v>567</v>
+      </c>
+      <c r="F66" s="60">
+        <v>537</v>
+      </c>
+      <c r="G66" s="60" cm="1">
+        <f t="array" ref="G66:P66">_xlfn.FORECAST.LINEAR($G$1:$P$1,B66:F66,$B$1:$F$1)</f>
+        <v>642.5</v>
+      </c>
+      <c r="H66">
+        <v>697.40000000000009</v>
+      </c>
+      <c r="I66">
+        <v>752.3</v>
+      </c>
+      <c r="J66">
+        <v>807.2</v>
+      </c>
+      <c r="K66">
+        <v>862.1</v>
+      </c>
+      <c r="L66">
+        <v>917</v>
+      </c>
+      <c r="M66">
+        <v>971.9</v>
+      </c>
+      <c r="N66">
+        <v>1026.8</v>
+      </c>
+      <c r="O66">
+        <v>1081.7</v>
+      </c>
+      <c r="P66">
+        <v>1136.5999999999999</v>
+      </c>
+      <c r="Q66" s="60">
+        <f t="shared" si="19"/>
+        <v>8895.5</v>
+      </c>
+      <c r="R66" s="60">
+        <f>18.27*1000</f>
+        <v>18270</v>
+      </c>
+      <c r="S66" s="46">
+        <f t="shared" si="20"/>
+        <v>0.48689107827038863</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A67" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="B67">
+        <v>-458</v>
+      </c>
+      <c r="C67">
+        <v>-728</v>
+      </c>
+      <c r="D67">
+        <v>342</v>
+      </c>
+      <c r="E67">
+        <v>236</v>
+      </c>
+      <c r="F67">
+        <v>1071</v>
+      </c>
+      <c r="G67" s="60" cm="1">
+        <f t="array" ref="G67:P67">_xlfn.FORECAST.LINEAR($G$1:$P$1,B67:F67,$B$1:$F$1)</f>
+        <v>1299.1999999999998</v>
+      </c>
+      <c r="H67">
+        <v>1701.4</v>
+      </c>
+      <c r="I67">
+        <v>2103.6</v>
+      </c>
+      <c r="J67">
+        <v>2505.7999999999997</v>
+      </c>
+      <c r="K67">
+        <v>2908</v>
+      </c>
+      <c r="L67">
+        <v>3310.2</v>
+      </c>
+      <c r="M67">
+        <v>3712.3999999999996</v>
+      </c>
+      <c r="N67">
+        <v>4114.5999999999995</v>
+      </c>
+      <c r="O67">
+        <v>4516.8</v>
+      </c>
+      <c r="P67">
+        <v>4919</v>
+      </c>
+      <c r="Q67" s="60">
+        <f t="shared" si="19"/>
+        <v>31090.999999999996</v>
+      </c>
+      <c r="R67">
         <f>7.01*1000</f>
         <v>7010</v>
       </c>
-      <c r="S59" s="46">
-        <f t="shared" si="18"/>
-        <v>1.4542082738944362</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A60" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="B60" s="60">
-        <v>2251</v>
-      </c>
-      <c r="C60" s="60">
-        <v>2072</v>
-      </c>
-      <c r="D60" s="60">
-        <v>2378</v>
-      </c>
-      <c r="E60" s="60">
-        <v>1800</v>
-      </c>
-      <c r="F60" s="60">
-        <v>47</v>
-      </c>
-      <c r="G60" s="60" cm="1">
-        <f t="array" ref="G60:P60">_xlfn.FORECAST.LINEAR($G$1:$P$1,B60:F60,$B$1:$F$1)</f>
-        <v>305.59999999999991</v>
-      </c>
-      <c r="H60">
-        <v>-162.40000000000009</v>
-      </c>
-      <c r="I60" s="60">
-        <v>-630.40000000000009</v>
-      </c>
-      <c r="J60">
-        <v>-1098.4000000000001</v>
-      </c>
-      <c r="K60">
-        <v>-1566.4</v>
-      </c>
-      <c r="L60">
-        <v>-2034.4</v>
-      </c>
-      <c r="M60">
-        <v>-2502.4</v>
-      </c>
-      <c r="N60">
-        <v>-2970.4</v>
-      </c>
-      <c r="O60">
-        <v>-3438.4</v>
-      </c>
-      <c r="P60">
-        <v>-3906.4</v>
-      </c>
-      <c r="Q60" s="60">
-        <f t="shared" si="17"/>
-        <v>-18004</v>
-      </c>
-      <c r="R60" s="60">
-        <f>7.74*1000</f>
-        <v>7740</v>
-      </c>
-      <c r="S60" s="46">
-        <f t="shared" si="18"/>
-        <v>-2.3260981912144705</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A61" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="B61" s="60">
-        <v>4512</v>
-      </c>
-      <c r="C61" s="60">
-        <v>6861</v>
-      </c>
-      <c r="D61" s="60">
-        <v>4003</v>
-      </c>
-      <c r="E61" s="60">
-        <v>3111</v>
-      </c>
-      <c r="F61" s="60">
-        <v>6399</v>
-      </c>
-      <c r="G61" s="60" cm="1">
-        <f t="array" ref="G61:P61">_xlfn.FORECAST.LINEAR($G$1:$P$1,B61:F61,$B$1:$F$1)</f>
-        <v>4984.3999999999996</v>
-      </c>
-      <c r="H61">
-        <v>4986.8</v>
-      </c>
-      <c r="I61">
-        <v>4989.2</v>
-      </c>
-      <c r="J61">
-        <v>4991.6000000000004</v>
-      </c>
-      <c r="K61">
-        <v>4994</v>
-      </c>
-      <c r="L61">
-        <v>4996.3999999999996</v>
-      </c>
-      <c r="M61">
-        <v>4998.8</v>
-      </c>
-      <c r="N61">
-        <v>5001.2</v>
-      </c>
-      <c r="O61">
-        <v>5003.6000000000004</v>
-      </c>
-      <c r="P61">
-        <v>5006</v>
-      </c>
-      <c r="Q61" s="60">
-        <f t="shared" si="17"/>
-        <v>49952</v>
-      </c>
-      <c r="R61" s="60">
-        <f>83.13*1000</f>
-        <v>83130</v>
-      </c>
-      <c r="S61" s="46">
-        <f t="shared" si="18"/>
-        <v>0.60089017201972816</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A62" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="B62" s="60">
-        <v>563</v>
-      </c>
-      <c r="C62" s="60">
-        <v>907</v>
-      </c>
-      <c r="D62" s="60">
-        <v>1168</v>
-      </c>
-      <c r="E62" s="60">
-        <v>839</v>
-      </c>
-      <c r="F62" s="60">
-        <v>969</v>
-      </c>
-      <c r="G62" s="60" cm="1">
-        <f t="array" ref="G62:P62">_xlfn.FORECAST.LINEAR($G$1:$P$1,B62:F62,$B$1:$F$1)</f>
-        <v>1112.4000000000001</v>
-      </c>
-      <c r="H62">
-        <v>1186.8000000000002</v>
-      </c>
-      <c r="I62">
-        <v>1261.2</v>
-      </c>
-      <c r="J62">
-        <v>1335.6</v>
-      </c>
-      <c r="K62">
-        <v>1410</v>
-      </c>
-      <c r="L62">
-        <v>1484.4</v>
-      </c>
-      <c r="M62">
-        <v>1558.8000000000002</v>
-      </c>
-      <c r="N62">
-        <v>1633.2</v>
-      </c>
-      <c r="O62">
-        <v>1707.6000000000001</v>
-      </c>
-      <c r="P62">
-        <v>1782</v>
-      </c>
-      <c r="Q62" s="60">
-        <f t="shared" si="17"/>
-        <v>14472.000000000002</v>
-      </c>
-      <c r="R62" s="60">
-        <f>15.33 * 1000</f>
-        <v>15330</v>
-      </c>
-      <c r="S62" s="46">
-        <f t="shared" si="18"/>
-        <v>0.94403131115459893</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A63" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="B63" s="60">
-        <v>136</v>
-      </c>
-      <c r="C63" s="60">
-        <v>372</v>
-      </c>
-      <c r="D63" s="60">
-        <v>224</v>
-      </c>
-      <c r="E63" s="60">
-        <v>583</v>
-      </c>
-      <c r="F63" s="60">
-        <v>589</v>
-      </c>
-      <c r="G63" s="60" cm="1">
-        <f t="array" ref="G63:P63">_xlfn.FORECAST.LINEAR($G$1:$P$1,B63:F63,$B$1:$F$1)</f>
-        <v>715.90000000000009</v>
-      </c>
-      <c r="H63">
-        <v>827.59999999999991</v>
-      </c>
-      <c r="I63">
-        <v>939.3</v>
-      </c>
-      <c r="J63">
-        <v>1051</v>
-      </c>
-      <c r="K63">
-        <v>1162.7</v>
-      </c>
-      <c r="L63">
-        <v>1274.4000000000001</v>
-      </c>
-      <c r="M63">
-        <v>1386.1000000000001</v>
-      </c>
-      <c r="N63">
-        <v>1497.8000000000002</v>
-      </c>
-      <c r="O63">
-        <v>1609.5</v>
-      </c>
-      <c r="P63">
-        <v>1721.2</v>
-      </c>
-      <c r="Q63" s="60">
-        <f t="shared" si="17"/>
-        <v>12185.5</v>
-      </c>
-      <c r="R63" s="60">
-        <f>9.47*1000</f>
-        <v>9470</v>
-      </c>
-      <c r="S63" s="46">
-        <f t="shared" si="18"/>
-        <v>1.2867476240760296</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A64" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="B64" s="60">
-        <v>1197</v>
-      </c>
-      <c r="C64" s="60">
-        <v>2146</v>
-      </c>
-      <c r="D64" s="60">
-        <v>1680</v>
-      </c>
-      <c r="E64" s="60">
-        <v>2917</v>
-      </c>
-      <c r="F64" s="60">
-        <v>2960</v>
-      </c>
-      <c r="G64" s="60" cm="1">
-        <f t="array" ref="G64:P64">_xlfn.FORECAST.LINEAR($G$1:$P$1,B64:F64,$B$1:$F$1)</f>
-        <v>3469.1</v>
-      </c>
-      <c r="H64">
-        <v>3898.8</v>
-      </c>
-      <c r="I64">
-        <v>4328.5</v>
-      </c>
-      <c r="J64">
-        <v>4758.2</v>
-      </c>
-      <c r="K64">
-        <v>5187.8999999999996</v>
-      </c>
-      <c r="L64">
-        <v>5617.6</v>
-      </c>
-      <c r="M64">
-        <v>6047.2999999999993</v>
-      </c>
-      <c r="N64">
-        <v>6477</v>
-      </c>
-      <c r="O64">
-        <v>6906.7000000000007</v>
-      </c>
-      <c r="P64">
-        <v>7336.4</v>
-      </c>
-      <c r="Q64" s="60">
-        <f t="shared" si="17"/>
-        <v>54027.499999999993</v>
-      </c>
-      <c r="R64" s="60">
-        <f>18.93*1000</f>
-        <v>18930</v>
-      </c>
-      <c r="S64" s="46">
-        <f t="shared" si="18"/>
-        <v>2.8540676175382984</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A65" t="s">
-        <v>199</v>
-      </c>
-      <c r="B65" s="60">
-        <v>753</v>
-      </c>
-      <c r="C65" s="60">
-        <v>708</v>
-      </c>
-      <c r="D65" s="60">
-        <v>564</v>
-      </c>
-      <c r="E65" s="60">
-        <v>235</v>
-      </c>
-      <c r="F65" s="60">
-        <v>1026</v>
-      </c>
-      <c r="G65" s="60" cm="1">
-        <f t="array" ref="G65:P65">_xlfn.FORECAST.LINEAR($G$1:$P$1,B65:F65,$B$1:$F$1)</f>
-        <v>679.1</v>
-      </c>
-      <c r="H65" s="60">
-        <v>686.40000000000009</v>
-      </c>
-      <c r="I65">
-        <v>693.7</v>
-      </c>
-      <c r="J65">
-        <v>701.00000000000011</v>
-      </c>
-      <c r="K65">
-        <v>708.30000000000007</v>
-      </c>
-      <c r="L65">
-        <v>715.6</v>
-      </c>
-      <c r="M65">
-        <v>722.90000000000009</v>
-      </c>
-      <c r="N65">
-        <v>730.2</v>
-      </c>
-      <c r="O65">
-        <v>737.50000000000011</v>
-      </c>
-      <c r="P65">
-        <v>744.80000000000007</v>
-      </c>
-      <c r="Q65" s="60">
-        <f>SUM(G65:P65)</f>
-        <v>7119.5</v>
-      </c>
-      <c r="R65" s="60">
-        <f>3.89*1000</f>
-        <v>3890</v>
-      </c>
-      <c r="S65" s="46">
-        <f>Q65/R65</f>
-        <v>1.8302056555269923</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A66" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="B66" s="60">
-        <v>3245</v>
-      </c>
-      <c r="C66" s="60">
-        <v>2319</v>
-      </c>
-      <c r="D66" s="60">
-        <v>-585</v>
-      </c>
-      <c r="E66" s="60">
-        <v>2004</v>
-      </c>
-      <c r="F66" s="60">
-        <v>2381</v>
-      </c>
-      <c r="G66" s="60" cm="1">
-        <f t="array" ref="G66:P66">_xlfn.FORECAST.LINEAR($G$1:$P$1,B66:F66,$B$1:$F$1)</f>
-        <v>1259.8999999999996</v>
-      </c>
-      <c r="H66" s="60">
-        <v>1055.5999999999995</v>
-      </c>
-      <c r="I66">
-        <v>851.2999999999995</v>
-      </c>
-      <c r="J66">
-        <v>646.99999999999955</v>
-      </c>
-      <c r="K66">
-        <v>442.69999999999936</v>
-      </c>
-      <c r="L66">
-        <v>238.39999999999918</v>
-      </c>
-      <c r="M66">
-        <v>34.099999999999454</v>
-      </c>
-      <c r="N66">
-        <v>-170.20000000000073</v>
-      </c>
-      <c r="O66">
-        <v>-374.50000000000091</v>
-      </c>
-      <c r="P66">
-        <v>-578.80000000000064</v>
-      </c>
-      <c r="Q66" s="60">
-        <f>SUM(G66:P66)</f>
-        <v>3405.4999999999932</v>
-      </c>
-      <c r="R66" s="60">
-        <f>13.2*1000</f>
-        <v>13200</v>
-      </c>
-      <c r="S66" s="46">
-        <f>Q66/R66</f>
-        <v>0.25799242424242375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A67" s="60" t="s">
-        <v>376</v>
-      </c>
-      <c r="B67" s="60">
-        <v>319</v>
-      </c>
-      <c r="C67" s="60">
-        <v>454</v>
-      </c>
-      <c r="D67" s="60">
-        <v>512</v>
-      </c>
-      <c r="E67" s="60">
-        <v>567</v>
-      </c>
-      <c r="F67" s="60">
-        <v>537</v>
-      </c>
-      <c r="G67" s="60" cm="1">
-        <f t="array" ref="G67:P67">_xlfn.FORECAST.LINEAR($G$1:$P$1,B67:F67,$B$1:$F$1)</f>
-        <v>642.5</v>
-      </c>
-      <c r="H67">
-        <v>697.40000000000009</v>
-      </c>
-      <c r="I67">
-        <v>752.3</v>
-      </c>
-      <c r="J67">
-        <v>807.2</v>
-      </c>
-      <c r="K67">
-        <v>862.1</v>
-      </c>
-      <c r="L67">
-        <v>917</v>
-      </c>
-      <c r="M67">
-        <v>971.9</v>
-      </c>
-      <c r="N67">
-        <v>1026.8</v>
-      </c>
-      <c r="O67">
-        <v>1081.7</v>
-      </c>
-      <c r="P67">
-        <v>1136.5999999999999</v>
-      </c>
-      <c r="Q67" s="60">
-        <f>SUM(G67:P67)</f>
-        <v>8895.5</v>
-      </c>
-      <c r="R67" s="60">
-        <f>18.27*1000</f>
-        <v>18270</v>
-      </c>
       <c r="S67" s="46">
-        <f>Q67/R67</f>
-        <v>0.48689107827038863</v>
+        <f t="shared" si="20"/>
+        <v>4.4352353780313836</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A68" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="B68">
-        <v>-458</v>
-      </c>
-      <c r="C68">
-        <v>-728</v>
-      </c>
-      <c r="D68">
-        <v>342</v>
-      </c>
-      <c r="E68">
-        <v>236</v>
-      </c>
-      <c r="F68">
-        <v>1071</v>
+        <v>315</v>
+      </c>
+      <c r="B68" s="60">
+        <v>269</v>
+      </c>
+      <c r="C68" s="60">
+        <v>278</v>
+      </c>
+      <c r="D68" s="60">
+        <v>322</v>
+      </c>
+      <c r="E68" s="60">
+        <v>44</v>
+      </c>
+      <c r="F68" s="60">
+        <v>27</v>
       </c>
       <c r="G68" s="60" cm="1">
         <f t="array" ref="G68:P68">_xlfn.FORECAST.LINEAR($G$1:$P$1,B68:F68,$B$1:$F$1)</f>
-        <v>1299.1999999999998</v>
+        <v>-27.399999999999977</v>
       </c>
       <c r="H68">
-        <v>1701.4</v>
+        <v>-99.199999999999989</v>
       </c>
       <c r="I68">
-        <v>2103.6</v>
+        <v>-171</v>
       </c>
       <c r="J68">
-        <v>2505.7999999999997</v>
+        <v>-242.79999999999995</v>
       </c>
       <c r="K68">
-        <v>2908</v>
+        <v>-314.60000000000002</v>
       </c>
       <c r="L68">
-        <v>3310.2</v>
+        <v>-386.4</v>
       </c>
       <c r="M68">
-        <v>3712.3999999999996</v>
+        <v>-458.19999999999993</v>
       </c>
       <c r="N68">
-        <v>4114.5999999999995</v>
+        <v>-530</v>
       </c>
       <c r="O68">
-        <v>4516.8</v>
+        <v>-601.79999999999995</v>
       </c>
       <c r="P68">
-        <v>4919</v>
+        <v>-673.6</v>
       </c>
       <c r="Q68" s="60">
-        <f>SUM(G68:P68)</f>
-        <v>31090.999999999996</v>
+        <f t="shared" si="19"/>
+        <v>-3504.9999999999995</v>
       </c>
       <c r="R68">
-        <f>7.01*1000</f>
-        <v>7010</v>
+        <f>5.35*1000</f>
+        <v>5350</v>
       </c>
       <c r="S68" s="46">
-        <f>Q68/R68</f>
-        <v>4.4352353780313836</v>
+        <f t="shared" si="20"/>
+        <v>-0.65514018691588771</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A69" s="60" t="s">
-        <v>315</v>
+        <v>714</v>
       </c>
       <c r="B69" s="60">
-        <v>269</v>
+        <v>-49</v>
       </c>
       <c r="C69" s="60">
-        <v>278</v>
+        <v>-7</v>
       </c>
       <c r="D69" s="60">
-        <v>322</v>
+        <v>70</v>
       </c>
       <c r="E69" s="60">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="F69" s="60">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="G69" s="60" cm="1">
         <f t="array" ref="G69:P69">_xlfn.FORECAST.LINEAR($G$1:$P$1,B69:F69,$B$1:$F$1)</f>
-        <v>-27.399999999999977</v>
+        <v>317.7</v>
       </c>
       <c r="H69">
-        <v>-99.199999999999989</v>
+        <v>395.00000000000006</v>
       </c>
       <c r="I69">
-        <v>-171</v>
+        <v>472.3</v>
       </c>
       <c r="J69">
-        <v>-242.79999999999995</v>
+        <v>549.59999999999991</v>
       </c>
       <c r="K69">
-        <v>-314.60000000000002</v>
+        <v>626.90000000000009</v>
       </c>
       <c r="L69">
-        <v>-386.4</v>
+        <v>704.2</v>
       </c>
       <c r="M69">
-        <v>-458.19999999999993</v>
+        <v>781.5</v>
       </c>
       <c r="N69">
-        <v>-530</v>
+        <v>858.8</v>
       </c>
       <c r="O69">
-        <v>-601.79999999999995</v>
+        <v>936.10000000000014</v>
       </c>
       <c r="P69">
-        <v>-673.6</v>
+        <v>1013.4000000000001</v>
       </c>
       <c r="Q69" s="60">
         <f>SUM(G69:P69)</f>
-        <v>-3504.9999999999995</v>
+        <v>6655.5</v>
       </c>
       <c r="R69">
-        <f>5.35*1000</f>
-        <v>5350</v>
+        <f>2.76*1000</f>
+        <v>2760</v>
       </c>
       <c r="S69" s="46">
-        <f>Q69/R69</f>
-        <v>-0.65514018691588771</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="C74" s="60"/>
+        <f t="shared" si="20"/>
+        <v>2.411413043478261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="C73" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47705,4 +47708,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{87867195-f2b8-4ac2-b0b6-6bb73cb33afc}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+</clbl:labelList>
 </file>